--- a/Raw_data.xlsx
+++ b/Raw_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tweet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2731F2-807E-4CB9-9496-546046FD585B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D13829-C93E-49ED-8FDF-C9E521DEE767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1FBBC6F7-9289-4750-92EB-8312862BE21F}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$2035</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$2134</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2135" uniqueCount="2119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2135" uniqueCount="2105">
   <si>
     <t>sandandeeiopleqwโอ้ยเนอะมาตรวจสอบให้ชัชชาติทำงานตรงจุดไหนดีกว่ามาวิจารณ์ไม่มีมูลดีกว่าครับ</t>
   </si>
@@ -5162,15 +5162,6 @@
     <t>วันลูกเพจแตกเวปนี้ที่พึ่งลงฝากแค่บาทได้ถอนสุดจัดทุนบาทใครจะเอารอหน้าโปรไฟล์เวลาที่นัดหมายยยยมีเครดิตฟรีสายเขียวแจกจริง</t>
   </si>
   <si>
-    <t>lavaslotssรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>bughuukeyรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>metasรับเครดิตฟรี</t>
-  </si>
-  <si>
     <t>กุนัดผู้ชายกินข้าวแปดโมงตีสี่ครึ่งยังไม่เสด็จบรรทมเลยหมาตายลอยน้ำว่าจะไม่นอนละไม่งั้นตื่นไม่ทันเสียเครดิต</t>
   </si>
   <si>
@@ -5183,12 +5174,6 @@
     <t>handholdingheartเครดิตฟรี฿ไม่ติดเงื่อนไขไม่ต้องทำกิจกรรมbluecheckmarkเว็บเดียวครบจบทุกอย่างfireรับทุนฟรีเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์เครดิตฟรีล่าสุดเครดิตฟรีแจกเครดิตฟรีโค้ดเครดิตฟรีแจกโค้ดฟรีทุนฟรีtexas</t>
   </si>
   <si>
-    <t>olofirstzaรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>pgรับเครดิตฟรี</t>
-  </si>
-  <si>
     <t>ppaungphetแจกจัดหนักhandholdingheartเครดิตฟรี฿ไม่ติดเงื่อนไขไม่ต้องทำกิจกรรมbluecheckmarkเว็บเดียวครบจบทุกอย่างfireรับทุนฟรีเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์เครดิตฟรีล่าสุดเครดิตฟรีแจกเครดิตฟรีโค้ดเครดิตฟรีแจกโค้ดฟรีทุนฟรี</t>
   </si>
   <si>
@@ -5198,153 +5183,39 @@
     <t>codecrlkvmyvkทางเข้าเว็บไซต์ขั้นตอนการใส่โค๊ดนำโค้ดไปใส่ช่องกรอกโค้ดกดรับเครดิตฟรีที่ช่องโบนัสฟรีรับเครดิตฟรีเพิ่ม฿ไลน์</t>
   </si>
   <si>
-    <t>exoexoรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>ceditfreeเครดิตฟรี</t>
-  </si>
-  <si>
     <t>แอพใหม่แตกดีแจกเครดิตฟรีเครดิตไม่ต้องฝากไม่ต้องแชร์เพียงแค่สมัครก็รับไปเลยกดรีทวิตกดหัวใจกดติดตามสนใจรับกดเข้าไปเลยgtgtgtหรือแอดไลน์nvipเครดิตฟรีสมัครรับเครดิตฟรีไบเบิ้ลบิวแจกเครดิตฟรีไม่ต้องมีวีไอพีก็ได้นะ</t>
   </si>
   <si>
     <t>slotenyแจกทุนฟรีบเครดิตฟรีถอนได้บาทพิเศษโปรโมชั่นรับทำยอดถอนได้ไม่อั้นยูสเซอร์รับได้สิทธิ์เครดิตฟรีไม่ต้องฝากก่อนรีทวิตกดใจแคปส่งให้แอดมินรับที่นี่</t>
   </si>
   <si>
-    <t>creditfreeเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>ceditเครดิตฟรีล่าสุด</t>
-  </si>
-  <si>
-    <t>lvaabrtรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>ppaungphetรับเครดิตฟรี</t>
-  </si>
-  <si>
     <t>lavagameแจกเครดิตฟรีแตกหนักlavalavagameเครดิตฟรีไม่ต้องฝากก่อน</t>
   </si>
   <si>
-    <t>heahmodtudรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>phicamihiwlaewรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>ezybetcเครดิตฟรีแจกจิงชอบ</t>
-  </si>
-  <si>
-    <t>slotlavagameรับเครดิตฟรี</t>
-  </si>
-  <si>
     <t>witthawแจกจัดหนักhandholdingheartเครดิตฟรี฿ไม่ติดเงื่อนไขไม่ต้องทำกิจกรรมbluecheckmarkเว็บเดียวครบจบทุกอย่างfireรับทุนฟรีเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์เครดิตฟรีล่าสุดเครดิตฟรีแจกเครดิตฟรีโค้ดเครดิตฟรีแจกโค้ดฟรีทุนฟรี</t>
   </si>
   <si>
-    <t>lavaรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>รับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>playgameppรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>paezalavacomplexเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>legacyรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>creditfreeรับเครดิตฟรี</t>
-  </si>
-  <si>
     <t>nigmaเเจกเครดิตฟรีสมัครวันนี้รับฟรีไม่ต้องฝากก่อนขอรับได้ทันทีรับได้ทุกวันคลิก</t>
   </si>
   <si>
-    <t>skabetรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>pgslotแจกเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>tawannnรับเครดิตทุนฟรีlucabetเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>lavacasinoแจกจริงเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>ceditเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>ufatwentyfourรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>metasเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>fncoมารับเครดิตฟรีค้าบ</t>
-  </si>
-  <si>
-    <t>bombhรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>fenixfreefenixfreeรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>mawinเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>lucaccรับเครดิตฟรี</t>
-  </si>
-  <si>
     <t>xbetใหม่โปรใหม่พิเศษสุดคุ้มแตกง่ายรับทำถอนรับทำถอนรับทำถอนรับทำถอนสมัครยูสฟรีเครดิตฟรีสล็อตxbetสล็อตสล็อตเว็บตรงสล็อตแตกง่ายสล็อตเครดิตฟรี</t>
   </si>
   <si>
-    <t>zeedhรับเครดิตฟรี</t>
-  </si>
-  <si>
     <t>เติมที่นี้สนใจฝากแนะนำโปรรับทำถอนสูงสุดรับเครดิตฟรีเพิ่มที่นี่</t>
   </si>
   <si>
-    <t>mrhallowwinเเจกเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>xgameแจกเครดิตฟรีxgame</t>
-  </si>
-  <si>
-    <t>pongtorรับเครดิตฟรี</t>
-  </si>
-  <si>
     <t>lavavipแจกเครดิตฟรีแตกหนักlavalavagameเครดิตฟรีไม่ต้องฝากก่อน</t>
   </si>
   <si>
-    <t>lvaabrtรับเครดิต</t>
-  </si>
-  <si>
     <t>วันนี้รับเครดิตฟรีกันหรือยังxbetvเขาอออกทุนให้เล่นฟรีไม่มีค่าใช้จ่ายใดๆและสามารถถอนเป็นเงินสดเข้าบัญชีได้อีกด้วยเรารับและถอนมาแล้วเลยมาบอกต่อเข้ารับที่สล็อตสล็อตเครดิตฟรีสล็อตpgเว็บตรงสล็อตแตกง่ายเครดิตฟรีไม่ต้องฝากเครดิตฟรี</t>
   </si>
   <si>
-    <t>ceditfreeรับเครดิตฟรี</t>
-  </si>
-  <si>
     <t>freeslotแจกจัดหนักhandholdingheartเครดิตฟรี฿ไม่ติดเงื่อนไขไม่ต้องทำกิจกรรมbluecheckmarkเว็บเดียวครบจบทุกอย่างfireรับทุนฟรีเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์เครดิตฟรีล่าสุดเครดิตฟรีแจกเครดิตฟรีโค้ดเครดิตฟรีแจกโค้ดฟรีทุนฟรี</t>
   </si>
   <si>
     <t>nmarimotoเปิดระบบบใหม่แจกเครดิตฟรีแจกเครดิตฟรีไม่ต้องฝากก่อนกดรีทวิตโพสน์นี้กดหัวใจคลิก</t>
   </si>
   <si>
-    <t>lvaabrtlavabetรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>fernmeรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>pgltdofficialเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>matarosidalvaabrtรับเครดิต</t>
-  </si>
-  <si>
     <t>aoaรับแล้วได้จริงเครดิตฟรี</t>
   </si>
   <si>
@@ -5360,96 +5231,27 @@
     <t>porfreeใหม่รับฟรีเครดิตoง่ายๆเพียงสมัครสมาชิกใหม่รับฟรีทันทีoทำยอดooถอนได้ฟรีooบาทสมัครสมาชิกได้ที่นี่เครดิตฟรีแจกจริงถอนได้จริงสล็อตบาคาร่า</t>
   </si>
   <si>
-    <t>grandgamingเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>mrhallowwinรับเครดิตฟรี</t>
-  </si>
-  <si>
     <t>nigmaเเจกเครดิตฟรีสมัครวันนี้รับฟรีไม่ต้องฝากก่อนขอรับได้ทันทีรับได้ทุกวันคลิกเครดิตฟรีเครดิตฟรีล่าสุดสล็อตเว็บตรง</t>
   </si>
   <si>
-    <t>sandeyรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>heiyhoungเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>siamsiannoขอรับเครดิตฟรี</t>
-  </si>
-  <si>
     <t>vใหม่รับฟรีเครดิตoง่ายๆเพียงสมัครสมาชิกใหม่รับฟรีทันทีoทำยอดooถอนได้ฟรีooบาทสมัครสมาชิกได้ที่นี่เครดิตฟรีแจกจริงถอนได้จริงสล็อตบาคาร่า</t>
   </si>
   <si>
-    <t>lavalavalavaเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>xgamthรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>phlxyrwรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>mosxngรับแล้วได้จริงเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>snndeyyรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>bonesเครดิตฟรี</t>
-  </si>
-  <si>
     <t>newclearใหม่รับฟรีเครดิตoง่ายๆเพียงสมัครสมาชิกใหม่รับฟรีทันทีoทำยอดooถอนได้ฟรีooบาทสมัครสมาชิกได้ที่นี่เครดิตฟรีแจกจริงถอนได้จริงสล็อตบาคาร่า</t>
   </si>
   <si>
-    <t>pgltdofficialขอรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>luehแจกเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>yurikaggรับเครดิตฟรี</t>
-  </si>
-  <si>
     <t>bonesmetaแจกเครดิตฟรีรับเครดิตฟรีทางเข้าเล่นเครดิตฟรีเครดิตฟรีล่าสุดฝากรับเครดิตฟรีเครดิตฟรียืนยันเบอร์เครดิตฟรีเครดิตฟรีเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์สล็อตเว็บตรงเว็บตรง</t>
   </si>
   <si>
-    <t>betflixรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>newxiypassเครดิตฟรี</t>
-  </si>
-  <si>
     <t>nigmaเเจกเครดิตฟรีสมัครวันนี้รับฟรีไม่ต้องฝากก่อนขอรับได้ทันทีรับได้ทุกวัน</t>
   </si>
   <si>
-    <t>kherditfrเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>abclinkรับเครดิตฟรี</t>
-  </si>
-  <si>
     <t>เริ่มเลยยเตรียมตัวรวยสู่ขิตแจกทุนฟรีใจดีให้ไม่มีโกงค่ายใหม่ใจใหญ่แจกเครดิตฟรี฿รับฟรีที่เครดิตฟรีเครดิตฟรีแจกเครดิตฟรีเครดิตฟรีล่าสุดเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์allwingameเว็บตรง</t>
   </si>
   <si>
-    <t>hwangfriเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>pitchayanoijaiรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>slotเครดิตฟรีล่าสุด</t>
-  </si>
-  <si>
-    <t>darylanรับเครดิตฟรี</t>
-  </si>
-  <si>
     <t>fazametaแจกเครดิตฟรีรับเครดิตฟรีทางเข้าเล่นเครดิตฟรีเครดิตฟรีล่าสุดฝากรับเครดิตฟรีเครดิตฟรียืนยันเบอร์เครดิตฟรีเครดิตฟรีเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์สล็อตเว็บตรงเว็บตรง</t>
   </si>
   <si>
-    <t>vscautoขอรับเครดิตฟรี</t>
-  </si>
-  <si>
     <t>คอลจริงเช็คเครดิตก่อนโอนได้ค่ะlinerrคอลเสียวเงี่ยน</t>
   </si>
   <si>
@@ -5459,63 +5261,12 @@
     <t>pittayamaxhandholdingheartเครดิตฟรี฿ไม่ติดเงื่อนไขไม่ต้องทำกิจกรรมbluecheckmarkเว็บเดียวครบจบทุกอย่างfireรับทุนฟรีเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์เครดิตฟรีล่าสุดเครดิตฟรีแจกเครดิตฟรีโค้ดเครดิตฟรีแจกโค้ดฟรีทุนฟรีtexas</t>
   </si>
   <si>
-    <t>tkngycycringรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>vipvเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>lvaabrtเครดิตฟรีlavabet</t>
-  </si>
-  <si>
-    <t>ppyเครดิตฟรีล่าสุด</t>
-  </si>
-  <si>
-    <t>propgรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>metasเครดิตฟรีmeta</t>
-  </si>
-  <si>
-    <t>skabetขอรับเครดิตskabet</t>
-  </si>
-  <si>
-    <t>lavacomplexเครดิตฟรี</t>
-  </si>
-  <si>
     <t>freeslothandholdingheartเครดิตฟรี฿ไม่ติดเงื่อนไขไม่ต้องทำกิจกรรมbluecheckmarkเว็บเดียวครบจบทุกอย่างfireรับทุนฟรีเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์เครดิตฟรีล่าสุดเครดิตฟรีแจกเครดิตฟรีโค้ดเครดิตฟรีแจกโค้ดฟรีทุนฟรีtexas</t>
   </si>
   <si>
-    <t>richswitchรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>wthanthongเครดิตฟรีกรอกโค้ดvuqlrqby</t>
-  </si>
-  <si>
-    <t>lavakublavakubรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>mayamayaslotเครดิตฟรีเครดิตฟรีไม่ต้องฝาก</t>
-  </si>
-  <si>
-    <t>nigmacoรับเครดิตฟรี</t>
-  </si>
-  <si>
     <t>fngfxnghandholdingheartเครดิตฟรี฿ไม่ติดเงื่อนไขไม่ต้องทำกิจกรรมbluecheckmarkเว็บเดียวครบจบทุกอย่างfireรับทุนฟรีเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์เครดิตฟรีล่าสุดเครดิตฟรีแจกเครดิตฟรีโค้ดเครดิตฟรีแจกโค้ดฟรีทุนฟรีtexas</t>
   </si>
   <si>
-    <t>แจกเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>legacyรับเครดิต</t>
-  </si>
-  <si>
-    <t>แจกจัดหนักhandholdingheartเครดิตฟรี฿ไม่ติดเงื่อนไขไม่ต้องทำกิจกรรมbluecheckmarkเว็บเดียวครบจบทุกอย่างfireรับทุนฟรีเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์เครดิตฟรีล่าสุดเครดิตฟรีแจกเครดิตฟรีโค้ดเครดิตฟรีแจกโค้ดฟรีทุนฟรี</t>
-  </si>
-  <si>
-    <t>nfaekhxmเครดิตฟรี</t>
-  </si>
-  <si>
     <t>siamsiannoแจกเครดิตฟรีไม่ต้องฝากถอนได้จริงทำยอดบาทถอนได้บาท</t>
   </si>
   <si>
@@ -5525,273 +5276,81 @@
     <t>slxtsayแจกจัดหนักเครดิตฟรี฿ไม่ติดเงื่อนไขไม่ต้องทำกิจกรรมเว็บเดียวครบจบทุกอย่างfireรับทุนฟรีเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์เครดิตฟรีล่าสุดเครดิตฟรีแจกเครดิตฟรีโค้ดเครดิตฟรีแจกโค้ดฟรีทุนฟรีtexas</t>
   </si>
   <si>
-    <t>kherditแจกเครดิตฟรีแตกหนักlavagameslavalavagame</t>
-  </si>
-  <si>
-    <t>amballbetรับเครดิต</t>
-  </si>
-  <si>
-    <t>lavacomeplaxเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>miamiรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>onixtweetเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>olofirstzaเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>freecreditfbiบ่ได้รับเครดิตฝากโลดได้ถอนยุ</t>
-  </si>
-  <si>
-    <t>kingsmanขอรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>lucaccรับเครดิตฟรีครับ</t>
-  </si>
-  <si>
-    <t>phlxyrwเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>jokerjkรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>mgvเครดิตฟรีแจกจริง</t>
-  </si>
-  <si>
     <t>gifzhotxxแจกจัดหนักเครดิตฟรี฿ไม่ติดเงื่อนไขไม่ต้องทำกิจกรรมเว็บเดียวครบจบทุกอย่างfireรับทุนฟรีเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์เครดิตฟรีล่าสุดเครดิตฟรีแจกเครดิตฟรีโค้ดเครดิตฟรีแจกโค้ดฟรีทุนฟรีtexas</t>
   </si>
   <si>
-    <t>frixengแจกเครดิตฟรีแตกหนักlavagameslavalavagame</t>
-  </si>
-  <si>
-    <t>creditรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>nathtiรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>porfreeรับเครดิตฟรี</t>
-  </si>
-  <si>
     <t>yurikaggนักล่าเครดิตฟรีสล็อตpgเครดิตฟรีแจกจริง</t>
   </si>
   <si>
-    <t>zerogameรับเครดิต</t>
-  </si>
-  <si>
-    <t>hengambxbetรับเครดิตฟรี</t>
-  </si>
-  <si>
     <t>ติดตามรีทวีตหัวใจแจกเครดิตฟรีทำยอดถอนได้โปรเติมรับขั้นตอนรับโค้ดฟรีไม่ต้องฝากไม่แชร์ก็นอนสมัครสมาชิกที่เครดิตฟรีไม่ต้องฝากไม่ต้องแชร์เครดิตฟรี</t>
   </si>
   <si>
     <t>sanfrrmetasmetaแจกเครดิตฟรีรับเครดิตฟรีทางเข้าเล่นเครดิตฟรีเครดิตฟรีล่าสุดฝากรับเครดิตฟรีเครดิตฟรียืนยันเบอร์เครดิตฟรีเครดิตฟรีเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์สล็อตเว็บตรงเว็บตรง</t>
   </si>
   <si>
-    <t>lavacomplexแจกเครดิตฟรี</t>
-  </si>
-  <si>
     <t>slotenyแจกทุนฟรีบเครดิตฟรีถอนได้บาทพิเศษโปรโมชั่นรับทำยอดถอนได้ไม่อั้นยูสเซอร์รับได้สิทธิ์เครดิตฟรีไม่ต้องฝากก่อนรีทวิตกดใจแคปส่งให้แอดมินรับที่นี่เครดิตฟรีเครดิตฟรีล่าส</t>
   </si>
   <si>
     <t>mojisexygxแจกจัดหนักเครดิตฟรี฿ไม่ติดเงื่อนไขไม่ต้องทำกิจกรรมเว็บเดียวครบจบทุกอย่างfireรับทุนฟรีเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์เครดิตฟรีล่าสุดเครดิตฟรีแจกเครดิตฟรีโค้ดเครดิตฟรีแจกโค้ดฟรีทุนฟรีtexas</t>
   </si>
   <si>
-    <t>lavacasinoรับเครดิตฟรี</t>
-  </si>
-  <si>
     <t>แจกเครดิตฟรีถอนได้จริงรับฟรีสมัครเครดิตฟรีเครดิตฟรีล่าสุดฝากรับเครดิตฟรียืนยันเบอร์เครดิตฟรีเครดิตฟรีเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์เครดิตฟรีเว็บตรงpgสล็อตสล็อตเว็บตรง</t>
   </si>
   <si>
-    <t>kinfeirnรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>exkalazรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>bangsadแจกเครดิตฟรีแตกหนักlavagameslavalavagame</t>
-  </si>
-  <si>
-    <t>usabเครดิต</t>
-  </si>
-  <si>
-    <t>kherditporนับเครดิตฟรี</t>
-  </si>
-  <si>
     <t>gtaแจกจัดหนักเครดิตฟรี฿ไม่ติดเงื่อนไขไม่ต้องทำกิจกรรมเว็บเดียวครบจบทุกอย่างfireรับทุนฟรีเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์เครดิตฟรีล่าสุดเครดิตฟรีแจกเครดิตฟรีโค้ดเครดิตฟรีแจกโค้ดฟรีทุนฟรีtexas</t>
   </si>
   <si>
     <t>snndeyyนักล่าเครดิตฟรีสล็อตpgเครดิตฟรีแจกจริง</t>
   </si>
   <si>
-    <t>lavaแจกเครดิตฟรี</t>
-  </si>
-  <si>
     <t>sscเว็บตรงอันดับทางเข้าเล่นรับเครดิตฟรีแอดไลน์ตามข่าวสารเครดิตฟรีเครดิตฟรีฝากรับเครดิตฟรียืนยันเบอร์เครดิตฟรีเครดิตฟรีเครดิตฟรีpgสล็อตสล็อตเว็บตรง</t>
   </si>
   <si>
-    <t>ahmuayyรับเครดิตฟรี</t>
-  </si>
-  <si>
     <t>metasmetaแจกเครดิตฟรีรับเครดิตฟรีทางเข้าเล่นเครดิตฟรีเครดิตฟรีล่าสุดฝากรับเครดิตฟรีเครดิตฟรียืนยันเบอร์เครดิตฟรีเครดิตฟรีเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์สล็อตเว็บตรงเว็บตรง</t>
   </si>
   <si>
-    <t>sanchanเครดิตฟรีไม่ต้องฝากก่อน</t>
-  </si>
-  <si>
-    <t>metasขอรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>zerogameขอเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>kingsmanรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>datatosidslothเครดิตแจกจิง</t>
-  </si>
-  <si>
-    <t>lavaslotssเครดิตฟรี</t>
-  </si>
-  <si>
     <t>tigerfinzyแจกจัดหนักเครดิตฟรี฿ไม่ติดเงื่อนไขไม่ต้องทำกิจกรรมเว็บเดียวครบจบทุกอย่างfireรับทุนฟรีเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์เครดิตฟรีล่าสุดเครดิตฟรีแจกเครดิตฟรีโค้ดเครดิตฟรีแจกโค้ดฟรีทุนฟรีtexas</t>
   </si>
   <si>
-    <t>nfaekhxmรับเครดิตฟรี</t>
-  </si>
-  <si>
     <t>wjrtogyhiibiflspfแคปภาพรับเครดิตฟรีทนลองเล่นooสนใจใต้ลิ้งgtgtltltlinespf</t>
   </si>
   <si>
-    <t>kherditporรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>ssnnvqrxlsvtfmnpjebขอรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>usabรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>allroyalgoldรับเครดิตฟรี</t>
-  </si>
-  <si>
     <t>thnakrhxmhwlขอบาทแอดกสิกรไทยslotเครดิตฟรีเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์แจกเงินแจกฟรีแจกเงินฟรีเว็บตรงแจกเครดิตฟรีเว็บพนันเครดิตเกมส์ออนใลน์แตกหนักแจกทุนฟรีเครดิตฟรีไม่ต้องฝากก่อนแจ็คพอทโปรโมชั่นทุนฟรีแจกจริงคาสิโนออนไลน์อันดับสล็อต</t>
   </si>
   <si>
-    <t>ckfrkherditรับเครดิต</t>
-  </si>
-  <si>
-    <t>ipospinfreeขอรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>bonesรับเครดิตฟรี</t>
-  </si>
-  <si>
     <t>slotenyแจกทุนฟรีบเครดิตฟรีถอนได้บาทพิเศษโปรโมชั่นรับทำยอดถอนได้ไม่อั้นยูสเซอร์รับได้สิทธิ์เครดิตฟรีไม่ต้องฝากก่อนรีทวิตกดใจแคปส่งให้แอดมินรับที่นี่เครดิตฟรีล่าสุ</t>
   </si>
   <si>
     <t>nigmaเเจกเครดิตฟรีสมัครวันนี้รับฟรีไม่ต้องฝากก่อนขอรับได้ทันทีรับได้ทุกวันคลิกเครดิตฟรีเครดิตฟรีล่าสุดสล็อตเว็บตรงทำครบส่งหลักฐานให้แอดมินนะคะสล็อตเว็บตรงเเจกจริงnigma</t>
   </si>
   <si>
-    <t>niphapronรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>pgthรับเครดิตฟรี</t>
-  </si>
-  <si>
     <t>noarเครดิตฟรีล่าสุดเครดิตฟรีไม่ต้องฝากเครดิตฟรีกดรับเอง</t>
   </si>
   <si>
-    <t>ohmzaรับแล้วได้จริงเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>lavagameadwinเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>lvaabrtlvaabrtรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>zerogameเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>mvpdragonรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>lavagameadwinlavaเครดิตฟรี</t>
-  </si>
-  <si>
     <t>slotenyแจกทุนฟรีบเครดิตฟรีถอนได้บาทพิเศษโปรโมชั่นรับทำยอดถอนได้ไม่อั้นยูสเซอร์รับได้สิทธิ์เครดิตฟรีไม่ต้องฝากก่อน</t>
   </si>
   <si>
-    <t>nmarimotoรับเครดิตฟรี</t>
-  </si>
-  <si>
     <t>เครดิตฟรีล่าสุดไม่ต้องฝากไม่ต้องแชร์บาททำยอดะอนได้แคปภาพแรกส่งให้แอดมินกดติดตามรีทวิตกดใจลิงค์</t>
   </si>
   <si>
-    <t>mvpdragonรับเครดิตฟรีแจกจริง</t>
-  </si>
-  <si>
-    <t>ufahubแจกเครดิตฟรี</t>
-  </si>
-  <si>
     <t>ตื่นแล้วนะคะว่างพร้อมคอลคอลจริงค่ะมีเครดิตเพียบคอลเสียวteyy</t>
   </si>
   <si>
-    <t>lavalavalavaรับเครดิตฟรี</t>
-  </si>
-  <si>
     <t>แจกเครดิตฟรีสมาชิกใหม่บอกมาจากทวิตเตอร์กดติดตามกดไลค์รีทวิตรีทวิตแคปส่งให้แอดมินรับได้หน้าเว็บเครดิตฟรีล่าสุดเครดิตฟรีไม่ต้องฝากเครดิตฟรีกดรับเอง</t>
   </si>
   <si>
     <t>herofreeslotแจกจัดหนักhandholdingheartเครดิตฟรี฿ไม่ติดเงื่อนไขไม่ต้องทำกิจกรรมbluecheckmarkเว็บเดียวครบจบทุกอย่างfireรับทุนฟรีเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์เครดิตฟรีล่าสุดเครดิตฟรีแจกเครดิตฟรีโค้ดเครดิตฟรีแจกโค้ดฟรีทุนฟรีtexas</t>
   </si>
   <si>
-    <t>bombhเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>madelynzเครดิตฟรี</t>
-  </si>
-  <si>
     <t>ยิ่งดึกยิ่งเหงายิ่งเงี่ยนคอลจริงค่ะมีเครดิตค่ะคอลเสียวpor</t>
   </si>
   <si>
-    <t>ttbbankofficialเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>xbetautoขอเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>saudomkanjanaเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>joysoyyubเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>slotlavalavaขอรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>lvaabrtรับเครดิตฟรีlavabet</t>
-  </si>
-  <si>
     <t>frithiyแจกจัดหนักhandholdingheartเครดิตฟรี฿ไม่ติดเงื่อนไขไม่ต้องทำกิจกรรมbluecheckmarkเว็บเดียวครบจบทุกอย่างfireรับทุนฟรีเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์เครดิตฟรีล่าสุดเครดิตฟรีแจกเครดิตฟรีโค้ดเครดิตฟรีแจกโค้ดฟรีทุนฟรีtexas</t>
   </si>
   <si>
     <t>xoslotzเครดิตฟรีบาทไม่ต้องแชร์ไม่ต้องโพสมารับได้เลยคลิ๊กเลย</t>
   </si>
   <si>
-    <t>risanewรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>creditfreeรับแล้วได้จริงเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>siamsiannoรับเครดิตฟรี</t>
-  </si>
-  <si>
     <t>รักอิอ้อนชอบอิอ้อนมาสมัครบัตรเครดิตของอิอ้อนด้วยกันนะคะionroidtwionroidionmeme</t>
   </si>
   <si>
@@ -5819,96 +5378,9 @@
     <t>เครดิตฟรีไม่ต้องแชร์กดรีทวิตหัวใจโปรโมชั่นเดือดฝากรับบาทlineเครดิตฟรีล่าสุดแจกเครดิตฟรี</t>
   </si>
   <si>
-    <t>heiyhoungรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>gclubrichเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>plmphikhoเครดิตไม่เข้าแอดมินก้อไม่อ่านเลยจร้า</t>
-  </si>
-  <si>
-    <t>ufahubรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>kherditdiเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>cakiwhhรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>joysoyyubรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>vipvเครดิตฟรีpgjokerslot</t>
-  </si>
-  <si>
-    <t>pgslotkissรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>pgslotรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>nigmacoครดิตฟรีเครดิตเครดิตฟรีล่าสุดnigmareplyingtonigmaco</t>
-  </si>
-  <si>
-    <t>เครดิตคุณเสือโฮชิช่วยคิดท่าเต้น</t>
-  </si>
-  <si>
-    <t>freespinรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>efootballmegameรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>freebetแจกจัดหนักhandholdingheartเครดิตฟรี฿ไม่ติดเงื่อนไขไม่ต้องทำกิจกรรมbluecheckmarkเว็บเดียวครบจบทุกอย่างfireรับทุนฟรีเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์เครดิตฟรีล่าสุดเครดิตฟรีแจกเครดิตฟรีโค้ดเครดิตฟรีแจกโค้ดฟรีทุนฟรีtexas</t>
-  </si>
-  <si>
-    <t>weerachonklinkรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>superslotvเครดิตฟรีได้จริง</t>
-  </si>
-  <si>
-    <t>ipofรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>niphapronเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>ipospinfreeรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>nigmacoขอรับเครดิตฟรี</t>
-  </si>
-  <si>
     <t>sandeyนักล่าเครดิตฟรีสล็อตpgเครดิตฟรีแจกจริง</t>
   </si>
   <si>
-    <t>kherditเครดิตฟรีล่าสุด</t>
-  </si>
-  <si>
-    <t>freeipoรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>lavacasinoเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>lucaccเครดิตฟรีได้จริง</t>
-  </si>
-  <si>
-    <t>freebแจกจัดหนักhandholdingheartเครดิตฟรี฿ไม่ติดเงื่อนไขไม่ต้องทำกิจกรรมbluecheckmarkเว็บเดียวครบจบทุกอย่างfireรับทุนฟรีเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์เครดิตฟรีล่าสุดเครดิตฟรีแจกเครดิตฟรีโค้ดเครดิตฟรีแจกโค้ดฟรีทุนฟรีtexas</t>
-  </si>
-  <si>
-    <t>vipvเครดิตฟรีแจกเครดิตฟรีpgjoker</t>
-  </si>
-  <si>
-    <t>nigmacoเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>ipofreespinรับเครดิตฟรี</t>
-  </si>
-  <si>
     <t>แจกเครดิตฟรีบาทไม่ต้องฝากก่อนไม่ต้องแชร์รีทวิตหัวใจแคปส่งให้ทีมงานคลิ๊กยืนยันตนรับเครดิตฟรีแจกเครดิตฟรีเครดิตฟรีล่าสุดเครดิตฟรีเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์เครดิตฟรี</t>
   </si>
   <si>
@@ -5918,9 +5390,6 @@
     <t>ข้อความที่ใช้แชร์โพสต์nigmaเเจกเครดิตฟรีสมัครวันนี้รับฟรีไม่ต้องฝากก่อนขอรับได้ทันทีรับได้ทุกวันคลิกเครดิตฟรีเครดิตฟรีล่าสุดสล็อตเว็บตรง</t>
   </si>
   <si>
-    <t>chokdeeรับเครดิตฟรี</t>
-  </si>
-  <si>
     <t>kewwlinแจกจริงเครดิตฟรี</t>
   </si>
   <si>
@@ -5930,51 +5399,18 @@
     <t>กล่องสุ่มลุ้นเครดิตฟรีทุกวัน฿฿฿฿สูงสุดbเพียงแค่สมัครสมาชิกสมัครเลยgtกดรีทวิตพิมพ์ว่าเครดิตฟรีล่าสุดและกดหัวใจด้วยนะเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์เครดิตฟรีล่าสุดเครดิตฟรีเครดิตฟรีไม่ต้องแชร์ล่าสุด</t>
   </si>
   <si>
-    <t>jirayupandaรับเครดิตฟรีคับ</t>
-  </si>
-  <si>
-    <t>ckfrkherditรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>mrwyรับแล้วเครดิต</t>
-  </si>
-  <si>
-    <t>lavaslotรับเครดิตฟรี</t>
-  </si>
-  <si>
     <t>เวปricoเปิดใหม่มาแรงสมัครใหม่รับโบนัสทุกวันแจกเครดิตเพิ่มรับทันทีแค่ทักไลน์ไม่ต้องฝากไม่ต้องแชร์เว็บตรงโปรโมชั่นเยอะเล่นง่ายได้จริงเครดิตฟรีเครดิตฟรีล่าสุดเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์</t>
   </si>
   <si>
-    <t>เครดิตฟรี</t>
-  </si>
-  <si>
-    <t>metasเครดิตรฟรี</t>
-  </si>
-  <si>
     <t>สมัครสมาชิกกดยืนยันรับเครดิตฟรีโปรยอดฮิตฝากรับถอนได้สมัครแจ้งโค้ดที่ไลน์เครดิตฟรีเครดิตฟรีกดรับเองเครดิตฟรีล่าสุด</t>
   </si>
   <si>
-    <t>ahrenstringerรับเครดิตฟรี</t>
-  </si>
-  <si>
     <t>pittayamaxแจกจัดหนักhandholdingheartเครดิตฟรี฿ไม่ติดเงื่อนไขไม่ต้องทำกิจกรรมbluecheckmarkเว็บเดียวครบจบทุกอย่างfireรับทุนฟรีเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์เครดิตฟรีล่าสุดเครดิตฟรีแจกเครดิตฟรีโค้ดเครดิตฟรีแจกโค้ดฟรีทุนฟรี</t>
   </si>
   <si>
-    <t>nahnungแจกจริงเครดิตฟรี</t>
-  </si>
-  <si>
     <t>llavaแจกจัดหนักhandholdingheartเครดิตฟรี฿ไม่ติดเงื่อนไขไม่ต้องทำกิจกรรมbluecheckmarkเว็บเดียวครบจบทุกอย่างfireรับทุนฟรีเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์เครดิตฟรีล่าสุดเครดิตฟรีแจกเครดิตฟรีโค้ดเครดิตฟรีแจกโค้ดฟรีทุนฟรี</t>
   </si>
   <si>
-    <t>allroyalgoldallroyalgoldรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>เพชรแลกเครดิต</t>
-  </si>
-  <si>
-    <t>zerogameรับเครดิตฟรี</t>
-  </si>
-  <si>
     <t>thtryingแจกจัดหนักhandholdingheartเครดิตฟรี฿ไม่ติดเงื่อนไขไม่ต้องทำกิจกรรมbluecheckmarkเว็บเดียวครบจบทุกอย่างfireรับทุนฟรีเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์เครดิตฟรีล่าสุดเครดิตฟรีแจกเครดิตฟรีโค้ดเครดิตฟรีแจกโค้ดฟรีทุนฟรี</t>
   </si>
   <si>
@@ -5984,123 +5420,42 @@
     <t>แจกทุกยูสเซอร์รับได้ไม่จำกัดสมัครสมาชิกมีแอดมินบริการตลอดชมgenieเครดิตฟรีเครดิตฟรีล่าสุดเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์ล่าสุดเครดิตฟรีกดรับเองเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์</t>
   </si>
   <si>
-    <t>megaxเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>xthrabขอรับเครดิตฟรี</t>
-  </si>
-  <si>
     <t>slotenyแจกทุนฟรีบเครดิตฟรีถอนได้บาทพิเศษโปรโมชั่นรับทำยอดถอนได้ไม่อั้นยูสเซอร์รับได้สิทธิ์เครดิตฟรีไม่ต้องฝากก่อนรีทวิตกดใจแคปส่งให้แอดมินรับที่นี่เครดิตฟรี</t>
   </si>
   <si>
-    <t>joysoyyubเครดิตรฟรี</t>
-  </si>
-  <si>
-    <t>fahsaiแจกจริงเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>pgthขอเครดิตฟรี</t>
-  </si>
-  <si>
     <t>ttokวันนี้รับเครดิตฟรีกันหรือยังxbetvเขาอออกทุนให้เล่นฟรีไม่มีค่าใช้จ่ายใดๆและสามารถถอนเป็นเงินสดเข้าบัญชีได้อีกด้วยเรารับและถอนมาแล้วเลยมาบอกต่อเข้ารับที่สล็อตสล็อตเครดิตฟรี</t>
   </si>
   <si>
-    <t>legacyเครดิตฟรี</t>
-  </si>
-  <si>
     <t>freecreditfbiแจกจัดหนักhandholdingheartเครดิตฟรี฿ไม่ติดเงื่อนไขไม่ต้องทำกิจกรรมbluecheckmarkเว็บเดียวครบจบทุกอย่างfireรับทุนฟรีเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์เครดิตฟรีล่าสุดเครดิตฟรีแจกเครดิตฟรีโค้ดเครดิตฟรีแจกโค้ดฟรีทุนฟรี</t>
   </si>
   <si>
     <t>เครดิตฟรีทำยอดไม่ต้องฝากไม่ต้องแชร์แจ้งแอดมินว่ามาจากไหนแคปภาพรีทวีตคอมเม้นเครดิตฟรีกดหัวใจติดตามสมัครรับฟรีเครดิตฟรีกดรับเองเครดิตฟรีล่าสุดเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์ล่าสุดเครดิตฟรีรวมค่าย</t>
   </si>
   <si>
-    <t>critthosptpgslotเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>thepmhooเครดิตฟรี</t>
-  </si>
-  <si>
     <t>แจกจัดหนักhandholdingheartเครดิตฟรี฿ไม่ติดเงื่อนไขไม่ต้องทำกิจกรรมbluecheckmarkเว็บเดียวครบจบทุกอย่างfireรับทุนฟรีเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์เครดิตฟรีล่าสุดเครดิตฟรีแจกเครดิตฟรีโค้ดเครดิตฟรีแจกโค้ดฟรีทุนฟรีtexas</t>
   </si>
   <si>
-    <t>lucabetแจกเครดิตฟรีlucabet</t>
-  </si>
-  <si>
     <t>ckkherditfrttokวันนี้รับเครดิตฟรีกันหรือยังxbetvเขาอออกทุนให้เล่นฟรีไม่มีค่าใช้จ่ายใดๆและสามารถถอนเป็นเงินสดเข้าบัญชีได้อีกด้วยเรารับและถอนมาแล้วเลยมาบอกต่อเข้ารับที่สล็อตสล็อตเครดิตฟรี</t>
   </si>
   <si>
-    <t>metasเครดิตรี</t>
-  </si>
-  <si>
     <t>slotenyแจกทุนฟรีบเครดิตฟรีถอนได้บาทพิเศษโปรโมชั่นรับทำยอดถอนได้ไม่อั้นยูสเซอร์รับได้สิทธิ์เครดิตฟรีไม่ต้องฝากก่อนรีทวิตกดใจแคปส่งให้แอดมินรับที่นี่เครดิตฟรีเครด</t>
   </si>
   <si>
-    <t>heiyhoungเครดิตรฟรี</t>
-  </si>
-  <si>
-    <t>slotlavagameขอรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>ckkherditfrttokเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>joysoyyubเครดิตฟรีpgjokersiot</t>
-  </si>
-  <si>
     <t>โปรเดือนกันยายนสมาชิกใหม่แจกทุนฟรีสูงสุด฿รับโบนัสสูงสุดมีโปรให้เลือกมากกว่ารายการเครดิตฟรีสล็อตเครดิตฟรีล่าสุดเเคปเเล้วเเจ้งรับเครดิตฟรี</t>
   </si>
   <si>
     <t>ixtfjjzyslopแจกจัดหนัhandholdingheartเครดิตฟรี฿ไม่ติดเงื่อนไขไม่ต้องทำกิจกรรมbluecheckmarkเว็บเดียวครบจบทุกอย่างรับทุนฟรีเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์เครดิตฟรีล่าสุดเครดิตฟรีแจกเครดิตฟรีโค้ดเครดิตฟรีแจกโค้ดฟรีทุนฟรีtexas</t>
   </si>
   <si>
-    <t>superbetautoแจกฟรีเครดิต</t>
-  </si>
-  <si>
-    <t>โลโก้ของลิต้ามาแล้ววววเครดิตsiikornเจ้าเก่าเจ้าเดิมอัตตากับความอ่อนน้อมถ่อมตนมวยถูกคู่มากแต่ในเรื่องลิต้าไม่อ่อนน้อมเลยนะออกจะเปรี้ยวซ่าก๋ากั่นแถมเถียงสู้วินตลอดตบเป็นตบถีบเป็นถีบเนื้อหาต่อจากนี้มีสปอยอย่างที่รู้กันจากภาคก่อนว่าลิต้ามีพลังที่เทพมากต่อ</t>
-  </si>
-  <si>
-    <t>zerogameัรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>superslotvแจกของเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>fncoแจกเครดิตฟรี</t>
-  </si>
-  <si>
     <t>dgfghnแจกจัดหนัhandholdingheartเครดิตฟรี฿ไม่ติดเงื่อนไขไม่ต้องทำกิจกรรมbluecheckmarkเว็บเดียวครบจบทุกอย่างรับทุนฟรีเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์เครดิตฟรีล่าสุดเครดิตฟรีแจกเครดิตฟรีโค้ดเครดิตฟรีแจกโค้ดฟรีทุนฟรีtexas</t>
   </si>
   <si>
     <t>เริ่มเลยยเตรียมตัวรวยสู่ขิตแจกทุนฟรีใจดีให้ไม่มีโกงค่ายใหม่ใจใหญ่แจกเครดิตฟรี฿รับฟรีที่เครดิตฟรีแจกเครดิตฟรีเครดิตฟรีล่าสุดเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์areaslotเว็บตรง</t>
   </si>
   <si>
-    <t>slotbetเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>lvaabrtขอรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>joysoyyubเครดิตฟรีpgjoker</t>
-  </si>
-  <si>
-    <t>nxngraphungขอรับเครดิต</t>
-  </si>
-  <si>
-    <t>jiriแจกเครดิตฟรี</t>
-  </si>
-  <si>
     <t>ssnnvแจกจัดหนัhandholdingheartเครดิตฟรี฿ไม่ติดเงื่อนไขไม่ต้องทำกิจกรรมbluecheckmarkเว็บเดียวครบจบทุกอย่างรับทุนฟรีเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์เครดิตฟรีล่าสุดเครดิตฟรีแจกเครดิตฟรีโค้ดเครดิตฟรีแจกโค้ดฟรีทุนฟรีtexas</t>
   </si>
   <si>
-    <t>lavagameแจกเครดิตฟรีspinix</t>
-  </si>
-  <si>
-    <t>allwebgameรับเครดิตฟรี</t>
-  </si>
-  <si>
-    <t>pppรับเครดิตฟรี</t>
-  </si>
-  <si>
     <t>hbogoday฿day฿รับธนาคารและวอเล็ทสนใจแอดไลน์หรือเดมไอจีbibihlloหารhbogoราคาถูกhbogoราคาถูกหารhboราคาถูกhbogoหาร</t>
   </si>
   <si>
@@ -6396,14 +5751,625 @@
   </si>
   <si>
     <t>สนใจแอดไลน์kanchashop</t>
+  </si>
+  <si>
+    <t>ประธานคณะกรรมการกฤษฎีกาคณะที่เว้นว่างไว้รอใครนายกประยุทธ์การเมืองกฎหมายกรรมการกฤษฎีกาคมชัดลึกข่าววันนี้คมชัดลึกออนไลน์</t>
+  </si>
+  <si>
+    <t>ถ้าเอากันตามความจริงเรียกนายกไม่ได้น่ะครับเพราะคำสั่งศาลระงับและมีคนรักษาการแทนแล้วอย่าทำให้ประชาชนเข้าใจผิดเลยข่าวใส่ไข่</t>
+  </si>
+  <si>
+    <t>คลิกอ่านที่นี่ถอดรหัสวันชัยบิ๊กตู่ศาลรัฐธรรมนูญนายกปีนายกดวงดาวบิ๊กตู่ยะเยือกวันชัยถอดรหัสดวงดาวกยฟันโช๊ะผู้มีอำนาจหมดฤทธิ์หมดเดช</t>
+  </si>
+  <si>
+    <t>เมื่อไม่มีค่าก็ควรพิจาณราตัวเองเสรีรวมไทยแนะประยุทธ์ยุติบทบาทไม่ต้องรอศาลรัฐธรรมนูญpoliticsเลือกตั้งนายกประยุทธ์การเมืองลุงตู่ข่าววันนี้คมชัดลึกออนไลน์</t>
+  </si>
+  <si>
+    <t>paneesurasakhllodสาเหตุเพราะนายกที่มาจากการเลือกตั้งโดยอ้างคำว่าประชาธิปไตยเมื่อเข้ามาเป็นรัฐบาลแล้วมันมีคำสั่งในหัวไม่กี่อย่างเช่นแก้ไขรัฐธรรมนูญกู้เงินนิรโทษกรรมสุดซอยแล้วก็หาทางใช้งบประมาณเยอะๆจะได้กู้อีกแล้วก็โยนความผิดให้รัฐบาลก่อนหรือคนอื่นวนไปลุงตู่ลุงตู่อยู่ต่อ</t>
+  </si>
+  <si>
+    <t>รัฐบาลที่ดีที่สุดในช่วงชีวิตดิชั๊นคือรัฐบาลลุงตู่ค่ะนายกรัฐมนตรีนายกฉันรักรัฐบาล</t>
+  </si>
+  <si>
+    <t>พลเอกประวิตรเป็นประธานการประชุมการรักษาผลประโยชน์ของชาติทางทะเลเคาะร่างแผนความมั่นคงแห่งชาติทางทะเลมุ่งเสริมสร้างความมั่นคงแบบองค์รวมอ่านต่อประวิตรบิ๊กป้อมความมั่นคงทะเลรัฐบาลนายกข่าวการเมือง</t>
+  </si>
+  <si>
+    <t>คลิกอ่านที่นี่นายกบิ๊กตู่นายกปีศาลรัฐธรรมนูญเอกสารหลุดกนกรัตน์วงศ์สกุลเอกสารหลุดมีเสียวกนกชี้เรื่องนี้ไม่ธรรมดาลุงตู่ไปต่อหรือสิ้นสุดทางเลื่อน</t>
+  </si>
+  <si>
+    <t>พลอประยุทธ์จันทร์โอชาขอบคุณทุกกำลังใจยืนยันเคารพการพิจารณาของศาลฯไม่ว่าคำวินิจฉัยจะเป็นเช่นใดหลังทราบว่าศาลรัฐธรรมนูญนัดอ่านคำวินิจฉัยปมเวลาดำรงตำแหน่งปีในวันที่กยนี้โดยขณะนี้ยังคงปฏิบัติหน้าที่รมวกลาโหมเร่งสนับสนุนรัฐบาลแก้ไขปัญหาน้ำท่วมนายกปีประยุทธ์</t>
+  </si>
+  <si>
+    <t>เพื่อไทยคึกคักมั่นใจหลักฐานมัดแน่นบิ๊กตู่พ้นเก้าอี้นายกฯวันที่กยนี้แน่เชื่อคำวินิจฉัยศาลไม่กระทบเงื่อนไขยุบสภาอ่านต่อที่เพื่อไทยชลน่านประยุทธ์บิ๊กตู่พ้นเกี้าอี้นายกนายกศาลรัฐธรรมนูญวาระปีนายกtheroom</t>
+  </si>
+  <si>
+    <t>หมอชลน่านมั่นใจกยบิ๊กตู่ไม่รอดเชื่อศาลรัฐธรรมนูญให้พ้นตำแหน่งนายกตั้งแต่สคแล้วชี้มีช่องรักษาการและยุบสภาฯได้อ่านต่อข่าวช่องข่าวออนไลน์ช่องการเมืองนายกฝ่ายค้านปีประยุทธ์</t>
+  </si>
+  <si>
+    <t>สมชายเชื่ออุ๊งอิ๊งเป็นนายกฯได้หากเสียงประชาชนหนุนมองเรื่องพาทักษิณกลับบ้านมีกติกาอยู่แต่ถ้าเป็นไปได้ก็อยากจะให้กลับมาอ่านต่อข่าวช่องข่าวออนไลน์ช่องสมชายอุ๊งอิ๊งนายกเพื่อไทยข่าวการเมือง</t>
+  </si>
+  <si>
+    <t>สมชายชี้อุ๊งอิ๊งเหมาะเป็นนายกฯคนต่อไปเพราะมีความรู้ความสามารถที่เหมาะสมมองคุณหญิงพจมานเปิดตัวเป็นการให้กำลังใจครอบครัวปกตินายกอุ๊งอิ๊งเพื่อไทยสมชายการเมืองinnnewsไม่พลาดทุกเรื่องอินเทรนด์</t>
+  </si>
+  <si>
+    <t>ประยุทธ์ขอบคุณทุกกำลังใจที่มอบให้ยืนยันเคารพการพิจารณาของศาลฯไม่ว่าคำวินิจฉัยจะเป็นเช่นใดขณะนี้ยังคงปฏิบัติหน้าที่รมตกลาโหมเร่งสนับสนุนรัฐบาลแก้ไขปัญหาน้ำท่วมอ่านต่อข่าวช่องข่าวออนไลน์ช่องประยุทธ์นายกรัฐบาลศาลข่าวการเมือง</t>
+  </si>
+  <si>
+    <t>ส่งตัวแทนบิ๊กตู่ส่งตัวแทนฟังคำตัดสินนายกฯปีที่ศาลรัฐธรรมนูญกันยายนนี้นายกประยุทธ์จันทร์โอชาบิ๊กตู่วาระนายกศาลรัฐธรรมนูญbtimes</t>
+  </si>
+  <si>
+    <t>คลิกอ่านที่นี่นายกบิ๊กตู่นายกปีศาลรัฐธรรมนูญกางขั้นตอนศาลรัฐธรรมนูญคดีวาระปีบิ๊กตู่มอบหัวหน้าทีมกมฟังคำพิพากษา</t>
+  </si>
+  <si>
+    <t>นิด้าโพลเปิดเผยผลสำรวจของประชาชนเรื่องรักษาราชการแทนนายกรัฐมนตรีทำการสำรวจระหว่างวันที่กันยายนจากประชาชนที่มีอายุปีขึ้นไปกระจายทุกภูมิภาคระดับการศึกษาอาชีพและรายได้ทั่วประเทศรวมทั้งสิ้นจำนวนหน่วยตัวอย่างประวิตรนายก</t>
+  </si>
+  <si>
+    <t>ด่วนศาลรัฐธรรมนูญยุติไต่สวนปมวาระนายกฯปีแล้วนัดวินิจฉัยกยนี้ชี้คดีเป็นปัญหาข้อกฎหมายมีพยานหลักฐานเพียงพอที่จะพิจารณาวินิจฉัยได้ศาลรัฐธรรมนูญนายกปีไต่สวนนายกการเมืองคมชัดลึกคมชัดลึกออนไลน์ลูกทุ่งอวอร์ดลูกทุ่งawards</t>
+  </si>
+  <si>
+    <t>พลอประวิตรขึ้นตึกไทยคู่ฟ้าครั้งแรกหลังทำหน้าที่รักษาการนายกรัฐมนตรีอ่านต่อข่าวช่องข่าวออนไลน์ช่องประวิตรบิ๊กป้อมนายกรัฐบาลการเมือง</t>
+  </si>
+  <si>
+    <t>newsupdateสดๆร้อนๆศาลรธนนัดอ่านคำวินิจฉันปมปีพลอประยุทธ์กยเวลานหลังเมื่อเช้ากยตุลาการศาลรธนประชุมและมีความเห็นว่าหลักฐานเพียงพอที่จะวินิจฉัยแล้วจึงยุติการไต่สวนและนัดแถลงด้วยวาจาประยุทธ์วาระปีนายกpptvhdเรื่องข่าวเรื่องใหญ่</t>
+  </si>
+  <si>
+    <t>มึงปีนี้น้ำท่วมหลายจังหวัดจะด่าต้องด่านายกค่ะเหมือนปีทุกคนด่ารัฐบาลจ้า</t>
+  </si>
+  <si>
+    <t>จี้นายกแก้น้ำท่วมด่วนชัชชาติเอาไม่อยู่แล้วน้ําท่วมกรุงเทพ</t>
+  </si>
+  <si>
+    <t>อนุทินขอพรวันเกิดในวัยปีขอให้ตัวเองเป็นนายกลั่นขอแลกทุกอย่างให้บ้านเมืองสงบสุขอ่านต่อข่าวช่องข่าวออนไลน์ช่องอนุทินวันเกิดประยุทธ์นายกรัฐบาลข่าวการเมือง</t>
+  </si>
+  <si>
+    <t>บทบาทศาลรธนวินิจฉัยปมนายกฯปีต้องเป็นไปตามหลักสากลนายกปีศาลรัฐธรรมนูญสุกิจนายกประยุทธ์วินิจฉัย</t>
+  </si>
+  <si>
+    <t>ผลสำรวจหญิงหน่อยอันดับคะแนนนำอุ๊งอิ๊งครองใจคนอีสานเลือกเป็นนายกฯขณะที่เพื่อไทยยังเป็นความหวังเข้ามาแก้ปัญหาเศรษฐกิจประเทศไทยทำงานอีสานนายกเศรษฐกิจการเมืองเพื่อไทยสุดารัตน์ข่าวข่าววันนี้คมชัดลึกออนไลน์</t>
+  </si>
+  <si>
+    <t>คลิกอ่านที่นี่นายกบิ๊กตู่นายกปีศาลรัฐธรรมนูญมองวาระปีบิ๊กตู่ในมุมอดีตตุลาการศาลรธนฟันฉับดึงมมาตีความไม่ได้</t>
+  </si>
+  <si>
+    <t>นิด้าโพลเผยผลสำรวจประวิตรนั่งรักษานายกฯสัปดาห์ประชาชนคิดอย่างไรประเทศไทยรัฐบาลประชาชนนายกครมยุบสภาประวิตรข่าวข่าววันนี้คมชัดลึกออนไลน์</t>
+  </si>
+  <si>
+    <t>คลิกอ่านที่นี่นายกคนนอกนายกบิ๊กตู่นายกปีศาลรัฐธรรมนูญประวิตรประยุทธ์ฟันเปรี้ยงประวิตรเต็งจ๋านายกฯคนนอกถ้าประยุทธ์สะดุดปมปี</t>
+  </si>
+  <si>
+    <t>นิด้าโพลเผยคนไม่พอใจผลงานบิ๊กป้อมรักษาราชการแทนนายกฯหนุนยุบสภาเลือกตั้งใหม่isranewsสำนักข่าวอิศรานิด้าโพลประวิตรนายกยุบสภา</t>
+  </si>
+  <si>
+    <t>นโยบายแรกเตะเมียเสรีโอ้ยยยยยยยกล้าเนาะนายกอิเชี้ยยยยย</t>
+  </si>
+  <si>
+    <t>พิธาประกาศชัดพร้อมเป็นนายกรัฐมนตรีที่ทันสมัยของทุกคนลั่นเจอกันที่ทำเนียบรัฐบาลพร้อมขอถือคบเพลิงนำเลือกตั้งแทนธนาธรปิยบุตรวอนเลือกก้าวไกลให้ไทยก้าวหน้าอ่านต่อข่าวช่องข่าวออนไลน์ช่องพิธาก้าวไกลนายกแคนดิเดตนายกเลือกตั้ง</t>
+  </si>
+  <si>
+    <t>แพทองธารแย้มเปิดตัวแคนดิเดตนายกฯช่วงโหมดเลือกตั้งออกตัวอยู่ที่ประชาชนไม่ใช่ฟ้าลิขิตอ่านต่อที่gtgtsiamrathสยามรัฐsiamrathonlineสยามรัฐออนไลน์ข่าววันนี้ข่าวการเมืองการเมืองแพทองธารอุ๊งอิ๊งเลือกตั้งนายกเพื่อไทย</t>
+  </si>
+  <si>
+    <t>คลิกอ่านที่นี่นายกบิ๊กตู่นายกปีศาลรัฐธรรมนูญบันทึกกรธมีชัยสภาชวเลขประชุมกรธมีแค่บันทึกไม่มีรายงานถอดทุกคำพูดเหตุมีชัยสั่งไม่ต้องใช้จนทชวเลข</t>
+  </si>
+  <si>
+    <t>อุ๊งอิ๊งประกาศพร้อมทำงานเพื่อประชาชนรอประกาศวันเลือกตั้งเปิดตัวแคนดิเดตเพื่อไทยย้ำเป็นนายกฯขึ้นอยู่กับประชาชนไม่ต้องรอฟ้าลิขิตลั่นอะไรที่มีใจไม่ต้องใช้แรงผลักข่าวช่องข่าวออนไลน์ช่องเพื่อไทยนายก</t>
+  </si>
+  <si>
+    <t>เลือกคุณหญิงสุดารัตน์เป็นหัวหน้าพรรคไทยสร้างไทยซ้อมๆไว้เลือกเป็นนายกของประเทศทีมสุดารัตน์เบสท์ทวีชัยเดือนปลดล็อกเปลี่ยนประเทศปลดล็อกชีวิตคนเมืองให้เราเหนื่อยแทนคุณreinventingthailand</t>
+  </si>
+  <si>
+    <t>คลิกอ่านที่นี่นายกบิ๊กตู่นายกปีศาลรัฐธรรมนูญบันทึกกรธมีชัยสภาสภาฯเตรียมส่งบันทึกประชุมกรธครั้งที่ถึงศาลรธนวันนี้</t>
+  </si>
+  <si>
+    <t>คลิกอ่านที่นี่นายกบิ๊กตู่นายกปีศาลรัฐธรรมนูญสมชัยอ๊อนอ่อนสมชัยโชว์ตรรกะหยันคำชี้แจงคดีปีประยุทธ์คนเขียนเก่งคนตรวจอวย</t>
+  </si>
+  <si>
+    <t>แจกเครดิตฟรีบาททุกคนที่เห็นโพสนี้ไม่ต้องฝากก่อนรีบๆเลยรีทวิตแคปยูสเม้นพร้อมเลขบัญชีสมัครเลยเครดิตฟรีเครดิตฟรีล่าสุดสล็อตเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์แจกเครดิตฟรีฝากรับล่าสุดเครดิตฟรีฝากรับล่าสุด</t>
+  </si>
+  <si>
+    <t>mmilkscatterแจกเครดิตฟรี฿ไม่ต้องฝากก่อนถอนออกได้จริงเว็บตรงที่มาแรงที่สุดรับง่ายๆกรอกโค้ดsctmคลิกเครดิตฟรีเครดิตฟรีล่าสุดเครดิตฟรีไม่ต้องฝากแจกเครดิตฟรีทุนฟรีสล็อตสล็อตแตกง่ายสล็อตเครดิตฟรี</t>
+  </si>
+  <si>
+    <t>คลิกสล็อตสล็อตเครดิตฟรีเครดิตฟรีไม่ต้องฝากเครดิตฟรีกดรับเองเครดิตฟรีสล็อตpgสล็อตpgเว็บตรงแจกเครดิตฟรีอย่าลืมแคปหน้าจอส่งแอดมินนะคะ</t>
+  </si>
+  <si>
+    <t>โบนัสทุนน้อยมาแรงโบนัสดีๆมีอีกเยอะที่bozaสนใจโปรโมชั่นอื่นๆมีกิจกรรมแจกเครดิตฟรีทุกวันรับได้ไม่จำกัดยูสสมัครเข้าเล่นเกมสล็อตสล็อตทุนน้อยสล็อตเครดิตฟรีล่าสุดเว็ปตรงฝากรับล่าสุดbozaสล็อตpg</t>
+  </si>
+  <si>
+    <t>nmarimotoเปิดระบบใหม่แจกเครดิตฟรีแจกเครดิตฟรีไม่ต้องฝากก่อนกดรีทวิตโพสต์นี้กดหัวใจคลิกสล็อตสล็อตเครดิตฟรีเครดิตฟรีไม่ต้องฝากเครดิตฟรีกดรับเองเครดิตฟรีสล็อตpgสล็อตpgเว็บตรงแจกเครดิตฟรี</t>
+  </si>
+  <si>
+    <t>เครดิตฟรีบาทเพียงแค่แชร์ลงกลุ่มกลุ่มรับทันทีลงค์สมัครเงินชัวร์จ่ายจริงฝากถอนอัตโนมัติกดรีทวีตคอมเม้นเครดิตฟรีเครดิตฟรีล่าสุดเครดิตฟรีเครดิตฟรีสล็อตเครดิตฟรี</t>
+  </si>
+  <si>
+    <t>เปิดระบบใหม่แจกเครดิตฟรีแจกเครดิตฟรีไม่ต้องฝากก่อนกดรีทวิตโพสต์นี้กดหัวใจคลิกสล็อตสล็อตเครดิตฟรีเครดิตฟรีไม่ต้องฝากเครดิตฟรีกดรับเองเครดิตฟรีสล็อตpgสล็อตpgเว็บตรงแจกเครดิตฟรี</t>
+  </si>
+  <si>
+    <t>scatterแจกเครดิตฟรี฿ไม่ต้องฝากก่อนถอนออกได้จริงเว็บตรงที่มาแรงที่สุดรับง่ายๆกรอกโค้ดsctmคลิกเครดิตฟรีเครดิตฟรีล่าสุดเครดิตฟรีไม่ต้องฝากแจกเครดิตฟรีทุนฟรีสล็อตสล็อตแตกง่ายสล็อตเครดิตฟรี</t>
+  </si>
+  <si>
+    <t>สมัครกดรับเครดิตเพิ่มเล่นได้ทุกค่ายถอนแบบจุกๆสล็อตเว็บตรงเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์เครดิตฟรีล่าสุดเครดิตฟรีเครดิตฟรีสล็อตเครดิตฟรีสล็อตpgสล็อตเครดิตฟรีล่าสุดสล็อต</t>
+  </si>
+  <si>
+    <t>winslotแจกเครดิตฟรี฿ไม่มีเงื่อนไขไม่จำกัดจำนวนกรอกโค้ดwinคลิกสมาชิกรับโบนัสทุกยูสรับโปรโบนัสxโปรรับทำยอดถอนได้ทันทีเครดิตฟรีเครดิตฟรีไม่ต้องฝากแจกเครดิตฟรีทุนฟรีสล็อตโปรสล็อต</t>
+  </si>
+  <si>
+    <t>เปิดระบบใหม่แจกเครดิตฟรีแจกเครดิตฟรีรีบเลยสมัครรับเลยตอนนี้คลิกสมัครtweetเครดิตฟรีไม่ต้องฝากสล็อตสล็อตแตกง่ายเครดิตฟรีล่าสุดเครดิตฟรีกดรับเองอย่าลืมแคปหน้าจอส่งแอ</t>
+  </si>
+  <si>
+    <t>nigmacoสล็อตเว็บตรงเเจกจริง</t>
+  </si>
+  <si>
+    <t>empireslotเว็บอันดับแจกเครดิตฟรี฿เล่นง่ายโอนไวจ่ายจริงเพียงสมัครสมาชิกพิมพ์โค้ดesติดต่อโปรแนะนำฝากรับทำยอดถอนได้ไม่อั้นเครดิตฟรีไม่ฝากเครดิตฟรีล่าสุดสล็อตเครดิตฟรีสล็อต</t>
+  </si>
+  <si>
+    <t>เปิดระบบใหม่แจกเครดิตฟรีแจกเครดิตฟรีรีบเลยสมัครรับเลยตอนนี้คลิกสมัครtweetเครดิตฟรีไม่ต้องฝากสล็อตสล็อตแตกง่ายเครดิตฟรีล่าสุดเครดิตฟรีกดรับเอง</t>
+  </si>
+  <si>
+    <t>เเจกฟรีบาทเล่นได้ทุกค่ายสมัครใหม่ไม่ต้องฝากก่อนคลิ๊กรับเเอดไลน์krtfvเครดิตฟรีเครดิตฟรีล่าสุดเครดิตฟรีเครดิตฟรีเครดิตฟรีไม่ต้องฝากเครดิตฟรีpgwalletเว็บตรงสล็อตcharlotเครดิตฟรีpgslot</t>
+  </si>
+  <si>
+    <t>dafaxโปรโมชั่นใหม่ล่าสุดสมัครสมาชิกใหม่รับบิลแรกของวันรับโปรโมชั่นรับรับสล็อตสล็อตdafaxสล็อตทุนน้อยสล็อตเว็บตรงสล็อตแตกง่ายสล็อตออนไลน์สล็อตpgโปรทุนน้อยโปรสล็อต</t>
+  </si>
+  <si>
+    <t>น้องhigholyfansฝากกดติดตามหัวใจให้กันด้วยนะคะเข้ากลุ่มvipฟรีสล็อตแตกหนักการันตีปีที่สุดจัดอ่ะรวดเร็วทันใจโอนไวกว่าจรวจแอดสวยเอ็กบริการชั่วโมงคลิ้กสมัครสล็อตสล็อตเว็บตรงสล็อตแตกง่ายสล็อตออนไลน์</t>
+  </si>
+  <si>
+    <t>เว็บตรงอันดับฝากรับเครดิตฟรีหน้าเว็บเครดิตฟรีเครดิตฟรีล่าสุดฝากรับเครดิตฟรียืนยันเบอร์เครดิตฟรีเครดิตฟรีเครดิตฟรีเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์pgสล็อตสล็อตเว็บตรง</t>
+  </si>
+  <si>
+    <t>แจกโค้ดเครดิตฟรี฿ทำยอดถอนได้ทันทีรับไม่อั้นไม่ต้องฝากก่อนโค้ดcgfreetรับแนะนำโปรโมชั่นรับรับได้ตลอดวันถอนออกชัวร์เครดิตฟรีเครดิตฟรีล่าสุดแจกเครดิตฟรีทุนฟรีสล็อตสล็อตแตกง่าย</t>
+  </si>
+  <si>
+    <t>kingslotxoแจกเครดิตฟรี฿รับทันทีไม่ต้องฝากก่อนทำยอดถอนได้ทันทีcodekkรับแนะนำโปรโมชั่นรับรับได้ไม่อั้นไม่จำกัดบิลสมัครสล็อตเครดิตฟรีเครดิตฟรีล่าสุดเครดิตฟรีไม่ต้องฝาก</t>
+  </si>
+  <si>
+    <t>wbสมัครสมาชิกฟรีไม่มีทำเทิร์นถอนไม่อั้นถอนกันได้รัวๆไม่มีขั้นต่ำสล็อตบาคาร่าบอลยิงปลาเว็บตรงมั่นคงปลอดภัยแอดมินบริการตลอดชมสมัครเองหรือแจ้งแอดมินสมัครได้เลยนะคะคลิก</t>
+  </si>
+  <si>
+    <t>xbetใหม่โปรใหม่พิเศษสุดคุ้มแตกง่ายรับทำถอนรับทำถอนรับทำถอนรับทำถอนสมัครยูสฟรีเครดิตฟรีสล็อตxbetสล็อตสล็อตเว็บตรงสล็อตแตกง่ายสล็อตเครดิตฟรีเคร</t>
+  </si>
+  <si>
+    <t>สมัครสล็อตเว็บตรงไม่ผ่านเย่นต์xgameสล็อตรวมค่ายสมาชิกใหม่รับโบนัสสูงสุดการันตีเว็บแท้รับรับรวมเว็บทุนหนาproslotpagepg</t>
+  </si>
+  <si>
+    <t>คลิกสมัครtweetเครดิตฟรีไม่ต้องฝากสล็อตสล็อตแตกง่ายเครดิตฟรีล่าสุดเครดิตฟรีกดรับเอง</t>
+  </si>
+  <si>
+    <t>โปรเดือนกันยายนสมาชิกใหม่แจกทุนฟรีสูงสุด฿รับโบนัสสูงสุดมีโปรให้เลือกมากกว่ารายการเครดิตฟรีสล็อตเครดิตฟรีล่าสุด</t>
+  </si>
+  <si>
+    <t>kingslotxoแจกเครดิตฟรี฿รับทันทีไม่ต้องฝากก่อนทำยอดถอนได้ทันทีcodekkรับแนะนำโปรโมชั่นรับรับได้ไม่อั้นไม่จำกัดบิลสมัครสล็อตเครดิตฟรีเครดิตฟรีล่าสุดเครดิตฟรีไม่ต้องฝา</t>
+  </si>
+  <si>
+    <t>แจกฟรีไม่ต้องฝากก่อนแค่สมัครสมัครผ่านลิงก์รีทวิตปักหมุดติดตามหัวใจคอมเม้นเครดิตฟรีแอดมินตอบไวและบริการดีjokerkingเครดิตฟรีสล็อตเครดิตฟรีล่าสุดเครดิตฟรีแจกเงินสล็อตเครดิตฟรีเครดิตฟรี</t>
+  </si>
+  <si>
+    <t>สวัสดีวันอาทิตย์เว็นี้ดีจริงมั่นคงรวดเร็วการัuตีให้กีฬาคาสิโนสล็อตหวยสมัครเล่นวันนี้เว็บตรงautogtgtคลิ้กgtgtสล็อตpgpgสล็อตสล็อตเว็บตรงสล็อตออนไลน์</t>
+  </si>
+  <si>
+    <t>cadegameslotแจกโค้ดเครดิตฟรี฿ทำยอดถอนได้ทันทีรับไม่อั้นไม่ต้องฝากก่อนโค้ดcgfreetรับแนะนำโปรโมชั่นรับรับได้ตลอดวันถอนออกชัวร์เครดิตฟรีเครดิตฟรีล่าสุดแจกเครดิตฟรีทุนฟรีสล็อตสล็อตแตกง่าย</t>
+  </si>
+  <si>
+    <t>แจกต้อนรับต้นเดือนเครดิตฟรี฿ไม่ต้องฝากก่อนสมัครสมาชิกรับเลยทันทีแจ้งโค้ดbbsfคลิกเครดิตฟรีเครดิตฟรีล่าสุดเครดิตฟรีต้องไม่ฝากแจกเครดิตฟรีทุนฟรีรับสล็อตสล็อตแตกง่าย</t>
+  </si>
+  <si>
+    <t>thepmhooเเจกฟรีบาทเล่นได้ทุกค่ายสมัครใหม่ไม่ต้องฝากก่อนคลิ๊กรับสมัครเเอดไลน์krtfvเครดิตฟรีเครดิตฟรีล่าสุดเครดิตฟรีเครดิตฟรีเครดิตฟรีไม่ต้องฝากเครดิตฟรีpgwalletเว็บตรงสล็อตcharlot</t>
+  </si>
+  <si>
+    <t>แจกเงินฟรีด่วนรีทวิตกดหัวใจกดติดตามแคปโพสส่งให้แอดมินส่งน้องแอดมินสมัครเครดิตฟรีไม่ต้องฝากเครดิตฟรีเครดิตฟรีแจกฟรีฟรีสล็อตแจกฟรีpgnewclearสล็อตทุนน้อย</t>
+  </si>
+  <si>
+    <t>pittayamaxเเจกฟรีบาทเล่นได้ทุกค่ายสมัครใหม่ไม่ต้องฝากก่อนคลิ๊กรับสมัครเเอดไลน์krtfvเครดิตฟรีเครดิตฟรีล่าสุดเครดิตฟรีเครดิตฟรีเครดิตฟรีไม่ต้องฝากเครดิตฟรีpgwalletเว็บตรงสล็อตcharlot</t>
+  </si>
+  <si>
+    <t>freespinเเจกฟรีบาทเล่นได้ทุกค่ายสมัครใหม่ไม่ต้องฝากก่อนคลิ๊กรับสมัครเเอดไลน์krtfvเครดิตฟรีเครดิตฟรีล่าสุดเครดิตฟรีเครดิตฟรีเครดิตฟรีไม่ต้องฝากเครดิตฟรีpgwalletเว็บตรงสล็อตcharlot</t>
+  </si>
+  <si>
+    <t>acomplexเเจกฟรีบาทเล่นได้ทุกค่ายสมัครใหม่ไม่ต้องฝากก่อนคลิ๊กรับสมัครเเอดไลน์krtfvเครดิตฟรีเครดิตฟรีล่าสุดเครดิตฟรีเครดิตฟรีเครดิตฟรีไม่ต้องฝากเครดิตฟรีpgwalletเว็บตรงสล็อตcharlot</t>
+  </si>
+  <si>
+    <t>แคปชั่นโปรเดือนกันยายนสมาชิกใหม่แจกทุนฟรีสูงสุด฿รับโบนัสสูงสุดมีโปรให้เลือกมากกว่ารายการเครดิตฟรีสล็อตเครดิตฟรีล่าสุด</t>
+  </si>
+  <si>
+    <t>jackmahjongแจกโค้ดเครดิตฟรี฿แจกจริงไม่มีเงื่อนไขกดรับแนะนำโปรฝากทุนน้อยรับและรับรับโบนัสไม่อั้นถอนได้ไม่จำกัดสล็อตเครดิตฟรีโปรทุนน้อยสล็อตสล็อตเว็บตรงโค้ดเครดิตฟรีทุนฟรี</t>
+  </si>
+  <si>
+    <t>krmsurเเจกฟรีบาทเล่นได้ทุกค่ายสมัครใหม่ไม่ต้องฝากก่อนคลิ๊กรับสมัครเเอดไลน์krtfvเครดิตฟรีเครดิตฟรีล่าสุดเครดิตฟรีเครดิตฟรีเครดิตฟรีไม่ต้องฝากเครดิตฟรีpgwalletเว็บตรงสล็อตcharlot</t>
+  </si>
+  <si>
+    <t>แจกเครดิตฟรี฿ทุกยูสเซอร์สมัครสมาชิกรับทันทีไม่ต้องฝากเล่นได้ทุกค่ายเกมส์ไม่มีเงื่อนไขติดตามรีทวิตคอมเม้นเครดิตฟรีรับได้เลยเครดิตฟรีไม่ต้องฝากสล็อตทุนน้อยสล็อตโค้ดเครดิตฟรีทุนฟรี</t>
+  </si>
+  <si>
+    <t>ppimpesaเเจกฟรีบาทเล่นได้ทุกค่ายสมัครใหม่ไม่ต้องฝากก่อนคลิ๊กรับสมัครเเอดไลน์krtfvเครดิตฟรีเครดิตฟรีล่าสุดเครดิตฟรีเครดิตฟรีเครดิตฟรีไม่ต้องฝากเครดิตฟรีpgwalletเว็บตรงสล็อตcharlot</t>
+  </si>
+  <si>
+    <t>tthorthorเเจกฟรีบาทเล่นได้ทุกค่ายสมัครใหม่ไม่ต้องฝากก่อนคลิ๊กรับสมัครเเอดไลน์krtfvเครดิตฟรีเครดิตฟรีล่าสุดเครดิตฟรีเครดิตฟรีเครดิตฟรีไม่ต้องฝากเครดิตฟรีpgwalletเว็บตรงสล็อตcharlot</t>
+  </si>
+  <si>
+    <t>autowinเเจกฟรีบาทเล่นได้ทุกค่ายสมัครใหม่ไม่ต้องฝากก่อนคลิ๊กรับสมัครเเอดไลน์krtfvเครดิตฟรีเครดิตฟรีล่าสุดเครดิตฟรีเครดิตฟรีเครดิตฟรีไม่ต้องฝากเครดิตฟรีpgwalletเว็บตรงสล็อตcharlot</t>
+  </si>
+  <si>
+    <t>jackpotslotฉลองเปิดใหม่แจกทันทีเครดิตฟรีแจกจริงถอนออกได้ชัวร์โปรโมชั่นพิเศษฝากรับทำยอดถอนได้ทันทีโค้ดทุนฟรีjpกดรับเครดิตฟรีไม่ต้องฝากสล็อตทุนน้อยสล็อตโค้ดเครดิตฟรีสล็อตเครดิตฟรี</t>
+  </si>
+  <si>
+    <t>nawannwanเเจกฟรีบาทเล่นได้ทุกค่ายสมัครใหม่ไม่ต้องฝากก่อนคลิ๊กรับสมัครเเอดไลน์krtfvเครดิตฟรีเครดิตฟรีล่าสุดเครดิตฟรีเครดิตฟรีเครดิตฟรีไม่ต้องฝากเครดิตฟรีpgwalletเว็บตรงสล็อตcharlot</t>
+  </si>
+  <si>
+    <t>โบนัสทุกวันlinekajinoautoสล็อตบาคาร่าเว็บออโต้จ่ายชัวร์ไม่โกงslotthแจ๊คพอตตู้ม้ายิงปลาเสือมังกรbetflikbetflixสล็อตบาคาร่าจ่ายจริงkajinoauto</t>
+  </si>
+  <si>
+    <t>newclearเว็บพนันแทงบอลแจกหนักจัดเต็มด้วยระบบฝากถอนภายในวิเท่านั้นคุณไม่มีทุนเรามีทุนให้บาทเพียงกดหัวใจกดรีทวิตติดตามแคปส่งน้องแอดมินเครดิตฟรีล่าสุดแจกเครดิตฟรีสล็อตpgแจกฟรีฟรี</t>
+  </si>
+  <si>
+    <t>nmarimotoเปิดระบบใหม่แจกเครดิตฟรีแจกเครดิตฟรีไม่ต้องฝากก่อนกดรีทวิตโพสต์นี้กดหัวใจคลิกสล็อตสล็อตเครดิตฟรีเครดิตฟรีไม่ต้องฝากเครดิตฟรีกดรับเองเครดิตฟรีสล็อตpgสล็อตpgเว็บตรงแจกเครดิตฟรีอย่าลืมแคปหน้าจอส่งแอดมินนะคะ</t>
+  </si>
+  <si>
+    <t>creditfreesเเจกฟรีบาทเล่นได้ทุกค่ายสมัครใหม่ไม่ต้องฝากก่อนคลิ๊กรับสมัครเเอดไลน์krtfvเครดิตฟรีเครดิตฟรีล่าสุดเครดิตฟรีเครดิตฟรีเครดิตฟรีไม่ต้องฝากเครดิตฟรีpgwalletเว็บตรงสล็อตcharlot</t>
+  </si>
+  <si>
+    <t>empireslotเว็บอันดับแจกเครดิตฟรี฿เล่นง่ายโอนไวจ่ายจริงเพียงสมัครสมาชิกพิมพ์โค้ดesติดต่อโปรแนะนำฝากรับทำยอดถอนได้ไม่อั้นเครดิตฟรีไม่ฝากเครดิตฟรีล่าสุดสล็อตเครดิตฟรีสล็อตสล็อตแตกง่าย</t>
+  </si>
+  <si>
+    <t>มาแรงอันดับสมาชิกใหม่ฝากเงินรับทันทีโบนัสxxทุกยอดฝากถอนไม่อั้นสมัครกดสล็อตเครดิตฟรีทุนฟรีpgเครดิตฟรีเครดิตฟรีbigmouthepเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์ล่าสุด</t>
+  </si>
+  <si>
+    <t>แจกเครดิตฟรี฿รับได้ทันทีไม่มีเงื่อนไขถอนออกได้จริงโปรพิเศษแจกโบนัสอีกเพียบสนใจรับกรอกโค้ดpgnsกดรับเลยแนะนำโบนัสฟรีรับทำยอดเท่าถอนได้ทันทีเครดิตฟรีไม่ต้องฝากเครดิตฟรีสล็อตทุนน้อยสล็อต</t>
+  </si>
+  <si>
+    <t>เปิดระบบใหม่แจกเครดิตฟรีแจกเครดิตฟรีรีบเลยสมัครรับเลยตอนนี้คลิกสมัครtweetเครดิตฟรีไม่ต้องฝากสล็อตสล็อตแตกง่ายเครดิตฟรีล่าสุดเครดิตฟรีกด</t>
+  </si>
+  <si>
+    <t>gotshamonแคปชั่นโปรเดือนกันยายนสมาชิกใหม่แจกทุนฟรีสูงสุด฿รับโบนัสสูงสุดมีโปรให้เลือกมากกว่ารายการเครดิตฟรีสล็อตเครดิตฟรีล่าสุด</t>
+  </si>
+  <si>
+    <t>เปิดระบบใหม่แจกเครดิตฟรีแจกเครดิตฟรีไม่ต้องฝากก่อนกดรีทวิตโพสต์นี้กดหัวใจคลิกสล็อตสล็อตเครดิตฟรีเครดิตฟรีไม่ต้องฝากเครดิตฟรีกดรับเองเครดิตฟรีสล็อตpgสล็อตpgเว็บตรงแจกเครดิตฟรีอย่าลืมแคปหน้าจอส่งแอดมินนะคะ</t>
+  </si>
+  <si>
+    <t>แจกกดรีทวิตกดหัวใจติดตามรับที่นี่เครดิตฟรีเครดิตฟรีล่าสุดสล็อตเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์แจกเครดิตฟรีฝากรับล่าสุดเครดิตฟรีฝากรับล่าสุด</t>
+  </si>
+  <si>
+    <t>vqtznztvscvkzrแคปชั่นโปรเดือนกันยายนสมาชิกใหม่แจกทุนฟรีสูงสุด฿รับโบนัสสูงสุดมีโปรให้เลือกมากกว่ารายการเครดิตฟรีสล็อตเครดิตฟรีล่าสุด</t>
+  </si>
+  <si>
+    <t>แจกเครดิตฟรีoเล่นง่ายถอนได้จริงรีทวิตโพสต์นี้กดหัวใจคลิกรับสล็อตเครดิตฟรีล่าสุดสล็อตสล็อตทุนน้อยเครดิตฟรีเครดิตฟรีล่าสุดสล็อตแตกง่าย</t>
+  </si>
+  <si>
+    <t>รับทันทีไม่ต้องฝากก่อนเพียงคอมเม้นแจกเครดิตฟรีโค้ดroaโปรใหม่มาแรงฝากได้ทำยอดเพียงนีโปรทุนน้อยpgslotสล็อตเครดิตฟรีไม่ต้อสล็อตเครดิตฟรีสล็อตเว็บตรงเครดิตฟรีล่าสุด</t>
+  </si>
+  <si>
+    <t>vipเปิดระบบใหม่แจกเครดิตฟรีแจกเครดิตฟรีไม่ต้องฝากก่อนกดรีทวิตโพสต์นี้กดหัวใจคลิกสล็อตสล็อตเครดิตฟรีเครดิตฟรีไม่ต้องฝากเครดิตฟรีกดรับเองเครดิตฟรีสล็อตpgสล็อตpgเว็บตรงแจกเครดิตฟรี</t>
+  </si>
+  <si>
+    <t>winerบอลคาสิโนหวยเกมส์สล็อตยิงปลาเล่นง่ายได้เงินจริงการันตีการเงินฝากถอนautoโอนไวตลอดชมเล่นง่ายแทงบอลคาสิโนufabetแจกเครดิตฟรีถอนได้จริงสล็อตยิงปลาบาคาร่าบอลสดเว็บตรง</t>
+  </si>
+  <si>
+    <t>ataphonajooเเจกฟรีบาทเล่นได้ทุกค่ายสมัครใหม่ไม่ต้องฝากก่อนคลิ๊กรับสมัครเเอดไลน์krtfvเครดิตฟรีเครดิตฟรีล่าสุดเครดิตฟรีเครดิตฟรีpgwalletเว็บตรงสล็อตcharlotเครดิตฟรีpgslot</t>
+  </si>
+  <si>
+    <t>fernmeนักล่าเครดิตฟรีสล็อตpgเครดิตฟรีแจกจริง</t>
+  </si>
+  <si>
+    <t>pitchayanoijaiนักล่าเครดิตฟรีสล็อตpgเครดิตฟรีแจกจริง</t>
+  </si>
+  <si>
+    <t>รับฟรีบาทเพียงลงทะเบียนลงทะเบียนแจ้งทำกิจกรรมเครดิตฟรีไม่ต้องฝากเครดิตฟรีสล็อตทุนน้อยสล็อตโค้ดเครดิตฟรีทุนฟรี</t>
+  </si>
+  <si>
+    <t>gigavgigaเเจกฟรีบาทเล่นได้ทุกค่ายสมัครใหม่ไม่ต้องฝากก่อนคลิ๊กรับสมัครเเอดไลน์krtfvเครดิตฟรีเครดิตฟรีล่าสุดเครดิตฟรีเครดิตฟรีpgwalletเว็บตรงสล็อตcharlotเครดิตฟรีpgslot</t>
+  </si>
+  <si>
+    <t>เครดิตฟรีล่าสุดเครดิตฟรีเครดิตฟรีเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์สล็อตเครดิตฟรีสล็อตเครดิตฟรีไม่ต้องแชร์ทุนฟรี่jokerslotpgslotเครดิตฟรีเครดิตฟรีเครดิตฟรีล่าสุดทุนฟรีถอนทุนฟรีแจกจริงแจกทุนปั่นฟรี</t>
+  </si>
+  <si>
+    <t>เครดิตฟรีล่าสุดแจกทักรับเลยไม่ฝากไม่แชร์กดรีทวิตกดหัวใจแคปส่งแอดรับเลยแคปส่งแอดแจ้งรับเครดิตฟรีได้เลยแจ้งที่เครดิตฟรีล่าสุดเครดิตฟรีสล็อตเครดิตฟรีแจกเครดิตฟรีสล็อตเครดิตฟรีเครดิตฟรีเครดิตฟรีไม่ต้องแชร์</t>
+  </si>
+  <si>
+    <t>เเจกฟรีบาทเล่นได้ทุกค่ายสมัครใหม่ไม่ต้องฝากก่อนคลิ๊กรับสมัครเเอดไลน์krtfvเครดิตฟรีเครดิตฟรีล่าสุดเครดิตฟรีเครดิตฟรีเครดิตฟรีไม่ต้องฝากเครดิตฟรีpgwalletเว็บตรงสล็อตcharlot</t>
+  </si>
+  <si>
+    <t>รับเลยเครดิตฟรีไม่ต้องร่วมกิจกรรมไม่แชร์แอดมินบริการชั่วโมงคลิกเครดิตฟรีเครดิตฟรีล่าสุดเครดิตฟรีวันนี้เครดิตฟรีสล็อตเว็บใหม่สล็อตฟรีล่าสุดฟรีแจกจริงเเจกเครดิตฟรีสล็อตมาแรง</t>
+  </si>
+  <si>
+    <t>popupnanaเเจกฟรีบาทเล่นได้ทุกค่ายสมัครใหม่ไม่ต้องฝากก่อนคลิ๊กรับสมัครเเอดไลน์krtfvเครดิตฟรีเครดิตฟรีล่าสุดเครดิตฟรีเครดิตฟรีpgwalletเว็บตรงสล็อตcharlotเครดิตฟรีpgslot</t>
+  </si>
+  <si>
+    <t>แจกเครดิตฟรีไม่ต้องฝากต้องแชร์กดรีทวิตกดใจกดติดตามแจกเครดิตฟรีติดต่อแอดมินเครดิตฟรีเครดิตฟรีไม่ต้องฝากเครดิตฟรีเครดิตฟรีล่าสุดtiktokสล็อตสล็อตเครดิตฟรีเครดิตฟรีกดรับเองแจกเครดิตฟรี</t>
+  </si>
+  <si>
+    <t>เเจกเครดิตฟรีไม่ต้องฝากก่อนสมัครใหม่รับได้เลยไม่มีเงื่อนไขรับเลยสมัครสมาชิกเครดิตฟรีเครดิตฟรีเครดิตฟรีไม่ต้องฝากสล็อตสล็อตออนไลน์เเจกเครดิตฟรีเครดิตฟรีล่าสุดฝากรับโปรสล็อตสล็อตแตกดี</t>
+  </si>
+  <si>
+    <t>nongmwyidaเเจกฟรีบาทเล่นได้ทุกค่ายสมัครใหม่ไม่ต้องฝากก่อนคลิ๊กรับสมัครเเอดไลน์krtfvเครดิตฟรีเครดิตฟรีล่าสุดเครดิตฟรีเครดิตฟรีpgwalletเว็บตรงสล็อตcharlotเครดิตฟรีpgslot</t>
+  </si>
+  <si>
+    <t>กดรีทวิตโพสต์นี้กดหัวใจคลิกสล็อตสล็อตเครดิตฟรีเครดิตฟรีไม่ต้องฝากเครดิตฟรีกดรับเองเครดิตฟรีสล็อตpgสล็อตpgเว็บตรงแจกเครดิตฟรีอย่าลืมแคปหน้าจอส่งแอดมินนะคะ</t>
+  </si>
+  <si>
+    <t>เเจกฟรีบาทเล่นได้ทุกค่ายสมัครใหม่ไม่ต้องฝากก่อนคลิ๊กรับสมัครเเอดไลน์krtfvเครดิตฟรีเครดิตฟรีล่าสุดเครดิตฟรีเครดิตฟรีเครดิตฟรีไม่ต้องฝากเครดิตฟรีpgwalletเว็บตรงสล็อตcharl</t>
+  </si>
+  <si>
+    <t>maxmaเครดิตฟรีบรับได้ทุกยูสไม่ต้องฝากก่อนรับเครดิตฟรีสมัครแอดไลน์ทักทำกิจกรรมแจกเครดิตฟรีเครดิตฟรีล่าสุดเครดิตฟรีกดรับเองแจกเครดิตฟรีสล็อตslotเครดิตฟรีทุนฟรีทุนฟรี</t>
+  </si>
+  <si>
+    <t>bossขออนุญาตแนะนำเว็บประจำแตกดีมากฝากรับไม่ต้องทำเทิร์นสล็อตออนไลน์สล็อตpgเว็บตรงแจกฟรีทุนฟรีทุนฟรีเครดิตฟรีกดรับเองเครดิตฟรีเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์เครดิตฟรีเครดิตฟรีไม่ต้องฝาก</t>
+  </si>
+  <si>
+    <t>bossขออนุญาตแนะนำเว็บประจำแตกดีมากฝากรับไม่ต้องทำเทิร์นเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์เครดิตฟรีเครดิตฟรีไม่ต้องฝากเครดิตฟรีสล็อตเครดิตฟรีสล็อตแตกง่ายสล็อตออนไลน์สล็อตpgเว็บตรงแจกฟรี</t>
+  </si>
+  <si>
+    <t>แจกโค้ดเครดิตฟรีมูลค่าบาทโค้ดluckyfreebathใช้ได้จริงโค้ดต่อยูสเซอร์ไม่มีจำกัดจำนวนโค้ดไม่มีเต็มไม่มีหมดใช้โค้ดที่แจกฟรีแจกโค้ดฟรีแจกเครดิตฟรีแจกจริงแจกโค้ดโค้ดฟรีโค้ดเครดิตเครดิตฟรีโค้ดเครดิตฟรี</t>
+  </si>
+  <si>
+    <t>แจกเครดิตฟรีกดหัวใจกดติดตามกดรีทวิตคอมเม้นได้จริงแคปส่งแอดมินแอดมินที่นี่gtgtgtเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์เครดิตฟรีเครดิตฟรีสล็อตเครดิตฟรีเครดิตฟรีไม่ต้องฝากทุนฟรีสล็อตpgสล็อตเว็บตรงแจกฟรีเครดิตฟรีล่าสุด</t>
+  </si>
+  <si>
+    <t>เครดิตฟรีถอนได้จริงแจ้งชื่อนามสกุลเบอร์โทรรับได้เลยรีทวิตแล้วแคปส่งได้เลยเหมือนเดิมแจ้งที่เครดิตฟรีล่าสุดแจกเครดิตฟรีเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์เครดิตฟรีสล็อตเครดิตฟรีเครดิตฟรีแจกจริงสล็อตแตกง่ายสล็อตแจกฟรี</t>
+  </si>
+  <si>
+    <t>เครดิตฟรีบาทไม่ต้องฝากไม่ต้องแชร์ไม่ต้องทำกิจกรรมรับได้ทุกuserถอนได้บาทรีทวิตกดใจแคปส่งแอดมินเครดิตฟรีแจกเครดิตฟรีสล็อตทุนฟรีเครดิตฟรีเครดิตฟรีไม่ต้องฝากเครดิตฟรีสล็อตเครดิตฟรีเครดิตฟรีกดรับเองแจกฟรี</t>
+  </si>
+  <si>
+    <t>แจกเครดิตฟรีรอบทีกดติดตามกดรีทวิตคอมเม้นได้จริงแคปหลักฐานแจ้งแอดมินที่นี่เครดิตฟรีล่าสุดเครดิตฟรีกดรับเองเครดิตฟรีเครดิตฟรีสล็อตสล็อตเครดิตฟรีเครดิตฟรีไม่ต้องฝากทุนฟรีสล็อตpgสล็อตเว็บตรงแจกฟรีเครดิตฟรี</t>
+  </si>
+  <si>
+    <t>รีทวิตติดตามหัวใจแคปส่งให้แอดมินได้เลยสมัครสมาชิกเสร็จรับทันทีทางเข้ายืนยันรับเครดิตฟรีล่าสุดเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์เครดิตฟรีไม่ต้องฝากสล็อตสล็อตpgแจกเครดิตฟรีแจกฟรีสล็อตเว็บตรงเครดิตฟรีเครดิตฟรี</t>
+  </si>
+  <si>
+    <t>แค่สมัครรับเครดิตฟรีน้องใหม่แจกหนักแจกจริงขอรับได้ทันทีไม่ต้องเสียเงินสักบาทเครดิตฟรีแจกฟรี</t>
+  </si>
+  <si>
+    <t>pgluckyแจกทุนฟรีทุนฟรีสมัครดูหนังฟรีpgluckyjungkookjacksonwangสล็อตแจกฟรีเครดิตฟรีlucaslisabbillkinpinkvenomรับรับอิงฟ้ามหาชนshutdownbornpink</t>
+  </si>
+  <si>
+    <t>ufaแจกเครดิต฿ฟรีไม่ต้องฝากไม่ต้องแชร์แตกบ่อยแจกหนักเครดิตฟรีติดต่อหน้าเว็ปเท่านั้นลิ้งค์รับ฿ฟรีเครดิตฟรีล่าสุดแจกฟรีเครดิตฟรีเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์เครดิตฟรีแจกเงินฟรีสล็อตเครดิตฟรี</t>
+  </si>
+  <si>
+    <t>กิจกรรมแจกรางวัลฟอลร้านกดไลค์แชร์โพสต์นี้ลงสตอรี่คอมเม้นอิโมจิแสนน่ารักประกาศผลแจกฟรืกิจกรรมแจกของฟรีแจกฟรีแจกฟรีไม่รีได้ไงแจกฟรีไม่ฟอลได้ไง</t>
+  </si>
+  <si>
+    <t>เครดิตฟรีได้รับทั้งยูสเก่าและใหม่ไม่ต้องฝากก่อนรีทวิตกดติดตามให้ด้วยน้าgtgtแจกฟรีเครดิตฟรีล่าสุดเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์ล่าสุดเครดิตฟรีล่าสุดเครดิตฟรีเครดิตฟรีกดรับเองเครดิตฟรีเว็บตรงเครดิตฟรี</t>
+  </si>
+  <si>
+    <t>แจกบาทคนฉลองปิดเทอมกติการีฟอลสุ่มสามโมงเช้าแจกฟรีแจกฟรีแค่รีแค่ฟอลแจกเงินแจกเครดิตฟรี</t>
+  </si>
+  <si>
+    <t>โค้ดdubaifreevkkkhrktbqfxสมัครสมาชิกแล้วใช้โค้ดได้เลยทันทีไม่ต้องโอนก่อนถอนได้จริงไม่หักจ่ายเต็มสมัครคลิกโค้ดฟรีเครดิตฟรีแจกโค้ดแจกฟรีโค้ดฟรีโค้ดสล็อตฟรีสล็อตฟรีแจกจริงไม่ต้องฝาก</t>
+  </si>
+  <si>
+    <t>heahmodtudมาแล้วโค้ดเครดิตฟรีที่ใช้ได้จริงโค้ดsushifeeexdiqoppptyfสมัครและใช้โค้ดคลิกเครดิตฟรีแจกฟรีแจกเครดิตฟรีฟรีแจกเครดิตโค้ดฟรีโค้ดเครดิต</t>
+  </si>
+  <si>
+    <t>เคดิตฟรีแจกฟรีทุกยูสเพียงกดรีทวิตกดหัวใจกดติดตามและคอมเม้นว่าแจกฟรีพร้อมแคปแล้วส่งแชทให้แอดมินได้เลยสมัครรับทุนฟรีได้เลยเครดิตฟรีเครดิตฟรีล่าสุดเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์เครดิตฟรีกดรีบเองบาคาร่า</t>
+  </si>
+  <si>
+    <t>มาเล่นกันเยอะๆน้าอยากแจกกกแจกฟรีแจกแจกฟรีไม่รีได้ไงแจกฟรีแค่รีฟอลแจกฟรีไม่ฟอลได้ไงแจกเงินแจกฟรีก็รีกันไป</t>
+  </si>
+  <si>
+    <t>สมัคตั้งไว้ได้รับเฉยบาทลองเช็คดูในกล่องจดหมายสำหรับสมาชิกเก่าสมาชิกใหม่ยืนยันตัวตนเสร็จรอลุ้นเลยแจกฟรีเครดิตฟรีเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์เครดิตฟรีกดรับเอง</t>
+  </si>
+  <si>
+    <t>มาแล้วโค้ดเครดิตฟรีที่ใช้ได้จริงโค้ดsushifeeexdiqoppptyfสมัครแล้วใช้โค้ดได้เลยทันทีไม่ต้องรอง่ายๆไม่ยุ่งยากใช้ได้จริงถอนได้ฟรีเต็มๆสมัครและใช้โค้ดคลิกเครดิตฟรีแจกฟรีแจกเครดิตฟรีฟรีแจกเครดิตโค้ดฟรีโค้ดเครดิต</t>
+  </si>
+  <si>
+    <t>heahmodtudมาแล้วโค้ดเครดิตฟรีที่ใช้ได้จริงโค้ดsushifeeexdiqoppptyfสมัครแล้วใช้โค้ดได้เลยทันทีไม่ต้องรอง่ายๆไม่ยุ่งยากใช้ได้จริงถอนได้ฟรีเต็มๆสมัครและใช้โค้ดคลิกเครดิตฟรีแจกฟรีแจกเครดิตฟรีฟรีแจกเครดิตโค้ดฟรีโค้ดเครดิ</t>
+  </si>
+  <si>
+    <t>dubaifreevkkkhrktbqfxสมัครสมาชิกแล้วใช้โค้ดได้เลยทันทีไม่ต้องโอนก่อนถอนได้จริงไม่หักจ่ายเต็มสมัครคลิกโค้ดฟรีเครดิตฟรีแจกโค้ดแจกฟรีโค้ดฟรีโค้ดสล็อตฟรีสล็อตฟรีแจกจริงไม่ต้องฝาก</t>
+  </si>
+  <si>
+    <t>แจกเครดิตฟรีบาทแจกทุนฟรีบๅทถอนสูงสุดบาทรับง่ายได้ชัวร์ไม่ติดเขื่อนไขไม่ต้องฝากก่อนไม่ต้องทำกิจกรรมลิงค์สมัครทุนฟรีฟรีเครดิตฟรีแจกฟรี</t>
+  </si>
+  <si>
+    <t>เข้ากลุ่มได้ลุ้นรับเครดิตฟรีสุ่มเพิ่มยอดสมัครเล่นฝากรับฝากรับสล๊อตpgเครดิตฟรีแจกฟรีแตกง่ายคาสิโนปั่นแตก</t>
+  </si>
+  <si>
+    <t>เว็บตรงของคนจริงcoscaแหล่งรวมเกมส์slotที่เยอะที่สุดแจกเครดิตฟรีสล็อตเว็บตรงทุนน้อยบาคาร่าโปรสมาชิกใหม่สล็อตสล็อตแตกง่ายเว็บตรงไม่ผ่านเอเย่นต์แจกฟรีหวยออนไลน์คลิ๊กเลย</t>
+  </si>
+  <si>
+    <t>แจกบาทคนให้ฟลวค่ะอย่าลืมเมนชั่นนะคะแจกฟรีแจกฟรีแค่รีฟอลแจกเงินฟรีแจกเงินตลาดนัดอากาเซ่ตลาดนัดบังทันตลาดนัดเด็กหลงตลาดนัดเด็กสมบัติตลาดนัดtreasureตลาดนัดเครื่องเขียนตลาดนัดเทนิปุริตลาดนัดอนิเมะรวมด้อมตลาดนัดคุโรบาสขออนุญาตค่ะ</t>
+  </si>
+  <si>
+    <t>เครดิตฟรีบาทไม่ต้องฝากต้องแชร์yvzqxกดใจกดรีทวิตกดติดตามพิมใต้โพสแจกจริงลิงค์สมัครแจกฟรีเครดิตฟรีล่าสุดเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์ล่าสุดเครดิตฟรีล่าสุดเครดิตฟรีเครดิตฟรีกดรับเองเครดิตฟรีเว็บตรง</t>
+  </si>
+  <si>
+    <t>devilpgฝากได้คลิ๊กgtสล็อตยิงปลาสล็อตออนไลน์สล็อตแตกง่ายสล็อตpgdevilpgสล็อตทุนน้อยแจกฟรีเครดิตแจกฟรีฟรีเครดิตสล็อต</t>
+  </si>
+  <si>
+    <t>หาคนที่มีแอพกสิกรเค้าจาให้โหลดแอพmakeคั้บแค่โหลดแอพมากรอกรหัสเชิญเอาไปเยย฿น้องเหมือนแอพธนาคารปกติเยยแต่น้องไว้แบ่งเงินจัดสรรค์เงินน่ารักมากๆเดมมาเยยรับอีกคนน้ามาเอาตังไปกินหนมงานออนไลน์แจกเงินฟรีงานออนไลน์ไม่เสียค่าสมัครหาเงินค่าขนมแจกแจกเงินแจกฟรี</t>
+  </si>
+  <si>
+    <t>แจกจ้าแจกกติกาง่ายๆฟอลรีโพสนี้ฟอลครบสุ่มจากเม้นทันทีร้านwedasclinicส่งต่อแจกฟรีส่งต่อสกินเเคร์ส่งต่อเสื้อผ้ามือสองsavesaisawatส่งฟรี</t>
+  </si>
+  <si>
+    <t>แจกฟรีแจกฟรีแค่รีแค่ฟอลsetน้ำหอมจิ๋วdoiorjadoreจาดอร์mlและครีมทาผิวขนาดmlมูลค่าบาทแค่รีทวิตนี้และฟอลแอคเคาน์สุ่มแจกเมื่อยอดฟอลครบคนจ้า</t>
+  </si>
+  <si>
+    <t>สุ่มแจกเงินบาทกติการีรีโพสใต้ทวิตเท่านั้นประกาศวันนี้เลยกยนี้เริ่มเลยยยแจกฟรีแจกเงินแจกฟรีแค่รีฟอลแจกฟรีก็รีกันไปสุ่มแจก</t>
+  </si>
+  <si>
+    <t>แจกสติกเกอร์ไลน์เหรียญเป็นสติกเกอร์ไลน์แนวท้องฟ้าที่น่ารักสดใสมั้กรีทวิตฟอลร้านskyshopzxประกาศผลเวลานแจกฟรีแค่รีแค่ฟอลแจกฟรีก็รีกันไปแจกแจกฟรีธีมไลน์สติกเกอร์ไลน์skyshopreviewแจก</t>
+  </si>
+  <si>
+    <t>สุ่มวันภายในอาทิดนี้้้้้้้้แจกแจกฟรีตลาดนัดโซชิตลาดนัดรวมด้อมตลาดนัดexoตลาดนัดgotตลาดรถไฟบังทันตลาดนัดblackpinkตลาดนัดnctตลาดนัดitzyตลาดนัดenhypenตลาดนัดเด็กหลงตลาดนัดรววตลาดนัดaespaตลาดนัดmamamoo</t>
+  </si>
+  <si>
+    <t>แจกเงินบาทลงซองบัญชีรีในโควทฟอลสุ่มแจกสิ้นเดือนค่ะแจกเงินแจกฟรี</t>
+  </si>
+  <si>
+    <t>พร้อมจบลดแจกฟรีแจกiphoneมือสองโทรศัพท์มือสองมือถือมือสองมือถือราคาถูกไอโฟนมือไอโฟนมือสองโล๊ะตู้เสื้อผ้าส่งต่อเสื้อผ้าไอแพดมือสอง</t>
+  </si>
+  <si>
+    <t>แจกแจกฟรีแจกฟรีไม่รีได้ไงแจกฟรีไม่ฟอลได้ไงแจกฟรีแค่รีฟอลแจกฟรีแค่รีฟอลแจกฟรีก็รีกันไปจเนิสสายแจก</t>
+  </si>
+  <si>
+    <t>texasสมาชิกใหม่รับโบนัสฟรีฝากรับไม่ต้องแชร์รีทวิตกดหัวใจคอมเม้นแจกฟรีเล่นได้ถอนได้เลยแคปหลักฐานไลน์txsคืนยอดเสียทุกวันสูงถึงสมัคฟรีเครดิตฟรีเครดิตฟรีล่าสุดเครดิตฟรีล่าสุด</t>
+  </si>
+  <si>
+    <t>coscaคาสิโนออนไลน์สมัครฟรีเครดิตฟรีไม่ต้องฝากต้องแชร์เว็บสล็อตอันดับเล่นได้จ่ายจริงpgเว็บตรงสล็อตออนไลน์แจกฟรีเครดิตแจกฟรีslotอันดับสล็อตpgสล็อตjokerสล็อตxoเกมออนไลน์เล่นได้จ่ายจริงpgเว็บตรง</t>
+  </si>
+  <si>
+    <t>แจกแจกสติ๊กเกอร์ไลน์แจกฟรี</t>
+  </si>
+  <si>
+    <t>กลุ่มโปรดีๆของซอดอมอสติ๊กเกอร์ราคาเริ่มต้น฿อัพเดตโปรโมชั่นใหม่ทุกวันสิทธิพิเศษเฉพาะสมาชิกกลุ่มแจกสติ๊กเกอร์ฟรีสแกนเข้ามาเป็นสมาชิกได้เลยbigmouthepสติ๊กเกอร์ไลน์สติ๊กเกอร์ไลน์ราคาถูกแจกฟรี</t>
+  </si>
+  <si>
+    <t>แจกแจกฟรีแจกฟรีไม่รีได้ไงแจกฟรีก็รีกันไปแจกฟรีเเค่รีฟอล</t>
+  </si>
+  <si>
+    <t>แจกฟรีมาเล่นกันเยอะๆน้าา</t>
+  </si>
+  <si>
+    <t>สมาชิกใหม่แจกเครดิตฟรีรีทวีตกดหัวใจแคปโพสต์นี้ส่งให้แอดมินเครดิตฟรีเครดิตฟรีล่าสุดแจกเครดิตฟรีเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์พนันออนไลน์บอลสล็อตแตกง่ายสล็อตออนไลน์แจกฟรีเว็บตรงturewallet</t>
+  </si>
+  <si>
+    <t>ก็งงตัวเองว่าจะแจกทุกวันเลยหรอมาฮะแจกฟรีมากส์หน้าherhynessรางวัลเอาไปเลยแผ่นจุกๆค่าส่วนตัวใช้แล้วชอบมากเลยมาแจกให้ฟลวคับกติการีฟอลเฟบประกาศผลเมื่อยอดฟอลถึงkน้าแจกฟรีไม่ฟอลได้ไงแจกฟรีแค่รีฟอลแจกฟรีแค่รีแค่ฟอลgiveaway</t>
+  </si>
+  <si>
+    <t>หาคนกรอกโค้ดtiktokขอคนที่ยังไม่เคยโหลดตตในเครื่องงับให้ค่าขนม฿ตามโบนัสเยยเดมมาเลยน้าาbabaขอคนเท่านั้นรีบๆเลยน้าใครใส่ได้เดมมาพร้อมหลักฐานเยยพร้อมโอนค้าบtiktoktiktokแจกเงินtiktokเชิญเพื่อนแจกฟรีแจกเงินฟรีไม่รีได้ไง</t>
+  </si>
+  <si>
+    <t>มาเล่นกันเยอะๆน้าาเค้าแจกจริงแน่นอนคับแจกฟรีแจกฟรีไม่รีได้ไงแจกฟรีแค่รีฟอลhowtoperfectสุ่มสุ่มแจกสุ่มฟรีแจกเงินแจกเงินฟรีแจกปลใครทำไม่ครบขออนุญาตตัดสินนะค้า</t>
+  </si>
+  <si>
+    <t>กลุ่มโปรดีๆของซอดอมอสติ๊กเกอร์ราคาเริ่มต้น฿อัพเดตโปรโมชั่นใหม่ทุกวันสิทธิพิเศษเฉพาะสมาชิกกลุ่มแจกสติ๊กเกอร์ฟรีสแกนเข้ามาเป็นสมาชิกได้เลยของรักของข้าสติ๊กเกอร์ไลน์สติ๊กเกอร์ไลน์ราคาถูกแจกฟรี</t>
+  </si>
+  <si>
+    <t>แจกวอลเปเปอร์ราศีแจกวอลเปเปอร์แจกฟรีวอลเปเปอร์วอลเปเปอร์แจกฟรีสายมูwallpaperสายมูเตลู</t>
+  </si>
+  <si>
+    <t>เปิดแอคใหม่สุ่มแจก฿รางวัลกติการีฟอลประกาศผลพรุ่งนี้เที่ยงแจกฟรีไม่รีได้ไงแจกฟรีแค่รีฟอลแจกเงินฟรีแจกฟรี</t>
+  </si>
+  <si>
+    <t>แจกเพิ่มเป็นคนน้าสุ่มได้แท็กให้ค้าบให้เวลานาทีไม่ตอบกลับสุ่มใหม่น้าแจกฟรีแจกแจกจริงแจกฟรีไม่รีได้ไงcanvacanvaproแคนวาโปรหารcanvaproหารแคนวาbangkoknctbaddies</t>
+  </si>
+  <si>
+    <t>กลุ่มโปรดีๆของซอดอมอสติ๊กเกอร์ราคาเริ่มต้น฿อัพเดตโปรโมชั่นใหม่ทุกวันสิทธิพิเศษเฉพาะสมาชิกกลุ่มแจกสติ๊กเกอร์ฟรีสแกนเข้ามาเป็นสมาชิกได้เลยtiktokawardsthสติ๊กเกอร์ไลน์สติ๊กเกอร์ไลน์ราคาถูกแจกฟรี</t>
+  </si>
+  <si>
+    <t>มารีกันได้น้าแจกฟรีแจกแจกจริง</t>
+  </si>
+  <si>
+    <t>เนื่องจากอยากแจกcanvaproคนกติการีทวิตอย่างเดียวประกาศวันที่เวลาแจกฟรีแจกแจกจริงแจกฟรีไม่รีได้ไงcanvacanvaproแคนวาโปรหารcanvaproหารแคนวาbangkok</t>
+  </si>
+  <si>
+    <t>texasสมาชิกใหม่รับโบนัสฟรีฝากรับไม่ต้องแชร์รีทวิตกดหัวใจคอมเม้นแจกฟรีเล่นได้ถอนได้เลยแคปหลักฐานนำมาแจ้งที่ไลน์txsคืนยอดเสียทุกวันสูงถึงสมัคฟรีเครดิตฟรีเครดิตฟรีล่าสุดโปรฝาก</t>
+  </si>
+  <si>
+    <t>สุ่มแจกgtgtกติการีทวิตรีเฟบในเมนชั่นgtgtสุ่มแจกพรุ่งนี้นgtgtสุ่มแจกเฉพาะฟลวน้าแจกฟรีแจกเงินแจกฟรีไม่ฟอลได้ไงแจกฟรีไม่รีได้ไงแจกฟรีแค่รีแค่ฟอล</t>
+  </si>
+  <si>
+    <t>วันที่กันยายนขอแนะนำแผนเทคโนโลยีวิทยาการคำนวณปหลักสูตรแผนการสอนเทคโนโลยีวิทยาการคอมพิวเตอร์สำหรับชั้นประถมศึกษาเป็นหลักสูตรสำหรับนำไปปรับใช้ประกอบการเรียนการสอนคุณครูที่สนใจสามารถเข้าดาวโหลดเอกสารได้ฟรี</t>
+  </si>
+  <si>
+    <t>ใกล้ประกาศแล้วน้าตอนนี้ยังทันนะคะแจกแจกเงินแจกเงินฟรีแจกเงินฟรีไม่รีได้ไงแจกฟรีแจกฟรีแค่รีฟอลแจกฟรีไม่รีได้ไงแจกฟรีแค่รีแค่ฟอล</t>
+  </si>
+  <si>
+    <t>แจกเซรั่มsulwhasooขวดใหญ่รางวัลค่าแค่รีรีทวิตใต้โพสต์ให้แค่ฟลวเราน้าาติดตามกันมาได้เลยแจกฟรีแจกฟรีแค่รีฟอลแจกฟรีไม่ฟอลได้ไงแจกฟรีไม่รีได้ไง</t>
+  </si>
+  <si>
+    <t>ฉลองเปิดร้านใหม่แจกหมอนผ้าห่มแคร์แบร์มีสีมูลค่า฿รางวัลรีทวิตฟอลเมนชั่นสีที่อยากได้เเจกตอนผู้ติดตามครบฟอลแจกแจกฟรี</t>
+  </si>
+  <si>
+    <t>สนใจสอบถามได้ก่อนนะคะกระเป๋าผ้ามือสองกระเป๋ามือสองส่งต่อกระเป๋ากระเป๋ามือสองสภาพดีแจกฟรีกระเป๋าสะพายข้าง</t>
+  </si>
+  <si>
+    <t>มาจ้ากระเป๋าผ้ามือสองกระเป๋าใส่ไอแพดส่งต่อเสื้อผ้ามือสองส่งต่อกระเป๋ากระเป๋าสะพายข้างแจกฟรี</t>
+  </si>
+  <si>
+    <t>กิจกรรมทายผลสกอร์รวมสเปอร์สvsเลสเตอร์ซิตี้ลุ้นรับรางวัลบาทสนใจคลิ๊กเลยแจกฟรีเครดิตufaรางวัลใหญ่กิจกรรมกิจกรรมแจกฟรีเครดิตฟรีแจกจริงไม่จกตารีวิวรีวิวเน้นๆแอดอยากแจกiphonepromax</t>
+  </si>
+  <si>
+    <t>มาอีกแว้วsetpngวาดมือไฟล์ค้าบโซคิ้วทึมั้กๆราคามิตรภาพแค่ค้าบฝากรีทวิตให้น้องด้วยน้าแจกวอลเปเปอร์แจกpngแจกอิโมติคอนแจกฟรีแจกฟอนต์แจกฟรีไม่รีได้ไงgiveawaypngน่ารักๆ</t>
+  </si>
+  <si>
+    <t>กดติดตามกดใจกดรีทวิตให้ด้วยนะจ้ะเครดิตฟรีบไม่ฝากไม่แชร์สมัครเสร็จกดตรงโบนัสกรอกโค้ดรับเครดิตฟรีได้เลยทำยอดถอนได้ทันทีลิงค์สมัครโค้ดเครดิตฟรีjokertweetfreeแจกฟรีไม่รีได้ไงแจกฟรีแจกเงินฟรีไม่รีได้ไง</t>
+  </si>
+  <si>
+    <t>รึสุ่มแจก฿คนประกาศเที่ยงคืนพนใครใจดีฝากรีด้านล่างด้วยไม่บังคับแจกแจกฟรีแจกฟรีไม่รีได้ไงแจกฟรีแค่รีฟอลแจกฟรีไม่ฟอลได้ไงแจกฟรีแค่รีแค่ฟอลแจกฟรีก็รีกันไปแจกฟรีได้จริง</t>
+  </si>
+  <si>
+    <t>โปรทุนน้อยสล็อตโปรถอนไม่อั้นฝากรับทำยอดถอนไม่อั้นรวมค่ายเกมเล่นได้หมดสมัครแล้วแจ้งรับที่แอดมินได้เลยรีทวิตให้ด้วยน้ากดสมัครฟรีเครดิตฟรีเครดิตฟรีไฮโลแจกฟรีเว็บตรงสล็อตแจกจริงบอลคาสิโน</t>
+  </si>
+  <si>
+    <t>เปิดค่ายใหม่แจกเครดิตให้เล่นฟรีขั้นตอนง่ายๆกดเข้าสมัครก็รับโค้ดเองได้เลยmcเว็ปออนไลน์อันดับลิ้งค์สมัครลิ้งค์แจกเครดิตหลักเครดิตฟรีเครดิตฟรีล่าสุดฝากรับเครดิตฟรีเครดิตฟรีรับฟรีแจกฟรี</t>
+  </si>
+  <si>
+    <t>กลุ่มโปรดีๆของซอดอมอสติ๊กเกอร์ราคาเริ่มต้น฿อัพเดตโปรโมชั่นใหม่ทุกวันสิทธิพิเศษเฉพาะสมาชิกกลุ่มแจกสติ๊กเกอร์ฟรีสแกนเข้ามาเป็นสมาชิกได้เลยมัดหัวใจยัยซุปตาร์สติ๊กเกอร์ไลน์สติ๊กเกอร์ไลน์ราคาถูกแจกฟรี</t>
+  </si>
+  <si>
+    <t>แจกน้อนbondijellyเซ็ตนี้อย่อยผิวสวยยยรีฟอลรีเธรดเม้นอิโมจิที่ชอบบบแจกของแจกฟรีgiveawaysแจกฟรีไม่รีได้ไงแจกฟรีแค่รีฟอล</t>
+  </si>
+  <si>
+    <t>ฟรีเครดิตทำถอนทันทีสนใจกดเครดิตฟรีshutdownlisaแจกฟรีทุนฟรีสล็อตหวย</t>
+  </si>
+  <si>
+    <t>spinixworldฝากประจำรับเพิ่มลิงค์รับทรัพย์แนะนำเพื่อนรับโชคชั้นแจกเครดิตฟรีสมัครเลยspinixworldเกมออนไลน์เล่นได้จ่ายจริงpgเว็บตรงแจกฟรีหวยงวดนี้tiktokมายอาโปnnattawin</t>
+  </si>
+  <si>
+    <t>แจกฟรีรองเท้ามืองานขายในไอจีมีแค่สีและไซส์ที่ลงแจกฟรีให้คนละคู่ลงรูปในเมนชั่นนบาทรองเท้ามือสองสภาพดีเสื้อผ้ามือสองสภาพดีแจกฟรีส่งต่อเสื้อผ้ามือสองส่งต่อเสื้อผ้าเสื้อผ้ามือส่งต่อรองเท้ามือสองส่งต่อเสื้อผ้า</t>
+  </si>
+  <si>
+    <t>หมวกอีกใบใบสุดท้ายแล้วจบๆหมวกมือสองหมวกแก๊ปส่งต่อเสื้อผ้ามือสองส่งต่อแจกฟรี</t>
+  </si>
+  <si>
+    <t>ใบนี้ใส่ของจุกจิกเยอะเลยน้ากระเป๋ามือสองกระเป๋าผ้ามือสองส่งต่อเสื้อผ้ามือสองส่งต่อกระเป๋ามือสองแจกฟรีส่งต่อกระเป๋า</t>
+  </si>
+  <si>
+    <t>หาคนกรอกโค้ดtiktokขอคนที่ยังไม่เคยโหลดตตในเครื่องงับให้ค่าขนม฿ตามโบนัสเยยเดมมาเลยน้าาbabaขอคนเท่านั้นรีบๆเลยน้าใครใส่ได้เดมมาพร้อมหลักฐานเยยพร้อมโอนค้าบtiktoktiktokแจกเงินtiktokเชิญเพื่อนแจกฟรีแจกเงินฟรี่</t>
+  </si>
+  <si>
+    <t>หาคนกรอกโค้ดtiktokขอคนที่ยังไม่เคยโหลดตตในเครื่องงับให้ค่าขนม฿ตามโบนัสเยยเดมมาเลยน้าาbabaขอคนเท่านั้นรีบๆเลยน้าใครใส่ได้เดมมาพร้อมหลักฐานเยยพร้อมโอนค้าบtiktoktiktokแจกเงินtiktokเชิญเพื่อนแจกฟรีแจกเงินฟรี่่</t>
+  </si>
+  <si>
+    <t>สุ่มแจกฟลวคนละ฿คนรีทวิตโพสต้นฉบับฟลวสุ่มวันที่เวลานแจกเนื่องจากเปิดร้านใหม่ค่ะรับตัวแทนจำหน่ายแจกฟรีสุ่มแจกตลาดนัดสเปย์น้ำแร่</t>
+  </si>
+  <si>
+    <t>รีต้นทวิตฟอลแจก฿ประกาศวันที่ของถึงค่าาแจกเครดิตฟรีแจกเงินแจกฟรีแค่รีฟอลแจกฟรีไม่รีได้ไงแจกฟรีส่งต่อเสื้อผ้ามือสองโล๊ะตู้เสื้อผ้า</t>
+  </si>
+  <si>
+    <t>แจกฉลองครบฟอลแจกเทียนหอมbathandbodyworkswickedสุ่มกลิ่นจากทางร้านมีค่าจัดส่ง฿ขอคนที่สะดวกออกค่าส่งด้วยน้ากติการีทวิตนี้รีทวิตปักหมุดฟอลทำให้ครบข้อแล้วรอลุ้นนะคะประกาศผลเมื่อครบฟอลรับหิ้วbathandbodyworksเทียนหอมแจกแจกฟรี</t>
+  </si>
+  <si>
+    <t>แจกฟรีแจกฟรีแค่รีฟอลแจกฟรีก็รีกันไปฟรีแจกviuแจกของฟรีแจกฟรีแค่รีแค่ฟอลหารviupremiumหารviuหารviuราคาถูกหารวิวพรีเมียม</t>
+  </si>
+  <si>
+    <t>มาเล่นกันได้น้าาแจกฟรีแจกฟรีแค่รีฟอลแจกฟรีไม่รีได้ไงแจกเงินหวยงวดนี้แจก</t>
+  </si>
+  <si>
+    <t>แจกเครดิตฟรีทุกวันเครดิตฟรีรับง่ายๆไม่ต้องฝากไม่ต้องแชร์ไม่ต้องทำกิจกรรมรีทวีตหัวใจติดตามแคปภาพส่งแอดมินเครดิตฟรีเครดิตสล็อตเคดิตฟรีแจกฟรีฟรีเครดิตแจกทุนสล็อตpgสล็อตเครดิตฟรีล่าสุด</t>
+  </si>
+  <si>
+    <t>แจกบาทรางวัลค่าgtรีทวิตนี้gtรีทวิตเฟบในเมนชั่นgtสงวนสิทธิให้ฟลวของเราgtประกาศผลพรุ่งนี้เที่ยงแจกฟรีแจกฟรีไม่รีได้ไงแจกฟรีแค่รีฟอลแจกฟรีไม่ฟอลได้ไงแจกเงิน</t>
+  </si>
+  <si>
+    <t>แจกฟรีเซตเครื่องเขียนรางวัลรีฟอลรีงานในสื่อสุ่มอีกวันแจกฟรีแจกเครื่องเขียนสุ่มแจกสุ่มแจกเงินรีฟอลฟรีncttiktokdown</t>
+  </si>
+  <si>
+    <t>แจกฟรีแค่รีแค่ฟอลแจกจริงแจกฟรีแจกแจกฟรีไม่ฟอลได้ไงแจกฟรีก็รีกันไปแจกเงิน</t>
+  </si>
+  <si>
+    <t>เนื่องในเดือนกยเป็นเดือนเกิดของแอดขอแจกหมวกnerdyใบเน้อง่ายๆแค่รีฟอลประกาศผลวันที่นี้แจกฟรี</t>
+  </si>
+  <si>
+    <t>สล็อตเครดิตฟรีสล็อตสล็อตแตกง่ายเครดิตฟรีล่าสุดแจกฟรีทำยอดถอนได้ทันทีบาทไม่ต้องฝากก่อนสมัครแล้วแจ้งรับที่แอดมินได้เลยรีทวิตให้ด้วยน้ากดสมัครฟรีเครดิตฟรีเครดิตฟรีแจกฟรีเว็บตรงเครดิตฟรีไม่ต้องฝาก</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
@@ -6431,8 +6397,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -6749,8 +6718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B2F671-711C-4E7E-8DEC-862275EA5F43}">
   <dimension ref="A1:B2134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2113" workbookViewId="0">
-      <selection activeCell="A2036" sqref="A2036:B2134"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2141" sqref="C2141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6759,10 +6728,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>191</v>
       </c>
     </row>
@@ -20848,7 +20817,7 @@
     </row>
     <row r="1762" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1762" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="B1762">
         <v>1</v>
@@ -20856,7 +20825,7 @@
     </row>
     <row r="1763" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1763" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="B1763">
         <v>1</v>
@@ -20864,7 +20833,7 @@
     </row>
     <row r="1764" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1764" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="B1764">
         <v>1</v>
@@ -20872,7 +20841,7 @@
     </row>
     <row r="1765" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1765" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="B1765">
         <v>1</v>
@@ -20880,7 +20849,7 @@
     </row>
     <row r="1766" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1766" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="B1766">
         <v>1</v>
@@ -20888,7 +20857,7 @@
     </row>
     <row r="1767" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1767" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B1767">
         <v>1</v>
@@ -20896,7 +20865,7 @@
     </row>
     <row r="1768" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1768" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="B1768">
         <v>1</v>
@@ -20904,7 +20873,7 @@
     </row>
     <row r="1769" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1769" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="B1769">
         <v>1</v>
@@ -20912,7 +20881,7 @@
     </row>
     <row r="1770" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1770" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="B1770">
         <v>1</v>
@@ -20920,7 +20889,7 @@
     </row>
     <row r="1771" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1771" t="s">
-        <v>1755</v>
+        <v>1757</v>
       </c>
       <c r="B1771">
         <v>1</v>
@@ -20928,7 +20897,7 @@
     </row>
     <row r="1772" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1772" t="s">
-        <v>1756</v>
+        <v>1758</v>
       </c>
       <c r="B1772">
         <v>1</v>
@@ -20936,7 +20905,7 @@
     </row>
     <row r="1773" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1773" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="B1773">
         <v>1</v>
@@ -20944,7 +20913,7 @@
     </row>
     <row r="1774" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1774" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="B1774">
         <v>1</v>
@@ -20952,7 +20921,7 @@
     </row>
     <row r="1775" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1775" t="s">
-        <v>1759</v>
+        <v>1761</v>
       </c>
       <c r="B1775">
         <v>1</v>
@@ -20960,7 +20929,7 @@
     </row>
     <row r="1776" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1776" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="B1776">
         <v>1</v>
@@ -20968,7 +20937,7 @@
     </row>
     <row r="1777" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1777" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="B1777">
         <v>1</v>
@@ -20976,7 +20945,7 @@
     </row>
     <row r="1778" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1778" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
       <c r="B1778">
         <v>1</v>
@@ -20984,7 +20953,7 @@
     </row>
     <row r="1779" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1779" t="s">
-        <v>1763</v>
+        <v>1765</v>
       </c>
       <c r="B1779">
         <v>1</v>
@@ -20992,7 +20961,7 @@
     </row>
     <row r="1780" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1780" t="s">
-        <v>1764</v>
+        <v>1766</v>
       </c>
       <c r="B1780">
         <v>1</v>
@@ -21000,7 +20969,7 @@
     </row>
     <row r="1781" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1781" t="s">
-        <v>1765</v>
+        <v>1767</v>
       </c>
       <c r="B1781">
         <v>1</v>
@@ -21008,7 +20977,7 @@
     </row>
     <row r="1782" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1782" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="B1782">
         <v>1</v>
@@ -21016,7 +20985,7 @@
     </row>
     <row r="1783" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1783" t="s">
-        <v>1767</v>
+        <v>1769</v>
       </c>
       <c r="B1783">
         <v>1</v>
@@ -21024,7 +20993,7 @@
     </row>
     <row r="1784" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1784" t="s">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c r="B1784">
         <v>1</v>
@@ -21032,7 +21001,7 @@
     </row>
     <row r="1785" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1785" t="s">
-        <v>1769</v>
+        <v>1771</v>
       </c>
       <c r="B1785">
         <v>1</v>
@@ -21040,7 +21009,7 @@
     </row>
     <row r="1786" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1786" t="s">
-        <v>1770</v>
+        <v>1772</v>
       </c>
       <c r="B1786">
         <v>1</v>
@@ -21048,7 +21017,7 @@
     </row>
     <row r="1787" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1787" t="s">
-        <v>1771</v>
+        <v>1773</v>
       </c>
       <c r="B1787">
         <v>1</v>
@@ -21056,7 +21025,7 @@
     </row>
     <row r="1788" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1788" t="s">
-        <v>1772</v>
+        <v>1774</v>
       </c>
       <c r="B1788">
         <v>1</v>
@@ -21064,7 +21033,7 @@
     </row>
     <row r="1789" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1789" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
       <c r="B1789">
         <v>1</v>
@@ -21072,7 +21041,7 @@
     </row>
     <row r="1790" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1790" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
       <c r="B1790">
         <v>1</v>
@@ -21080,7 +21049,7 @@
     </row>
     <row r="1791" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1791" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
       <c r="B1791">
         <v>1</v>
@@ -21088,7 +21057,7 @@
     </row>
     <row r="1792" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1792" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="B1792">
         <v>1</v>
@@ -21096,7 +21065,7 @@
     </row>
     <row r="1793" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1793" t="s">
-        <v>1777</v>
+        <v>1780</v>
       </c>
       <c r="B1793">
         <v>1</v>
@@ -21104,7 +21073,7 @@
     </row>
     <row r="1794" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1794" t="s">
-        <v>1778</v>
+        <v>1781</v>
       </c>
       <c r="B1794">
         <v>1</v>
@@ -21112,7 +21081,7 @@
     </row>
     <row r="1795" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1795" t="s">
-        <v>1779</v>
+        <v>1782</v>
       </c>
       <c r="B1795">
         <v>1</v>
@@ -21120,7 +21089,7 @@
     </row>
     <row r="1796" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1796" t="s">
-        <v>1780</v>
+        <v>1783</v>
       </c>
       <c r="B1796">
         <v>1</v>
@@ -21128,7 +21097,7 @@
     </row>
     <row r="1797" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1797" t="s">
-        <v>1781</v>
+        <v>1784</v>
       </c>
       <c r="B1797">
         <v>1</v>
@@ -21136,7 +21105,7 @@
     </row>
     <row r="1798" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1798" t="s">
-        <v>1782</v>
+        <v>1785</v>
       </c>
       <c r="B1798">
         <v>1</v>
@@ -21144,7 +21113,7 @@
     </row>
     <row r="1799" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1799" t="s">
-        <v>1783</v>
+        <v>1786</v>
       </c>
       <c r="B1799">
         <v>1</v>
@@ -21152,7 +21121,7 @@
     </row>
     <row r="1800" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1800" t="s">
-        <v>1784</v>
+        <v>1787</v>
       </c>
       <c r="B1800">
         <v>1</v>
@@ -21160,7 +21129,7 @@
     </row>
     <row r="1801" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1801" t="s">
-        <v>1785</v>
+        <v>1788</v>
       </c>
       <c r="B1801">
         <v>1</v>
@@ -21168,7 +21137,7 @@
     </row>
     <row r="1802" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1802" t="s">
-        <v>1786</v>
+        <v>1789</v>
       </c>
       <c r="B1802">
         <v>1</v>
@@ -21176,7 +21145,7 @@
     </row>
     <row r="1803" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1803" t="s">
-        <v>1787</v>
+        <v>1790</v>
       </c>
       <c r="B1803">
         <v>1</v>
@@ -21184,7 +21153,7 @@
     </row>
     <row r="1804" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1804" t="s">
-        <v>1788</v>
+        <v>1791</v>
       </c>
       <c r="B1804">
         <v>1</v>
@@ -21192,7 +21161,7 @@
     </row>
     <row r="1805" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1805" t="s">
-        <v>1789</v>
+        <v>1792</v>
       </c>
       <c r="B1805">
         <v>1</v>
@@ -21200,7 +21169,7 @@
     </row>
     <row r="1806" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1806" t="s">
-        <v>1790</v>
+        <v>1793</v>
       </c>
       <c r="B1806">
         <v>1</v>
@@ -21208,7 +21177,7 @@
     </row>
     <row r="1807" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1807" t="s">
-        <v>1791</v>
+        <v>1794</v>
       </c>
       <c r="B1807">
         <v>1</v>
@@ -21216,7 +21185,7 @@
     </row>
     <row r="1808" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1808" t="s">
-        <v>1792</v>
+        <v>1795</v>
       </c>
       <c r="B1808">
         <v>1</v>
@@ -21224,7 +21193,7 @@
     </row>
     <row r="1809" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1809" t="s">
-        <v>1793</v>
+        <v>1796</v>
       </c>
       <c r="B1809">
         <v>1</v>
@@ -21232,7 +21201,7 @@
     </row>
     <row r="1810" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1810" t="s">
-        <v>1794</v>
+        <v>1797</v>
       </c>
       <c r="B1810">
         <v>1</v>
@@ -21240,7 +21209,7 @@
     </row>
     <row r="1811" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1811" t="s">
-        <v>1795</v>
+        <v>1798</v>
       </c>
       <c r="B1811">
         <v>1</v>
@@ -21248,7 +21217,7 @@
     </row>
     <row r="1812" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1812" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
       <c r="B1812">
         <v>1</v>
@@ -21256,7 +21225,7 @@
     </row>
     <row r="1813" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1813" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
       <c r="B1813">
         <v>1</v>
@@ -21264,7 +21233,7 @@
     </row>
     <row r="1814" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1814" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
       <c r="B1814">
         <v>1</v>
@@ -21272,7 +21241,7 @@
     </row>
     <row r="1815" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1815" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
       <c r="B1815">
         <v>1</v>
@@ -21280,7 +21249,7 @@
     </row>
     <row r="1816" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1816" t="s">
-        <v>1800</v>
+        <v>1803</v>
       </c>
       <c r="B1816">
         <v>1</v>
@@ -21288,7 +21257,7 @@
     </row>
     <row r="1817" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1817" t="s">
-        <v>1801</v>
+        <v>1804</v>
       </c>
       <c r="B1817">
         <v>1</v>
@@ -21296,7 +21265,7 @@
     </row>
     <row r="1818" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1818" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
       <c r="B1818">
         <v>1</v>
@@ -21304,7 +21273,7 @@
     </row>
     <row r="1819" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1819" t="s">
-        <v>1803</v>
+        <v>1806</v>
       </c>
       <c r="B1819">
         <v>1</v>
@@ -21312,7 +21281,7 @@
     </row>
     <row r="1820" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1820" t="s">
-        <v>1804</v>
+        <v>1807</v>
       </c>
       <c r="B1820">
         <v>1</v>
@@ -21320,7 +21289,7 @@
     </row>
     <row r="1821" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1821" t="s">
-        <v>1805</v>
+        <v>1808</v>
       </c>
       <c r="B1821">
         <v>1</v>
@@ -21328,7 +21297,7 @@
     </row>
     <row r="1822" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1822" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="B1822">
         <v>1</v>
@@ -21336,7 +21305,7 @@
     </row>
     <row r="1823" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1823" t="s">
-        <v>1807</v>
+        <v>1810</v>
       </c>
       <c r="B1823">
         <v>1</v>
@@ -21344,7 +21313,7 @@
     </row>
     <row r="1824" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1824" t="s">
-        <v>1808</v>
+        <v>1811</v>
       </c>
       <c r="B1824">
         <v>1</v>
@@ -21352,7 +21321,7 @@
     </row>
     <row r="1825" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1825" t="s">
-        <v>1809</v>
+        <v>1812</v>
       </c>
       <c r="B1825">
         <v>1</v>
@@ -21360,7 +21329,7 @@
     </row>
     <row r="1826" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1826" t="s">
-        <v>1810</v>
+        <v>1813</v>
       </c>
       <c r="B1826">
         <v>1</v>
@@ -21368,7 +21337,7 @@
     </row>
     <row r="1827" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1827" t="s">
-        <v>1811</v>
+        <v>1814</v>
       </c>
       <c r="B1827">
         <v>1</v>
@@ -21376,7 +21345,7 @@
     </row>
     <row r="1828" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1828" t="s">
-        <v>1812</v>
+        <v>1815</v>
       </c>
       <c r="B1828">
         <v>1</v>
@@ -21384,7 +21353,7 @@
     </row>
     <row r="1829" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1829" t="s">
-        <v>1813</v>
+        <v>1816</v>
       </c>
       <c r="B1829">
         <v>1</v>
@@ -21392,7 +21361,7 @@
     </row>
     <row r="1830" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1830" t="s">
-        <v>1814</v>
+        <v>1817</v>
       </c>
       <c r="B1830">
         <v>1</v>
@@ -21400,7 +21369,7 @@
     </row>
     <row r="1831" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1831" t="s">
-        <v>1815</v>
+        <v>1818</v>
       </c>
       <c r="B1831">
         <v>1</v>
@@ -21408,7 +21377,7 @@
     </row>
     <row r="1832" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1832" t="s">
-        <v>1816</v>
+        <v>1819</v>
       </c>
       <c r="B1832">
         <v>1</v>
@@ -21416,7 +21385,7 @@
     </row>
     <row r="1833" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1833" t="s">
-        <v>1817</v>
+        <v>1820</v>
       </c>
       <c r="B1833">
         <v>1</v>
@@ -21424,7 +21393,7 @@
     </row>
     <row r="1834" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1834" t="s">
-        <v>1818</v>
+        <v>1821</v>
       </c>
       <c r="B1834">
         <v>1</v>
@@ -21432,7 +21401,7 @@
     </row>
     <row r="1835" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1835" t="s">
-        <v>1819</v>
+        <v>1822</v>
       </c>
       <c r="B1835">
         <v>1</v>
@@ -21440,7 +21409,7 @@
     </row>
     <row r="1836" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1836" t="s">
-        <v>1820</v>
+        <v>1823</v>
       </c>
       <c r="B1836">
         <v>1</v>
@@ -21448,7 +21417,7 @@
     </row>
     <row r="1837" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1837" t="s">
-        <v>1821</v>
+        <v>1824</v>
       </c>
       <c r="B1837">
         <v>1</v>
@@ -21456,7 +21425,7 @@
     </row>
     <row r="1838" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1838" t="s">
-        <v>1822</v>
+        <v>1825</v>
       </c>
       <c r="B1838">
         <v>1</v>
@@ -21464,7 +21433,7 @@
     </row>
     <row r="1839" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1839" t="s">
-        <v>1823</v>
+        <v>1826</v>
       </c>
       <c r="B1839">
         <v>1</v>
@@ -21472,7 +21441,7 @@
     </row>
     <row r="1840" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1840" t="s">
-        <v>1824</v>
+        <v>1827</v>
       </c>
       <c r="B1840">
         <v>1</v>
@@ -21480,7 +21449,7 @@
     </row>
     <row r="1841" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1841" t="s">
-        <v>1825</v>
+        <v>1828</v>
       </c>
       <c r="B1841">
         <v>1</v>
@@ -21488,7 +21457,7 @@
     </row>
     <row r="1842" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1842" t="s">
-        <v>1826</v>
+        <v>1829</v>
       </c>
       <c r="B1842">
         <v>1</v>
@@ -21496,7 +21465,7 @@
     </row>
     <row r="1843" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1843" t="s">
-        <v>1827</v>
+        <v>1830</v>
       </c>
       <c r="B1843">
         <v>1</v>
@@ -21504,7 +21473,7 @@
     </row>
     <row r="1844" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1844" t="s">
-        <v>1828</v>
+        <v>1831</v>
       </c>
       <c r="B1844">
         <v>1</v>
@@ -21512,7 +21481,7 @@
     </row>
     <row r="1845" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1845" t="s">
-        <v>1829</v>
+        <v>1832</v>
       </c>
       <c r="B1845">
         <v>1</v>
@@ -21520,7 +21489,7 @@
     </row>
     <row r="1846" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1846" t="s">
-        <v>1830</v>
+        <v>1833</v>
       </c>
       <c r="B1846">
         <v>1</v>
@@ -21528,7 +21497,7 @@
     </row>
     <row r="1847" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1847" t="s">
-        <v>1831</v>
+        <v>1834</v>
       </c>
       <c r="B1847">
         <v>1</v>
@@ -21536,7 +21505,7 @@
     </row>
     <row r="1848" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1848" t="s">
-        <v>1832</v>
+        <v>1835</v>
       </c>
       <c r="B1848">
         <v>1</v>
@@ -21544,7 +21513,7 @@
     </row>
     <row r="1849" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1849" t="s">
-        <v>1833</v>
+        <v>1836</v>
       </c>
       <c r="B1849">
         <v>1</v>
@@ -21552,7 +21521,7 @@
     </row>
     <row r="1850" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1850" t="s">
-        <v>1834</v>
+        <v>1837</v>
       </c>
       <c r="B1850">
         <v>1</v>
@@ -21560,7 +21529,7 @@
     </row>
     <row r="1851" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1851" t="s">
-        <v>1835</v>
+        <v>1838</v>
       </c>
       <c r="B1851">
         <v>1</v>
@@ -21568,7 +21537,7 @@
     </row>
     <row r="1852" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1852" t="s">
-        <v>1836</v>
+        <v>1839</v>
       </c>
       <c r="B1852">
         <v>1</v>
@@ -21576,7 +21545,7 @@
     </row>
     <row r="1853" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1853" t="s">
-        <v>1837</v>
+        <v>1840</v>
       </c>
       <c r="B1853">
         <v>1</v>
@@ -21584,7 +21553,7 @@
     </row>
     <row r="1854" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1854" t="s">
-        <v>1838</v>
+        <v>1841</v>
       </c>
       <c r="B1854">
         <v>1</v>
@@ -21592,7 +21561,7 @@
     </row>
     <row r="1855" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1855" t="s">
-        <v>1839</v>
+        <v>1842</v>
       </c>
       <c r="B1855">
         <v>1</v>
@@ -21600,7 +21569,7 @@
     </row>
     <row r="1856" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1856" t="s">
-        <v>1840</v>
+        <v>1843</v>
       </c>
       <c r="B1856">
         <v>1</v>
@@ -21608,7 +21577,7 @@
     </row>
     <row r="1857" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1857" t="s">
-        <v>1841</v>
+        <v>1844</v>
       </c>
       <c r="B1857">
         <v>1</v>
@@ -21616,7 +21585,7 @@
     </row>
     <row r="1858" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1858" t="s">
-        <v>1842</v>
+        <v>1845</v>
       </c>
       <c r="B1858">
         <v>1</v>
@@ -21624,7 +21593,7 @@
     </row>
     <row r="1859" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1859" t="s">
-        <v>1843</v>
+        <v>1846</v>
       </c>
       <c r="B1859">
         <v>1</v>
@@ -21632,7 +21601,7 @@
     </row>
     <row r="1860" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1860" t="s">
-        <v>1844</v>
+        <v>1847</v>
       </c>
       <c r="B1860">
         <v>1</v>
@@ -21640,7 +21609,7 @@
     </row>
     <row r="1861" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1861" t="s">
-        <v>1845</v>
+        <v>1848</v>
       </c>
       <c r="B1861">
         <v>1</v>
@@ -21648,7 +21617,7 @@
     </row>
     <row r="1862" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1862" t="s">
-        <v>1846</v>
+        <v>1849</v>
       </c>
       <c r="B1862">
         <v>1</v>
@@ -21656,7 +21625,7 @@
     </row>
     <row r="1863" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1863" t="s">
-        <v>1847</v>
+        <v>1850</v>
       </c>
       <c r="B1863">
         <v>1</v>
@@ -21664,7 +21633,7 @@
     </row>
     <row r="1864" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1864" t="s">
-        <v>1848</v>
+        <v>1851</v>
       </c>
       <c r="B1864">
         <v>1</v>
@@ -21672,7 +21641,7 @@
     </row>
     <row r="1865" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1865" t="s">
-        <v>1849</v>
+        <v>1852</v>
       </c>
       <c r="B1865">
         <v>1</v>
@@ -21680,7 +21649,7 @@
     </row>
     <row r="1866" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1866" t="s">
-        <v>1850</v>
+        <v>1853</v>
       </c>
       <c r="B1866">
         <v>1</v>
@@ -21688,7 +21657,7 @@
     </row>
     <row r="1867" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1867" t="s">
-        <v>1851</v>
+        <v>1854</v>
       </c>
       <c r="B1867">
         <v>1</v>
@@ -21696,7 +21665,7 @@
     </row>
     <row r="1868" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1868" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="B1868">
         <v>1</v>
@@ -21704,7 +21673,7 @@
     </row>
     <row r="1869" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1869" t="s">
-        <v>1853</v>
+        <v>1856</v>
       </c>
       <c r="B1869">
         <v>1</v>
@@ -21712,7 +21681,7 @@
     </row>
     <row r="1870" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1870" t="s">
-        <v>1854</v>
+        <v>1857</v>
       </c>
       <c r="B1870">
         <v>1</v>
@@ -21720,7 +21689,7 @@
     </row>
     <row r="1871" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1871" t="s">
-        <v>1855</v>
+        <v>1858</v>
       </c>
       <c r="B1871">
         <v>1</v>
@@ -21728,7 +21697,7 @@
     </row>
     <row r="1872" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1872" t="s">
-        <v>1856</v>
+        <v>1859</v>
       </c>
       <c r="B1872">
         <v>1</v>
@@ -21736,7 +21705,7 @@
     </row>
     <row r="1873" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1873" t="s">
-        <v>1857</v>
+        <v>1860</v>
       </c>
       <c r="B1873">
         <v>1</v>
@@ -21744,7 +21713,7 @@
     </row>
     <row r="1874" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1874" t="s">
-        <v>1858</v>
+        <v>1861</v>
       </c>
       <c r="B1874">
         <v>1</v>
@@ -21752,7 +21721,7 @@
     </row>
     <row r="1875" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1875" t="s">
-        <v>1859</v>
+        <v>1862</v>
       </c>
       <c r="B1875">
         <v>1</v>
@@ -21760,7 +21729,7 @@
     </row>
     <row r="1876" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1876" t="s">
-        <v>1860</v>
+        <v>1863</v>
       </c>
       <c r="B1876">
         <v>1</v>
@@ -21768,7 +21737,7 @@
     </row>
     <row r="1877" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1877" t="s">
-        <v>1861</v>
+        <v>1864</v>
       </c>
       <c r="B1877">
         <v>1</v>
@@ -21776,7 +21745,7 @@
     </row>
     <row r="1878" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1878" t="s">
-        <v>1862</v>
+        <v>1865</v>
       </c>
       <c r="B1878">
         <v>1</v>
@@ -21784,7 +21753,7 @@
     </row>
     <row r="1879" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1879" t="s">
-        <v>1863</v>
+        <v>1866</v>
       </c>
       <c r="B1879">
         <v>1</v>
@@ -21792,7 +21761,7 @@
     </row>
     <row r="1880" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1880" t="s">
-        <v>1864</v>
+        <v>1867</v>
       </c>
       <c r="B1880">
         <v>1</v>
@@ -21800,7 +21769,7 @@
     </row>
     <row r="1881" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1881" t="s">
-        <v>1865</v>
+        <v>1868</v>
       </c>
       <c r="B1881">
         <v>1</v>
@@ -21808,7 +21777,7 @@
     </row>
     <row r="1882" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1882" t="s">
-        <v>1866</v>
+        <v>1869</v>
       </c>
       <c r="B1882">
         <v>1</v>
@@ -21816,7 +21785,7 @@
     </row>
     <row r="1883" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1883" t="s">
-        <v>1867</v>
+        <v>1870</v>
       </c>
       <c r="B1883">
         <v>1</v>
@@ -21824,7 +21793,7 @@
     </row>
     <row r="1884" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1884" t="s">
-        <v>1868</v>
+        <v>1871</v>
       </c>
       <c r="B1884">
         <v>1</v>
@@ -21832,7 +21801,7 @@
     </row>
     <row r="1885" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1885" t="s">
-        <v>1869</v>
+        <v>1872</v>
       </c>
       <c r="B1885">
         <v>1</v>
@@ -21840,7 +21809,7 @@
     </row>
     <row r="1886" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1886" t="s">
-        <v>1870</v>
+        <v>1873</v>
       </c>
       <c r="B1886">
         <v>1</v>
@@ -21848,7 +21817,7 @@
     </row>
     <row r="1887" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1887" t="s">
-        <v>1871</v>
+        <v>1874</v>
       </c>
       <c r="B1887">
         <v>1</v>
@@ -21856,7 +21825,7 @@
     </row>
     <row r="1888" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1888" t="s">
-        <v>1872</v>
+        <v>1875</v>
       </c>
       <c r="B1888">
         <v>1</v>
@@ -21864,7 +21833,7 @@
     </row>
     <row r="1889" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1889" t="s">
-        <v>1873</v>
+        <v>1876</v>
       </c>
       <c r="B1889">
         <v>1</v>
@@ -21872,7 +21841,7 @@
     </row>
     <row r="1890" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1890" t="s">
-        <v>1874</v>
+        <v>1877</v>
       </c>
       <c r="B1890">
         <v>1</v>
@@ -21880,7 +21849,7 @@
     </row>
     <row r="1891" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1891" t="s">
-        <v>1875</v>
+        <v>1878</v>
       </c>
       <c r="B1891">
         <v>1</v>
@@ -21888,7 +21857,7 @@
     </row>
     <row r="1892" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1892" t="s">
-        <v>1876</v>
+        <v>1879</v>
       </c>
       <c r="B1892">
         <v>1</v>
@@ -21896,7 +21865,7 @@
     </row>
     <row r="1893" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1893" t="s">
-        <v>1877</v>
+        <v>1880</v>
       </c>
       <c r="B1893">
         <v>1</v>
@@ -21904,7 +21873,7 @@
     </row>
     <row r="1894" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1894" t="s">
-        <v>1878</v>
+        <v>1881</v>
       </c>
       <c r="B1894">
         <v>1</v>
@@ -21912,7 +21881,7 @@
     </row>
     <row r="1895" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1895" t="s">
-        <v>1879</v>
+        <v>1882</v>
       </c>
       <c r="B1895">
         <v>1</v>
@@ -21920,7 +21889,7 @@
     </row>
     <row r="1896" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1896" t="s">
-        <v>1880</v>
+        <v>1883</v>
       </c>
       <c r="B1896">
         <v>1</v>
@@ -21928,7 +21897,7 @@
     </row>
     <row r="1897" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1897" t="s">
-        <v>1881</v>
+        <v>1884</v>
       </c>
       <c r="B1897">
         <v>1</v>
@@ -21936,7 +21905,7 @@
     </row>
     <row r="1898" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1898" t="s">
-        <v>1882</v>
+        <v>1885</v>
       </c>
       <c r="B1898">
         <v>1</v>
@@ -21944,7 +21913,7 @@
     </row>
     <row r="1899" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1899" t="s">
-        <v>1883</v>
+        <v>1886</v>
       </c>
       <c r="B1899">
         <v>1</v>
@@ -21952,7 +21921,7 @@
     </row>
     <row r="1900" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1900" t="s">
-        <v>1884</v>
+        <v>1887</v>
       </c>
       <c r="B1900">
         <v>1</v>
@@ -21960,7 +21929,7 @@
     </row>
     <row r="1901" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1901" t="s">
-        <v>1885</v>
+        <v>1888</v>
       </c>
       <c r="B1901">
         <v>1</v>
@@ -21968,7 +21937,7 @@
     </row>
     <row r="1902" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1902" t="s">
-        <v>1886</v>
+        <v>1889</v>
       </c>
       <c r="B1902">
         <v>1</v>
@@ -21976,7 +21945,7 @@
     </row>
     <row r="1903" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1903" t="s">
-        <v>1887</v>
+        <v>1890</v>
       </c>
       <c r="B1903">
         <v>1</v>
@@ -21984,7 +21953,7 @@
     </row>
     <row r="1904" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1904" t="s">
-        <v>1888</v>
+        <v>1891</v>
       </c>
       <c r="B1904">
         <v>1</v>
@@ -21992,7 +21961,7 @@
     </row>
     <row r="1905" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1905" t="s">
-        <v>1889</v>
+        <v>1892</v>
       </c>
       <c r="B1905">
         <v>1</v>
@@ -22000,7 +21969,7 @@
     </row>
     <row r="1906" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1906" t="s">
-        <v>1890</v>
+        <v>1893</v>
       </c>
       <c r="B1906">
         <v>1</v>
@@ -22008,7 +21977,7 @@
     </row>
     <row r="1907" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1907" t="s">
-        <v>1891</v>
+        <v>1894</v>
       </c>
       <c r="B1907">
         <v>1</v>
@@ -22016,7 +21985,7 @@
     </row>
     <row r="1908" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1908" t="s">
-        <v>1892</v>
+        <v>1895</v>
       </c>
       <c r="B1908">
         <v>1</v>
@@ -22024,7 +21993,7 @@
     </row>
     <row r="1909" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1909" t="s">
-        <v>1893</v>
+        <v>1896</v>
       </c>
       <c r="B1909">
         <v>1</v>
@@ -22032,7 +22001,7 @@
     </row>
     <row r="1910" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1910" t="s">
-        <v>1894</v>
+        <v>1897</v>
       </c>
       <c r="B1910">
         <v>1</v>
@@ -22040,7 +22009,7 @@
     </row>
     <row r="1911" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1911" t="s">
-        <v>1895</v>
+        <v>1898</v>
       </c>
       <c r="B1911">
         <v>1</v>
@@ -22048,7 +22017,7 @@
     </row>
     <row r="1912" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1912" t="s">
-        <v>1896</v>
+        <v>1899</v>
       </c>
       <c r="B1912">
         <v>1</v>
@@ -22056,7 +22025,7 @@
     </row>
     <row r="1913" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1913" t="s">
-        <v>1897</v>
+        <v>1900</v>
       </c>
       <c r="B1913">
         <v>1</v>
@@ -22064,7 +22033,7 @@
     </row>
     <row r="1914" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1914" t="s">
-        <v>1898</v>
+        <v>1901</v>
       </c>
       <c r="B1914">
         <v>1</v>
@@ -22072,7 +22041,7 @@
     </row>
     <row r="1915" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1915" t="s">
-        <v>1899</v>
+        <v>1902</v>
       </c>
       <c r="B1915">
         <v>1</v>
@@ -22080,7 +22049,7 @@
     </row>
     <row r="1916" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1916" t="s">
-        <v>1900</v>
+        <v>1903</v>
       </c>
       <c r="B1916">
         <v>1</v>
@@ -22088,311 +22057,311 @@
     </row>
     <row r="1917" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1917" t="s">
-        <v>1901</v>
+        <v>1904</v>
       </c>
       <c r="B1917">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1918" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1918" t="s">
-        <v>1902</v>
+        <v>1905</v>
       </c>
       <c r="B1918">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1919" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1919" t="s">
-        <v>1903</v>
+        <v>1906</v>
       </c>
       <c r="B1919">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1920" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1920" t="s">
-        <v>1904</v>
+        <v>737</v>
       </c>
       <c r="B1920">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1921" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1921" t="s">
-        <v>1905</v>
+        <v>1907</v>
       </c>
       <c r="B1921">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1922" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1922" t="s">
-        <v>1906</v>
+        <v>1908</v>
       </c>
       <c r="B1922">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1923" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1923" t="s">
-        <v>1907</v>
+        <v>1909</v>
       </c>
       <c r="B1923">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1924" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1924" t="s">
-        <v>1908</v>
+        <v>1910</v>
       </c>
       <c r="B1924">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1925" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1925" t="s">
-        <v>1909</v>
+        <v>1911</v>
       </c>
       <c r="B1925">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1926" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1926" t="s">
-        <v>1910</v>
+        <v>1912</v>
       </c>
       <c r="B1926">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1927" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1927" t="s">
-        <v>1911</v>
+        <v>1913</v>
       </c>
       <c r="B1927">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1928" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1928" t="s">
-        <v>1912</v>
+        <v>1914</v>
       </c>
       <c r="B1928">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1929" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1929" t="s">
-        <v>1913</v>
+        <v>1915</v>
       </c>
       <c r="B1929">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1930" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1930" t="s">
-        <v>1914</v>
+        <v>1916</v>
       </c>
       <c r="B1930">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1931" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1931" t="s">
-        <v>1915</v>
+        <v>1917</v>
       </c>
       <c r="B1931">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1932" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1932" t="s">
-        <v>1916</v>
+        <v>1918</v>
       </c>
       <c r="B1932">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1933" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1933" t="s">
-        <v>1917</v>
+        <v>1919</v>
       </c>
       <c r="B1933">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1934" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1934" t="s">
-        <v>1918</v>
+        <v>1920</v>
       </c>
       <c r="B1934">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1935" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1935" t="s">
-        <v>1919</v>
+        <v>1921</v>
       </c>
       <c r="B1935">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1936" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1936" t="s">
-        <v>1920</v>
+        <v>1922</v>
       </c>
       <c r="B1936">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1937" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1937" t="s">
-        <v>1921</v>
+        <v>1923</v>
       </c>
       <c r="B1937">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1938" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1938" t="s">
-        <v>1922</v>
+        <v>1924</v>
       </c>
       <c r="B1938">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1939" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1939" t="s">
-        <v>1923</v>
+        <v>1925</v>
       </c>
       <c r="B1939">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1940" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1940" t="s">
-        <v>1924</v>
+        <v>1926</v>
       </c>
       <c r="B1940">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1941" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1941" t="s">
-        <v>1925</v>
+        <v>1927</v>
       </c>
       <c r="B1941">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1942" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1942" t="s">
-        <v>1926</v>
+        <v>1928</v>
       </c>
       <c r="B1942">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1943" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1943" t="s">
-        <v>1927</v>
+        <v>1929</v>
       </c>
       <c r="B1943">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1944" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1944" t="s">
-        <v>1928</v>
+        <v>1930</v>
       </c>
       <c r="B1944">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1945" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1945" t="s">
-        <v>1929</v>
+        <v>1931</v>
       </c>
       <c r="B1945">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1946" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1946" t="s">
-        <v>1930</v>
+        <v>1932</v>
       </c>
       <c r="B1946">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1947" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1947" t="s">
-        <v>1931</v>
+        <v>1933</v>
       </c>
       <c r="B1947">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1948" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1948" t="s">
-        <v>1932</v>
+        <v>1934</v>
       </c>
       <c r="B1948">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1949" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1949" t="s">
-        <v>1933</v>
+        <v>1935</v>
       </c>
       <c r="B1949">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1950" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1950" t="s">
-        <v>1934</v>
+        <v>1936</v>
       </c>
       <c r="B1950">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1951" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1951" t="s">
-        <v>1935</v>
+        <v>1937</v>
       </c>
       <c r="B1951">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1952" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1952" t="s">
-        <v>1936</v>
+        <v>1938</v>
       </c>
       <c r="B1952">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1953" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1953" t="s">
-        <v>1937</v>
+        <v>1939</v>
       </c>
       <c r="B1953">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1954" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1954" t="s">
-        <v>1938</v>
+        <v>1940</v>
       </c>
       <c r="B1954">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1955" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1955" t="s">
-        <v>1939</v>
+        <v>1941</v>
       </c>
       <c r="B1955">
         <v>1</v>
@@ -22400,7 +22369,7 @@
     </row>
     <row r="1956" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1956" t="s">
-        <v>1940</v>
+        <v>1942</v>
       </c>
       <c r="B1956">
         <v>1</v>
@@ -22408,7 +22377,7 @@
     </row>
     <row r="1957" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1957" t="s">
-        <v>1941</v>
+        <v>1943</v>
       </c>
       <c r="B1957">
         <v>1</v>
@@ -22416,7 +22385,7 @@
     </row>
     <row r="1958" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1958" t="s">
-        <v>1942</v>
+        <v>1944</v>
       </c>
       <c r="B1958">
         <v>1</v>
@@ -22424,7 +22393,7 @@
     </row>
     <row r="1959" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1959" t="s">
-        <v>1943</v>
+        <v>1945</v>
       </c>
       <c r="B1959">
         <v>1</v>
@@ -22432,7 +22401,7 @@
     </row>
     <row r="1960" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1960" t="s">
-        <v>1944</v>
+        <v>1946</v>
       </c>
       <c r="B1960">
         <v>1</v>
@@ -22440,7 +22409,7 @@
     </row>
     <row r="1961" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1961" t="s">
-        <v>1945</v>
+        <v>1947</v>
       </c>
       <c r="B1961">
         <v>1</v>
@@ -22448,7 +22417,7 @@
     </row>
     <row r="1962" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1962" t="s">
-        <v>1946</v>
+        <v>1948</v>
       </c>
       <c r="B1962">
         <v>1</v>
@@ -22456,7 +22425,7 @@
     </row>
     <row r="1963" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1963" t="s">
-        <v>1947</v>
+        <v>1949</v>
       </c>
       <c r="B1963">
         <v>1</v>
@@ -22464,7 +22433,7 @@
     </row>
     <row r="1964" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1964" t="s">
-        <v>1948</v>
+        <v>1950</v>
       </c>
       <c r="B1964">
         <v>1</v>
@@ -22472,7 +22441,7 @@
     </row>
     <row r="1965" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1965" t="s">
-        <v>1949</v>
+        <v>1951</v>
       </c>
       <c r="B1965">
         <v>1</v>
@@ -22480,7 +22449,7 @@
     </row>
     <row r="1966" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1966" t="s">
-        <v>1950</v>
+        <v>1952</v>
       </c>
       <c r="B1966">
         <v>1</v>
@@ -22488,7 +22457,7 @@
     </row>
     <row r="1967" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1967" t="s">
-        <v>1951</v>
+        <v>1953</v>
       </c>
       <c r="B1967">
         <v>1</v>
@@ -22496,7 +22465,7 @@
     </row>
     <row r="1968" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1968" t="s">
-        <v>1952</v>
+        <v>1954</v>
       </c>
       <c r="B1968">
         <v>1</v>
@@ -22504,7 +22473,7 @@
     </row>
     <row r="1969" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1969" t="s">
-        <v>1953</v>
+        <v>1955</v>
       </c>
       <c r="B1969">
         <v>1</v>
@@ -22512,7 +22481,7 @@
     </row>
     <row r="1970" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1970" t="s">
-        <v>1954</v>
+        <v>1956</v>
       </c>
       <c r="B1970">
         <v>1</v>
@@ -22520,7 +22489,7 @@
     </row>
     <row r="1971" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1971" t="s">
-        <v>1955</v>
+        <v>1957</v>
       </c>
       <c r="B1971">
         <v>1</v>
@@ -22528,7 +22497,7 @@
     </row>
     <row r="1972" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1972" t="s">
-        <v>1956</v>
+        <v>1958</v>
       </c>
       <c r="B1972">
         <v>1</v>
@@ -22536,7 +22505,7 @@
     </row>
     <row r="1973" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1973" t="s">
-        <v>1957</v>
+        <v>1959</v>
       </c>
       <c r="B1973">
         <v>1</v>
@@ -22544,7 +22513,7 @@
     </row>
     <row r="1974" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1974" t="s">
-        <v>1958</v>
+        <v>1960</v>
       </c>
       <c r="B1974">
         <v>1</v>
@@ -22552,7 +22521,7 @@
     </row>
     <row r="1975" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1975" t="s">
-        <v>1959</v>
+        <v>1961</v>
       </c>
       <c r="B1975">
         <v>1</v>
@@ -22560,7 +22529,7 @@
     </row>
     <row r="1976" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1976" t="s">
-        <v>1960</v>
+        <v>1962</v>
       </c>
       <c r="B1976">
         <v>1</v>
@@ -22568,7 +22537,7 @@
     </row>
     <row r="1977" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1977" t="s">
-        <v>1961</v>
+        <v>1963</v>
       </c>
       <c r="B1977">
         <v>1</v>
@@ -22576,7 +22545,7 @@
     </row>
     <row r="1978" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1978" t="s">
-        <v>1962</v>
+        <v>1964</v>
       </c>
       <c r="B1978">
         <v>1</v>
@@ -22584,7 +22553,7 @@
     </row>
     <row r="1979" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1979" t="s">
-        <v>1963</v>
+        <v>1965</v>
       </c>
       <c r="B1979">
         <v>1</v>
@@ -22592,7 +22561,7 @@
     </row>
     <row r="1980" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1980" t="s">
-        <v>1964</v>
+        <v>1966</v>
       </c>
       <c r="B1980">
         <v>1</v>
@@ -22600,7 +22569,7 @@
     </row>
     <row r="1981" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1981" t="s">
-        <v>1965</v>
+        <v>1967</v>
       </c>
       <c r="B1981">
         <v>1</v>
@@ -22608,7 +22577,7 @@
     </row>
     <row r="1982" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1982" t="s">
-        <v>1966</v>
+        <v>1968</v>
       </c>
       <c r="B1982">
         <v>1</v>
@@ -22616,7 +22585,7 @@
     </row>
     <row r="1983" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1983" t="s">
-        <v>1967</v>
+        <v>1969</v>
       </c>
       <c r="B1983">
         <v>1</v>
@@ -22624,7 +22593,7 @@
     </row>
     <row r="1984" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1984" t="s">
-        <v>1968</v>
+        <v>1970</v>
       </c>
       <c r="B1984">
         <v>1</v>
@@ -22632,7 +22601,7 @@
     </row>
     <row r="1985" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1985" t="s">
-        <v>1969</v>
+        <v>1971</v>
       </c>
       <c r="B1985">
         <v>1</v>
@@ -22640,7 +22609,7 @@
     </row>
     <row r="1986" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1986" t="s">
-        <v>1970</v>
+        <v>1972</v>
       </c>
       <c r="B1986">
         <v>1</v>
@@ -22648,7 +22617,7 @@
     </row>
     <row r="1987" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1987" t="s">
-        <v>1971</v>
+        <v>1973</v>
       </c>
       <c r="B1987">
         <v>1</v>
@@ -22656,7 +22625,7 @@
     </row>
     <row r="1988" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1988" t="s">
-        <v>1972</v>
+        <v>1974</v>
       </c>
       <c r="B1988">
         <v>1</v>
@@ -22664,7 +22633,7 @@
     </row>
     <row r="1989" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1989" t="s">
-        <v>1973</v>
+        <v>1751</v>
       </c>
       <c r="B1989">
         <v>1</v>
@@ -22672,7 +22641,7 @@
     </row>
     <row r="1990" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1990" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="B1990">
         <v>1</v>
@@ -22680,7 +22649,7 @@
     </row>
     <row r="1991" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1991" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="B1991">
         <v>1</v>
@@ -22688,7 +22657,7 @@
     </row>
     <row r="1992" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1992" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="B1992">
         <v>1</v>
@@ -22696,7 +22665,7 @@
     </row>
     <row r="1993" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1993" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="B1993">
         <v>1</v>
@@ -22704,7 +22673,7 @@
     </row>
     <row r="1994" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1994" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="B1994">
         <v>1</v>
@@ -22712,7 +22681,7 @@
     </row>
     <row r="1995" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1995" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="B1995">
         <v>1</v>
@@ -22720,7 +22689,7 @@
     </row>
     <row r="1996" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1996" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="B1996">
         <v>1</v>
@@ -22728,7 +22697,7 @@
     </row>
     <row r="1997" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1997" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="B1997">
         <v>1</v>
@@ -22736,7 +22705,7 @@
     </row>
     <row r="1998" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1998" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="B1998">
         <v>1</v>
@@ -22744,7 +22713,7 @@
     </row>
     <row r="1999" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1999" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="B1999">
         <v>1</v>
@@ -22752,7 +22721,7 @@
     </row>
     <row r="2000" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2000" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="B2000">
         <v>1</v>
@@ -22760,7 +22729,7 @@
     </row>
     <row r="2001" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2001" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="B2001">
         <v>1</v>
@@ -22768,7 +22737,7 @@
     </row>
     <row r="2002" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2002" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B2002">
         <v>1</v>
@@ -22776,7 +22745,7 @@
     </row>
     <row r="2003" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2003" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="B2003">
         <v>1</v>
@@ -22784,7 +22753,7 @@
     </row>
     <row r="2004" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2004" t="s">
-        <v>1988</v>
+        <v>1719</v>
       </c>
       <c r="B2004">
         <v>1</v>
@@ -22792,7 +22761,7 @@
     </row>
     <row r="2005" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2005" t="s">
-        <v>1989</v>
+        <v>1722</v>
       </c>
       <c r="B2005">
         <v>1</v>
@@ -22800,7 +22769,7 @@
     </row>
     <row r="2006" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2006" t="s">
-        <v>1990</v>
+        <v>1729</v>
       </c>
       <c r="B2006">
         <v>1</v>
@@ -22808,7 +22777,7 @@
     </row>
     <row r="2007" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2007" t="s">
-        <v>1991</v>
+        <v>1731</v>
       </c>
       <c r="B2007">
         <v>1</v>
@@ -22816,7 +22785,7 @@
     </row>
     <row r="2008" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2008" t="s">
-        <v>1992</v>
+        <v>1732</v>
       </c>
       <c r="B2008">
         <v>1</v>
@@ -22824,7 +22793,7 @@
     </row>
     <row r="2009" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2009" t="s">
-        <v>1993</v>
+        <v>1989</v>
       </c>
       <c r="B2009">
         <v>1</v>
@@ -22832,7 +22801,7 @@
     </row>
     <row r="2010" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2010" t="s">
-        <v>1994</v>
+        <v>1746</v>
       </c>
       <c r="B2010">
         <v>1</v>
@@ -22840,7 +22809,7 @@
     </row>
     <row r="2011" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2011" t="s">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="B2011">
         <v>1</v>
@@ -22848,7 +22817,7 @@
     </row>
     <row r="2012" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2012" t="s">
-        <v>1996</v>
+        <v>1753</v>
       </c>
       <c r="B2012">
         <v>1</v>
@@ -22856,7 +22825,7 @@
     </row>
     <row r="2013" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2013" t="s">
-        <v>1997</v>
+        <v>1754</v>
       </c>
       <c r="B2013">
         <v>1</v>
@@ -22864,7 +22833,7 @@
     </row>
     <row r="2014" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2014" t="s">
-        <v>1998</v>
+        <v>1991</v>
       </c>
       <c r="B2014">
         <v>1</v>
@@ -22872,7 +22841,7 @@
     </row>
     <row r="2015" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2015" t="s">
-        <v>1999</v>
+        <v>1992</v>
       </c>
       <c r="B2015">
         <v>1</v>
@@ -22880,7 +22849,7 @@
     </row>
     <row r="2016" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2016" t="s">
-        <v>2000</v>
+        <v>1758</v>
       </c>
       <c r="B2016">
         <v>1</v>
@@ -22888,7 +22857,7 @@
     </row>
     <row r="2017" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2017" t="s">
-        <v>2001</v>
+        <v>1993</v>
       </c>
       <c r="B2017">
         <v>1</v>
@@ -22896,7 +22865,7 @@
     </row>
     <row r="2018" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2018" t="s">
-        <v>2002</v>
+        <v>1994</v>
       </c>
       <c r="B2018">
         <v>1</v>
@@ -22904,7 +22873,7 @@
     </row>
     <row r="2019" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2019" t="s">
-        <v>2003</v>
+        <v>1995</v>
       </c>
       <c r="B2019">
         <v>1</v>
@@ -22912,7 +22881,7 @@
     </row>
     <row r="2020" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2020" t="s">
-        <v>2004</v>
+        <v>1996</v>
       </c>
       <c r="B2020">
         <v>1</v>
@@ -22920,7 +22889,7 @@
     </row>
     <row r="2021" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2021" t="s">
-        <v>2005</v>
+        <v>1779</v>
       </c>
       <c r="B2021">
         <v>1</v>
@@ -22928,7 +22897,7 @@
     </row>
     <row r="2022" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2022" t="s">
-        <v>2006</v>
+        <v>1997</v>
       </c>
       <c r="B2022">
         <v>1</v>
@@ -22936,7 +22905,7 @@
     </row>
     <row r="2023" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2023" t="s">
-        <v>2007</v>
+        <v>1998</v>
       </c>
       <c r="B2023">
         <v>1</v>
@@ -22944,7 +22913,7 @@
     </row>
     <row r="2024" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2024" t="s">
-        <v>2008</v>
+        <v>1999</v>
       </c>
       <c r="B2024">
         <v>1</v>
@@ -22952,7 +22921,7 @@
     </row>
     <row r="2025" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2025" t="s">
-        <v>2009</v>
+        <v>2000</v>
       </c>
       <c r="B2025">
         <v>1</v>
@@ -22960,7 +22929,7 @@
     </row>
     <row r="2026" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2026" t="s">
-        <v>2010</v>
+        <v>1794</v>
       </c>
       <c r="B2026">
         <v>1</v>
@@ -22968,7 +22937,7 @@
     </row>
     <row r="2027" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2027" t="s">
-        <v>2011</v>
+        <v>1798</v>
       </c>
       <c r="B2027">
         <v>1</v>
@@ -22976,7 +22945,7 @@
     </row>
     <row r="2028" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2028" t="s">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="B2028">
         <v>1</v>
@@ -22984,7 +22953,7 @@
     </row>
     <row r="2029" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2029" t="s">
-        <v>2013</v>
+        <v>1800</v>
       </c>
       <c r="B2029">
         <v>1</v>
@@ -22992,7 +22961,7 @@
     </row>
     <row r="2030" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2030" t="s">
-        <v>2014</v>
+        <v>2002</v>
       </c>
       <c r="B2030">
         <v>1</v>
@@ -23000,7 +22969,7 @@
     </row>
     <row r="2031" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2031" t="s">
-        <v>2015</v>
+        <v>2003</v>
       </c>
       <c r="B2031">
         <v>1</v>
@@ -23008,7 +22977,7 @@
     </row>
     <row r="2032" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2032" t="s">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="B2032">
         <v>1</v>
@@ -23016,7 +22985,7 @@
     </row>
     <row r="2033" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2033" t="s">
-        <v>2017</v>
+        <v>2005</v>
       </c>
       <c r="B2033">
         <v>1</v>
@@ -23024,7 +22993,7 @@
     </row>
     <row r="2034" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2034" t="s">
-        <v>2018</v>
+        <v>2006</v>
       </c>
       <c r="B2034">
         <v>1</v>
@@ -23032,7 +23001,7 @@
     </row>
     <row r="2035" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2035" t="s">
-        <v>2019</v>
+        <v>2007</v>
       </c>
       <c r="B2035">
         <v>1</v>
@@ -23040,7 +23009,7 @@
     </row>
     <row r="2036" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2036" t="s">
-        <v>2020</v>
+        <v>2008</v>
       </c>
       <c r="B2036">
         <v>1</v>
@@ -23048,7 +23017,7 @@
     </row>
     <row r="2037" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2037" t="s">
-        <v>2021</v>
+        <v>2009</v>
       </c>
       <c r="B2037">
         <v>1</v>
@@ -23056,7 +23025,7 @@
     </row>
     <row r="2038" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2038" t="s">
-        <v>2022</v>
+        <v>2010</v>
       </c>
       <c r="B2038">
         <v>1</v>
@@ -23064,7 +23033,7 @@
     </row>
     <row r="2039" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2039" t="s">
-        <v>2023</v>
+        <v>2011</v>
       </c>
       <c r="B2039">
         <v>1</v>
@@ -23072,7 +23041,7 @@
     </row>
     <row r="2040" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2040" t="s">
-        <v>2024</v>
+        <v>2012</v>
       </c>
       <c r="B2040">
         <v>1</v>
@@ -23080,7 +23049,7 @@
     </row>
     <row r="2041" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2041" t="s">
-        <v>2025</v>
+        <v>2013</v>
       </c>
       <c r="B2041">
         <v>1</v>
@@ -23088,7 +23057,7 @@
     </row>
     <row r="2042" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2042" t="s">
-        <v>2026</v>
+        <v>2014</v>
       </c>
       <c r="B2042">
         <v>1</v>
@@ -23096,7 +23065,7 @@
     </row>
     <row r="2043" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2043" t="s">
-        <v>2027</v>
+        <v>2015</v>
       </c>
       <c r="B2043">
         <v>1</v>
@@ -23104,7 +23073,7 @@
     </row>
     <row r="2044" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2044" t="s">
-        <v>2028</v>
+        <v>2016</v>
       </c>
       <c r="B2044">
         <v>1</v>
@@ -23112,7 +23081,7 @@
     </row>
     <row r="2045" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2045" t="s">
-        <v>2029</v>
+        <v>1972</v>
       </c>
       <c r="B2045">
         <v>1</v>
@@ -23120,7 +23089,7 @@
     </row>
     <row r="2046" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2046" t="s">
-        <v>2030</v>
+        <v>1758</v>
       </c>
       <c r="B2046">
         <v>1</v>
@@ -23128,7 +23097,7 @@
     </row>
     <row r="2047" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2047" t="s">
-        <v>2031</v>
+        <v>2017</v>
       </c>
       <c r="B2047">
         <v>1</v>
@@ -23136,7 +23105,7 @@
     </row>
     <row r="2048" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2048" t="s">
-        <v>2032</v>
+        <v>2018</v>
       </c>
       <c r="B2048">
         <v>1</v>
@@ -23144,7 +23113,7 @@
     </row>
     <row r="2049" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2049" t="s">
-        <v>2033</v>
+        <v>2019</v>
       </c>
       <c r="B2049">
         <v>1</v>
@@ -23152,7 +23121,7 @@
     </row>
     <row r="2050" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2050" t="s">
-        <v>2034</v>
+        <v>2020</v>
       </c>
       <c r="B2050">
         <v>1</v>
@@ -23160,7 +23129,7 @@
     </row>
     <row r="2051" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2051" t="s">
-        <v>2035</v>
+        <v>2021</v>
       </c>
       <c r="B2051">
         <v>1</v>
@@ -23168,7 +23137,7 @@
     </row>
     <row r="2052" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2052" t="s">
-        <v>2036</v>
+        <v>2022</v>
       </c>
       <c r="B2052">
         <v>1</v>
@@ -23176,7 +23145,7 @@
     </row>
     <row r="2053" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2053" t="s">
-        <v>2037</v>
+        <v>2023</v>
       </c>
       <c r="B2053">
         <v>1</v>
@@ -23184,7 +23153,7 @@
     </row>
     <row r="2054" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2054" t="s">
-        <v>2038</v>
+        <v>2024</v>
       </c>
       <c r="B2054">
         <v>1</v>
@@ -23192,7 +23161,7 @@
     </row>
     <row r="2055" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2055" t="s">
-        <v>2039</v>
+        <v>2025</v>
       </c>
       <c r="B2055">
         <v>1</v>
@@ -23200,7 +23169,7 @@
     </row>
     <row r="2056" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2056" t="s">
-        <v>2040</v>
+        <v>2026</v>
       </c>
       <c r="B2056">
         <v>1</v>
@@ -23208,7 +23177,7 @@
     </row>
     <row r="2057" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2057" t="s">
-        <v>2041</v>
+        <v>2027</v>
       </c>
       <c r="B2057">
         <v>1</v>
@@ -23216,7 +23185,7 @@
     </row>
     <row r="2058" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2058" t="s">
-        <v>2042</v>
+        <v>2028</v>
       </c>
       <c r="B2058">
         <v>1</v>
@@ -23224,7 +23193,7 @@
     </row>
     <row r="2059" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2059" t="s">
-        <v>2043</v>
+        <v>2029</v>
       </c>
       <c r="B2059">
         <v>1</v>
@@ -23232,7 +23201,7 @@
     </row>
     <row r="2060" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2060" t="s">
-        <v>2044</v>
+        <v>2030</v>
       </c>
       <c r="B2060">
         <v>1</v>
@@ -23240,7 +23209,7 @@
     </row>
     <row r="2061" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2061" t="s">
-        <v>2045</v>
+        <v>2031</v>
       </c>
       <c r="B2061">
         <v>1</v>
@@ -23248,7 +23217,7 @@
     </row>
     <row r="2062" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2062" t="s">
-        <v>2046</v>
+        <v>2032</v>
       </c>
       <c r="B2062">
         <v>1</v>
@@ -23256,7 +23225,7 @@
     </row>
     <row r="2063" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2063" t="s">
-        <v>2047</v>
+        <v>2033</v>
       </c>
       <c r="B2063">
         <v>1</v>
@@ -23264,7 +23233,7 @@
     </row>
     <row r="2064" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2064" t="s">
-        <v>2048</v>
+        <v>2034</v>
       </c>
       <c r="B2064">
         <v>1</v>
@@ -23272,7 +23241,7 @@
     </row>
     <row r="2065" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2065" t="s">
-        <v>2049</v>
+        <v>2035</v>
       </c>
       <c r="B2065">
         <v>1</v>
@@ -23280,7 +23249,7 @@
     </row>
     <row r="2066" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2066" t="s">
-        <v>2050</v>
+        <v>2036</v>
       </c>
       <c r="B2066">
         <v>1</v>
@@ -23288,7 +23257,7 @@
     </row>
     <row r="2067" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2067" t="s">
-        <v>2051</v>
+        <v>2037</v>
       </c>
       <c r="B2067">
         <v>1</v>
@@ -23296,7 +23265,7 @@
     </row>
     <row r="2068" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2068" t="s">
-        <v>2052</v>
+        <v>2038</v>
       </c>
       <c r="B2068">
         <v>1</v>
@@ -23304,7 +23273,7 @@
     </row>
     <row r="2069" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2069" t="s">
-        <v>2053</v>
+        <v>2039</v>
       </c>
       <c r="B2069">
         <v>1</v>
@@ -23312,7 +23281,7 @@
     </row>
     <row r="2070" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2070" t="s">
-        <v>2054</v>
+        <v>2040</v>
       </c>
       <c r="B2070">
         <v>1</v>
@@ -23320,7 +23289,7 @@
     </row>
     <row r="2071" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2071" t="s">
-        <v>2055</v>
+        <v>2041</v>
       </c>
       <c r="B2071">
         <v>1</v>
@@ -23328,7 +23297,7 @@
     </row>
     <row r="2072" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2072" t="s">
-        <v>2056</v>
+        <v>2042</v>
       </c>
       <c r="B2072">
         <v>1</v>
@@ -23336,7 +23305,7 @@
     </row>
     <row r="2073" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2073" t="s">
-        <v>2057</v>
+        <v>2043</v>
       </c>
       <c r="B2073">
         <v>1</v>
@@ -23344,7 +23313,7 @@
     </row>
     <row r="2074" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2074" t="s">
-        <v>2058</v>
+        <v>2044</v>
       </c>
       <c r="B2074">
         <v>1</v>
@@ -23352,7 +23321,7 @@
     </row>
     <row r="2075" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2075" t="s">
-        <v>2059</v>
+        <v>2045</v>
       </c>
       <c r="B2075">
         <v>1</v>
@@ -23360,7 +23329,7 @@
     </row>
     <row r="2076" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2076" t="s">
-        <v>2060</v>
+        <v>2046</v>
       </c>
       <c r="B2076">
         <v>1</v>
@@ -23368,7 +23337,7 @@
     </row>
     <row r="2077" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2077" t="s">
-        <v>2061</v>
+        <v>2047</v>
       </c>
       <c r="B2077">
         <v>1</v>
@@ -23376,7 +23345,7 @@
     </row>
     <row r="2078" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2078" t="s">
-        <v>2062</v>
+        <v>2048</v>
       </c>
       <c r="B2078">
         <v>1</v>
@@ -23384,7 +23353,7 @@
     </row>
     <row r="2079" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2079" t="s">
-        <v>2063</v>
+        <v>2049</v>
       </c>
       <c r="B2079">
         <v>1</v>
@@ -23392,7 +23361,7 @@
     </row>
     <row r="2080" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2080" t="s">
-        <v>2064</v>
+        <v>2050</v>
       </c>
       <c r="B2080">
         <v>1</v>
@@ -23400,7 +23369,7 @@
     </row>
     <row r="2081" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2081" t="s">
-        <v>2065</v>
+        <v>2051</v>
       </c>
       <c r="B2081">
         <v>1</v>
@@ -23408,7 +23377,7 @@
     </row>
     <row r="2082" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2082" t="s">
-        <v>2066</v>
+        <v>2052</v>
       </c>
       <c r="B2082">
         <v>1</v>
@@ -23416,7 +23385,7 @@
     </row>
     <row r="2083" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2083" t="s">
-        <v>2067</v>
+        <v>2053</v>
       </c>
       <c r="B2083">
         <v>1</v>
@@ -23424,7 +23393,7 @@
     </row>
     <row r="2084" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2084" t="s">
-        <v>2068</v>
+        <v>2054</v>
       </c>
       <c r="B2084">
         <v>1</v>
@@ -23432,7 +23401,7 @@
     </row>
     <row r="2085" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2085" t="s">
-        <v>2069</v>
+        <v>2055</v>
       </c>
       <c r="B2085">
         <v>1</v>
@@ -23440,7 +23409,7 @@
     </row>
     <row r="2086" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2086" t="s">
-        <v>2070</v>
+        <v>2056</v>
       </c>
       <c r="B2086">
         <v>1</v>
@@ -23448,7 +23417,7 @@
     </row>
     <row r="2087" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2087" t="s">
-        <v>2071</v>
+        <v>2057</v>
       </c>
       <c r="B2087">
         <v>1</v>
@@ -23456,7 +23425,7 @@
     </row>
     <row r="2088" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2088" t="s">
-        <v>2072</v>
+        <v>2058</v>
       </c>
       <c r="B2088">
         <v>1</v>
@@ -23464,7 +23433,7 @@
     </row>
     <row r="2089" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2089" t="s">
-        <v>2073</v>
+        <v>2059</v>
       </c>
       <c r="B2089">
         <v>1</v>
@@ -23472,7 +23441,7 @@
     </row>
     <row r="2090" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2090" t="s">
-        <v>2074</v>
+        <v>2060</v>
       </c>
       <c r="B2090">
         <v>1</v>
@@ -23480,7 +23449,7 @@
     </row>
     <row r="2091" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2091" t="s">
-        <v>2075</v>
+        <v>2061</v>
       </c>
       <c r="B2091">
         <v>1</v>
@@ -23488,7 +23457,7 @@
     </row>
     <row r="2092" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2092" t="s">
-        <v>2076</v>
+        <v>2062</v>
       </c>
       <c r="B2092">
         <v>1</v>
@@ -23496,7 +23465,7 @@
     </row>
     <row r="2093" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2093" t="s">
-        <v>2077</v>
+        <v>2063</v>
       </c>
       <c r="B2093">
         <v>1</v>
@@ -23504,7 +23473,7 @@
     </row>
     <row r="2094" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2094" t="s">
-        <v>2078</v>
+        <v>2064</v>
       </c>
       <c r="B2094">
         <v>1</v>
@@ -23512,7 +23481,7 @@
     </row>
     <row r="2095" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2095" t="s">
-        <v>2079</v>
+        <v>2065</v>
       </c>
       <c r="B2095">
         <v>1</v>
@@ -23520,7 +23489,7 @@
     </row>
     <row r="2096" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2096" t="s">
-        <v>2080</v>
+        <v>2066</v>
       </c>
       <c r="B2096">
         <v>1</v>
@@ -23528,7 +23497,7 @@
     </row>
     <row r="2097" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2097" t="s">
-        <v>2081</v>
+        <v>2067</v>
       </c>
       <c r="B2097">
         <v>1</v>
@@ -23536,7 +23505,7 @@
     </row>
     <row r="2098" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2098" t="s">
-        <v>2082</v>
+        <v>2068</v>
       </c>
       <c r="B2098">
         <v>1</v>
@@ -23544,7 +23513,7 @@
     </row>
     <row r="2099" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2099" t="s">
-        <v>2083</v>
+        <v>2069</v>
       </c>
       <c r="B2099">
         <v>1</v>
@@ -23552,7 +23521,7 @@
     </row>
     <row r="2100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2100" t="s">
-        <v>2084</v>
+        <v>2070</v>
       </c>
       <c r="B2100">
         <v>1</v>
@@ -23560,7 +23529,7 @@
     </row>
     <row r="2101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2101" t="s">
-        <v>2085</v>
+        <v>2071</v>
       </c>
       <c r="B2101">
         <v>1</v>
@@ -23568,7 +23537,7 @@
     </row>
     <row r="2102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2102" t="s">
-        <v>2086</v>
+        <v>2072</v>
       </c>
       <c r="B2102">
         <v>1</v>
@@ -23576,7 +23545,7 @@
     </row>
     <row r="2103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2103" t="s">
-        <v>2087</v>
+        <v>2073</v>
       </c>
       <c r="B2103">
         <v>1</v>
@@ -23584,7 +23553,7 @@
     </row>
     <row r="2104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2104" t="s">
-        <v>2088</v>
+        <v>2074</v>
       </c>
       <c r="B2104">
         <v>1</v>
@@ -23592,7 +23561,7 @@
     </row>
     <row r="2105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2105" t="s">
-        <v>2089</v>
+        <v>2075</v>
       </c>
       <c r="B2105">
         <v>1</v>
@@ -23600,7 +23569,7 @@
     </row>
     <row r="2106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2106" t="s">
-        <v>2090</v>
+        <v>2076</v>
       </c>
       <c r="B2106">
         <v>1</v>
@@ -23608,7 +23577,7 @@
     </row>
     <row r="2107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2107" t="s">
-        <v>2091</v>
+        <v>2077</v>
       </c>
       <c r="B2107">
         <v>1</v>
@@ -23616,7 +23585,7 @@
     </row>
     <row r="2108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2108" t="s">
-        <v>2092</v>
+        <v>2078</v>
       </c>
       <c r="B2108">
         <v>1</v>
@@ -23624,7 +23593,7 @@
     </row>
     <row r="2109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2109" t="s">
-        <v>2093</v>
+        <v>2079</v>
       </c>
       <c r="B2109">
         <v>1</v>
@@ -23632,7 +23601,7 @@
     </row>
     <row r="2110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2110" t="s">
-        <v>2094</v>
+        <v>2080</v>
       </c>
       <c r="B2110">
         <v>1</v>
@@ -23640,7 +23609,7 @@
     </row>
     <row r="2111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2111" t="s">
-        <v>2095</v>
+        <v>2081</v>
       </c>
       <c r="B2111">
         <v>1</v>
@@ -23648,7 +23617,7 @@
     </row>
     <row r="2112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2112" t="s">
-        <v>2096</v>
+        <v>2082</v>
       </c>
       <c r="B2112">
         <v>1</v>
@@ -23656,7 +23625,7 @@
     </row>
     <row r="2113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2113" t="s">
-        <v>2097</v>
+        <v>2083</v>
       </c>
       <c r="B2113">
         <v>1</v>
@@ -23664,7 +23633,7 @@
     </row>
     <row r="2114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2114" t="s">
-        <v>2098</v>
+        <v>2084</v>
       </c>
       <c r="B2114">
         <v>1</v>
@@ -23672,7 +23641,7 @@
     </row>
     <row r="2115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2115" t="s">
-        <v>2099</v>
+        <v>2085</v>
       </c>
       <c r="B2115">
         <v>1</v>
@@ -23680,7 +23649,7 @@
     </row>
     <row r="2116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2116" t="s">
-        <v>2100</v>
+        <v>2086</v>
       </c>
       <c r="B2116">
         <v>1</v>
@@ -23688,7 +23657,7 @@
     </row>
     <row r="2117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2117" t="s">
-        <v>2101</v>
+        <v>2087</v>
       </c>
       <c r="B2117">
         <v>1</v>
@@ -23696,7 +23665,7 @@
     </row>
     <row r="2118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2118" t="s">
-        <v>2102</v>
+        <v>2088</v>
       </c>
       <c r="B2118">
         <v>1</v>
@@ -23704,7 +23673,7 @@
     </row>
     <row r="2119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2119" t="s">
-        <v>2103</v>
+        <v>2089</v>
       </c>
       <c r="B2119">
         <v>1</v>
@@ -23712,7 +23681,7 @@
     </row>
     <row r="2120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2120" t="s">
-        <v>2104</v>
+        <v>2090</v>
       </c>
       <c r="B2120">
         <v>1</v>
@@ -23720,7 +23689,7 @@
     </row>
     <row r="2121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2121" t="s">
-        <v>2105</v>
+        <v>2091</v>
       </c>
       <c r="B2121">
         <v>1</v>
@@ -23728,7 +23697,7 @@
     </row>
     <row r="2122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2122" t="s">
-        <v>2106</v>
+        <v>2092</v>
       </c>
       <c r="B2122">
         <v>1</v>
@@ -23736,7 +23705,7 @@
     </row>
     <row r="2123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2123" t="s">
-        <v>2107</v>
+        <v>2093</v>
       </c>
       <c r="B2123">
         <v>1</v>
@@ -23744,7 +23713,7 @@
     </row>
     <row r="2124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2124" t="s">
-        <v>2108</v>
+        <v>2094</v>
       </c>
       <c r="B2124">
         <v>1</v>
@@ -23752,7 +23721,7 @@
     </row>
     <row r="2125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2125" t="s">
-        <v>2109</v>
+        <v>2095</v>
       </c>
       <c r="B2125">
         <v>1</v>
@@ -23760,7 +23729,7 @@
     </row>
     <row r="2126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2126" t="s">
-        <v>2110</v>
+        <v>2096</v>
       </c>
       <c r="B2126">
         <v>1</v>
@@ -23768,7 +23737,7 @@
     </row>
     <row r="2127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2127" t="s">
-        <v>2111</v>
+        <v>2097</v>
       </c>
       <c r="B2127">
         <v>1</v>
@@ -23776,7 +23745,7 @@
     </row>
     <row r="2128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2128" t="s">
-        <v>2112</v>
+        <v>2098</v>
       </c>
       <c r="B2128">
         <v>1</v>
@@ -23784,7 +23753,7 @@
     </row>
     <row r="2129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2129" t="s">
-        <v>2113</v>
+        <v>2099</v>
       </c>
       <c r="B2129">
         <v>1</v>
@@ -23792,7 +23761,7 @@
     </row>
     <row r="2130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2130" t="s">
-        <v>2114</v>
+        <v>2100</v>
       </c>
       <c r="B2130">
         <v>1</v>
@@ -23800,7 +23769,7 @@
     </row>
     <row r="2131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2131" t="s">
-        <v>2115</v>
+        <v>2101</v>
       </c>
       <c r="B2131">
         <v>1</v>
@@ -23808,7 +23777,7 @@
     </row>
     <row r="2132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2132" t="s">
-        <v>2116</v>
+        <v>2102</v>
       </c>
       <c r="B2132">
         <v>1</v>
@@ -23816,7 +23785,7 @@
     </row>
     <row r="2133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2133" t="s">
-        <v>2117</v>
+        <v>2103</v>
       </c>
       <c r="B2133">
         <v>1</v>
@@ -23824,14 +23793,14 @@
     </row>
     <row r="2134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2134" t="s">
-        <v>2118</v>
+        <v>2104</v>
       </c>
       <c r="B2134">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B2035" xr:uid="{26B2F671-711C-4E7E-8DEC-862275EA5F43}"/>
+  <autoFilter ref="A1:B2134" xr:uid="{26B2F671-711C-4E7E-8DEC-862275EA5F43}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Raw_data.xlsx
+++ b/Raw_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tweet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A7C56E-EBE8-41B9-9E78-A104C8CF194C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31682A15-04B2-49B0-BC20-8B3F61318D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1FBBC6F7-9289-4750-92EB-8312862BE21F}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11400" xr2:uid="{1FBBC6F7-9289-4750-92EB-8312862BE21F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3498" uniqueCount="3242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4350" uniqueCount="3978">
   <si>
     <t>sandandeeiopleqwโอ้ยเนอะมาตรวจสอบให้ชัชชาติทำงานตรงจุดไหนดีกว่ามาวิจารณ์ไม่มีมูลดีกว่าครับ</t>
   </si>
@@ -9765,6 +9765,2214 @@
   </si>
   <si>
     <t>ชาวเมืองออสเตรเลียประชาชนบางส่วนต่อต้านไม่อยากใช้รูปคิงชาร์ลส์ที่แทนควีนเอลิซาเบธที่บางชี้ใช้รูปสัตว์ก็ได้ควีนผู้ล่วงลับควีนเอลิซาเบธที่คิงชาร์ลส์ที่ธนบัตรเหรียญการเปลี่ยนแปลงธนาคารแห่งชาติออสเตรเลียการผลิตแบงก์ใหม่</t>
+  </si>
+  <si>
+    <t>รับหิ้วรองเท้าcrocswราคา฿ของแท้ป้ายห้อยไม่มีปลายทางฝากร้านฝากรีทวิตติดหัวใจให้ด้วยนะครับ</t>
+  </si>
+  <si>
+    <t>w฿รวมหิ้วส่งสีขาวดำเหลืองม่วงชมพูสีเบจเหลือmคู่เดียวของแท้ป้ายห้อยพร้อมส่งไม่มีปลายทางรบกวนไม่ทักมาถามsizeอื่นนะคะรับหิ้วรองเท้าcrocsฝากร้านฝากรีทวิตติดหัวใจให้ด้วยนะครับ</t>
+  </si>
+  <si>
+    <t>ความทำงานประจำไปด้วยทำเครื่องประดับไปด้วยใจรักเหรออ๋อร้อนเงินแฮร่ฝากร้านด้วยนะคะอัพคอลเล็คชั่นใหม่แล้วสีแรดมากgtgtbesterdayaccessoriesฝากร้านแฟชั่นคาเฟ่ชุดว่ายน้ำแฟชั่นเกาหลีชุดไปเที่ยวชุดออกงานเครื่องประดับ</t>
+  </si>
+  <si>
+    <t>ไพ่อยากบอกอะไรกับคุณเป็นเพียงgeneralreadingเท่านั้นกติกาเลือกรูปที่ดึงดูดคุณที่สุดมารูปและเม้นใต้ภาพได้เลยค่ากดรีทวิตเพื่อเป็นค่าครูเฉลยนดูดวงดูดวงฟรีดูดวงความรักดูดวงแม่นๆดูดวงไพ่ทาโรต์ฝากร้าน</t>
+  </si>
+  <si>
+    <t>คุกกี้ไอศกรีมแสนอร่อยขวัญใจน้องๆหนูๆทั้งหลายพร้อมส่งแล้วคร้ากระปุกมีลูกบาทเรนโบว์ช็อกโกแลตชิพดับเบิ้ลช็อกโกแลตฝากร้านขายขนมออนไลน์ขนมอร่อยบอกต่อคุกกี้บราวนี่เค้กช็อกโกแลต</t>
+  </si>
+  <si>
+    <t>ltchystickxgtchypriceขายสติ๊กเกอร์ไลน์เมโลดี้ไลน์ราคาถูกพื้นที่โปรร้านค้าสติ๊กเกอร์ไลน์ราคาถูกสติกเกอร์ไลน์ต่างประเทศธีมไลน์ต่างประเทศสติ๊กเกอร์ไลน์พร้อมส่งฝากร้านพื้นที่ขายของ</t>
+  </si>
+  <si>
+    <t>โปรพิเศษตอนรับเปิดร้านใหม่setแก้วน้ำมินิมอลเท่ๆเพียงจากปกติจะซื้อไปดื่มน้ำชิคๆเป็นพรอปเป็นของขวัญให้แฟนหรือฝากเพื่อนก็ดีน้าlinehmkwzordmigพร้อมส่งแก้วเก็บความเย็นแก้วน้ำแก้วฝากร้าน</t>
+  </si>
+  <si>
+    <t>หมวกแฟชั่นราคาน่ารักใบ฿ใบ฿คละแบบได้รอสินค้าวันหลังปิดรอบค่าส่ง฿พรีออเดอร์หมวกเครื่องประดับหมวกบักเก็ตแฟชั่นของมันต้องมีถูกและดีบอกต่อhowtoperfectขายของออนไลน์ฝากร้าน</t>
+  </si>
+  <si>
+    <t>ขายดีfofplusvmcอันละซื้อส่งฟรีไม่มีปลายทางไม่นัดรับค่าส่งบาทพอตพอตใช้แล้วทิ้งบุหรี่ไฟฟ้าพร้อมส่งฝากร้านพอตบุหรี่ไฟฟ้าพอตพร้อมส่งพอตไฟฟ้าพอตราคาถูก</t>
+  </si>
+  <si>
+    <t>ช้อปผ่านappkingpowerหรือใส่รหัสส่วนลดsvลดเหลือส่งhomedeliveryส่งฟรีฝากร้านkingpowerkingpowershoppingonlineแว่นตากันแดดhomemiumiusvcodeลดไม่เลิก</t>
+  </si>
+  <si>
+    <t>swarovskiswarovskijewelryกำไลbangleช้อปใส่รหัสส่วนลดsvลดเหลือบาทhomedeliveryฝากร้านsvkingpowerkingpoweronlineช้อปคุ้มทุกที่ทุกเวลาsvcodeลดไม่เลิกsvcodeช้อปง่ายได้ลดkingpoweronlineshopping</t>
+  </si>
+  <si>
+    <t>ส่งฟรีksquikคำชิ้นละแตงโมองุ่นน้ำเขียวกลิ่นชัดหอมมากพอตพอตใช้แล้วทิ้งksksquikksquikbuffบุหรี่ไฟฟ้าพร้อมส่งฝากร้านพอตบุหรี่ไฟฟ้าพอตพร้อมส่งพอตไฟฟ้าพอตราคาถูกksเคสพอต</t>
+  </si>
+  <si>
+    <t>guccisunglassesแว่นกันแดดfemalewomanwomenช้อปใส่รหัสส่วนลดsvลดเหลือบาทส่งhomedeliveryฝากร้านsvkingpowerkingpoweronlineช้อปคุ้มทุกที่ทุกเวลาsvcodeลดไม่เลิกsvcodeช้อปง่ายได้ลดของดีบอกต่อ</t>
+  </si>
+  <si>
+    <t>sunglassespolicemenmaleแว่นกันแดดช้อปใส่รหัสส่วนลดsvลดเหลือบาทส่งhomedeliveryฝากร้านsvkingpowerkingpoweronlineช้อปคุ้มทุกที่ทุกเวลาsvcodeลดไม่เลิกsvcodeช้อปง่ายได้ลดkingpowershopfromhome</t>
+  </si>
+  <si>
+    <t>ดูสินค้าของคิ้วท์ถึอัพเดตงานใหม่ๆได้ทางไอจีร้านเลยค้าบบส่วนใหญ่ร้านเค้าจะเน้นงานซานริโอน้าามีเครดิตส่งจริงเเน่นอนงับฝากร้าน</t>
+  </si>
+  <si>
+    <t>บลูเบอร์รี่fofplusvmcอันละซื้อส่งฟรีไม่มีปลายทางไม่นัดรับค่าส่งบาทพอตพอตใช้แล้วทิ้งบุหรี่ไฟฟ้าพร้อมส่งฝากร้านพอตบุหรี่ไฟฟ้าพอตพร้อมส่งพอตไฟฟ้าพอตราคาถูก</t>
+  </si>
+  <si>
+    <t>ฝากร้านรอบค่ำลองเข้ามาดูร้านค้าออนไลน์ของฉันในshopeebookhandtwoshopeeth</t>
+  </si>
+  <si>
+    <t>vmcfofplusอันละซื้อส่งฟรีไม่มีปลายทางไม่นัดรับค่าส่งบาทพอตพอตใช้แล้วทิ้งบุหรี่ไฟฟ้าพร้อมส่งฝากร้านพอตบุหรี่ไฟฟ้าพอตพร้อมส่งพอตไฟฟ้าพอตราคาถูกพอตใช้เเล้วทิ้งvmcvmc</t>
+  </si>
+  <si>
+    <t>happymondayสั่งซื้อและจ่ายเงินในวันนี้ส่งฟรีemsหมวกใบละ฿ใบ฿เสื้อตัวละ฿หมวกเสื้อ฿รอสินค้าวันหลังปิดรอบพรีออเดอร์หมวกเสื้อผ้าสไตล์เกาหลีหมวกบักเก็ตแฟชั่นของมันต้องมีhowtoperfectขายของออนไลน์ฝากร้านเสื้อครอป</t>
+  </si>
+  <si>
+    <t>เสื้อใส่ครั้งเดียวบาทรวมส่งส่งต่อเสื้อผ้าส่งต่อเสื้อผ้ามือสองเสื้อผ้ามือสองส่งต่อส่งต่อเสื้อผ้ามือเสื้อผ้ามือเสื้อผ้ามือสองสภาพดีฝากร้าน</t>
+  </si>
+  <si>
+    <t>กางเกงผ้าดีมากไม่บางค่ะสีครีมไซส์sตัดขากางเกงแล้วนะคะเอวสูงสะโพกความยาวแม่ค้าสูงใหม่มากกกกกบาทรวมส่งค่ะส่งต่อเสื้อผ้าส่งต่อเสื้อผ้ามือสองเสื้อผ้ามือสองส่งต่อส่งต่อเสื้อผ้ามือเสื้อผ้ามือเสื้อผ้ามือสองสภาพดีฝากร้าน</t>
+  </si>
+  <si>
+    <t>หิ้วรวมส่ง฿ลิเวอร์พูลlfcliverpoolfcฝากรีทวิตด้วยนะครับฝากร้าน</t>
+  </si>
+  <si>
+    <t>ครอปลูกไม้มาเเล้วค่ะสาวทักมาสอบถามสีได้ค่ะราคา฿ทุกตัวเลยเสื้อผ้าสายเดี่ยวykthailandสายเดี่ยวราคาถูกเสื้อผ้าสไตล์เกาหลีเสื้อผ้าykhowtoperfectเสื้อผ้าพร้อมส่งเสื้อผ้าแฟชั่นเสื้อผ้าน่ารักส่งต่อเสื้อผ้าhowtobeautyฝากร้านเสื้อykครอป</t>
+  </si>
+  <si>
+    <t>สายเดี่ยวykมาเเล้วค่ะสาวทักมาสอบถามสีได่ค่ะราคา฿ทุกตัวเลยเสื้อผ้าสายเดี่ยวykthailandสายเดี่ยวราคาถูกเสื้อผ้าสไตล์เกาหลีเสื้อผ้าykhowtoperfectเสื้อผ้าพร้อมส่งเสื้อผ้าแฟชั่นเสื้อผ้าน่ารักส่งต่อเสื้อผ้าhowtobeautyฝากร้านเสื้อyk</t>
+  </si>
+  <si>
+    <t>พรุ่งนี้มีคิวว่างค่าสามารถสอบถามจองคิวเข้ามาทางdmหรือไลน์ได้เลยน้าารีวิวแบบสับที่สเกลดูดวงดูดวงรับดูดวงยพทโปรร้านฝากร้านดีบอกต่อดูดวงออนไลน์ดูดวงไพ่ทาโรต์ดูดวงแม่นๆ</t>
+  </si>
+  <si>
+    <t>danielwellingtonwatchdwนาฬิกาช้อปใส่รหัสส่วนลดsvลดเหลือบาทส่งhomedeliveryฝากร้านsvkingpowerkingpoweronlineช้อปคุ้มทุกที่ทุกเวลาsvcodeลดไม่เลิกsvcodeช้อปง่ายได้ลดkingpowershopfromhome</t>
+  </si>
+  <si>
+    <t>goldencrystalกลิ่นส้มยูซุหอมเย็นกลิ่นส้มเน้นๆฟิลแน่นทุกคำสอบถามรายละเอียดเพิ่มเติมได้lineoarelxrelxinfinityมือหนึ่งราคาถูกโปรโมชั่นบุหรี่ไฟฟ้ารับประกันส่งเคลมได้ไม่โกงฝากร้านรีวิวเปิดการมองเห็นพร้อมส่ง</t>
+  </si>
+  <si>
+    <t>ซื้อแถมฟัดจ์บราวนี่฿ตกถาดละ฿ขนาดgเลือกหน้าได้มาชเมลโล่โอริโอ้เม็ดมะม่วงอัลมอนด์แท่งอัลมอนด์สไลด์ค่าส่งพื้นที่ห่างไกลตามขนส่งแจ้งทำสดใหม่รอบต่อรอบปิดรอบนฝากร้านบราวนี่อร่อยบอกต่ออร่อยไปแดกขนมอร่อยบอกต่อ</t>
+  </si>
+  <si>
+    <t>fofplusvmcอันละซื้อส่งฟรีไม่มีปลายทางไม่นัดรับค่าส่งบาทพอตพอตใช้แล้วทิ้งบุหรี่ไฟฟ้าพร้อมส่งฝากร้านพอตบุหรี่ไฟฟ้าพอตพร้อมส่งพอตไฟฟ้าพอตราคาถูก</t>
+  </si>
+  <si>
+    <t>ส่งฟรีksquikคำชิ้นละกลิ่นชัดหอมมากพอตพอตใช้แล้วทิ้งksksquikksquikbuffบุหรี่ไฟฟ้าพร้อมส่งฝากร้านพอตบุหรี่ไฟฟ้าพอตพร้อมส่งพอตไฟฟ้าพอตราคาถูกksเคสพอต</t>
+  </si>
+  <si>
+    <t>งวดนี้ไม่มีหวยใบนะคะแค่มีดิจิทัลฝากด้วยนะคะค่าาาถูกรางวัลระบบโอนเข้าบชเลยหักเซฟไปสแกนในแอพเป๋าตังได้เลยค่าาาสนใจทักมาสอบถามได้นะคะเดี๋ยวเค้าสอนสลากดิจิทัลหวยหวยงวดนี้หวยรัฐบาลหวยออนไลน์สลากกินแบ่งรัฐบาลหวยไทยหวยดิจิทัลฝากร้าน</t>
+  </si>
+  <si>
+    <t>ยังจัดส่งกันเรื่อยๆถึงแม้ไอจีโดนปิดแอดไลน์linepodcnxไว้สั่งตลอดได้เลยส่งแกรบส่งพัสดุได้หมดrelxcnxบุหรี่ไฟฟ้าrandmcrystalพอดเชียงใหม่podcnxแม่สอดแม่สอดนัดรับพอดแม่สอดกัญชาเชียงใหม่ส่งฟรีฝากร้านอิงฟ้ามาหาชนแคปชั่น</t>
+  </si>
+  <si>
+    <t>gucciedtbestpricebestsellerน้ำหอมguiltymenช้อปใส่รหัสส่วนลดsvลดเหลือบาทส่งhomedeliveryฝากร้านsvkingpowerkingpoweronlineช้อปคุ้มทุกที่ทุกเวลาsvcodeลดไม่เลิกsvcodeช้อปง่ายได้ลด</t>
+  </si>
+  <si>
+    <t>ฝากร้านหน่อยค้าบฝากกดติดตามไอจีcheevittcheevaaหน่อยงับเป็นไอจีสำหรับถ่ายงานรับปริญญานอกรอบวันซ้อมวันจริงถ่ายโปรไฟล์ครึ่งวันเต็มวันได้หมดเลยงับช่างภาพฟิลแฟนเทคแคร์ดีเอนเตอร์เทนเก่งพร้อมออกแบบคอมโพสให้ด้วยฝากร้าน</t>
+  </si>
+  <si>
+    <t>กระเป๋าสตางค์สไตล์มินิมอลมีช่องใส่บัตรช่องจุกๆช่องใส่ธนบัตรและช่องใส่เหรียญส่งฟรีโปรโมชั่นรีฟอลร้านลดเหลือส่งฟรีพร้อมส่งสีขาวครีมดำกระเป๋าสตางค์พร้อมส่งกระเป๋าแฟชั่นฝากร้านกระเป๋า</t>
+  </si>
+  <si>
+    <t>ฝากร้านกลับมาเปิดอีกรอบแล้วววcheckoutbethewonsvideotiktok</t>
+  </si>
+  <si>
+    <t>กำลังหาช่างภาพทักมาสอบถามได้เลยครับหาช่างภาพหาช่างภาพรับปริญญาหาช่างภาพถ่ายภาพปริญญาหาช่างภาพงานรับปริญญาหาช่างภาพราคาไม่แรงรับถ่ายภาพนอกรอบรับปริญญาตากล้องช่างภาพรับปริญญาช่างภาพgraduationช่างภาพราคาถูกช่างภาพงานรับปริญญามายอาโปฝากร้าน</t>
+  </si>
+  <si>
+    <t>ช้อปผ่านappkingpowerหรือใส่รหัสส่วนลดsvลดเหลือส่งhomedeliveryส่งฟรีฝากร้านkingpowerkingpowershoppingonlineแว่นตากันแดดhomevediverosvcodeลดไม่เลิก</t>
+  </si>
+  <si>
+    <t>เซรั่มผิวกายราคาเป็นมิตรปลอดภัยแม้ผิวแพ้ง่าย฿ขวดส่งฟรีทันทีสนใจทักไลน์ค่ะเซรั่มเลม่อนพร้อมส่งฉันจะสวยฉันจะขาวใช้ดีบอกต่อสกินแคร์ผิวขาวถูกและดีของดีบอกต่อชี้เป้าโปรถูกขายของออนไลน์ฝากร้านแม่ค้าออนไลน์ripไอดอ</t>
+  </si>
+  <si>
+    <t>pradasunglassesmeneyewearแว่นกันแดดช้อปลดแล้วใส่รหัสส่วนลดsvลดอีกลดเหลือบาทลดอีกลดเหลือบาทส่งhomedeliveryฝากร้านsvkingpowerkingpoweronlineช้อปคุ้มทุกที่ทุกเวลา</t>
+  </si>
+  <si>
+    <t>พร้อมส่งงงงงงงeyemaskสปาตาอุ่นคลายความเมื่อยล้าดวงตาคาดแล้วนอนได้เลยขายแยกชิ้นลองใช้เองละชอบนะอุ่นๆดีไม่ร้อนปลอดภัยแผ่นละ฿แผ่นแผ่นflashemsที่สำคัญไม่ต้องรอพรีเมนชั่นหรือเดมได้ค่าส่งพรุ่งนี้ฝากร้านeyemaskลดอาการตาแห้ง</t>
+  </si>
+  <si>
+    <t>drantoinettyฝากร้านlaocaf</t>
+  </si>
+  <si>
+    <t>ขอฝากร้านเด็กหญิงกากหมูกากหมูคั่วพริกเกลือหนังไก่ทอดคั่วพริกเกลือราคาบาทใช้มันหมูล้วนไม่มีแคปหมูผสมใช้หนังไก่คุณภาพดีไม่ใส่สารกันบูดสอบถามdmได้เลยค่ะอร่อยบอกต่ออร่อยไปแดกอร่อยจนต้องรีวิว</t>
+  </si>
+  <si>
+    <t>sanaขอฝากร้านเด็กหญิงกากหมูกากหมูคั่วพริกเกลือหนังไก่ทอดคั่วพริกเกลือราคาบาทใช้มันหมูล้วนไม่มีแคปหมูผสมใช้หนังไก่คุณภาพดีไม่ใส่สารกันบูดสอบถามdmได้เลยค่ะอร่อยบอกต่ออร่อยไปแดกอร่อยจนต้องรีวิว</t>
+  </si>
+  <si>
+    <t>peepziiขอฝากร้านเด็กหญิงกากหมูกากหมูคั่วพริกเกลือหนังไก่ทอดคั่วพริกเกลือราคาบาทใช้มันหมูล้วนไม่มีแคปหมูผสมใช้หนังไก่คุณภาพดีไม่ใส่สารกันบูดสอบถามdmได้เลยค่ะอร่อยบอกต่ออร่อยไปแดกอร่อยจนต้องรีวิว</t>
+  </si>
+  <si>
+    <t>nayesiamขอฝากร้านเด็กหญิงกากหมูกากหมูคั่วพริกเกลือหนังไก่ทอดคั่วพริกเกลือราคาบาทใช้มันหมูล้วนไม่มีแคปหมูผสมใช้หนังไก่คุณภาพดีไม่ใส่สารกันบูดสอบถามdmได้เลยค่ะอร่อยบอกต่ออร่อยไปแดกอร่อยจนต้องรีวิว</t>
+  </si>
+  <si>
+    <t>pjpjpjpjขอฝากร้านเด็กหญิงกากหมูกากหมูคั่วพริกเกลือหนังไก่ทอดคั่วพริกเกลือราคาบาทใช้มันหมูล้วนไม่มีแคปหมูผสมใช้หนังไก่คุณภาพดีไม่ใส่สารกันบูดสอบถามdmได้เลยค่ะอร่อยบอกต่ออร่อยไปแดกอร่อยจนต้องรีวิว</t>
+  </si>
+  <si>
+    <t>มูเตลูสายมูฝากร้านกําไลข้อมือหินมูมูเตลู</t>
+  </si>
+  <si>
+    <t>eaaawขอฝากร้านเด็กหญิงกากหมูกากหมูคั่วพริกเกลือหนังไก่ทอดคั่วพริกเกลือราคาบาทใช้มันหมูล้วนไม่มีแคปหมูผสมใช้หนังไก่คุณภาพดีไม่ใส่สารกันบูดสอบถามdmได้เลยค่ะอร่อยบอกต่ออร่อยไปแดกอร่อยจนต้องรีวิว</t>
+  </si>
+  <si>
+    <t>solyarsขอฝากร้านเด็กหญิงกากหมูกากหมูคั่วพริกเกลือหนังไก่ทอดคั่วพริกเกลือราคาบาทใช้มันหมูล้วนไม่มีแคปหมูผสมใช้หนังไก่คุณภาพดีไม่ใส่สารกันบูดสอบถามdmได้เลยค่ะอร่อยบอกต่ออร่อยไปแดกอร่อยจนต้องรีวิว</t>
+  </si>
+  <si>
+    <t>shunjouขอฝากร้านเด็กหญิงกากหมูกากหมูคั่วพริกเกลือหนังไก่ทอดคั่วพริกเกลือราคาบาทใช้มันหมูล้วนไม่มีแคปหมูผสมใช้หนังไก่คุณภาพดีไม่ใส่สารกันบูดสอบถามdmได้เลยค่ะอร่อยบอกต่ออร่อยไปแดกอร่อยจนต้องรีวิว</t>
+  </si>
+  <si>
+    <t>viwennyขอฝากร้านเด็กหญิงกากหมูกากหมูคั่วพริกเกลือหนังไก่ทอดคั่วพริกเกลือราคาบาทใช้มันหมูล้วนไม่มีแคปหมูผสมใช้หนังไก่คุณภาพดีไม่ใส่สารกันบูดสอบถามdmได้เลยค่ะอร่อยบอกต่ออร่อยไปแดกอร่อยจนต้องรีวิว</t>
+  </si>
+  <si>
+    <t>parntranslationขอฝากร้านเด็กหญิงกากหมูกากหมูคั่วพริกเกลือหนังไก่ทอดคั่วพริกเกลือราคาบาทใช้มันหมูล้วนไม่มีแคปหมูผสมใช้หนังไก่คุณภาพดีไม่ใส่สารกันบูดสอบถามdmได้เลยค่ะอร่อยบอกต่ออร่อยไปแดกอร่อยจนต้องรีวิว</t>
+  </si>
+  <si>
+    <t>madebyorderแบบลวดถักลวดเงินบาทพลังงานหลักของกำไลเส้นนี้คือความสุขความสบายใจเสริมความรักความสัมพันธ์ทำให้มีสเน่ห์การเจรจาสื่อสารดีความคิดสร้างสรรค์ดึงดูดเงินเสริมสติปัญญาความรู้ความสามารถสายมูฝากร้านกําไลข้อมือหินมูมูเตลู</t>
+  </si>
+  <si>
+    <t>ส่งต่อชุดเซ็กซี่ม้ากลายปักลูกไม้price฿ส่งฟรียังไม่แกะออกจากซองพัสดุเลยส่งต่อเพราะไม่ค่อยชอบงับส่งต่อเสื้อผ้าส่งต่อเสื้อผ้ามือสองชุดนอนไม่ได้นอนชุดนอนเซ็กซี่ส่งต่อเสื้อผ้าราคาถูกฝากร้าน</t>
+  </si>
+  <si>
+    <t>ถึงไม่ใช่รักแรกแต่ไทยประกันชีวิตก็รักและอยากดูแลคุณนะขอฝากร้านคลิกเลยให้รักดูแลชีวิตไทยประกันชีวิตnationalfirstloveday</t>
+  </si>
+  <si>
+    <t>รอบส่งพรุ่งนี้เปี๊ยะลาวาโมจิไดฟูกุสั่งซื้อเดมหรือกดลิ้งค์ด้านล่างได้เลยอร่อยบอกต่อขนมอร่อยบอกต่อฝากร้านตลาดนุชอร่อยไปแดกไดฟูกุนูเทลล่าเปี๊ยะลาวาบราวนี่โมจิ</t>
+  </si>
+  <si>
+    <t>kingpowerkingpoweronlineช้อปใส่รหัสส่วนลดsvลดเพิ่มเมื่อช้อปบาทส่งhomedeliveryฝากร้านsvkingpowershopfromhomekingpoweronlineexclusivekingpoweronlineshoppingsvcodeลดไม่เลิกsvcodeช้อปง่ายได้ลด</t>
+  </si>
+  <si>
+    <t>แว่นกันแดดnewarrivalsjimmychoosunglassesช้อปใส่รหัสส่วนลดsvลดเหลือบาทส่งhomedeliveryฝากร้านsvkingpowerkingpoweronlineช้อปคุ้มทุกที่ทุกเวลาsvcodeลดไม่เลิกsvcodeช้อปง่ายได้ลดของดีบอกต่อ</t>
+  </si>
+  <si>
+    <t>bonsennnกรุงเทพมันเมืองเล็กค่ะเผื่อเวลาแค่ไหนก็ไม่ขอฝากร้านช่วงนี้ปิดเทอมหาตังจ่ายค่าเทอมค่ะกำไรเล็กน้อยช่วยอุดหนุนทีนะคะvscoxทำอะไรได้มากกว่าที่คิดสายคาเฟ่ต้องโดนเด้อlineหรือdmgygmeowอาจตอบช้าค่ะ</t>
+  </si>
+  <si>
+    <t>ขาสั้นแขนสั้น฿พร้อมส่งผ้าcutiemoonxshortshortsอกเอวสะโพกความยาวเสื้อกางเกงขาสั้นค่าส่ง฿ชิ้นต่อไปฝากร้านชุดนอนตลาดนัดตลาดนัดsanrio</t>
+  </si>
+  <si>
+    <t>฿รวมหิ้วส่งcrocsridelifeฝากร้านรับหิ้วรองเท้า</t>
+  </si>
+  <si>
+    <t>บาทรวมหิ้วส่งรับหิ้วcrocsของแท้ป้ายห้อยพร้อมส่งไม่มีปลายทางฝากร้านฝากรีทวิตด้วยนะคะ</t>
+  </si>
+  <si>
+    <t>รับหิ้วเสื้อบอลจากariค่าราคาเริ่มต้น฿ส่งฟรีของแท้ป้ายห้อยพร้อมส่งไม่มีปลายทางฝากร้านฝากรีทวิตด้วยนะคะเสื้อบอบทีมชาติอิตาลี</t>
+  </si>
+  <si>
+    <t>ใช้เป็นประจำผิวใสไม่จกตาราคากันเอง฿โปรดีรออยู่สนใจทักไลน์ค่ะเซรั่มเลม่อนพร้อมส่งฉันจะสวยฉันจะขาวใช้ดีบอกต่อสกินแคร์ผิวขาวขายของออนไลน์แม่ค้าออนไลน์ถูกและดีบอกต่อชี้เป้าโปรถูกพื้นที่ขายของฝากร้านhowtoperfect</t>
+  </si>
+  <si>
+    <t>bvlgaribestpriceedtน้ำหอมhommeบุลการีช้อปใส่รหัสส่วนลดsvลดเหลือบาทส่งhomedeliveryฝากร้านsvkingpowerkingpoweronlineช้อปคุ้มทุกที่ทุกเวลาsvcodeลดไม่เลิกsvcodeช้อปง่ายได้ลดของดีบอกต่อ</t>
+  </si>
+  <si>
+    <t>รับหิ้วรองเท้าadidasสีขาวsizeผู้หญิงใหญ่สุดฝากร้านฝากรีทวิตติดหัวใจให้ด้วยนะครับsizeผู้ชายมีถึง</t>
+  </si>
+  <si>
+    <t>ฝากร้านสายผลิตกำไลข้อมือสายมูเตลู</t>
+  </si>
+  <si>
+    <t>relxinfinityampinfyฟิลแน่นvsฟิลโล่งฟิลไหนโดนใจคุณมากที่สุดlineoarelxrelxinfinityinfykskskurveมือหนึ่งโปรโมชั่นบุหรี่ไฟฟ้าฝากร้านรีวิวเปิดการมองเห็นพร้อมส่ง</t>
+  </si>
+  <si>
+    <t>ช้อปผ่านappkingpowerหรือใส่รหัสส่วนลดsvลดเหลือส่งhomedeliveryส่งฟรีฝากร้านkingpowerkingpowershoppingonlinemarroqueกระเป๋าhomeกระเป๋ามินิมอลsvcodeลดไม่เลิก</t>
+  </si>
+  <si>
+    <t>ฝากร้านกระเป๋าผ้าทรงกระบอกทรงหมอนราคาพิเศษบาทส่งฟรีผ้าแคนวาสตัวยาวข้างวงกลมนิ้วช่องใส่ของด้านหน้าช่องช่องใส่ของด้านในช่องช่องข้างซ้ายขวาสายสะพายข้างยาวนิ้วมีตะข้อถอดได้ถือคล้องแขนได้ซิปเปิดปิด</t>
+  </si>
+  <si>
+    <t>ลดราคาแพ็คแผ่น฿ปกติ฿สินค้าเป็นแบบคละลายแผ่นแปะแก้ปวดจะใช้แปะแก้ปวดประจำเดือนหรือคนที่ต้องนั่งทำงานนานๆปวดหลังปวดคอก็ใช้ได้ค่าาค่าส่งพื้นที่ห่างไกลตามขนส่งแจ้งฝากร้านใช้ดีบอกต่อพร้อมส่ง</t>
+  </si>
+  <si>
+    <t>dinwiddyขอฝากร้านเด็กหญิงกากหมูกากหมูคั่วพริกเกลือหนังไก่ทอดคั่วพริกเกลือราคาบาทใช้มันหมูล้วนไม่มีแคปหมูผสมใช้หนังไก่คุณภาพดีไม่ใส่สารกันบูดสอบถามdmได้เลยค่ะอร่อยบอกต่ออร่อยไปแดกอร่อยจนต้องรีวิว</t>
+  </si>
+  <si>
+    <t>สินค้าพร้อมส่งทุกวันบราวนี่เนื้อหนึบชอคโกแลตแท้เข้มข้นหวานน้อยขนาดกรัมชิ้นละ฿ซอฟคุกกี้ข้าวโอ๊ตแครนเบอรี่เต็มคำถุงกรัมราคาบาทโฮมเมดบราวนี่ขนมน้องมะลิหวานน้อยเบเกอรี่โฮมเมดฝากร้านอร่อยบอกต่ออร่อยไปแดกขนมอร่อยบอกต่อ</t>
+  </si>
+  <si>
+    <t>lazadashopeethlineshoppingthชุดเดรสเสื้อผ้าเสื้อผ้าสไตล์เกาหลีเสื้อผ้าผู้หญิงตลาดฝากร้านโปรโมชั่นรีวิวshopping</t>
+  </si>
+  <si>
+    <t>เชิญฝากร้านกันตามสบายเลยค่าาาา</t>
+  </si>
+  <si>
+    <t>กางเกงในสีพาสเทลตัว฿ค่าส่ง฿เก็บปลายทางได้สินค้าพรีออเดอร์ถึงไทยสิ้นเดือนน้าสนใจสอบถามสั่งซื้อสั่งจองเก็บปลายทางdmได้เลยน้าากางเกงในชุดชั้นในชุดชั้นในน่ารักของดีบอกต่อพรีจีนพรีเกาหลีพาสเทลฝากร้านรายละเอียดพตในเมนชั่น</t>
+  </si>
+  <si>
+    <t>yamyummyขอฝากร้านเด็กหญิงกากหมูกากหมูคั่วพริกเกลือหนังไก่ทอดคั่วพริกเกลือราคาบาทใช้มันหมูล้วนไม่มีแคปหมูผสมใช้หนังไก่คุณภาพดีไม่ใส่สารกันบูดสอบถามdmได้เลยค่ะอร่อยบอกต่ออร่อยไปแดกอร่อยจนต้องรีวิว</t>
+  </si>
+  <si>
+    <t>waroonkarnขอฝากร้านเด็กหญิงกากหมูกากหมูคั่วพริกเกลือหนังไก่ทอดคั่วพริกเกลือราคาบาทใช้มันหมูล้วนไม่มีแคปหมูผสมใช้หนังไก่คุณภาพดีไม่ใส่สารกันบูดสอบถามdmได้เลยค่ะอร่อยบอกต่ออร่อยไปแดกอร่อยจนต้องรีวิว</t>
+  </si>
+  <si>
+    <t>nnnestzขอฝากร้านเด็กหญิงกากหมูกากหมูคั่วพริกเกลือหนังไก่ทอดคั่วพริกเกลือราคาบาทใช้มันหมูล้วนไม่มีแคปหมูผสมใช้หนังไก่คุณภาพดีไม่ใส่สารกันบูดสอบถามdmได้เลยค่ะอร่อยบอกต่ออร่อยไปแดกอร่อยจนต้องรีวิว</t>
+  </si>
+  <si>
+    <t>kaenakengขอฝากร้านเด็กหญิงกากหมูกากหมูคั่วพริกเกลือหนังไก่ทอดคั่วพริกเกลือราคาบาทใช้มันหมูล้วนไม่มีแคปหมูผสมใช้หนังไก่คุณภาพดีไม่ใส่สารกันบูดสอบถามdmได้เลยค่ะอร่อยบอกต่ออร่อยไปแดกอร่อยจนต้องรีวิว</t>
+  </si>
+  <si>
+    <t>jpegขอฝากร้านเด็กหญิงกากหมูกากหมูคั่วพริกเกลือหนังไก่ทอดคั่วพริกเกลือราคาบาทใช้มันหมูล้วนไม่มีแคปหมูผสมใช้หนังไก่คุณภาพดีไม่ใส่สารกันบูดสอบถามdmได้เลยค่ะอร่อยบอกต่ออร่อยไปแดกอร่อยจนต้องรีวิว</t>
+  </si>
+  <si>
+    <t>ใครชอบลุ้นหวยกันแบบสดๆวันนี้หวยปิงปองเปิดให้เล่นแล้วสนใจสมัครฟรีตรวจหวยหวยรัฐบาลเลขเด็ดหวยงวดนี้หวยรัฐบาลหวยโหนกระแสไม่ต้องมีวีไอพีก็ได้นะtiktokล่มlisaกรุงไทยล่ม</t>
+  </si>
+  <si>
+    <t>อยู่บ้านเล่นเกมล่าแจ๊กพอตห่างไกลโรคสนใจแอดไลน์kkoverสมัครง่ายไม่ต้องรอนานรวดเร็วทันใจnmixxeveandboyxckzeenunewปีประยุทธ์stanvyouaremygloryalchemyofsoulsalchemyofsoulsep</t>
+  </si>
+  <si>
+    <t>คลิ๊กเลยอย่ารอช้าเว็บเดียวที่ดีที่สุดในสนใจแอดไลน์kkoverแนะนำเพื่อนรับเพิ่มสูงสุดยิ่งเพื่อนเยอะยิ่งมีสิทธิ์มากคลิ๊กเลยgulfxprovamedlivenunewmkalwayszeebiblesumettikulkazztalkxcutietriple</t>
+  </si>
+  <si>
+    <t>รวมคาสิโนชั้นนำทั่วโลกสนใจแอดไลน์kkoverอย่ารอช้าสมัครเลยเรารออยู่สาปซ่อนรักepstanvyouaremygloryปีมายอาโปก้าวไปด้วยกันbambambestboybobby</t>
+  </si>
+  <si>
+    <t>ดึกๆมีใครเงี่ยนไหมมาคอลเสียวกันคอลเสียวสนใจแอดไลน์icezyy</t>
+  </si>
+  <si>
+    <t>คลิ๊กเลยอย่ารอช้าเว็บเดียวที่ดีที่สุดในสนใจแอดไลน์kkoverแนะนำเพื่อนรับเพิ่มสูงสุดยิ่งเพื่อนเยอะยิ่งมีสิทธิ์มากคลิ๊กเลยbobbystanvyouaremygloryบไปเที่ยวกันฟอลเพื่อมายอาโปเบื่อจังเลยbeautyxหยิ่นวอร์big</t>
+  </si>
+  <si>
+    <t>อยู่บ้านเล่นเกมล่าแจ๊กพอตห่างไกลโรคสนใจแอดไลน์kkoverสมัครง่ายไม่ต้องรอนานรวดเร็วทันใจohmnanonxiuminbrandnewxiuminbeautyxหยิ่นวอร์แซ่บxอิงล็อตbrightnorrตามใจแฟน</t>
+  </si>
+  <si>
+    <t>รวมคาสิโนชั้นนำทั่วโลกสนใจแอดไลน์kkoverอย่ารอช้าสมัครเลยเรารออยู่โบว์เมลดาแฟนผมน่ารักwonhoแซ่บxอิงล็อตstanvyouaremygloryแซ่บxอิงล็อตแสนแฟนภูวินหนึ่งวันbkppsummersonicextrashow</t>
+  </si>
+  <si>
+    <t>นัดเย็ดสองพี่น้องรับงานสระยายโสมรับงานทุ่งคอกรับงานอู่ทองสาวสองมีงูรับงานสองพี่น้องสนใจแอดไลน์zm</t>
+  </si>
+  <si>
+    <t>อยู่บ้านเล่นเกมล่าแจ๊กพอตห่างไกลโรคสนใจแอดไลน์kkoverสมัครง่ายไม่ต้องรอนานรวดเร็วทันใจฟอลเพื่อมายอาโปแสนแฟนภูวินหนึ่งวันalchemyofsoulsepdontjournalxnunewfoodtruckbattlessxwoodz</t>
+  </si>
+  <si>
+    <t>คลิ๊กเลยอย่ารอช้าเว็บเดียวที่ดีที่สุดในสนใจแอดไลน์kkoverแนะนำเพื่อนรับเพิ่มสูงสุดยิ่งเพื่อนเยอะยิ่งมีสิทธิ์มากคลิ๊กเลยenhypenstanvyouaremygloryปีแล้วนะไอ้สัสblinkapologizetodahyunbigmouthยืมเมจfosrex</t>
+  </si>
+  <si>
+    <t>ขอคนตั้งใจทำงานจริงๆและสนใจทำไม่เป็นทางเรายินดีสอนค่ะไม่มีค่าสอนไม่มีค่าสมัครไม่มีค่าจ่ายไม่ใช่การพนันเคอแพทชาล็อตออสตินพี่ฟ้าลุคนี้คือที่ด้วยรักและหักหลังepให้ท้องฟ้าช่วยดูแลฟ้าให้ดีควีนเอลิซาเบธที่รัฐประหารแพทริคงานออนไลน์ฟรี</t>
+  </si>
+  <si>
+    <t>mindgameกดลิ้งได้เลยให้ท้องฟ้าช่วยดูแลฟ้าให้ดีพี่ฟ้าลุคนี้คือที่ชาล็อตออสตินควีนเอลิซาเบธที่รัฐประหารโบว์เมลดาแฟนผมน่ารักสล็อตเครดิตฟรีสล็อตทุนน้อยเว็บตรงสล็อตคาสิโน</t>
+  </si>
+  <si>
+    <t>แนะนำค่ะสินเชื่อเงินกู้ด่วนมีใบอนุญาตถูกกฎหมายกู้แล้วปลอดภัยgtเพื่อการค้าขายและธุรกิจเล็กๆเอกสารไม่ยุ่งยากgtอนุมัติไวรับเงินไม่เกินนาทีรัฐประหารหารายได้ระหว่างเรียนหางานทําหางานออนไลน์ฟรี</t>
+  </si>
+  <si>
+    <t>ค๊วยยยยยรัฐประหารยกฟ้องคดีสร้างโรงพักสุเทพ</t>
+  </si>
+  <si>
+    <t>ดูคลิปmvโฆษณาเพลงแค่ปัดๆจิ่มๆดูคลิปต่างๆคนช้องห้ามพราดดูเพิ่มยอดวิวงานง่ายๆแค่ดูนาทีเท่านั้นทำเป็นพาร์ทไทม์ได้เงินเข้าบัญชีวอเลตโดยตรงเพลงละบาทคลิปละบาทเดมมาอิงฟ้ามหาชนชาล็อตออสตินอิงล๊อตjhopeหอมแดงรักอิงฟ้ารัฐประหาร</t>
+  </si>
+  <si>
+    <t>ฮุนเซนสั่งปราบพนันผิดกฎหมายลอตเตอรี่ไก่ชนขู่ปิดร้านอาหารที่เปิดบังหน้าสนใจกลุ่มลับค่าเข้าเพียงพร้อมเข้ากลุ่มฟรีฟรีรวมเว็บแทงหวยเปิดรับไม่อั้นสนใจสมัครสอบถามเพิ่มเติมgtทักแชทมาได้เลยนะคะufaรัฐประหาร</t>
+  </si>
+  <si>
+    <t>สวัสดีค่ะใครที่อยู่บ้านแล้วอยากหารายได้พิเศษยิ่งขยันมากยิ่งได้มากค่ะอย่าให้เวลาสูญเปล่าไม่เสียเวลาแน่นอนไม่ทำให้ผิดหวังแน่นอนค่ะสนใจdmมาเลยค่ะหาเงินออนไลน์หางานออนไลน์ชาล็อตรัฐประหารด้วยรักและหักหลังepmoneysavegเคอแพทโยชิ</t>
+  </si>
+  <si>
+    <t>ใครกำลังหางานออนไลน์ทำอยู่มั้ยคะเค้าแนะนำงานนี้เลยเงินดีแถมงานง่ายสอนงานฟรีตลอดการทำงานมีรีวิวรับยอดทุกวันไม่มีค่าสอนสนใจรเฟบหรือเดมมาได้เลยรัฐประหารพี่ฟ้าลุคนี้คือที่ชาล็อตออสตินให้ท้องฟ้าช่วยดูแลฟ้าให้ดีด้วยรักและหักหลังep</t>
+  </si>
+  <si>
+    <t>แรมโบ้ยกข้อเลวร้ายหากนายกฯชื่อทักษิณชี้การทำรัฐประหารไม่ได้เลวร้ายดีกว่ามีนายกฯขี้โกงclickoncleargtgtthestatestimespoliticsnewsfeedแรมโบ้อีสานทักษิณชินวัตรรัฐประหารประเทศไทย</t>
+  </si>
+  <si>
+    <t>ปล่อยกู้รายเดือนไม่มีธุระกิจเป็นของตัวเองต้องการเงินทุนเร็วทันใจให้วงเงินสูงนักเรียนนักศึกษากู้ได้ให้ท้องฟ้าช่วยดูแลฟ้าให้ดีชาล็อตออสตินรัฐประหารพี่ฟ้าลุคนี้คือที่mtbbกู้เงินออนไลน์กู้เงินรายเดือนกู้เงินนักศึกษาเงินกู้นักศึกษาเงินกู้รายเดือน</t>
+  </si>
+  <si>
+    <t>จากเด็กก็เป็นสาวละยังไม่มีเหี้ยไรดีเลยมีแต่ชิบหายลงทุกวันรัฐประหาร</t>
+  </si>
+  <si>
+    <t>สวัสดีค่ะมีใครว่างหาค่าขนมอยู่ไหมคะแค่นาทีเค้ามีงานมาแนะนำทำง่ายๆค่ะได้เงินจริงทุกแพตฟอมงานไม่มีค่าสมัครไม่ต้องหาลูกทีมเงินเข้าบัญชีโดยตรงให้ท้องฟ้าช่วยดูแลฟ้าให้ดีควีนเอลิซาเบธที่แพทริคชาล็อตออสตินyugyeomyugyeomรัฐประหารmtbb</t>
+  </si>
+  <si>
+    <t>ถึงว่าตอนเช้าปากดีที่แท้รู้ผลก่อนหน้าแล้วรัฐประหาร</t>
+  </si>
+  <si>
+    <t>เป็นหมารับใช้ที่เรียกหมารับใช้ด้วยกันมายึดอำนาจประชาชนไม่แปลกใจที่หมารับใช้อีกตัวจะบอกว่าไม่ผิดเลยยกฟ้องรัฐประหาร</t>
+  </si>
+  <si>
+    <t>สำหรับใครที่ว่างงานต้องการสร้างรายได้เสริมรับประกับรายได้มั่นคงงานง่ายๆทำได้ในมือถือสนใจข้อมูลเพิ่มเติมสอบถามได้เลยนะคะเคอแพทชาล็อตออสตินพี่ฟ้าลุคนี้คือที่รัฐประหารควีนเอลิซาเบธที่แพทริคให้ท้องฟ้าช่วยดูแลฟ้าให้ดีด้วยรักและหักหลังepsavegบ้านมังกรjhope</t>
+  </si>
+  <si>
+    <t>ขออนุญาตใช้แท๊กเพื่อให้มีคนเห็นและช่วยเหลือน้องด้วยค่ะรัฐประหารแดนแพตตี้ฉันชื่อแอนโหนกระเเสช่วยด้วยแมวช่วยแมวmvเหล่ท่อตงตงเบสท์เบสรักษ์วนีย์ไบเบิลบิวmarkbamโหนกระเเสให้ท้องฟ้าช่วยดูแลฟ้าให้ดี</t>
+  </si>
+  <si>
+    <t>สวัสดีค่ะใครที่อยู่บ้านแล้วอยากหารายได้พิเศษยิ่งขยันมากยิ่งได้มากค่ะอย่าให้เวลาสูญเปล่าไม่เสียเวลาแน่นอนไม่ทำให้ผิดหวังแน่นอนค่ะสนใจdmมาเลยค่ะหาเงินออนไลน์หางานออนไลน์ชาล็อตให้ช่วยดูแลฟ้าดีรัฐประหารหอมแดงรักอิงฟ้าsavegยูคยอม</t>
+  </si>
+  <si>
+    <t>สวัสดีค่ะมีใครว่างหาค่าขนมอยู่ไหมคะแค่นาทีเค้ามีงานมาแนะนำทำง่ายๆค่ะได้เงินจริงทุกแพตฟอมงานไม่มีค่าสมัครไม่ต้องหาลูกทีมเงินเข้าบัญชีโดยตรงไม่ผิดกฏหมายไม่ใช่การพนันชาล็อตออสตินให้ท้องฟ้าช่วยดูแลฟ้าให้ดีควีนเอลิซาเบธที่รัฐประหารโบว์เมลดาแฟนผมน่ารัก</t>
+  </si>
+  <si>
+    <t>รัฐประหารประชาธิปไตยพรรคฝ่ายค้านพรรครัฐบาลรัฐประหารอ่านไม่ออกบอกวาเซดะวาเซดะwasedathailandคำศัพท์ภาษาญี่ปุ่นศัพท์ภาษาญี่ปุ่นภาษาญี่ปุ่นjlptnnnnญี่ปุ่นศัพท์</t>
+  </si>
+  <si>
+    <t>รายได้เสริมไม่มีค่าสมัครสอนงานฟรีทุกขั้นตอนรายได้ดีขอคนพร้อมทำงานจริงๆรายได้ต่อวันแล้วแต่ความขยันสนใจแอดไลน์หน้าโปรไฟล์ควีนเอลิซาเบธที่รัฐประหารให้ท้องฟ้าช่วยดูแลฟ้าให้ดีโบว์เมลดาแฟนผมน่ารักพี่ฟ้าลุคนี้คือที่หอมแดงรักอิงฟ้ากีฬาสีอนุบาลหนูน้อย</t>
+  </si>
+  <si>
+    <t>สวัสดีค่ะมีใครว่างหาค่าขนมอยู่ไหมคะแค่นาทีเค้ามีงานมาแนะนำทำง่ายๆค่ะได้เงินจริงทุกแพตฟอมงานไม่มีค่าสมัครไม่ต้องหาลูกทีมเงินเข้าบัญชีโดยตรงไม่ผิดกฏหมายไม่ใช่การพนันพี่ฟ้าลุคนี้คือที่ด้วยรักและหักหลังepชาล็อตออสตินรัฐประหารควีนเอลิซาเบธที่งานออนไลน์</t>
+  </si>
+  <si>
+    <t>บุหรี่นอกแดงสายร้อนปานกลางนุ่มส่งทั่วไทยมีเก็บปลายทางlineidบุหรี่บุหรี่สายเย็นบุหรี่ราคาถูกบางแสนกรุงเทพสถานบันเทิงพัทยาปทุมธานีนนทบุรีชลบุรีรัชดาคอนเสิร์ตแยกปากหวานให้ท้องฟ้าช่วยดูแลฟ้าให้ดีรัฐประหาร</t>
+  </si>
+  <si>
+    <t>สวัสดีค่ะมีใครว่างหาค่าขนมอยู่มั้ยคะแค่นาทีเค้ามีงานมาแนะนำทำง่ายค่ะได้เงินจริงทุกแพตฟอร์มงานไม่มีค่าสมัครไม่ต้องหาลูกทีมเงินเข้าบัญชีโดยตรงไม่ผิดกฏหมายหาเงินออนไลน์หางานออนไลน์ชาล็อตให้ช่วยดูแลฟ้าดีรัฐประหารควีนเอลิซาเบธที่เจบี</t>
+  </si>
+  <si>
+    <t>ขอคนสนใจจริงๆไม่ใช่มาหลอกเอายอดกู้อยากได้เงินต้องมีความรับผิดชอบควีนเอลิซาเบธที่ชาล็อตออสตินรัฐประหารigotพี่ฟ้าลุคนี้คือที่mtbb</t>
+  </si>
+  <si>
+    <t>สนใจค่าขนมเดมมานะคะขอคนตั้งใจทำงานจริงๆและสนใจมีสอนงานฟรีไม่มีค่าสอนไม่มีค่าสมัครไม่มีค่าจ่ายง้าบสนใจคลิ๊กลิ้งหน้าโปรไฟล์เลยค่ะพี่ฟ้าลุคนี้คือที่ชาล็อตออสตินรัฐประหารด้วยรักและหักหลังepblackpinkxjimmykimmelให้ท้องฟ้าช่วยดูแลฟ้าให้ดีงานออนไลน์</t>
+  </si>
+  <si>
+    <t>คืนยอดเสียครั้งทุกวันเว็บตรงเว็บชัวร์การเงินมั่นคงปลอดภัยสมัครสล็อตเว็บตรงสล็อตสล็อตแตกง่ายสล็อตpgเว็บตรงสล็อตทุนน้อยสล็อตเครดิตฟรีล่าสุดสล็อตออนไลน์ให้ท้องฟ้าช่วยดูแลฟ้าให้ดีหอมแดงรักอิงฟ้ารัฐประหาร</t>
+  </si>
+  <si>
+    <t>รัฐประหารทำแล้วก็ไม่ได้เห็นมีเหี้ยอะไรดีขึ้นคนที่ได้ประโยชน์ก็มีแค่ไม่กึ่กลุ่มประชาชนก็ยังจนลงทุกวัน</t>
+  </si>
+  <si>
+    <t>ไม่ต้องห่วงไปไม่กลับรัฐประหารควีนเอลิซาเบธที่สวรรคตชาล็อตออสตินให้ท้องฟ้าช่วยดูแลฟ้าให้ดีรัฐประหาร</t>
+  </si>
+  <si>
+    <t>สมัครฟรีไม่มีขั้นต่ำศูนย์รวมเกมออนไลน์ครบวงจรสนจัยคลิกให้ช่วยดูแลฟ้าดีด้วยรักและหักหลังepชาล็อตพี่ฟ้าจ้าที่รัฐประหารแพทริคควีนเอลิซาเบธที่หอมแดงรักอิงฟ้าblackpinkxจิมมี่คิมเมลโบว์เมลดาแฟนผมน่ารักเงินsavegreadawrite</t>
+  </si>
+  <si>
+    <t>กันยาครบรอบรัฐประหารรัฐประหารกันยารัฐประหาร</t>
+  </si>
+  <si>
+    <t>แจกฟรีแนวทางหุ้นวันนี้รับเลยราคาดีแบบนี้ไม่มีพลาดตัวบาทละตัวบาทละรัฐประหารแพทริคควีนเอลิซาเบธที่หอมแดงรักอิงฟ้าให้ท้องฟ้าช่วยดูแลฟ้าให้ดีprotectjennieหวยฮานอยหวยออนไลน์หุ้นไทย</t>
+  </si>
+  <si>
+    <t>ช่วยค่าเช่าบ้านผมกับครอบครัวหน่อยได้ไหมครับบาทผมหาไม่ทันจริงๆมีหนี้นอกระบบครอบครัวรายจ่ายเยอะมากให้ผมทำอะไรแลกก็ได้คับช่วยผมด้วยนะครับอิงฟ้ามหาชนชาล็อตออสตินควีนเอลิซาเบธที่รัฐประหาร</t>
+  </si>
+  <si>
+    <t>ไอโอมาเต็มเลยยยยรัฐประหาร</t>
+  </si>
+  <si>
+    <t>gtgtดวงวันที่กันยายนltltเข้ากลุ่มเลขเด็ดฟรีกดลิ้งค์gtหรือแอ๊ดไลน์nkดวงวันนี้ดวงรายวันหวยฮานอยหวยรัฐบาลหวยรัฐบาลไทยหวยแม่น้ําหนึ่งเลขเด็ดงวดนี้หวยเด็ดงวดนี้หวยงวดนี้หวยลาวพัฒนารัฐประหารเลขเด็ดควีนเอลิซาเบธที่</t>
+  </si>
+  <si>
+    <t>ต้องมีอะไรที่ไม่ดีถึงต้องทำถึงครั้งดูจากคนที่มาร่วมกิจกรรมมีแต่รวยนะรัฐประหารวอลเลย์บอลหญิงการเมืองอิงฟ้ามหาชนม็อบกันยา</t>
+  </si>
+  <si>
+    <t>pgชื่อนี้การันตรีความสนุกเปิดให้สมาชิกได้เล่นกันแล้ววันนี้เพียงล็อคอินผ่านทางไลน์รัฐประหารแพทริคควีนเอลิซาเบธที่หอมแดงรักอิงฟ้าให้ท้องฟ้าช่วยดูแลฟ้าให้ดีprotectjennieเครดิตฟรีล่าสุดสล็อตpg</t>
+  </si>
+  <si>
+    <t>สุเทพพ้นผิดศาลฏีกาแผนกคดีอาญาของผู้ดำรงตำแหน่งทางการเมืองอ่านคำพิพากษาคดีทุจริตโรงพักร้างตามที่ปปชกล่าวหาโดยพิพากษายกฟ้องสุเทพอดีตบิ๊กตรกับพวกรวมคนคดีทุจริตก่อสร้างโรงพักสุเทพรัฐประหารกำนันสุเทพ</t>
+  </si>
+  <si>
+    <t>ใครสนใจหาค่าขนมมาทางนี้เลยค่ะไม่ใช่การพนันงานถูกกฎหมายสนใจกดลิงค์หน้าโปรไฟล์มาสอบถามก่อนได้ค่ะให้ท้องฟ้าช่วยดูแลฟ้าให้ดีสู้สิวอัพผิวไบรท์รัฐประหารพี่ฟ้าลุคนี้คือที่ด้วยรักและหักหลังepblackpinkxjimmykimmelควีนเอลิซาเบธที่ชาล็อตออสตินโบว์เมลดาแฟนผมน่ารัก</t>
+  </si>
+  <si>
+    <t>อยากรู้จักก็ทักมานะคะอิงฟ้ามหาชนให้ท้องฟ้าช่วยดูแลฟ้าให้ดีแพทริคควีนเอลิซาเบธที่รัฐประหารโบว์เมลดาแฟนผมน่ารักสล็อตเครดิตฟรีสล็อตทุนน้อยเว็บตรงสล็อตคาสิโน</t>
+  </si>
+  <si>
+    <t>ครั้งนั่นต้องมีคนที่คิดไม่ดีคิดการใหญ่แน่ๆกองทัพถึงต้องยึดอำนาจรัฐประหารวอลเลย์บอลหญิงการเมืองณเดชน์อิงฟ้ามหาชนม็อบกันยา</t>
+  </si>
+  <si>
+    <t>งานออนไลน์ปังมากขอคนอยากทำงานจริงสนใจทักมาสอบถามก่อนนได้แพทริคเคอแพทให้ท้องฟ้าช่วยดูแลฟ้าให้ดีด้วยรักและหักหลังepรัฐประหารควีนเอลิซาเบธที่blackpinkxjimmykimmelmtbb</t>
+  </si>
+  <si>
+    <t>ใช่คับส่วนตัวคิดว่าเราคงได้เจออีกเรื่อยๆเหตุผลก็วนๆซ้ำเดิมๆทั้งที่มันไม่ใช่ทางสุดท้ายในการแก้ปัญหาแต่ก็นั่นแหละไม่พูดเยอะทุกอย่างทำให้ระบอบที่ควรจะพัฒนาคนประชาขนและนักการเมืองที่ควรจะพัฒนาต้องหยุดชะงักและถูกครอบด้วยเป็นช่วงๆติดๆขัดๆมาตลอดน่าเศร้าใจจิงๆรัฐประหาร</t>
+  </si>
+  <si>
+    <t>งานที่ปังที่สุดในตอนนี้งานง่ายๆไม่มีค่าสมัครสอนฟรีค่ะไม่ใช่การพนันไม่ใช่แชร์ลูกโซ่ถูกกฏหมายใครสนdmหรือแอดไลน์หน้าโปรได้เลยเคอแพทเซียวจ้านพี่ฟ้าลุคนี้คือที่แพทริคควีนเอลิซาเบธที่ชาล็อตออสตินblackpinkxjimmykimmelด้วยรักและหักหลังepรัฐประหาร</t>
+  </si>
+  <si>
+    <t>สวัสดีค่ะมีใครว่างหาค่าขนมอยู่ไหมค่ะรีวิวแน่นมากค่าเค้ามีงานมาแนะนำทำง่ายค่ะแค่นาทีอยากมีรายได้เสริมต้องเปิดใจพี่ฟ้าลุคนี้คือที่ควีนเอลิซาเบธที่ด้วยรักและหักหลังepชาล็อตออสตินให้ท้องฟ้าช่วยดูแลฟ้าให้ดีรัฐประหารblackpinkหอมแดงรักอิงฟ้างานออนไลน์</t>
+  </si>
+  <si>
+    <t>สมัครครั้งเดียวเล่นได้ตลอดชีวิตเล่นง่ายได้จริงเครดิตฟรีgtgtgtแคปชั่นแจกฟรีเครดิตฟรีล่าสุดให้ท้องฟ้าช่วยดูแลฟ้าให้ดีเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์เครดิตฟรีอิงฟ้ามหาชนคอนเสิร์ตแยกปากหวานรัฐประหารlisaควีนเอลิซาเบธที่</t>
+  </si>
+  <si>
+    <t>เล่นง่ายได้ไวฝากถอนไม่ถึงวิระบบอัตโนมัติแจกเครดิตฟรีgtgtแคปชั่นเครดิตฟรีไม่ต้องฝากเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์เครดิตฟรีล่าสุดแจกเครดิตฟรีรัฐประหารให้ท้องฟ้าช่วยดูแลฟ้าให้ดีอิงฟ้ามหาชนlalisa</t>
+  </si>
+  <si>
+    <t>หมอกต้องรอดสู้ตายเราต้องรอดช่วยแมวทวิตดีคนรีน้อยอร่อยบอกต่อtiktokบอกต่อโหนกระเเสโป๊ปเต๋อโบว์เมลดาแฟนผมน่ารักให้ท้องฟ้าดูแลฟ้าให้ดีอิงล็อตอิงฟ้ามหาชนiphonemynameisnanonก้อนขายขํารัฐประหารน้ำท่วมอะไีรดีคนใจดีppkrittbbillkinbbrightvc</t>
+  </si>
+  <si>
+    <t>ใครสนใจหาค่าขนมมาทางนี้เลยค่ะไม่ใช่การพนันงานถูกกฎหมายสนใจกดลิงค์หน้าโปรไฟล์มาสอบถามก่อนได้ค่ะให้ท้องฟ้าช่วยดูแลฟ้าให้ดีด้วยรักและหักหลังepพี่ฟ้าลุคนี้คือที่blackpinkxjimmykimmelชาล็อตออสตินควีนเอลิซาเบธที่รัฐประหารกีฬาสีอนุบาลหนูน้อย</t>
+  </si>
+  <si>
+    <t>สนใจค่าขนมเดมมานะคะขอคนตั้งใจทำงานจริงๆและสนใจทำไม่เป็นทางเรายินดีสอนค้าไม่มีค่าสอนไม่มีค่าสมัครไม่มีค่าจ่ายไม่ใช่การพนันควีนเอลิซาเบธที่ด้วยรักและหักหลังepให้ท้องฟ้าช่วยดูแลฟ้าให้ดีwelcomemileชาล็อตออสตินรัฐประหารmtbb</t>
+  </si>
+  <si>
+    <t>ดูยูทูปดูคลิปเอ็มวีแค่มีเน็ตมือถือก็มีเงินใช้คนช้อบห้ามพราดดูเพิ่มยอดวิวไม่ต้องไปไหนนั่งดูอยู่บ้านก็มีเงินเข้าบัญชีแล้วเพลงละบาทคลิปละบาทวันละบาทเดมไลน์ที่ปักเลยเดมมาควีนเอลิซาเบธที่รัฐประหารหอมแดงรักอิงฟ้าjhope</t>
+  </si>
+  <si>
+    <t>สวัสดีค่ะใครว่างหาค่าขนมอยู่ไหมคะแค่นาทีเค้ามีงานมาแนะนำทำง่ายๆค่ะได้เงินจริงเงินเข้าบัญชีโดยตรงสนใจเดมมาค่ะให้ท้องฟ้าช่วยดูแลฟ้าให้ดีblackpinkxjimmykimmelแพทริคพี่ฟ้าลุคนี้คือที่ด้วยรักและหักหลังepรัฐประหารsavegreadawriteล่มควีนเอลิซาเบธที่</t>
+  </si>
+  <si>
+    <t>ด่วนๆๆหาคนทำงานจ้าาไม่มีค่าสอนไม่มีค่าสมัครไม่มีค่าจ่ายสนใจทักเข้ามาสอบถามกันได้นะคะให้ท้องฟ้าช่วยดูแลฟ้าให้ดีแพทริคควีนเอลิซาเบธที่welcomemileชาล็อตออสตินด้วยรักและหักหลังepรัฐประหาร</t>
+  </si>
+  <si>
+    <t>gtgtรีวิวจริงltltจากสมาชิกในกลุ่มรับฟรีได้ที่นี้ควีนเอลิซาเบธที่ด้วยรักและหักหลังepพี่ฟ้าลุคนี้คือที่รัฐประหารรัฐประหารเคอแพทชาล็อตออสตินให้ท้องฟ้าช่วยดูแลฟ้าให้ดีหวยฮานอยหวยลาวหวยงวดนี้หวยเด็ดงวดนี้หวยไทยหวยวันนี้</t>
+  </si>
+  <si>
+    <t>gtgtเครดิตฟรีไม่ต้องฝากltltรับฟรีได้ที่นี้ควีนเอลิซาเบธที่ด้วยรักและหักหลังepพี่ฟ้าลุคนี้คือที่รัฐประหารรัฐประหารเคอแพทชาล็อตออสตินให้ท้องฟ้าช่วยดูแลฟ้าให้ดีหวยฮานอยหวยลาวหวยงวดนี้หวยเด็ดงวดนี้หวยไทยหวยออนไลน์หวยวันนี้</t>
+  </si>
+  <si>
+    <t>สวัสดีค่ะมีใครว่างหาค่าขนมอยู่ไหมคะแค่นาทีเค้ามีงานมาแนะนำทำง่ายๆค่ะได้เงินจริงทุกแพตฟอมงานไม่มีค่าสมัครไม่ต้องหาลูกทีมเงินเข้าบัญชีโดยตรงไม่ผิดกฏหมายไม่ใช่การพนันชาล็อตออสตินควีนเอลิซาเบธที่รัฐประหารblackpinkxjimmykimmelงานออนไลน์</t>
+  </si>
+  <si>
+    <t>gtgtเครดิตฟรีไม่ต้องฝากltltรับฟรีได้ที่นี้รัฐประหารแพทริคควีนเอลิซาเบธที่หอมแดงรักอิงฟ้าให้ท้องฟ้าช่วยดูแลฟ้าให้ดีprotectjennieหวยฮานอยหวยออนไลน์</t>
+  </si>
+  <si>
+    <t>งานตอบแชทลูกค้าworkfromhomeไม่ต้องเดินทางอยู่ที่ไหนก็ทำได้มีสคริปให้ในการตอบถูกกฎหมายชญไม่จำกัดอายุรับประกันกำไรและค่าคอมมิชชั่นlineyfkpbมีด้วยนะคะชาล็อตออสตินแพทริครัฐประหารควีนเอลิซาเบธที่กีฬาสีอนุบาลหนูน้อยพี่ฟ้าลุคนี้คือที่</t>
+  </si>
+  <si>
+    <t>รับสมัครงานสนใจทำงานงานทำง่ายไม่มีประสบการณ์มีทีมงานคอยสอนให้ฟรีสนใจคลิกลิงค์หน้าโปรไฟล์ครับสู้สิวอัพผิวไบรท์แพทริคด้วยรักและหักหลังepให้ท้องฟ้าช่วยดูแลฟ้าให้ดีเคอแพทชาล็อตออสตินรัฐประหารwhoareyoumvเหล่ท่อsavegหารviuตลาดนัดnct</t>
+  </si>
+  <si>
+    <t>คนจนจะหมดประเทศรัฐบาลส้นตีนคนเชียร์ก็ส้นตีนรัฐประหารผลงานประยุทธ์ประวิตร</t>
+  </si>
+  <si>
+    <t>รัฐบาลส้นตีนคนเชียร์ก็ส้นตีนนายกเถื่อนรัฐบาลส้นตีนรัฐประหารรัฐประหารรัฐประหารกันยา</t>
+  </si>
+  <si>
+    <t>สวัสดีค่ะเค้ามีงานมาแนะนำทำง่ายๆทำแค่นาทีเท่านั้นได้เงินจริงทุกแพลทฟอร์มเงินเข้าบัญชีโดยตรงไม่ผิดกฏหมายinboxกีฬาสีอนุบาลหนูน้อยรัฐประหารควีนเอลิซาเบธที่แพทริค</t>
+  </si>
+  <si>
+    <t>แบ่งปันหนทางรอดจากวิกฤตมารวมกันตรงนี้เลยค่ะเซียวจ้านงานออนไลน์งานblackpinkxjimmykimmelแพทริคแพทริคพี่ฟ้าลุคนี้คือที่รัฐประหารให้ท้องฟ้าช่วยดูแลฟ้าให้ดีด้วยรักและหักหลังepblackpinkxjimmykimmel</t>
+  </si>
+  <si>
+    <t>งานออนไลน์ปังมากเราใช้เวลาว่างหาเงินค่าขนมแค่นอนจิ้มๆโทรศัพท์สบายๆเลยช้เวลานาทีเซียวจ้านแพทริคหอมแดงรักอิงฟ้าด้วยรักและหักหลังepรัฐประหารsavegควีนเอลิซาเบธที่งานออนไลน์ได้เงินจริง</t>
+  </si>
+  <si>
+    <t>ขอคนตั้งใจทำงานจริงๆและสนใจทำจริงๆไม่ทิ้งงานไม่มีค่าสอนไม่มีค่าสมัครไม่ใช่การพนันพี่ฟ้าลุคนี้คือที่สู้สิวอัพผิวไบรท์แพทริคด้วยรักและหักหลังepรัฐประหารหอมแดงรักอิงฟ้าควีนเอลิซาเบธที่savegmoneymvเหล่ท่อเคอแพทเครดิตฟรีกดรับเองไบเบิ้ลบิวหางาน</t>
+  </si>
+  <si>
+    <t>เครดิตฟรียอดเดิมพันรายสัปดาห์ลงเดิมพันครบรับเครดิตเลยฝากสะสมวันที่เเจ้งรับได้เลยสนใจthaiเกมสล็อตบาคาร่าสดเครดิตฟรีถอนไม่อั้นpgอิงฟ้ามหาชนหอมแดงรักอิงฟ้ารัฐประหาร</t>
+  </si>
+  <si>
+    <t>เซียวจ้านงานออนไลน์งานblackpinkxjimmykimmelแพทริคแพทริคพี่ฟ้าลุคนี้คือที่รัฐประหารให้ท้องฟ้าช่วยดูแลฟ้าให้ดีด้วยรักและหักหลังepblackpinkxjimmykimmel</t>
+  </si>
+  <si>
+    <t>heavenslotzแจกฟรีบาทกดรับเองหน้าเว็บคลิ๊กheavenslotzสล็อตเครดิตฟรีเครดิตฟรีเครดิตฟรีล่าสุดเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์รัฐประหารแพทริคyoshi</t>
+  </si>
+  <si>
+    <t>งานออนไลน์แนวใหม่ที่ไหนๆก็ทำได้ฟรีค่าสมัคฟรีค่าสอนงานทำงานผ่านแอปพลิชั่นบนมือถือใช้เวลาชมวันงานพาร์ทไทม์งานออนไลน์หางานงานออนไลน์ฟรีโปรโมทเว็บกู้เงินนักศึกษางานดีฟอลมาฟอลกลับแลกฟอลหอมแดงรักอิงฟ้าlisablackpinkรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ยังรับคนทำงานอยู่นะคะขอคนขยันรายได้ดีทักมาคุยรายละเอียดก่อนได้คะควีนเอลิซาเบธที่mtbbรัฐประหารigotพี่ฟ้าลุคนี้คือที่blackpinkxjimmykimmelด้วยรักและหักหลังepให้ท้องฟ้าช่วยดูแลฟ้าให้ดีราคาทองวันนี้งานออนไลน์ได้เงินจริงหอมแดงรักอิงฟ้าmvเหล่ท่อ</t>
+  </si>
+  <si>
+    <t>สนใจคลิ้กลิ้งใต้โปรไฟล์ได้เลยคะblackpinkxjimmykimmelเซียวจ้านควีนเอลิซาเบธที่สวรรคตด้วยรักและหักหลังepให้ท้องฟ้าช่วยดูแลฟ้าให้ดีรัฐประหารหอมแดงรักอิงฟ้า</t>
+  </si>
+  <si>
+    <t>รัฐประหารทักษิณใช้คำนี้ได้หรือป่าวสุดท้ายแล้วประชากรกลุ่มๆหนึ่งจะต้องกลับมาเห็นคุณค่าตอนที่ทักษิณไม่อยู่จะมานั่งเสียดายเพียงเพราะหูหนวกตาบอดไปชั่วขณะ</t>
+  </si>
+  <si>
+    <t>สนใจคลิ้กลิ้งใต้โปรไฟล์ได้เลยคะblackpinkxjimmykimmelเซียวจ้านควีนเอลิซาเบธที่พี่ฟ้าลุคนี้คือที่รัฐประหารด้วยรักและหักหลังepmtbbให้ท้องฟ้าช่วยดูแลฟ้าให้ดี</t>
+  </si>
+  <si>
+    <t>เปิดตัวหวยปิงปองให้ลุ้นกันสดๆสนใจเข้ากลุ่มvipรับแนวทางแม่นๆเชิญทางนี้รัฐประหารแพทริคควีนเอลิซาเบธที่หอมแดงรักอิงฟ้าให้ท้องฟ้าช่วยดูแลฟ้าให้ดีprotectjennieหวยฮานอยหวยออนไลน์หวยปิงปอง</t>
+  </si>
+  <si>
+    <t>ยังรับคนทำงานอยู่นะคะขอคนขยันรายได้ดีทักมาคุยรายละเอียดก่อนได้คะควีนเอลิซาเบธที่mtbbรัฐประหารigotพี่ฟ้าลุคนี้คือที่blackpinkxjimmykimmelด้วยรักและหักหลังepให้ท้องฟ้าช่วยดูแลฟ้าให้ดีราคาทองวันนี้งานออนไลน์ได้เงินจริงprotectjenniesprivacy</t>
+  </si>
+  <si>
+    <t>อดีตปธสภายุครัฐบาลยิ่งลักษณ์และสสเพื่อไทยรอดศาลตัดสินกรณีมีพฤติการณ์สับเปลี่ยนร่างรัฐธรรมนูญในการแก้ไขที่มาสวเมื่อปีเนื่องจากเห็นว่าไม่มีเจตนาเพื่อไทยรัฐประหารแก้รัฐธรรมนูญ</t>
+  </si>
+  <si>
+    <t>สนใจคลิ้กลิ้งใต้โปรไฟล์ได้เลยคะควีนเอลิซาเบธที่สวรรคตด้วยรักและหักหลังepรัฐประหารพี่ฟ้าลุคนี้คือที่blackpinkxjimmykimmelให้ท้องฟ้าช่วยดูแลฟ้าให้ดีmtbbmoney</t>
+  </si>
+  <si>
+    <t>ufaiconเปิดใหม่ทุนน้อยก็แตกได้ระบบออโต้รองรับทรูวอลเล็ทมั่นใจรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ยังรับคนทำงานอยู่นะคะขอคนขยันรายได้ดีทักมาคุยรายละเอียดก่อนได้คะควีนเอลิซาเบธที่mtbbรัฐประหารigotพี่ฟ้าลุคนี้คือที่blackpinkxjimmykimmelด้วยรักและหักหลังepให้ท้องฟ้าช่วยดูแลฟ้าให้ดีราคาทองวันนี้งานออนไลน์ได้เงินจริง</t>
+  </si>
+  <si>
+    <t>มีใครสนใจหารายได้เสริมไหมคะรายได้ดีทักมาคุยรายละเอียดก่อนได้คะไม่พนันไม่เกมส์ไม่ใช่แชร์ลูกโซ่สนใจสู้สิวอัพผิวไบรท์ด้วยรักและหักหลังepพี่ฟ้าลุคนี้คือที่ให้ท้องฟ้าช่วยดูแลฟ้าให้ดีควีนเอลิซาเบธที่รัฐประหารsavegblackpinkxjimmykimmel</t>
+  </si>
+  <si>
+    <t>ฮานอยแตกทุกวันสนใจเข้ากลุ่มvipรับแนวทางแม่นๆเชิญทางนี้รัฐประหารแพทริคควีนเอลิซาเบธที่หอมแดงรักอิงฟ้าให้ท้องฟ้าช่วยดูแลฟ้าให้ดีprotectjennieหวยฮานอยหวยออนไลน์</t>
+  </si>
+  <si>
+    <t>แทงบอลออนไลน์ได้ที่นี้ครบวงจรเพียงคลิกลิ้งค์หรือlineidwdkafแทงบอลแทงหวยรัฐประหารให้ท้องฟ้าช่วยดูแลฟ้าให้ดี</t>
+  </si>
+  <si>
+    <t>งานที่ปังที่สุดในตอนนี้งานง่ายๆไม่มีค่าสมัครสอนฟรีค่ะคลิกลิงก์หน้าโปรไฟล์ด่วนเซียวจ้านblackpinkxjimmykimmelแพทริคแพทริคพี่ฟ้าลุคนี้คือที่รัฐประหารให้ท้องฟ้าช่วยดูแลฟ้าให้ดีด้วยรักและหักหลังep</t>
+  </si>
+  <si>
+    <t>สวัสดีค่ะมีใครว่างหาค่าขนมอยู่ไหมคะรีวิวแน่นมากค่าาเค้ามีงานมาแนะนำทำง่ายค่ะแค่นาทีงานออนไลน์ได้เงินจริงด้วยรักและหักหลังepprotectjenniesprivacyพี่ฟ้าลุคนี้คือที่savegควีนเอลิซาเบธที่รัฐประหารwelcomemile</t>
+  </si>
+  <si>
+    <t>ใครอยากมีเงินเก็บเล็กๆน้อยๆแต่ได้เก็บทุกวันมีคนสอนงานให้ทำผ่านมือถือไม่ต้องอบรมสนใจมาสมัครกับเค้าได้เลยน๊าหรือคลิ๊กลิ้งค์หน้าโปรไฟล์ได้เลยงับเซียวจ้านblackpinkxjimmykimmelแพทริคแพทริคพี่ฟ้าลุคนี้คือที่รัฐประหารให้ท้องฟ้าช่วยดูแลฟ้าให้ดีด้วยรักและหักหลังep</t>
+  </si>
+  <si>
+    <t>ทำง่ายได้ที่บ้านเเค่มีมือถือมีเวลาวันละนาทีก็ทำได้นะโอกาสดีๆมาแล้วลองเปิดโอกาสให้ตัวเองได้ลองงานใหม่ๆรายได้ดีถูกกฏหมายน๊างานพาร์ทไทม์หาเงินหางานทำที่บ้านmtbbmoneyด้วยรักและหักหลังepigotรัฐประหารwhoareyou</t>
+  </si>
+  <si>
+    <t>ใครสนใจกู้เดมมาคะดอกไม่แพงผ่อนได้นานถูกกฏหมายสิ่งที่ต้องใช้บัตรประชาชนเบอร์โทรที่โทรหาได้จริงdmมาได้เลยให้ท้องฟ้าช่วยดูแลฟ้าให้ดีควีนเอลิซาเบธที่ด้วยรักและหักหลังepพี่ฟ้าลุคนี้คือที่หอมแดงรักอิงฟ้ารัฐประหารเงินด่วนเงินกู้นักศึกษาเงินกู้ออนไลน์</t>
+  </si>
+  <si>
+    <t>อยู่บ้านยังไงให้มีเงินเข้าบชวอเล็ทบวงานฟรีสอนฟรีถอนเข้าบชทุกวันสนใจทักมาค่ะพร้อมสอนงานออนไลน์รายได้เสริมหาเงินงานพาร์ทไทม์อิงล็อตควีนเอลิซาเบธที่moneyigotให้ท้องฟ้าช่วยดูแลฟ้าให้ดีรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ใครสนใจหาค่าขนมมาทางนี้เลยค่ะไม่ใช่การพนันงานถูกกฎหมายสนใจกดลิงค์หน้าโปรไฟล์มาสอบถามก่อนได้ค่ะให้ท้องฟ้าช่วยดูแลฟ้าให้ดีblackpinkxjimmykimmelด้วยรักและหักหลังepรัฐประหารพี่ฟ้าลุคนี้คือที่ควีนเอลิซาเบธที่โบว์เมลดาแฟนผมน่ารักหอมแดงรักอิงฟ้า</t>
+  </si>
+  <si>
+    <t>ใครสนใจหาค่าขนมมาทางนี้เลยค่ะไม่ใช่การพนันงานถูกกฎหมายสนใจกดลิงค์หน้าโปรไฟล์มาสอบถามก่อนได้ค่ะรัฐประหารblackpinkxjimmykimmelให้ท้องฟ้าช่วยดูแลฟ้าให้ดีพี่ฟ้าลุคนี้คือที่ด้วยรักและหักหลังepควีนเอลิซาเบธที่โบว์เมลดาแฟนผมน่ารักsaveg</t>
+  </si>
+  <si>
+    <t>ใครอยากมีเงินเก็บต้องลองเปิดใจงานจริงถอนเงินได้จริงใช้เวลาแค่นาทีงานง่ายได้เงินเร็วสนใจคลิกลิงก์หน้าโปรไฟล์ควีนเอลิซาเบธที่ด้วยรักและหักหลังepให้ท้องฟ้าช่วยดูแลฟ้าให้ดีรัฐประหารหอมแดงรักอิงฟ้าพี่ฟ้าลุคนี้คือที่</t>
+  </si>
+  <si>
+    <t>น้องๆคนไหนกำลังมองหาค่าขนมเค้ามีงานมาแนะนำคะใช้เวลาเพียงนาทีก็มีเงินเข้าบัญชีวิธีหาเงินรีวิวนักเรียนหางานออนไลน์savegหาเงินออนไลน์รายได้เสริมหาเงินค่าขนมหาเงินเข้าwalletmoneyด้วยรักและหักหลังepควีนเอลิซาเบธที่รัฐประหารlalisa</t>
+  </si>
+  <si>
+    <t>ประเทศเราหยุดพัฒนาตั้งแต่รัฐประหารล่าสุดหรือว่าจะเถียงปีเลยนะที่เชียงใหม่หยุดพัฒนายิ่งจังหวัดเล็กๆไม่ต้องพูดถึงค่าแรงยังไม่เท่ากันเลยทั้งๆที่ค่าครองชีพบางอย่างก็แพงแท้ๆ</t>
+  </si>
+  <si>
+    <t>ยุคแห่งการคอรัปชั่นแห่งตระกูลชินรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ก็อยากโกงกินประเทศชาติเองก็สมควรได้รับผลกรรมนั้นอย่าเห่าอย่าหอนเลยจงทำใจยอมรับเวรกรรมนั้นเถิดดดดดรัฐประหาร</t>
+  </si>
+  <si>
+    <t>สาวถ้ำpgมาเเรงเเตกรัวๆๆๆสมัครง่ายๆได้ที่คลิกสล็อตออนไลน์mmfifammcsinoสล็อตเเตกง่ายให้ช่วยดูเเลฟ้าดีรัฐประหารสล็อตเครดิตฟรี</t>
+  </si>
+  <si>
+    <t>สนใจหารายได้เสริมมั้ยไม่จํากัดอายุไม่จำกัดเพศไม่ใช่การพนันไม่โกงเเน่นอนขึ้นอยู่กับความขยันหาเงินค่าขนมด้วยรักและหักหลังepprotectjenniesprivacyพี่ฟ้าลุคนี้คือที่savegควีนเอลิซาเบธที่รัฐประหาร</t>
+  </si>
+  <si>
+    <t>ช่วงนี้ง่วงบ่อยขอซบไหล่หน่อยได้ไหมคะให้ท้องฟ้าช่วยดูแลฟ้าให้ดีแพทริคควีนเอลิซาเบธที่รัฐประหารด้วยรักและหักหลังepสล็อตม่วงกลุ่มลับ</t>
+  </si>
+  <si>
+    <t>สวัสดีค่ะมีใครต้องการเงินกู้ด่วนดอกถูกๆมั้ยคะอนุมัติไวภายในนาทีปลอดภัยได้เงินจริงแน่นอนค่ะได้เงินจริงงานไม่มีค่าเอกสารเงินเข้าบัญชีโดยตรงไม่มีค่ามัดจำใดๆแพทริคปล่อยกู้รายวันกู้เงินรายวันเงินกู้รายวันกู้เงินออนไลน์รัฐประหารกู้เงินด่วน</t>
+  </si>
+  <si>
+    <t>สวัสดีค่ะใครที่อยู่บ้านแล้วอยากหารายได้พิเศษยิ่งขยันมากยิ่งได้มากค่ะอย่าให้เวลาสูญเปล่าไม่เสียเวลาแน่นอนไม่ทำให้ผิดหวังแน่นอนค่ะสนใจdmมาเลยค่ะหาเงินออนไลน์หางานออนไลน์พี่ฟ้าลุคนี้คือที่ให้ท้องฟ้าช่วยดูแลฟ้าให้ดีsavegรัฐประหาร</t>
+  </si>
+  <si>
+    <t>เดือดร้อนเงินใช้จ่ายแบบเร่งด่วนฉุกเฉินค่าห้องค่าเทอมทางบริษัทเราปล่อยกู้แบบรายเดือนนะคะดอกเบี้ยถูกรับคนเยอะไม่มีมัดจำปลอดภัยแน่นอนคะเดมมาก่อนทักนะสินเชื่อทันใจสินเชื่อถูกกฎหมายเซียวจ้านรัฐประหารพี่ฟ้าลุคนี้คือที่</t>
+  </si>
+  <si>
+    <t>สวัสดีค่ะมีใครว่างหาค่าขนมอยู่ไหมคะแค่นาทีเค้ามีงานมาแนะนำทำง่ายๆค่ะได้เงินจริงทุกแพตฟอมงานไม่มีค่าสมัครไม่ต้องหาลูกทีมเงินเข้าบัญชีโดยตรงไม่ผิดกฏหมายไม่ใช่การพนันด้วยรักและหักหลังepพี่ฟ้าลุคนี้คือที่ให้ท้องฟ้าช่วยดูแลฟ้าให้ดีรัฐประหารงานออนไลน์</t>
+  </si>
+  <si>
+    <t>สวัสดีค่ะมีใครว่างหาค่าขนมอยู่ไหมคะแค่นาทีเค้ามีงานมาแนะนำทำง่ายๆค่ะได้เงินจริงทุกแพตฟอมงานไม่มีค่าสมัครไม่ต้องหาลูกทีมเงินเข้าบัญชีโดยตรงไม่ผิดกฏหมายไม่ใช่การพนันด้วยรักและหักหลังepให้ท้องฟ้าช่วยดูแลฟ้าให้ดีพี่ฟ้าลุคนี้คือที่รัฐประหารงานออนไลน์</t>
+  </si>
+  <si>
+    <t>สนใจไหมสินเชื่อเงินด่วนอนุมัติไว้ไม่ต้องค้ำไม่เสียค่าบริการใดๆติดบูโรติดแบล็คลิสก็กู้ยืมได้ติดต่อด่วนigotlalisaพี่ฟ้าลุคนี้คือที่รัฐประหารmagicman</t>
+  </si>
+  <si>
+    <t>นักเรียนนักศึกษาว่างงานรับสมัครตัวเเทนไม่ใช่การพนันไม่ใช่งานลูกโซ่ไม่มีค่าสมัครเงินเข้าบัญชีโดยตรงใครสนใจรีทวิตเฟบหรือเดมมาได้เลยค่างานพาร์ทไทม์งานพิเศษหาเงินเข้าบัญชีอิงล็อตlalisaรัฐประหารsavegบ้านมังกรแพทริค</t>
+  </si>
+  <si>
+    <t>สวัสดีค่ะใครที่อยู่บ้านแล้วอยากหารายได้พิเศษยิ่งขยันมากยิ่งได้มากค่ะอย่าให้เวลาสูญเปล่าไม่เสียเวลาแน่นอนไม่ทำให้ผิดหวังแน่นอนค่ะสนใจdmมาเลยค่ะหาเงินออนไลน์หางานออนไลน์ฟรีlalisajaybmagicmanรัฐประหารให้ท้องฟ้าช่วยดูแลฟ้าให้ดี</t>
+  </si>
+  <si>
+    <t>คนที่เห็นโพสนี้อย่าพึ่งเลือกผ่านทำได้ตลอดชมไม่ต้องหาลูกทีมไม่ต้องทำยอดงานออนไลน์ได้เงินจริงเงินเข้าบัญชีโดยตรงด้วยรักและหักหลังepให้ท้องฟ้าช่วยดูแลฟ้าให้ดีรัฐประหารsavegyugyeomแพทริคหอมแดงรักอิงฟ้าโบว์เมลดาแฟนผมน่ารักส่งต่อเสื้อผ้ามือสอง</t>
+  </si>
+  <si>
+    <t>กินนมอาจจะทำให้โตไวแต่ถ้ากินเราเข้าไปหัวใจจะพองโตให้ท้องฟ้าช่วยดูแลฟ้าให้ดีแพทริคควีนเอลิซาเบธที่รัฐประหารด้วยรักและหักหลังepสล็อตม่วง</t>
+  </si>
+  <si>
+    <t>ช่วงนี้ร้อนมากๆหรือเราคิดไปเองก็อตอิทธิพัทธ์ไม่มีเทิร์นรับวอลเล็ทสมัครเลยgtgtgtคลิ๊กให้ท้องฟ้าช่วยดูแลฟ้าให้ดีสู้สิวอัพผิวไบรท์รัฐประหารด้วยรักและหักหลังepreadawriteล่ม</t>
+  </si>
+  <si>
+    <t>เปิดเทอมละอยากหาเงินซื้อบั้มเอ้บการ์ดเรามีงานมาแนะนำรายได้ดต่ำสูงสุด฿แค่นอนจิ้มๆโทรศัพท์สบายๆเลยใครสนใจรีบรีเฟบหรือเดมเลยนะคะหารายได้ระหว่างเรียนหาเงินเข้าwalletหางานออนไลน์ฟรีlalisaด้วยรักและหักหลังepรัฐประหารmoney</t>
+  </si>
+  <si>
+    <t>ประเทศที่เจริญแล้วเขาไม่ทำรัฐประหารกันแล้วแหละดูตอนนี้สิเป็นไงบ้างthailandข้าวของแพงมากค่าไฟก็เพิ่มทั้งที่ใช้เท่าเดิมไม่เห็นมีอะไรดีทหารมีไว้ทำไมรับใช้ชาติปกป้องชาติไว้ได้มีไว้เป็นนายกไม่ได้มีไว้ทำลายประชาชนน้ำมันแพงค่าไฟแพงขึ้นทุกอย่างยกเว้นค่าแรง</t>
+  </si>
+  <si>
+    <t>สวัสดีค่ะใครว่างหาค่าเรียนอยู่เค้ามีงานมาแนะนำทำง่ายๆค่ะได้เงินจริงทุกแพตฟอร์มงานไม่มีค่าสมัครไม่ผิดกฏหมายสนใจเดมมางับนักเรียนรับงานรายได้เสริมหารายได้ระหว่างเรียนหางานทำหอมแดงรักอิงฟ้าsavegรัฐประหารเครดิตฟรีพี่ฟ้าลุคนี้คือที่หารnetflix</t>
+  </si>
+  <si>
+    <t>ดูคลิปmvโฆษณาเพลงแค่ปัดๆจิ่มๆดูคลิปต่างๆคนช้องห้ามพราดดูเพิ่มยอดวิวงานง่ายๆแค่ดูนาทีเท่านั้นทำเป็นพาร์ทไทม์ได้เงินเข้าบัญชีวอเลตโดยตรงเพลงละบาทคลิปละบาทสนใจเดมไลน์ที่ปักเลยเดมมาlalisaรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ลุงบอกตรงๆว่าลุงไม่อยากอยู่ใต้อำนาจเผด็จลุงพลีชีพเพื่อชาติได้กันยายนนวมทองไพรวัลย์ขับรถยนต์ชนรถถังของคณะรัฐประหารปีแล้วไอ้สัสรัฐประหารรัฐประหารกันยาปีรัฐประหารปีรัฐประหารลุงนวมทองนวมทองไพรวัลย์</t>
+  </si>
+  <si>
+    <t>พวกควายๆจะโฟกัสแค่ใครโกงมากโกงน้อยแต่จะไม่สนว่าใครทำให้ประเทศถอยหลังหรือพัฒนารัฐประหาร</t>
+  </si>
+  <si>
+    <t>วงจรอุบาทว์รัฐประหาร</t>
+  </si>
+  <si>
+    <t>บทเรียนประเทศไทยรัฐประหารwelcomemikeประยุทธ์ประวิตรประชุมสภา</t>
+  </si>
+  <si>
+    <t>ม็อบรัฐประหารเออชาวบ้านเค้ามาประท้วงเนี่ยยยยยยยomgคนเยอะมาก</t>
+  </si>
+  <si>
+    <t>ถ้าคดีนี้ไม่มีคนผิดเลยประเทศเราคงไม่ต้องมีอัยการและศาลอีกต่อไปแล้วแหละหลักฐานความเสียหายชัดเจนขนาดนี้prcojdopaprรัฐประหาร</t>
+  </si>
+  <si>
+    <t>จะเป็นแพะหรือแกะเดี่ยวก็รู้ครับสุเทพเปิดใจก่อนฟังคำวินิจฉัยปมฮั้วประมูลก่อสร้างโรงพักร้างลั่นตนเป็นแพะมาตลอดปีชี้ถ้าศาลยกฟ้องก็จะได้ศักดิ์ศรีคืนมาแต่ถ้าไม่รอดก็ก้มตารับกรรมสุเทพรัฐประหาร</t>
+  </si>
+  <si>
+    <t>เพื่อไทยpheuthaipartyรำลึกรัฐประหารอยู่วันคือพฤษภาคมกันยายนของทุกปีรัฐประหาร</t>
+  </si>
+  <si>
+    <t>แรมโบ้ฟาดจุกๆขออย่ามองการรัฐประหารเลวร้ายเสมอไปพร้อมยกข้อหากทักษิณเป็นนายกฯอะไรจะเกิดขึ้นกับประเทศชาติบ้างลั่นจับตาทายาทนายทักษิณคนต่อไปว่าจะเหมือนพ่อและอาหรือไม่อ่านต่อที่แรมโบ้เสกสกลทักษิณรัฐประหารtheroom</t>
+  </si>
+  <si>
+    <t>รัฐประหารคือความเจ็บปวดที่ยากจะเยียวยาภาพคนเอาดอกไม้ไปให้ทหารวันที่เขาเอาเสรีภาพจากเราไปเรายังไม่ลืมถามตัวเองอยู่ทุกวันนี้ว่าเราโอเคได้ไงที่มีรัฐบาลห่วยๆแบบนี้อยู่นานเกือบปีอำนาจในฐานะคนไทยเราสูญหายไปไหนแล้วทำไมรัฐบาลปัจจุบันยังหน้าด้านขนาดนี้แล้วเรายังคงทนอยู่ได้ไง</t>
+  </si>
+  <si>
+    <t>สมมุติว่าเพื่อไทยบอกว่ายอมรับว่าเคยมีคนในพรรคที่โกงกินและใช้อำนาตมิชอบและทางพรรคยืนยันว่าจะไม่ทำอย่างที่เคยทำมาผมก็ยินดีจะให้โอกาสนะคับหรือถ้าติ่งลุงยอมรับว่าลุงทำรัฐประหารแล้วอยู่ต่อด้วยกติกาที่ไม่แฟร์แต่ชอบเลยไม่แคร์จึงอยากให้อยู่ต่อก็จะได้ไม่ต้องมากันถกเรื่องผิดถูก</t>
+  </si>
+  <si>
+    <t>รัฐประหารรัฐประหารกันยาครบรอบรัฐประหารข่าววันนี้ข่าวการเมือง</t>
+  </si>
+  <si>
+    <t>คลิกอ่านที่นี่ข่าวกรองนันทิวัฒน์สามารถรัฐประหารเบิกเนตรโอ๊คอดีตบิ๊กข่าวกรองตอบชัดๆเมื่อไรจะเลิกรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ครั้งนึงบิ๊กบังเคยกล่าวทักษิณว่าผมไม่ทำพี่หรอกทักษิณบินไปประชุมต่างประเทศก็รัฐประหารเลยไอ้สัสสสรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ยังไม่ได้เพิ่มข้อมูลรัฐประหารปีโดยไอ้เหี้ยตู่ประยุทธ์กันยาครบรอบรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ปัจจัยสำคัญที่กบฏใช้อ้างความชอบธรรมและช่วยให้ทำรัฐประหารสำเร็จคือภาพประชาชนต่อต้านรัฐบาลที่มาจากการเลือกตั้งโดยโจมตีเรื่องต่างๆทั้งจริงampเท็จampมีพวกปัญญาชนampกนหโลกสวยมาช่วยผสมโรงด่าซึ่งมีผลมากเพราะมีภาพลักษณ์ดีสังคมยอมรับนับถือกันยาครบรอบรัฐประหารรัฐประหาร</t>
+  </si>
+  <si>
+    <t>พี่ปูจิตกรแสดงความคิดเห็นเกี่ยวกับการที่คุณโบว์ไปออกรายการกับดรเสรีได้น่าสนใจมากๆคับสำหรับผมมันน่าสนใจหลายต่อเลยคับเพราะพี่ปูจิตกรกับคุณโบว์ต่างก็เป็นคนที่ผมชื่นชอบทัศนคติมากๆอยู่แล้วคับอ่านเต็มๆตามlinkนะคับรัฐประหาร</t>
+  </si>
+  <si>
+    <t>อาหารเช้าเครดิตฟรีแชร์กิจกรรมแค็ปส่งไปgtgtเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์เครดิตฟรีไม่ต้องฝากเครดิตฟรีเครดิตฟรีไม่ฝากไม่แชร์เครดิตฟรีรัฐประหารสู้สิวอัพผิวไบรท์อิงฟ้ามหาชนwelcomemileชมพูอทิตา</t>
+  </si>
+  <si>
+    <t>กดติดตามรีทวีตแคปหน้าจอนี้รับเครดิตฟรีรีบเลยgtgtgtแคปชั่นแจกฟรีเครดิตฟรีล่าสุดให้ท้องฟ้าช่วยดูแลฟ้าให้ดีเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์เครดิตฟรีอิงฟ้ามหาชนคอนเสิร์ตแยกปากหวานรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ตกใจอยู่ดีดีก็มีเงินเข้าบัญชีง่ายๆยิ่งเล่นยิ่งได้แจกเครดิตฟรีgtgtแคปชั่นเครดิตฟรีไม่ต้องฝากเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์เครดิตฟรีล่าสุดแจกเครดิตฟรีรัฐประหารให้ท้องฟ้าช่วยดูแลฟ้าให้ดีอิงฟ้ามหาชนlalisa</t>
+  </si>
+  <si>
+    <t>บังดีมรึ๊งงงงงงงงงสัสเสพกัญชาแล้วหล่อนยิงพวกเดียวกันไอ้หนูหัวร้อนแน้วววรัฐประหาร</t>
+  </si>
+  <si>
+    <t>รับทำการบ้านมัธยมมหาลัยทุกอย่างpowerpointexcelwordinfographicวิจัยเรียงความบทความวิเคราะห์งานรายงานโครงงานโครงการโปรเจคและงานอื่นๆสอบถามได้นะคะlineรับทําการบ้านมหาลัยรับทําการบ้านรับจ้างทําการบ้านรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ไม่ต้องลงทะเบียนก็จ่ายเพิ่มทุกบ้านรัฐประหาร</t>
+  </si>
+  <si>
+    <t>เรารักลุงป้อมเรารักลุงป้อมเห้ยนี่จังหวัดจริงหรอยังไม่เข็ดอีกหรอนราธิวาสปัตตานียะลารัฐประหาร</t>
+  </si>
+  <si>
+    <t>มิน่าเค้าถึงไม่เชิญประเทศดัดจริตที่แท้ไปขโมยรถจากประเทศเค้ามานี่เองรถหรูทั้งนั้นด้วยควีนอลิซาเบธที่รัฐประหาร</t>
+  </si>
+  <si>
+    <t>มีส่วนร่วมทำให้รัฐประหารทำได้สำเร็จทั้งกันยาampพฤษภาแล้วยังจะกล้าโทษเหยื่อampชมตัวเองว่าออกมาต้านรัฐประหารมีส่วนทำให้ประเทศชาติเสียหายประชาชนเดือดร้อนก็ต้องออกมาไถ่บาปตัวเองแต่ก็ไม่เคยต้านได้ampไม่เคยขอโทษคนไทยสักครั้ง</t>
+  </si>
+  <si>
+    <t>kibngokungcnxแล้วไม่บอกที่มาที่ไปของรัฐประหารให้ปชชบางกลุ่มทราบด้วยนะว่าเกิดขึ้นเพราะอะไร</t>
+  </si>
+  <si>
+    <t>กันยาถ้าแค่สีเขียวฝ่ายเดียวทำไม่ได้ต้องมีเหหลายตัวใหญ่สนับสนุนรัฐประหาร</t>
+  </si>
+  <si>
+    <t>พอพูดถึงรัฐประหารทีก็ต้องมีคนที่พุ่งเข้ามา่พูดถึงการโกงที่เกิดก่อนหน้านั้นอย่างกับว่าการยึดอำนาจจะแก้การโกงได้แต่มันก็ไม่ต่างจากการที่พอมีโจรขึ้นบ้านแล้วแทนที่จะให้กระบวนการทางกฎหมายจัดการกลับให้รปภมาเป็นเจ้าของบ้านแทนคือถ้าเขายึดแล้วรีบคืนอำนาจให้ปชชก็ว่าไปอย่าง</t>
+  </si>
+  <si>
+    <t>ไม่ควรเกิดขึ้นอีกอย่าเอาความคิดของตัวเองตัดสินเพียงฝ่ายเดียวรัฐประหาร</t>
+  </si>
+  <si>
+    <t>liveนมุมการเมืองกยปีรัฐประหารชวนขอสภาฯเป็นหลักให้ประเทศthaipbsช่องหมายเลข</t>
+  </si>
+  <si>
+    <t>รัฐประหารเหี้ยครบรอบรัฐประหารกันยายน</t>
+  </si>
+  <si>
+    <t>ประเทศที่เข้มแข็งมาจากรัฐที่แข็งแรงรัฐประหาร</t>
+  </si>
+  <si>
+    <t>หัวใจของรัฐประหารคือสถาบันที่เป็นตรายางรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ราษฎรทั้งหลายพึงรู้เถิดว่าการเคลื่อนไหวต้านรัฐประหารกันยาหลายคนก็คือพวกที่มีส่วนร่วมกับรปหทำให้เกิดรปหสำเร็จประเทศชาติชิบหายแต่ไม่เคยต้านรปหได้สำเร็จปีก็เหมือนกัน</t>
+  </si>
+  <si>
+    <t>chotisakราษฎรทั้งหลายพึงรู้เถิดว่าการเคลื่อนไหวต้านรัฐประหารกันยาหลายคนก็คือพวกที่มีส่วนร่วมกับรปหทำให้เกิดรปหสำเร็จประเทศชาติชิบหายแต่ไม่เคยต้านรปหได้สำเร็จปีก็เหมือนกัน</t>
+  </si>
+  <si>
+    <t>เพื่อนที่โอมานส่งมาให้ดูคือแบบอีผีคนรับหิ้วยารับจ๊อบฉีดหน้ากันฉ่ำมากตอนนี้ฟิลเลอร์โบร้อยไหมทำเองโนสนโนแคร์หมอโยนวิชาตำราต่างๆทิ่มมันหมดมีการโฆษณาว่าไม่ฉีดใต้ตาตาไม่บอดอีดอกกกมึงฉีดตรงไหนทุกเส้นเลือดบนหน้าเชื่อมกันจั่วมาก็บอดจ้าาฉีดหน้ารัฐประหาร</t>
+  </si>
+  <si>
+    <t>ประชาชนอย่างผมก็ขมขื่นเหมือนกันนะหากเห็นพวกคุณไปยกย่องไปจับมือกับพวกมีส่วนเกี่ยวข้องกับการทำรัฐประหารทั้งเบื้องหน้าและเบื้องหลังก็หวังว่าเหตุการณ์นี้จะไม่เกิดขึ้นนะ</t>
+  </si>
+  <si>
+    <t>phumthamประชาชนอย่างผมก็ขมขื่นเหมือนกันนะหากเห็นพวกคุณไปยกย่องไปจับมือกับพวกมีส่วนเกี่ยวข้องกับการทำรัฐประหารทั้งเบื้องหน้าและเบื้องหลังก็หวังว่าเหตุการณ์นี้จะไม่เกิดขึ้นนะ</t>
+  </si>
+  <si>
+    <t>แจกอีกสมัครวันนี้คลิกเครดิตฟรีเครดิตฟรีไม่ต้องฝากเครดิตฟรีเครดิตฟรีไม่ฝากไม่แชร์เครดิตฟรีแคปชั่นแจกฟรีเครดิตฟรีล่าสุดให้ท้องฟ้าช่วยดูแลฟ้าให้ดีอิงฟ้ามหาชนคอนเสิร์ตแยกปากหวานรัฐประหารlisa</t>
+  </si>
+  <si>
+    <t>ตั้งใจจะบริจาคเงินให้โรงพยาบาลแต่พี่พยาบาลท่านหนึ่งกล่าวว่าอย่าเลยถ้าคิดจะบริจาคเงินให้นำเงินไปซื้อของใช้จำเป็นสำหรับผู้ป่วยที่มีปัญหาทางการเงินจะดีกว่าหรือมอบเงินโดยตรงกับผู้ป่วยโดยตรงไปเลยเพราะแม้แต่ในโรงพยาบาลเองก็มีการทุจริตเช่นกันหน่วยงานราชการรัฐประหารทุจริต</t>
+  </si>
+  <si>
+    <t>แล้วต้านสำเร็จมั้ยแต่พวกที่บอกว่าออกมาต้านรปหหลายคนเคยร่วมหนุนม็อบพธมกปปสจนฝ่ายอำนาจนิยมทำรัฐประหารสำเร็จถึงครั้งแต่ไม่เคยต้านรปหได้สักครั้งกันยาครบรอบรัฐประหาร</t>
+  </si>
+  <si>
+    <t>cheanguchenแล้วต้านสำเร็จมั้ยแต่พวกที่บอกว่าออกมาต้านรปหหลายคนเคยร่วมหนุนม็อบพธมกปปสจนฝ่ายอำนาจนิยมทำรัฐประหารสำเร็จถึงครั้งแต่ไม่เคยต้านรปหได้สักครั้งกันยาครบรอบรัฐประหาร</t>
+  </si>
+  <si>
+    <t>chotisakแล้วต้านสำเร็จมั้ยแต่พวกที่บอกว่าออกมาต้านรปหหลายคนเคยร่วมหนุนม็อบพธมกปปสจนฝ่ายอำนาจนิยมทำรัฐประหารสำเร็จถึงครั้งแต่ไม่เคยต้านรปหได้สักครั้ง</t>
+  </si>
+  <si>
+    <t>kslotdรัฐประหาร</t>
+  </si>
+  <si>
+    <t>piyawattwongthanongมันจะมีโทษได้ไงในเมื่อทำสำเร็จรัฐประหาร</t>
+  </si>
+  <si>
+    <t>tanikonswongthanongjohnwinyuทำใจระดับทักษิณยังต้องหนีรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ไอ้หน้าหีวชิราลงกรณ์รัฐประหารกษัตริย์มีไว้ทําไม</t>
+  </si>
+  <si>
+    <t>สล็อตเว็บตรงเกมมาใหม่เยอะเลยครับรีบกันหน่อยนะคลิกเลยสลอตทุนน้อยสล็อตเว็บตรงแตกง่ายเว็บสล็อตสล็อตทรูมันนี่วอลเล็ทสล็อตxoเว็บสล็อตแตกบ่อยสล็อตโรม่าสล็อตxoค่ายใหญ่mtbbsavegรัฐประหาร</t>
+  </si>
+  <si>
+    <t>meledakmaxwinnyaolympusgatedislotdbuyspinkรัฐประหาร</t>
+  </si>
+  <si>
+    <t>เราเล่นแล้วมันดีถึงได้บอกต่อเว็บตรงไม่ผ่านเอเย่นต์คลิกเลยเว็บตรงคาสิโนออนไลน์สล็อตบาคาร่าบอลมวยไก่ชนหวยmtbbรัฐประหารอิงฟ้ามหาชน</t>
+  </si>
+  <si>
+    <t>ระบบใหม่ฝากถอนรวดเร็วทันใจแจ็คพอตแตกง่ายแจกเครดิตฟรีgtgtแคปชั่นเครดิตฟรีไม่ต้องฝากเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์เครดิตฟรีล่าสุดแจกเครดิตฟรีรัฐประหารให้ท้องฟ้าช่วยดูแลฟ้าให้ดีอิงฟ้ามหาชนlalisa</t>
+  </si>
+  <si>
+    <t>bluedreamgกัญชาขายส่งกัญชารัฐประหารกัญชาลาดพร้าวกัญชาog</t>
+  </si>
+  <si>
+    <t>เสรั่วก็มาจากรัฐประหารเผด็จการนะจ๊ะ</t>
+  </si>
+  <si>
+    <t>รัฐประหารที่สวมรอยประชาธิปไตยรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ทหารไม่ควรมายุ่งเกี่ยวกับการเมืองรัฐประหารไม่ได้ทำให้ประเทศไหนยั่งยืนประชาธิปไตยที่สมบูรณ์ไม่จำเป็นต้องเซ็นรัฐประหารรัฐประหาร</t>
+  </si>
+  <si>
+    <t>โปรใหม่มาแล้วราคาเบาๆรับเพิ่มฟอลไลค์เม้นวิวแชร์รีวิวทุกแอพสนใจทักได้ปั๊มฟอลไอจีปั๊มฟอลปั๊มไลค์ปั๊มไลค์ไอจีปั๊มฟอลทวิตเพิ่มผู้ติดตามปั๊มผู้ติดตามอิงฟ้ามหาชนแพทริคชมพูอทิตาด้วยรักและหักหลังepsavegwarwanaratบ้านมังกรรัฐประหารmtbbnmixx</t>
+  </si>
+  <si>
+    <t>รำลึกปีรัฐประหารกันยายึดอำนาจรัฐบาลที่มาจากประชาชนและฉีกรัฐธรรมนูญปีเป็นจุดเริ่มต้นสู่การก้าวถอยหลังของประเทศฉุดรั้งประชาธิปไตยบทเรียนที่เผด็จการไม่ยอมเรียนรู้แต่ประชาชนจะไม่ยอมให้เกิดขึ้นอีก</t>
+  </si>
+  <si>
+    <t>ต้องออกกฎหมายเอาผิดคนพูดสนับสนุนการรัฐประหารถึงจะหยุดการรัฐประหารได้</t>
+  </si>
+  <si>
+    <t>easyslotฝากครั้งแรกรับฟรีสปินไปเลยคืนยอดเสียทุกวันคลิ๊กeasyslotสล็อตเครดิตฟรีเครดิตฟรีเครดิตฟรีล่าสุดเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์รัฐประหารแพทริคyoshi</t>
+  </si>
+  <si>
+    <t>อีพวกขยะภาระประชาชนรัฐประหารรัฐประหารรัฐประหารกันยา</t>
+  </si>
+  <si>
+    <t>easyslotเครดิตฟรีบาทคืนยอดเสียทุกวันคลิ๊กeasyslotสล็อตเครดิตฟรีเครดิตฟรีเครดิตฟรีล่าสุดเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์รัฐประหารแพทริคyoshi</t>
+  </si>
+  <si>
+    <t>รัฐประหารรัฐประหารรัฐประหารกันยา</t>
+  </si>
+  <si>
+    <t>jokerslotzฝากรับคืนยอดเสียฝากประจำกีฬๅคๅสิโuสล๊oตยิงปลาหวยคลิ๊กjokerslotzสล็อตเครดิตฟรีแจกเครดิตฟรีเครดิตฟรีเครดิตฟรีไม่ต้องฝากก่อนรัฐประหารแพทริคyoshi</t>
+  </si>
+  <si>
+    <t>jokerslotzเครดิตฟรีบาททำเทิร์นเท่าถอนได้เลยคลิ๊กjokerslotzสล็อตเครดิตฟรีเครดิตฟรีเครดิตฟรีล่าสุดเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์รัฐประหารแพทริคyoshi</t>
+  </si>
+  <si>
+    <t>pgbethเครดิตฟรีเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์เครดิตฟรีล่าสุดเครดิตฟรีเครดิตฟรีกดรับเองเครดิตฟรีอิงฟ้ามหาชนรัฐประหารreplyingtopgbeth</t>
+  </si>
+  <si>
+    <t>magatronyเด็กรุ่นใหม่มองไม่เห็นอนาคตเด็กเลยตั้งคำถามแล้วหาจนเจอคำตอบรัฐประหารแล้วใครหล่ะจะให้เด็กกราบไหว้ลงมันคงเป็นไปไม่ได้อีกแล้วเขาตาสว่างกันหมดแล้วค่ะรัฐประหาร</t>
+  </si>
+  <si>
+    <t>pgmโปรโมชั่นพิเศษเปิดตัวเว็บใหม่ฝากรับสมาชิกใหม่รับโบนัสสมัครสมาชิกสล็อตเว็บตรงเว็บดูหนังโป๊ฟรีเครดิตฟรีreadawriteล่มรัฐประหาร</t>
+  </si>
+  <si>
+    <t>xoslotzเครดิตฟรีบาทฝากแรกรับคืนยอดเสียฝากประจำกีฬๅคๅสิโuสล๊oตยิงปลาหวยคลิ๊กxoslotzสล็อตเครดิตฟรีเครดิตฟรีเครดิตฟรีล่าสุดเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์รัฐประหารแพทริคyoshi</t>
+  </si>
+  <si>
+    <t>xoslotzฝากรับบาทคืนยอดเสียฝากประจำคลิ๊กxoslotzสล็อตเครดิตฟรีเครดิตฟรีเครดิตฟรีล่าสุดเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์รัฐประหารแพทริคyoshi</t>
+  </si>
+  <si>
+    <t>luxinoสมาชิกใหม่รับมีบาทก็เล่นได้ฝากได้บาคาร่าเงินคืนสล็อตเงินคืนคลิ๊กเซ็กซี่เกมมิ่งsasexybaccaratsagamingสล็อตคาสิโนเครดิตฟรีล่าสุดรัฐประหารแพทริคyoshi</t>
+  </si>
+  <si>
+    <t>เพื่อนกูบอกมันตาสว่างปีกูบอกมันส่วนกูอ่ะสว่างตั้งแต่ละฮ่าาาาาาาาารัฐประหาร</t>
+  </si>
+  <si>
+    <t>mvpโปรโมชั่นพิเศษเปิดตัวเว็บใหม่ฝากรับสมาชิกใหม่โบนัสสมัครสมาชิกสล็อตทุนน้อยพนันบาคาร่าnmixxรัฐประหาร</t>
+  </si>
+  <si>
+    <t>สอยพี่น้องฟังสอยนกแต้ดแต้บินข้ามต้นคูณนายกบ่ค้ำบ่คูนกะนายกประนี่ล่ะอันนี่กะว่าสอยรัฐประหาร</t>
+  </si>
+  <si>
+    <t>เพราะการรัฐประหารทำให้ประเทศนี้ไม่เจริญรวยเฉพาะนายทุนไม่กี่คนและพวกตัวที่ทำรัฐประหารข้าราชการนายทุนวางแผนกันคอรัปชั่นค่าแรงวันชมละบาทถุยอุปทานหมู่กราบหมูกราบหมาไม่เจริญเหมือนญี่ปุ่นเกาหลีสิงคโปร์ยุโรปอเมริการัฐประหาร</t>
+  </si>
+  <si>
+    <t>เป็นคำน้ากลัวรัฐประหาร</t>
+  </si>
+  <si>
+    <t>รำลึกปีรัฐประหารกยวางกุหลาบอาลัยนวมทองไพรวัลย์รัฐประหารรัฐประหารกันยาปีรัฐประหารปีรัฐประหารลุงนวมทองนวมทองไพรวัลย์</t>
+  </si>
+  <si>
+    <t>แค่ปัดๆจิ่มๆมือถือก็ได้เงินจริงดูmvโฆษณาเพลงคนช้องดูคลิปห้ามพราดแค่ดูนาทีเท่านั้นทำเป็นพาร์ทไทม์ได้เงินเข้าบัญชีวอเลตโดยตรงดูเพิ่มยอดวิวแบบง่ายๆเพลงละบาทคลิปละบาทเดมมาโบว์เมลดาแฟนผมน่ารักบ้านมังกรnmixxรัฐประหารtreasure</t>
+  </si>
+  <si>
+    <t>ระบอบประชาธิปไตยในโลกที่้จริญแล้วถ้าผู้นำที่มาจากการเลือกตั้งไม่ดีไร้ความสามารถคนที่จะตัดสินให้ออกไปคือประชาชนจะสั่งสอนผ่านการเลือกตั้งไม่ใช่ออกเพราะการปล้นอำนาจจากทหารที่ไม่มีสมองบริหารประเทศมีแต่กำลังและปืนหยุดรัฐประหารหยุดทหารชั่วรัฐประหารคือกบฏรัฐประหาร</t>
+  </si>
+  <si>
+    <t>เศรษฐกิจเชื่องช้าขยับทีละก้าวข้าราชการทุจริตสืบต่อเนื่องเส้นสายซื้อเข้าหลักล้านไม่ออกผิดกฎห้ามออกบ้ากามเวลางานผับเล้าจ์คลับvipรัฐประหารสีฟ้าแพทย์โรงพยาบาลโรงแรมโรงงานวัดพระสงฆ์สวสสคนว่างงานนายกเถื่อนฉีกรัฐธรรมนูญ</t>
+  </si>
+  <si>
+    <t>รสชาติไอติมสตรอเบอรี่หน้าตู้เพลงที่ไปกับแฟนตอนเรียนมัธยมรสชาตินั้นฟิวนั้นเลยแต่ความเมาไม่เบานะคับก้อนขายขํากัญชากัญชาอัดแท่งกัญชาอัดแท่งกั๊พอ้าวบ้านมังกรรัฐประหารกัญชาบางนากัญชาราคาส่งกัญชานอกกัญชาโอจีโบว์เมลดาแฟนผมน่ารัก</t>
+  </si>
+  <si>
+    <t>รีฟันนี่เหมือนยูฟันป่ะเค้าเร่งคืนเงินกันอย่างไวไปกันต่อหรือว่าพอแค่นี้แต่เป็นแอดนะไปต่อหมายถึงไปต่อกับเกมอื่นอ่ะจะหาเงินnftcyptobombcyptocarethtothemoonmissiontothemoonpaytoearnpaytowingamefiเอนเอฟทีกลับไปดวงจันทร์รัฐประหารmarkbamjorineve</t>
+  </si>
+  <si>
+    <t>ตั้งแต่มีรัฐประหารจนคนทำเป็นนายกฯเป็นต้นมาพรบงบเพิ่มมากมายแถมงบเกี่ยวกับสถาบันกษัตริย์ในปีมีตามเอกสารร่างพรบงบฯมีหมื่นล้านต่อให้คนไทยลำบากขนาดไหนงบส่วนนี้ก็ไม่ลดเอามาดูแลประเทศและปชชไม่ดีกว่าเรอะ</t>
+  </si>
+  <si>
+    <t>เงินกู้ออนไลน์เงินด่วนโอนเข้าบัญชีเงินกู้รายเดือนเงินกู้ธนาคารเงินกู้ด่วนกู้เงินรายเดือนกู้เงินออนไลน์กู้เงินนักศึกษาสินเชื่อกสิกรรัฐประหาร</t>
+  </si>
+  <si>
+    <t>พวกทหารกระจอกพวกนี้มันขี้กลัวจะตายถ้าไม่ปล้นเขามาก็ไม่รู้จะมีอพนาจได้ยังไงกระจอกมากครับทหารหัวควยรัฐประหาร</t>
+  </si>
+  <si>
+    <t>บ้านมังกรรัฐประหารต้าห์อู๋ออฟโรดkinnporscheworldtourออฟจุมพลqueenelizabethiiqueensfuneralwelcomegulftovietnamjhopeบ่วงวิมาลาep</t>
+  </si>
+  <si>
+    <t>thailandwascalledthethgreattigerofasiainthaksinsgovernmentnowbecomethesickpoordogaftertwomilitarycoupssinceuptonowtheonlysuccessofprayuthistoincreasenearlymillionsofpeopleholdingpoorcardcitizenswtfรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ปิดประตูกรมกองมุมมองพรรคไทยสร้างไทยต่อรัฐประหาร</t>
+  </si>
+  <si>
+    <t>เว็uเดียวจบมีครบทุกอย่างบริการชั่วโมงช่องทางการแอดไลน์คลิ๊กสมัครgtgtgtบริการชมlineuffunมีด้วยuะคะiว็uดีกๅslงิuชัวร์รัฐประหารfibawcสวัสดีวันอังคารufafun</t>
+  </si>
+  <si>
+    <t>ง่ายๆไม่ยุ่งยากโปรสมาชิกใหม่เพียบแจกเครดิตฟรีgtgtแคปชั่นเครดิตฟรีไม่ต้องฝากเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์เครดิตฟรีล่าสุดแจกเครดิตฟรีรัฐประหารให้ท้องฟ้าช่วยดูแลฟ้าให้ดีอิงฟ้ามหาชนlalisa</t>
+  </si>
+  <si>
+    <t>ทุกครั้งที่มีการทำรัฐประหารพิสูจน์แล้วว่าไม่เคยแก้ปัญหาของประเทศได้เลยjsindhupraiจิราพรสินธุไพรรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ได้แต่หวังว่าบทเรียนนี้จะราคาแพงมากพอปีเวลาที่กายไปกับโอกาศที่สูญเสียอย่างมหาศาลรัฐประหารกันยาครบรอบรัฐประหารปีรัฐประหาร</t>
+  </si>
+  <si>
+    <t>เมื่อไหร่ประเทศเราจะเจริญกับคนอื่นเขาสักทีอยากจะได้ยินคำว่าประเทศที่พัฒนาเเล้วไม่ใช่กำลังพัฒนากูได้ยินมาตั้งอนุบาลจนตอนนี้กูล่ะรัฐประหาร</t>
+  </si>
+  <si>
+    <t>พวกที่ออกมาปกป้องหรือพยายามฟอกขาวให้มันลบความเลวที่ทำไว้ไม่ได้หรอกนะทักษิณโกงชาติรัฐประหารทีมลุงตู่</t>
+  </si>
+  <si>
+    <t>ความเสียหายรัฐประหารทำให้ทุกวันนี้อยู่ยากยอดขายตกค่าใช้จ่ายพุ่งคนว่างงานฆ่าตัวตายเพราะเป็นหนี้หัวโตกันยาครบรอบรัฐประหาร</t>
+  </si>
+  <si>
+    <t>เกลียดดเกลียดที่ทำภาพประกอบซะเห็นชัดเลยรัฐประหาร</t>
+  </si>
+  <si>
+    <t>กูโคตรเกลียดรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ไม่มีใครที่เป็นนายกในดวงใจเลยแค่ต้องการนายกที่ทำให้ธุรกิจดีขึ้นลูกหลานดูมีชีวิตที่ดีในอนาคตใครก็ได้ตอนนี้รอดูแค่ผลงานถ้าเลือกได้ก็ไม่อยากมีรัฐประหาร</t>
+  </si>
+  <si>
+    <t>เลวมากเลยโทนี่รัฐประหาร</t>
+  </si>
+  <si>
+    <t>ถ้าไม่มีรัฐประหารกันยาในวันนั้นก็คงไม่มีเราที่เป็นแบบนี้ในวันนี้ความสนใจและความรู้สึกร่วมทางการเมืองเริ่มต้นพร้อมความช็อคที่ว่ามันยังเกิดรัฐประหารในยุคนี้ได้อีกหรือนี่ก่อนที่จะพบว่านั่นไม่ใช่ครั้งสุดท้ายแล้วปีต่อมาชีวิตก็เปลี่ยนหนักกว่าเดิม</t>
+  </si>
+  <si>
+    <t>ถ้วยรางวัลราคาโรงงานรัฐประหาร</t>
+  </si>
+  <si>
+    <t>คุณอ้นฟาดแบบนี้มิน่าพวกหมาที่ทักษิณเลี้ยงไว้ออกมาหอนระงมทีมลุงตู่ทักษินโกงชาติรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ค่าแรงขึ้นบาทบแกจะกลับมาให้คนไทยมีความสุขแต่ค่าไฟขึ้นftแล้วบอกให้อริยสัจมวยยยยยยยยยรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ใครสนับสนุนรัฐประหารมึงคือเหี้ยสัสเปรตนรกจังไรบ่อนทำลายอนาคตลูกหลานในประเทศไม่ให้มีความก้าวหน้าเจริญเท่าเทียมประเทศที่เจริญรุ่งเรืองอย่าเสือกรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ทักษินเลวแค่ไหนมึงดูเอาไอ้แม้วอิปูเลวติดอันดับโลกสามกีบไม่รู้แต่โลกรู้รัฐประหารทีมลุงตู่</t>
+  </si>
+  <si>
+    <t>pinasativaindicathcggหน้าร้านห้วยขวางหน้าแฟลตสั่งของbangkokcommunitกัญชาห้วยขวางกัญชาดินแดงกัญชาสุขุมวิทกัญชาทองหล่อพันลำห้วยขวางdeliverythaiweedthaicannabisweedthailandรัชดารัฐประหาร</t>
+  </si>
+  <si>
+    <t>ฝากรีด้วยนะคะทุกคนมีใครพอจะจ้างงานให้เราไปต่อคิวกดบัตรคอนหรือรอคิวอะไรก็ได้มีบ้างมั้ยค่ะเราต้องการหาเงินค่ารถไปทำงานที่สุราษค่ะเราพึ่งได้งานดูแลผู้สูงอายุแล้วแต่ไม่มีค่ารถลงไปเลยค่ะบ้านมังกรnmixxonceapologizetolisatreasureรัฐประหารgulfkanawutต้าห์อู๋ออฟโรด</t>
+  </si>
+  <si>
+    <t>เยอะกว่าพม่ากับอัฟกานิสถานอิกรัฐประหาร</t>
+  </si>
+  <si>
+    <t>พอถึงกันยารัฐประหารก็คิดถึงdebateสองไม่เอาไม่เอาทักษิณไม่เอารัฐประหารทุกที</t>
+  </si>
+  <si>
+    <t>หลายปีมานี้มีแต่ข่าวความเสื่อมถอยความชิบหายต่างๆนาๆโจรคอรัปชั่นคนโกงผู้คนล้มตายถามจริงขนาดนี้ยังหน้าด้านชมกันเองอยู่ได้ตัดหัวแม่งทั้งหมดยังไม่สาแก่ใจกับความผิดเลยทำรัฐประหารเลยรัฐประหาร</t>
+  </si>
+  <si>
+    <t>เลวขนาดนี้พรรคขี้ข้ายังกล้าปกป้องมันอีกหรือเพราะพวกมึงก็โกงพอกันรัฐประหารทักษิณโกงชาติ</t>
+  </si>
+  <si>
+    <t>ความเสียหายจากการรัฐประหารในวันนั้นส่งผลยาวมาตลอดจนถึงทุกวันนี้นี่หรือคือสิ่งที่ประเทศที่เรียกตัวเองว่าใช้ระบอบการปกครองแบบประชาธิปไตยควรจะเป็นรัฐประหารกันยารัฐประหาร</t>
+  </si>
+  <si>
+    <t>ตำว่าปฎิรูปถูกคนเอามาใช้กันจนเฝือรัฐประหารไม่ได้ปฎิรูปอะไรสักอย่างเพราะเราไม่มีหลัก</t>
+  </si>
+  <si>
+    <t>ค่าแรงยุคปูจ่ะไอเป็นยุคที่ทำให้บริษัทเจ๋งเป็นแถวต่างชาติย้ายฐานผลิตไปประเทศอื่นสินค้าอุปโภคบริโภคคมนาคมขึ้นหมดข้าวจากเป็นค่ารถเมล์เป็นปรับขึ้นทุกอย่างธุรกจิประเทศเสียหายมากจากเพิ่มค่าแรงก้าวกระโดดนวยหรืออวยกันแน่รัฐประหาร</t>
+  </si>
+  <si>
+    <t>เลวแบบนี้ขี้ข้าทักษิณยังกล้าปกป้องรัฐประหาร</t>
+  </si>
+  <si>
+    <t>หลังรัฐประหารงบฯชายแดนใต้พุ่งเน้นความมั่นคงก่อสร้างดันการศึกษาสวัสดิการสังคมต่อท้ายแถวคลิกอ่านโดยพลันงบประมาณชายแดนใต้รัฐประหารรัฐประหารกันยา</t>
+  </si>
+  <si>
+    <t>อังกฤษมีผู้หญิงเป็นนายกครั้งที่สองแล้วไม่มีกษัตริย์มีแต่ราชินีมาหลายสิบสิบปีประเทศก้าวหน้าไกลกว่ามึงกะลาแลนด์เป็นล้านเท่าทหารมึงอย่าเสือกการเมืองมึงเสือกทีไรปทจังไรเหมือนเอาขี้ควายมาสุมกองไว้หน้าประตูสนามบินทางเข้าประเทศอย่าเสือกอย่าใจแคบดักดานรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ยุคทักษิณมีการโกงมากที่สุดรมตแหละคนใกล้ชิดติดคุกมากที่สุดจนประชาชนออกมาขับไล่รัฐประหารทักษิณโกงชาติถ้ามันแหละขี้ข้าเป็นรัฐบาลไทยคงไม่เหลืออะไรแล้วมันโกงหมด</t>
+  </si>
+  <si>
+    <t>โปรใหม่มาแล้วราคาเบาๆรับเพิ่มฟอลไลค์เม้นวิวแชร์รีวิวทุกแอพสนใจทักได้ปั๊มฟอลไอจีปั๊มฟอลปั๊มไลค์ปั๊มไลค์ไอจีปั๊มฟอลทวิตเพิ่มผู้ติดตามปั๊มผู้ติดตามแพทริคsavegมิวศุภศิษฏ์ออฟจุมพลseatawinanบ่วงวิมาลาepคาธlastqforeverloveengfawarahaรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ในคนหลายล้านทั่วประเทศที่ออกมาชุมนุมมีคนบางส่วนที่อยากให้ทหารออกมาจริงๆคับแต่นั่นเป็นแค่ส่วนน้อยและก็ไม่ใช่คุณอภิสิทธิ์ด้วยคับประชาธิปัตย์ที่บางส่วนแยกออกมาแล้วกลายเป็นกปปสซึ่งไม่ใช่คนสายคุณอภิสิทธิ์คับเขาไม่เคยเข้าข้างคสชและการทำรัฐประหารคับหลายคนเหมือนจะฟังมาผิดๆ</t>
+  </si>
+  <si>
+    <t>แท็กซี่ชนรถถังรถก็พังคนก็ตายชื่อยังมิจางหายลูกผู้ชายนายนวมทองรัฐประหาร</t>
+  </si>
+  <si>
+    <t>เว็ปตรงไม่ผ่านเอเย่นต์ฝากถอนระบบautoตลอดชั่วโมงเล่นง่ายได้จริงจบในเว็บเดียวขอแนะนำเลยเว็บนี้auffoมีด้วยนะจ๊ะอิงฟ้ามหาชนรัฐประหาร</t>
+  </si>
+  <si>
+    <t>โทษประหารชีวิตสำหรับคนทำรัฐประหารแต่ไม่ประหารชีวิตของคนที่เซ็นรับรองการรัฐประหารมันก็เท่านั้นประหารโจรแต่กลับลืมประหารผู้บงการหัวหน้าโจรรัฐประหารปีรัฐประหารกันยาครบรอบรัฐประหาร</t>
+  </si>
+  <si>
+    <t>อีพวกระยำทำประเทศชาติถอยหลังทำชีวิตปชชพังพวกเดนขยะไร้ค่าไร้ราคาพวกภาระปชชรัฐประหารรัฐประหาร</t>
+  </si>
+  <si>
+    <t>การทำรัฐประหารเป็นบ่อเกิดของปัญหาและความอัปยศทั้งหมดที่เกิดขึ้นกับประเทศไทยใครก็ตามที่ทำสนับสนุนส่งเสริมหรือเป็นตัวการขับเคลื่อนให้เกิดการรัฐประหารคนเหล่านั้นแหละคือคนที่ทำให้ประเทศไทยล่มจมจนถึงทุกวันนี้รัฐประหารนายกเถื่อน</t>
+  </si>
+  <si>
+    <t>ชี้พิกัดวิตามินเสริมเพียบโบว์เมลดาแฟนผมน่ารักวิตามินอาหารเสริมรัฐประหารควีนอลิซาเบธที่ให้ท้องฟ้าช่วยดูแลฟ้าให้ดีbangkokเนเน่สวยใสในแสงแดดออฟจุมพล</t>
+  </si>
+  <si>
+    <t>หยุดวงจรอุบาทว์การเมืองไทยรัฐประหารทุกครั้งมีที่มาจากองค์กรเดียวคือทหารวิธีแก้ต้องปิดประตูกรมกองร่างรัฐธรรมนูญฉบับประชาชนเพิ่มกลไกเอาผิดเขียนให้ชัดใครยึดอำนาจต้องรับโทษสูงสุดนิรโทษกรรมตัวเองไม่ได้ประชาชนต้องร่วมมือกัน</t>
+  </si>
+  <si>
+    <t>เพราะสถาบันกษัตริย์ให้ท้ายทหารชั่วชอบทำรัฐประหารประเทศล้มจมจึงบังเกิดระบอบวรรณะรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ทหารมีปืนมีอำนาจจึงเหยียบหัวปขขขึ้นมาเป็นนายกจากการรัฐประหารและมีสลิ่มกปปสองค์กรไม่อิสระกับคนส้นตีนเป็นกองเชียร์และพวกขี้แพ้เลือกตั้งพวกนายทุนร่วมมือกันล้มทักษิณสมัครสมขายยิ่งลักษณ์ตาสว่างกันหรือยังสลิ่มคงภูมิใจได้ถือบัตรคนจนโครงการคนละครึ่งรัฐประหาร</t>
+  </si>
+  <si>
+    <t>voicepoliticsดีเอ็นเอสินธุไพรตัวจริงจิราพรชญาภาเลือดประชาธิปไตยชมคลิปเต็มๆvoiceonlineจิราพรสินธุไพรชญาภาสินธุไพรรัฐประหารกันยายนสินธุไพรเพื่อไทยร้อยเอ็ดประชาธิปไตยเสื้อแดงjsindhupraibeerchayapa</t>
+  </si>
+  <si>
+    <t>น่าสนใจพรรคนี้ไทยสร้างไทยรัฐประหาร</t>
+  </si>
+  <si>
+    <t>รัฐประหารกบฏจะสำเร็จหรือไม่ก็ไม่มีอะไรมากไปกว่านี้</t>
+  </si>
+  <si>
+    <t>โคตรใช่กันยาครบรอบรัฐประหารรัฐประหาร</t>
+  </si>
+  <si>
+    <t>แต่แบบหัวข้อที่ว่าเราหลงไปกับข้ออ้างของการรัฐประหารเนี่ยตำราหลักเรื่องนี้คนเขียนก็ชื่อธำรงศักดิ์นะเป็นคนแรกๆเลยที่พาสังคมหลงทางไปวนอยู่กับข้ออ้างแต่ละครั้ง</t>
+  </si>
+  <si>
+    <t>อธำรงศักดิ์ชี้ว่าเราหลงทางไปกับเหตุในการณ์รัฐประหารเป็นเรื่องๆโดยหลงลืมภาพรวมไปว่าทหารได้ทำการรัฐประหารอย่างต่อเนื่องและได้สิ่งที่ต้องการไปเสมออาจจะน้อยบ้างแต่ก็ได้ไปเช่นปีกลาโหมได้งบประมาณเพิ่มขึ้นปีละล้านได้สวครึ่งหนึ่ง</t>
+  </si>
+  <si>
+    <t>เรียนเชิญทุกท่านที่ตึกซีพีทาวเวอร์สีลมเวลานรวมทั้งสื่อมวลชนทุกช่องเรื่องนี้ความเสียหายแสนล้านบาทต่อไปทำไมสินค้าราคาแพงขึ้นเจอกันวันที่กยพรุ่งนี้นะคะรัฐประหาร</t>
+  </si>
+  <si>
+    <t>หวังว่าบทเรียนในอดีตปีที่ผ่านม่จะเป็นบทเรียนที่ดีสำหรับทักษิณนะรัฐประหารกันยารัฐประหาร</t>
+  </si>
+  <si>
+    <t>ดูดวงกับหมอผีเสื้อคำถามเจาะจงคำถามละคำถามคำถามแถมคำถามดูดวงถามไม่อั้นนาทีพื้นดวงภาพรวมดวงดูดวงดูดวงฟรีดูดวงแม่นๆดูดวงความรักดูดวงแม่นรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ภาพเหตุการณ์หลังจากการรัฐประหารเมื่อปีก่อนผ่านไปไม่ถึงชั่วโมงสมใจพวกมึงแล้วนะจ๊ะ</t>
+  </si>
+  <si>
+    <t>รัฐประหารกันยารัฐประหารรัฐประหารกัยาครบรอบรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ไดฟูกุชิ้นละ฿ชิ้น฿ส่งฟรีนัดรับหอการค้าฟรีตลาดนัดblackpinkตลาดนัดบังทันตลาดนัดอากาเซ่ขนมตลาดนัดenhypenตลาดนัดtreasureตลาดนัดnctตลาดนัดอาร์มี่utcckinnporscheworldtourออฟจุมพลเจมส์จิจ๋าปีหน้าแล้วนะต้าห์อู๋ออฟโรดonceapologizetolisaรัฐประหาร</t>
+  </si>
+  <si>
+    <t>สักวันพวกมันต้องชดใช้กรรมรัฐประหารประหารชีวิตรัฐประหาร</t>
+  </si>
+  <si>
+    <t>pranเป็นนักโทษหนีคดีคดีทางการเมืองไทยเฉพาะประเทศไทยใช่หรือไม่หากเป็นนักโทษหนีคดีอาญาระหวางประเทศตามกฎหมายสากลแล้วทำไมตำรวจสากลไม่จับกุมตัวส่งกลับมาประเทศไทยตามที่รัฐไทยร้องขอหากเป็นนักโทษระดับสากลแล้วทำไมถึงไปได้ทุกประเทศในโลกนี้ยกเว้นประเทศไทยกันยารัฐประหาร</t>
+  </si>
+  <si>
+    <t>วันนี้กันยาพึ่งเปิดแอคนี้เผอิญตรงกับวันครบรอบรัฐประหารกันยาปีที่ด้วยหรือช่างเป็นความบังเอิญที่พอเกมาะพอดีเนอะเพราะแอคนี้ตั้งใจให้เป็นแอคสังคมการเมืองพอดีรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ศิธาทิวารีพรรคไทยสร้างไทยชี้รัฐประหารทุกครั้งมีที่มาจากองค์กรเดียวคือทหารต้องปิดประตูกรมกองต้องร่างรัฐธรรมนูญฉบับประชาชนเพิ่มกลไกเอาผิดเขียนให้ชัดใครยึดอำนาจต้องรับโทษสูงสุดนิรโทษกรรมตัวเองไม่ได้ชมคลิปในลิ้งค์</t>
+  </si>
+  <si>
+    <t>นักโทษนั่งนับวันครบรอบรปหเหมือนนับรอวันตายเลยนะคะรัฐประหาร</t>
+  </si>
+  <si>
+    <t>เชี่ยแม่งปีคือครึ่งชีวิตคนรุ่นกูเลยค่ะรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ปีแล้วไอ้สัสรัฐประหารปีแล้วไอ้สัสหากมึงยังคิดกบฏมึงอยากเป็นศพหรืออยากไปจบอยู่ในตารางห๊าาปีแล้วไอ้สัสไผทมิรักสงบกูจะใช้mปกครองชาวประชาในวันที่สิบเก้าเก้าสี่สิบเก้ายี่สิบสองนาฬิกาชุดทหารพร้อมรถถังตามบัญชาทำประเทศถอยหลังลงกะลา</t>
+  </si>
+  <si>
+    <t>มีใครว่างบ้างหารายได้เสริมรับประกันรายได้ต่อวันงานถูกกฎหมายไม่จำกัดอายุไม่ต้องหาลูกทีมไม่ต้องทำยอดสอนงานฟรีมีคนคอยให้คำเเนะนำสนใจเดมมาสอบถามก่อนได้คร๊าหางานทําหางานพาร์ทไทม์หางานออนไลน์ให้ท้องฟ้าช่วยดูแลฟ้าให้ดีรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ถ้าไม่ทำรัฐประหารก็ไม่มีทางเอาชนะทักษิณได้เลยลองนึกภาพว่าถ้าทักษิณยังเป็นนายกประเทศจะเจริญขนาดไหนแต่ก็นั่นแหละคนเก่งๆอยู่ยากในประเทศนี้รัฐประหารรัฐประหารรัฐประหารกันยา</t>
+  </si>
+  <si>
+    <t>ความเสียหายจากรัฐประหารส่งผลกระทบต่อทุกส่วนของประเทศไทยไม่ว่าผ่านมากี่ปีความเจ็บปวดเหล่านี้ก็ยังคงอยู่มันก่อให้เกิดตุลาการภิวัฒน์เกิดการสังหารหมู่กลางเมืองก่อให้เกิดระบอบปตามมามีนักโทษการเมืองมากมายเพียงเพราะเห็นต่างมันมีแต่ความไม่ยุติธรรมที่เกิดขึ้น</t>
+  </si>
+  <si>
+    <t>มีนาคมสนั่นขจรประศาสน์ถามใครคือผู้อยู่เบื้องหลังการปฏิวัติรัฐประหารกันยายนด้านสนธิบุญยรัตกลินตอบกลับว่าคำถามบางประการตายแล้วก็ตอบไม่ได้กันยาครบรอบรัฐประหารยามเฝ้าจอtvarchiveปีรัฐประหารรัฐประหาร</t>
+  </si>
+  <si>
+    <t>โปรใหม่มาแล้วราคาเบาๆรับเพิ่มฟอลไลค์เม้นวิวแชร์รีวิวทุกแอพสนใจทักได้ปั๊มฟอลไอจีปั๊มฟอลปั๊มไลค์ปั๊มไลค์ไอจีปั๊มฟอลทวิตเพิ่มผู้ติดตามปั๊มผู้ติดตามแพทริคsavegมิวศุภศิษฏ์ออฟจุมพลรัฐประหารwarwanaratwelcomemileบ่วงวิมาลาepyinyinanwบ้านมังกร</t>
+  </si>
+  <si>
+    <t>สวัสดีค่ะมีใครว่างหาค่าขนมอยู่มั้ยคะแค่นาทีเค้ามีงานมาแนะนำทำง่ายค่ะได้เงินจริงทุกแพตฟอร์มงานไม่มีค่าสมัครไม่ต้องหาลูกทีมเงินเข้าบัญชีโดยตรงไม่ผิดกฏหมายหาเงินออนไลน์หางานออนไลน์โยชิรัฐประหารให้ช่วยดูแลฟ้าดีsavegยินดีต้อนรับไมล์</t>
+  </si>
+  <si>
+    <t>โปรทุนน้อยฝากรับทำยอดถอนได้ทำยอดถอนได้คลิ๊กรัฐประหารboaทุนฟรีแจกเครดิต</t>
+  </si>
+  <si>
+    <t>สวัสดีค่ะใครที่อยู่บ้านแล้วอยากหารายได้พิเศษยิ่งขยันมากยิ่งได้มากค่ะอย่าให้เวลาสูญเปล่าไม่เสียเวลาแน่นอนไม่ทำให้ผิดหวังแน่นอนค่ะสนใจdmมาเลยค่ะหาเงินออนไลน์หางานออนไลน์ให้ช่วยดูแลฟ้าดีรัฐประหารโยชิsavegยินดีต้อนรับไมล์รอรล่ม</t>
+  </si>
+  <si>
+    <t>รีรันตายไปแล้วก็ตอบไม่ได้ยามเฝ้าจอรัฐประหารปีรัฐประหารกันยาครบรอบรัฐประหารรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ฮาโหลลลลรับสมัครพนักงานจ้าใครอยากหาค่าเหล้าค่าขนมค่าเรียนค่าเที่ยวไม่มีอบรบมีคนสอนงานไม่เสียค่าสมัครเดมมาสอบถามกันได้จ้าหาเงินออนไลน์หางานออนไลนหางานพาร์มไทม์หางานออนไลน์ไม่เสียค่าสมัครรัฐประหารyoshi</t>
+  </si>
+  <si>
+    <t>ตกใจรัฐประหารแล้วคือแถวห้วยขวางยิงพลุเวลานี้อีสัด</t>
+  </si>
+  <si>
+    <t>ส้นตีนนะมึงไอ้แม้วรัฐประหาร</t>
+  </si>
+  <si>
+    <t>แท็กขึ้นเอาซะกูตกใจเลยนึกว่าเกิดจริงรัฐประหาร</t>
+  </si>
+  <si>
+    <t>เหตุผลทุกครั้งที่ทำรัฐประหารคือบ้านเมืองแตกแยกวาทกรรมที่สร้างขึ้นจนคนหลงเชื่อว่าทักษิณเลวโกงล้มเจ้าแล้วทหารก็ปกครองประเทศขืบหายมากว่าปีแล้วตรวจสอบไม่ได้โกงมากขึ้นหนี้บานแก้ปัญหาอะไรไม่ได้สิ่งที่ทำสำเร็จคือมีคนลงทะเบียนบัตรคนจนล้านแสนกว่ารายรัฐประหาร</t>
+  </si>
+  <si>
+    <t>สนใจหารายได้เสริมสำหรับคนว่างงานค่าแรงบาทวันแค่มีเวลาว่างวันละนาทีไม่มีค่าใช้จ่ายงานตอบแชทลูกค้างานตอบแชทงานออนไลน์บนมือถืองานออนไลน์ไม่จำกัดเพศงานออนไลน์สำหรับนักเรียนให้ท้องฟ้าช่วยดูแลฟ้าให้ดีรัฐประหารโบว์เมลดาแฟนผมน่ารัก</t>
+  </si>
+  <si>
+    <t>ฝากติดกันวันรับเพิ่มนะคะโปรcheckinกลับมาอีกครั้งสำหรับสมาชิกmmitเท่านั้นเพียงฝากขั้นต่ำติดกันวันรับเพิ่มบาทเทิร์นเท่าสิทธิพิเศษสำหรับสมาชิกmmitเท่านั้นรัฐประหาร</t>
+  </si>
+  <si>
+    <t>โกงมากที่สุดในประวัติศาตร์การเมืองไทยต้องรัฐบาลทักษิณโครตๆเลยมึงรัฐประหารทีมลุงตู่</t>
+  </si>
+  <si>
+    <t>มาค่ะใครสนใจงานออนไลน์ได้เงินจริงมาทางนี้เลยไม่ต้องเข้ากลุ่มไลน์แค่ขยันโพสต์ก็ได้เงินแล้ววววว่างตอนไหนทำตอนนั้นมีแค่โทรศัพท์เน็ตเงินmoneywithwingsงานออนไลน์งานตอบแชทลูกค้างานตอบแชทงานออนไลน์บนมือถืองานออนไลน์ไม่จำกัดเพศงานออนไลน์สำหรับนักเรียนรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ผู้ที่ร่วมทำรัฐประหารประหารรัฐประหาร</t>
+  </si>
+  <si>
+    <t>หากประเทศใดปกครองด้วยระบอบประชาธิปไตยการรัฐประหารยึดอำนาจรัฐบาลที่มาจากการเลือกตั้งตามประชาธิปไตยด้วยการฉีกรัฐธรรมนูญถือว่าเป็นกบฎจะทำให้ประเทศถอยหลังไปกว่าปีและต้องถูกunประชาคมโลกคว่ำบาตรไม่คบค้าสมาคมด้วยไม่มีประเทศใดในโลกนี้เจริญรุ่งเรืองได้เพราะการรัฐประหารกันยา</t>
+  </si>
+  <si>
+    <t>kanmuangthหากประเทศใดปกครองด้วยระบอบประชาธิปไตยการรัฐประหารยึดอำนาจรัฐบาลที่มาจากการเลือกตั้งตามประชาธิปไตยด้วยการฉีกรัฐธรรมนูญถือว่าเป็นกบฎจะทำให้ประเทศถอยหลังไปกว่าปีและต้องถูกunประชาคมโลกคว่ำบาตรไม่คบค้าสมาคมด้วยไม่มีประเทศใดในโลกนี้เจริญรุ่งเรืองได้เพราะการรัฐประหารกันยา</t>
+  </si>
+  <si>
+    <t>ท่านคือจุดเริ่มต้นแห่งความหวังจุดเริ่มต้นแห่งการเปลี่ยนแปลงจุดเริ่มต้นของการพัฒนาให้ประเทศไปสู่หนทางที่ดีขึ้นโดยยึดประชาธิปไตยของปชชเป็นหลักเป็นนายกที่ดีที่สุดเท่าที่ไทยเคยมีมารัฐประหารครอบครัวเพื่อไทย</t>
+  </si>
+  <si>
+    <t>ย้อนรอยรัฐประหารในไทยครั้งมากที่สุดในอาเซียนติดอันดับของโลกรัฐประหารทักษิณชินวัตร</t>
+  </si>
+  <si>
+    <t>วันหยุดงือเวลาว่างๆแนะนำงานง่ายๆได้เงินจริงจบงานเงินเข้าบัญชีรั่วๆเงยงับdmมาได้เงยหรือแอดไลน์kgzcmรัฐประหารmarkbamkpopmasterzepbkkเงินกู้นักศึกษางานออนไลน์ได้เงินจริงรีวิวnetflix</t>
+  </si>
+  <si>
+    <t>สนธิบังบอกพูดไม่ได้ตายก็พูดไม่ได้แต่ถ้าไม่พูดก็รับไปจนเมียตีกันเละเทะรัฐประหารทรงพระเจริญ</t>
+  </si>
+  <si>
+    <t>byunlieประยุทธ์ก่อการรัฐประหารมีอำนาจร่วมปีไม่ทำให้ประเทศเจริญรุ่งเรืองไม่ทำให้ประชาชนส่วนใหญ่มีชีวิตที่ดีขึ้นคนไทยเฉยๆทักษิณเป็นนายกฯที่มาจากการเลือกตั้งตามประชาธิปไตยปีทำให้ประเทศเจริญรุ่งเรืองทำให้ประชาชนส่วนใหญ่มีชีวิตที่ดีขึ้นคนไทยจะเป็นจะตายกันยารัฐประหาร</t>
+  </si>
+  <si>
+    <t>ปทนี่วนเวียนอยู่กับการรปหไม่จบไม่สิ้นปทกำลังจะก้าวไปข้างหน้าก็ต้องมาโดนสะกัดขาสะดุดล้มตกหลุมเดิมๆเป็นวงกว้างกว่าจะขึ้นได้พอจะถมดินกลบโดนอีกแล้วหรือมันเป็นการส่งไม้ต่อของทหรุ่นสู่รุ่นหรอที่ต้องทำการรปหอ่ารัฐประหาร</t>
+  </si>
+  <si>
+    <t>ก็มาดิค้าบบบอยากมีเงินต้องทำงานน๊าาาาเค้าจะรับอีกแค่คนเท่านั้นสนใจแอดไลน์ไปสอบถามก่อนนะนี่นี่เค้ามีงานให้เลือกทำเยอะสิ่งมีบริษัทเปิดใหม่ขอคนสะดวกรีวิวเงินเข้าด้วยน๊าางานพาร์ทไทม์งานออนไลน์ได้เงินจริงรัฐประหาร</t>
+  </si>
+  <si>
+    <t>รัฐประหารคือการก่อกบฏสมควรโดนประหารรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ครบรอบปีวงจรอุบาทว์ของสังคมไทยอีกหนึ่งจุดเริ่มต้นความล้มเหลวของประชาธิปไตยไทยซึ่งไม่เคยมีจริงๆรัฐประหารปีรัฐประหาร</t>
+  </si>
+  <si>
+    <t>รับฟรีไปเลยเงื่อนไขตามรูปกดลิ้งก์โค้ดเลยลิ้งก์โค้ดที่่ลิ้งก์โค้ดที่เครดิตฟรีล่าสุดเครดิตฟรีเครดิตฟรีเครดิตฟรีเครดิตฟรียืนยันเบอร์สล็อตเครดิตฟรีสล็อตสล็อตออนไลน์สล็อตแตกง่ายรัฐประหารแพทริค</t>
+  </si>
+  <si>
+    <t>เอาจริงพรรคการเมืองที่เริ่มมาพูดคือใกล้เลือกตั้งอ่ะพรรคไหนทรยศประชาชนคือไม่เคลิ้มตามเนอะรัฐประหาร</t>
+  </si>
+  <si>
+    <t>theglencorescandalabribescandallikenootherรัฐประหาร</t>
+  </si>
+  <si>
+    <t>รัฐประหารเห็นด้วยมากกกจะเป็นประเทศได้ก็ต้องมีประชาชนต้องให้ประชาชนมีสิทธิและมีเสียงรัฐประหารไม่ได้ทำให้ประเทศดีขึ้นเพราะถ้ามันดีจริงมันดีไปนานแล้ว</t>
+  </si>
+  <si>
+    <t>วันนี้กยนายทักษิณชินวัตรอดีตนายกรัฐมนตรีโพสต์ข้อความผ่านเฟซบุ๊กส่วนตัวthaksinshinawatraถึงกรณีครบรอบปีของการรัฐประหารอ่านต่อthaipbs</t>
+  </si>
+  <si>
+    <t>สติ๊กเกอร์ธีมอิโมจิเมโลดี้cbcbcbเหรียญแท้ส่งไวมีบัตรสะสมแต้มorderรัฐประหารสติ๊กเกอร์ไลน์น่ารักสติ๊กเกอร์ไลน์</t>
+  </si>
+  <si>
+    <t>thereportersthหากประเทศใดปกครองด้วยระบอบประชาธิปไตยการรัฐประหารยึดอำนาจรัฐบาลที่มาจากการเลือกตั้งตามประชาธิปไตยด้วยการฉีกรัฐธรรมนูญถือว่าเป็นกบฎจะทำให้ประเทศถอยหลังไปกว่าปีและต้องถูกunประชาคมโลกคว่ำบาตรไม่คบค้าสมาคมด้วยไม่มีประเทศใดในโลกนี้เจริญรุ่งเรืองได้เพราะการรัฐประหารกันยา</t>
+  </si>
+  <si>
+    <t>สลิ่มไม่ควรดูนะจ๊ะรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ควรมีบทลงโทษใครก็ตามที่คิดทำรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ต้องให้พรรคไทยรักไทยมีอำนาจอย่างน้อยสองสมัยถึงจะปลอดภัยคัดลอกหนังสือรู้ทันทักษิณนี่คือความเลวของทักษิณที่ทำกับประเทศไทยแต่ขี้ข้ายังกล้าที่จะชูคอปกป้องมันอีกทีมลุงตู่ลุงตู่อยู่ต่อรัฐประหารปีรัฐประหารคนโกง</t>
+  </si>
+  <si>
+    <t>รัฐประหารเกาหลีหลุดพ้นจากวงจรอุบาทนี้ได้เพราะมีการลงโทษย้อนหลังพวกรปหฉะนั้นถ้าไทยอยากหลุดพ้นวงจรอุบาทนี้เมื่ออำนาจกลับมาสู่มือปชชก็ต้องมีการลงโทษย้อนหลังเช่นกันย้อนไปให้ครบครั้งที่เคยมีการรปหเลย</t>
+  </si>
+  <si>
+    <t>netflixpremiumkจอหารเเอคไทยdayบาทถูกม้วกกกกพร้อมส่งเเอคไทยจอหารดูได้ทุกอุปกรณ์หารnetflixหารnetflixราคาถูกnetflixราคาถูกหารเน็ตฟลิกซ์เน็ตฟลิกซ์พร้อมส่งnetflixหารnetflixnetflixthรัฐประหาร</t>
+  </si>
+  <si>
+    <t>เฮงซวยรัฐประหาร</t>
+  </si>
+  <si>
+    <t>คือไม่ใช่ไม่มีกฎหมายนี้นะมันมีเเต่มันขึ้นอยู่กับการใช้กฎหมายอ่ะฝ่ายตุลาการไทยอ่อนเเอต่อกระบอกปืนมากเลยไม่มีคณะรัฐประหารไหนถูกจำคุกรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ระบอบไหนก็ไม่ต่างกันมากหรอกมันอยู่ที่ผู้นำแต่ประชาธิปไตยมันก็ดีนะไม่ดีก็หาใหม่รัฐประหารแต่ต้องอย่าให้ลิงเล็ดลอดเข้าไปได้</t>
+  </si>
+  <si>
+    <t>หาเงินช่วงปิดเทอมกันคับหาเงินเปย์ตัวเองเองหาเงินซื้อโทรศัพท์เก็บเงินออมเงินในช่วงปิดเทอมไม่เข้ากลุ่มไม่ลุกทิมไม่ลูกโซ่ถูกกฎหมายหาเงินค่าขนมหาเงินเข้าwalletให้ท้องฟ้าช่วยดูแลฟ้าให้ดีรัฐประหารโบว์เมลดาแฟนผมน่ารัก</t>
+  </si>
+  <si>
+    <t>ไทยทำรัฐประหารมากเป็นอันดับของโลกและประเทศที่ทำรัฐประหารไม่มีประเทศที่พัฒนาแล้วรัฐประหาร</t>
+  </si>
+  <si>
+    <t>youtubeชีพธรรมคำวิเศษณ์ข่าวแรงทวิตเตอร์รำลึกรัฐประหารทักษิณชินวัตรปีกันยายนรัฐประหารม็อบกันยา</t>
+  </si>
+  <si>
+    <t>งานออนไลน์ถอนเร็วถอนได้จริงรายได้วันไม่โกงแน่นอนเดมมาได้เลยน๊าาาาาารับทั้งธนาคารและวอเล็ทนะคะหาเงินออนไลน์รัฐประหารอิงฟ้ามหาชนsavegให้ท้องฟ้าช่วยดูแลฟ้าให้ดีให้ท้องฟ้าช่วยดูแลฟ้าให้ดี</t>
+  </si>
+  <si>
+    <t>ตั้งแต่เรียกตัวเองว่าปกครองด้วยระบบประชาธิปไตยมาปีวังวนอุบาทว์ก็วนเวียนอยู่กับกลุ่มทหารเหี้ยๆมาแทบจะตลอดหลังปีมีรัฐประหารครั้งและกบฎคือรัฐประหารที่ไม่สำเร็จอีกครั้งและรัฐธรรมนูญอีกฉบับสาเหตุที่ทำให้ประเทศไทยไม่เจริญซักที</t>
+  </si>
+  <si>
+    <t>ซ่อมอำนาจของตนและพวกสร้างความชอบหายรัฐประหาร</t>
+  </si>
+  <si>
+    <t>รัฐประหารที่ทำให้ประเทศเจริญขึ้นเกิดตอนสมัยยิ่งลักษณ์โกงจำนำข้าว</t>
+  </si>
+  <si>
+    <t>รัฐประหารปีทั้งษินโกงแผ่นดินทีมลุงตู่พรรคครอบครัวบริษัทหลงจู๊รวยแล้วไม่โกงหรือไม่รู้จักพอนายเสนาะกล่าวว่ายิ่งกว่านั้นยังมีการใช้ระบบธุรกิจครอบครัวมาจัดการผลประโยชน์ในรัฐบาลแบบเบ็ดเสร็จตั้งแต่ขนคนที่เคยทำงานกับตัวเองในบริษัทแบบยกชุดวางคนของตัวเองไปในทุกกระทรวง</t>
+  </si>
+  <si>
+    <t>kamphakaประยุทธ์ก่อการรัฐประหารมีอำนาจร่วมปีไม่ทำให้ประเทศเจริญรุ่งเรืองไม่ทำให้ประชาชนส่วนใหญ่มีชีวิตที่ดีขึ้นคนไทยเฉยๆทักษิณเป็นนายกฯที่มาจากการเลือกตั้งตามประชาธิปไตยปีทำให้ประเทศเจริญรุ่งเรืองทำให้ประชาชนส่วนใหญ่มีชีวิตที่ดีขึ้นคนไทยจะเป็นจะตายกันยารัฐประหาร</t>
+  </si>
+  <si>
+    <t>prankamphakaประยุทธ์ก่อการรัฐประหารมีอำนาจร่วมปีไม่ทำให้ประเทศเจริญรุ่งเรืองไม่ทำให้ประชาชนส่วนใหญ่มีชีวิตที่ดีขึ้นคนไทยเฉยๆทักษิณเป็นนายกฯที่มาจากการเลือกตั้งตามประชาธิปไตยปีทำให้ประเทศเจริญรุ่งเรืองทำให้ประชาชนส่วนใหญ่มีชีวิตที่ดีขึ้นคนไทยจะเป็นจะตายกันยารัฐประหาร</t>
+  </si>
+  <si>
+    <t>รับสมัครงานตอบแชทแอดมินเคลียออเดอร์ทำงานอยู่บ้านวันละบงานถูกกฎหมายสมัครฟรีสอนฟรีนักศึกษาคนว่างงานพนังงานประจำวันนี้รับอีกคนนักศึกษางานเคลียออเดอร์งานออนไลน์รัฐประหารให้ท้องฟ้าช่วยดูแลฟ้าให้ดีtaehyungxvogue</t>
+  </si>
+  <si>
+    <t>bkksnowkamphakaประยุทธ์ก่อการรัฐประหารมีอำนาจร่วมปีไม่ทำให้ประเทศเจริญรุ่งเรืองไม่ทำให้ประชาชนส่วนใหญ่มีชีวิตที่ดีขึ้นคนไทยเฉยๆทักษิณเป็นนายกฯที่มาจากการเลือกตั้งตามประชาธิปไตยปีทำให้ประเทศเจริญรุ่งเรืองทำให้ประชาชนส่วนใหญ่มีชีวิตที่ดีขึ้นคนไทยจะเป็นจะตายกันยารัฐประหาร</t>
+  </si>
+  <si>
+    <t>ถ้าไม่มีรัฐประหารและรัฐบาลส้นตีนคนเชียร์ก็ส้นตีนอย่างทุกวันนี้ชีวิตจะดีขนาดไหนวะไม่ต้องมาขิงความเจริญเมตรเมตรของไอ้ตู่หรอกจะอ้วก</t>
+  </si>
+  <si>
+    <t>ตอนนั้นไม่ค่อยรู้เรื่องรู้ราวเป็นอิกนอแต่งงมากว่าให้ดอกไม้ทหารทำไมพอความรู้มากขึ้นอ่านมากขึ้นวิเคราะและมีเพื่อนอยู่มธก็ยิ่งเข้าใจและเข้าใจถึงผลลัพธ์ก็วันนี้วันที่เด็กจะตกงานคนถูกเลออฟคนหาเงินยากค่าครองชีพสูงโดยที่ไม่แก้ปัญหาเหี้ยไรเลยกู้เยอะสุดที่เคยมีมารัฐประหาร</t>
+  </si>
+  <si>
+    <t>ครั้งหนึ่งที่เราเคยมีนายกที่ดีที่สุดนายกแห่งความภาคภูมิใจนายกที่มาจากประชาชนโดยแท้จริงท่านทำตามสัญญาที่ให้ไว้ตั้งแต่วันแรกที่รับตำแหน่งนายกที่คนไทยไม่มีวันลืมคิดใหม่ทำใหม่เพื่อไทยทุกคนคิดถึงเสมอทักษิณชินวัตรรัฐประหารครอบครัวเพื่อไทย</t>
+  </si>
+  <si>
+    <t>เวลาเห็นเด็กบ้านปหลานไอ้สนก็ได้แค่ยิ่มอ่อนแล้วคิดทุกครั้งว่าที่เห็นรวยๆเงินที่ใช้อยู่ของทักกี้ป่าววะรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ทำง่ายได้ที่บ้านเเค่มีมือถือมีเวลาวันละนาทีก็ทำได้นะโอกาสดีๆมาแล้วลองเปิดโอกาสให้ตัวเองได้ลองงานใหม่ๆรายได้ดีถูกกฏหมายน๊างานพาร์ทไทม์หาเงินอิงล็อตmtbbmarkbamรัฐประหารlisaxcelineโบว์เมลดาแฟนผมน่ารัก</t>
+  </si>
+  <si>
+    <t>มาค่าารับไปเลยค่ะสำหรับคนขยันทำตามแพลตฟอร์มงานของเรารายได้บาทตอวันงานง่ายๆไม่เกินนาทีก็ได้รับเงินสนใจแอดไลน์นะคะuoockมีแอดนำหน้าmtbbหารายได้เสริมbigmouthหางานออนไลน์หางานพาทไทม์แพทริคให้ท้องฟ้าช่วยดูแลฟ้าให้ดีรัฐประหาร</t>
+  </si>
+  <si>
+    <t>thepeoplespacesประยุทธ์ก่อการรัฐประหารมีอำนาจร่วมปีไม่ทำให้ประเทศเจริญรุ่งเรืองไม่ทำให้ประชาชนส่วนใหญ่มีชีวิตที่ดีขึ้นคนไทยเฉยๆทักษิณเป็นนายกฯที่มาจากการเลือกตั้งตามประชาธิปไตยปีทำให้ประเทศเจริญรุ่งเรืองทำให้ประชาชนส่วนใหญ่มีชีวิตที่ดีขึ้นคนไทยจะเป็นจะตายกันยารัฐประหาร</t>
+  </si>
+  <si>
+    <t>การที่คนเราต้องติดคุกเพราะด่านักเย็กน่านฟ้าไทยมันสมเหตุสมผลมั้ยรัฐประหารทั้งทีคิดว่าจะมีอะไรใหม่สุดท้ายก็เข้าลูปเลียตีนหวังได้ดิบได้ดีรอให้ถึงวันก่อนเถอะจะรอดูวันที่ลูกมันต้องมาทำงานเซเว่นหาเงินรักษาเอดส์ให้พ่อมัน</t>
+  </si>
+  <si>
+    <t>สวัสดีค่ะมีใครว่างหาค่าขนมอยู่ไหมคะแค่นาทีเค้ามีงานมาแนะนำได้เงินจริงทุกแพตฟอร์มงานไม่มีค่าสมัครเงินเข้าบัญชีโดยตรงไม่ผิดกฏหมายไม่ใช่การพนันสนใจสอบถามเดมมาจ้าางานพาร์ทไทม์หาเงินออนไลน์หางานทำที่บ้านอิงล็อตmtbbmarkbamsavegรัฐประหาร</t>
+  </si>
+  <si>
+    <t>รัฐประหารมีดีตรงไหนนอกจากสร้างความฉิบหายให้ประชาชน</t>
+  </si>
+  <si>
+    <t>illรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ประยุทธ์ก่อการรัฐประหารมีอำนาจร่วมปีไม่ทำให้ประเทศเจริญรุ่งเรืองไม่ทำให้ประชาชนส่วนใหญ่มีชีวิตที่ดีขึ้นคนไทยเฉยๆทักษิณเป็นนายกฯที่มาจากการเลือกตั้งตามประชาธิปไตยปีทำให้ประเทศเจริญรุ่งเรืองทำให้ประชาชนส่วนใหญ่มีชีวิตที่ดีขึ้นคนไทยจะเป็นจะตายกันยารัฐประหาร</t>
+  </si>
+  <si>
+    <t>เขาก็ตอบอย่างไม่สะทกสะท้านว่าก็รู้ถ้าพี่ทักษิณจะลงต้องให้พรรคไทยรักไทยมีอำนาจอย่างน้อยสองสมัยถึงจะปลอดภัยคัดลอกหนังสือรู้ทันทักษิณนี่คือความเลวของทักษินเราจะยอมคนแบบนี้จริงๆหรือทีมลุงตู่รัฐประหาร</t>
+  </si>
+  <si>
+    <t>ต่อแผ่นดินนายเสนาะกล่าวและว่าตนเคยพูดและเตือนกับคุณหญิงอ้อว่าน้องถ้ามันได้มาอีกแสนล้านเอาไปทำไมเขาพากันตอบว่าก็รู้แต่ในเมื่อเล่นการเมืองมันต้องควักเงินก็ต้องถือว่าเป็นธุรกิจเคยเตือนหนักๆถึงขั้นว่าในอนาคตถ้ามันจะเดือดร้อนหนักๆคือคนเป็นหัวนะรัฐประหาร</t>
+  </si>
+  <si>
+    <t>janmaxประยุทธ์ก่อการรัฐประหารมีอำนาจร่วมปีไม่ทำให้ประเทศเจริญรุ่งเรืองไม่ทำให้ประชาชนส่วนใหญ่มีชีวิตที่ดีขึ้นคนไทยเฉยๆทักษิณเป็นนายกฯที่มาจากการเลือกตั้งตามประชาธิปไตยปีทำให้ประเทศเจริญรุ่งเรืองทำให้ประชาชนส่วนใหญ่มีชีวิตที่ดีขึ้นคนไทยจะเป็นจะตายกันยารัฐประหาร</t>
+  </si>
+  <si>
+    <t>เค้ามีงานออนไลน์ปังๆมาแนะนำค่ะไม่รบกวนเวลางานและเรียนแน่นอนค่ะหาเงินค่าขนมซื้อหนังสือบั้มบัตรคอนงานทำง่ายๆไม่เสียค่าสมัครไม่จำกัดอายุหางานออนไลน์หางานพาร์ทไทม์อิงฟ้ามหาชนแพทริคอิงล็อตงานออนไลน์savegรัฐประหาร</t>
+  </si>
+  <si>
+    <t>dailynewstwitประยุทธ์ก่อการรัฐประหารมีอำนาจร่วมปีไม่ทำให้ประเทศเจริญรุ่งเรืองไม่ทำให้ประชาชนส่วนใหญ่มีชีวิตที่ดีขึ้นคนไทยเฉยๆทักษิณเป็นนายกฯที่มาจากการเลือกตั้งตามประชาธิปไตยปีทำให้ประเทศเจริญรุ่งเรืองทำให้ประชาชนส่วนใหญ่มีชีวิตที่ดีขึ้นคนไทยจะเป็นจะตายกันยารัฐประหาร</t>
+  </si>
+  <si>
+    <t>iopleqwประยุทธ์ก่อการรัฐประหารมีอำนาจร่วมปีไม่ทำให้ประเทศเจริญรุ่งเรืองไม่ทำให้ประชาชนส่วนใหญ่มีชีวิตที่ดีขึ้นคนไทยเฉยๆทักษิณเป็นนายกฯที่มาจากการเลือกตั้งตามประชาธิปไตยปีทำให้ประเทศเจริญรุ่งเรืองทำให้ประชาชนส่วนใหญ่มีชีวิตที่ดีขึ้นคนไทยจะเป็นจะตายกันยารัฐประหาร</t>
+  </si>
+  <si>
+    <t>รัฐประหารคือความหน้าด้านเหมือนโจรเหมือนฆาตรกรพอได้อำนาจแล้วก็จะอยากอยู่ต่อในอำนาจไปเรื่อยๆครบปียังหน้าด้านบอกเป็นนายกขาดตอนรัฐประหาร</t>
+  </si>
+  <si>
+    <t>อีชิบหายรัฐประหาร</t>
+  </si>
+  <si>
+    <t>เราต้องรัฐประหารอีกกี่ครั้งเราต้องต่อสู้อีกกี่หนรัฐประหารรัฐประหารกันยา</t>
+  </si>
+  <si>
+    <t>matichontvประยุทธ์ก่อการรัฐประหารมีอำนาจร่วมปีไม่ทำให้ประเทศเจริญรุ่งเรืองไม่ทำให้ประชาชนส่วนใหญ่มีชีวิตที่ดีขึ้นคนไทยเฉยๆทักษิณเป็นนายกฯที่มาจากการเลือกตั้งตามประชาธิปไตยปีทำให้ประเทศเจริญรุ่งเรืองทำให้ประชาชนส่วนใหญ่มีชีวิตที่ดีขึ้นคนไทยจะเป็นจะตายกันยารัฐประหาร</t>
+  </si>
+  <si>
+    <t>innnewsประยุทธ์ก่อการรัฐประหารมีอำนาจร่วมปีไม่ทำให้ประเทศเจริญรุ่งเรืองไม่ทำให้ประชาชนส่วนใหญ่มีชีวิตที่ดีขึ้นคนไทยเฉยๆทักษิณเป็นนายกฯที่มาจากการเลือกตั้งตามประชาธิปไตยปีทำให้ประเทศเจริญรุ่งเรืองทำให้ประชาชนส่วนใหญ่มีชีวิตที่ดีขึ้นคนไทยจะเป็นจะตายกันยารัฐประหาร</t>
+  </si>
+  <si>
+    <t>รัฐประหารรัฐประหารกันยาคนบ้าทำสิ่งเดิมๆซ้ำๆและหวังว่าจะได้ผลที่แตกต่างพอกันได้รึยังไอ้พวกเหี้ยยย</t>
+  </si>
+  <si>
+    <t>immvvryประยุทธ์ก่อการรัฐประหารมีอำนาจร่วมปีไม่ทำให้ประเทศเจริญรุ่งเรืองไม่ทำให้ประชาชนส่วนใหญ่มีชีวิตที่ดีขึ้นคนไทยเฉยๆทักษิณเป็นนายกฯที่มาจากการเลือกตั้งตามประชาธิปไตยปีทำให้ประเทศเจริญรุ่งเรืองทำให้ประชาชนส่วนใหญ่มีชีวิตที่ดีขึ้นคนไทยจะเป็นจะตายกันยารัฐประหาร</t>
+  </si>
+  <si>
+    <t>matichononlineประยุทธ์ก่อการรัฐประหารมีอำนาจร่วมปีไม่ทำให้ประเทศเจริญรุ่งเรืองไม่ทำให้ประชาชนส่วนใหญ่มีชีวิตที่ดีขึ้นคนไทยเฉยๆทักษิณเป็นนายกฯที่มาจากการเลือกตั้งตามประชาธิปไตยปีทำให้ประเทศเจริญรุ่งเรืองทำให้ประชาชนส่วนใหญ่มีชีวิตที่ดีขึ้นคนไทยจะเป็นจะตายกันยารัฐประหาร</t>
+  </si>
+  <si>
+    <t>pheuthaifcประยุทธ์ก่อการรัฐประหารมีอำนาจร่วมปีไม่ทำให้ประเทศเจริญรุ่งเรืองไม่ทำให้ประชาชนส่วนใหญ่มีชีวิตที่ดีขึ้นคนไทยเฉยๆทักษิณเป็นนายกฯที่มาจากการเลือกตั้งตามประชาธิปไตยปีทำให้ประเทศเจริญรุ่งเรืองทำให้ประชาชนส่วนใหญ่มีชีวิตที่ดีขึ้นคนไทยจะเป็นจะตายกันยารัฐประหาร</t>
+  </si>
+  <si>
+    <t>ใครสนใจหาค่าขนมมาทางนี้เลยค่ะไม่ใช่การพนันงานถูกกฎหมายสนใจกดลิงค์หน้าโปรไฟล์มาสอบถามก่อนได้ค่ะอิงฟ้ามหาชนให้ท้องฟ้าช่วยดูแลฟ้าให้ดีรัฐประหารsavegแอนจะถูกมันล่าโบว์เมลดาแฟนผมน่ารักyoonjaehyukbigmouthepควีนเอลิซาเบธที่</t>
+  </si>
+  <si>
+    <t>เดือดร้อนเงินใช้จ่ายแบบเร่งด่วนฉุกเฉินค่าห้องค่าเทอมทางบริษัทเราปล่อยกู้แบบรายเดือนนะคะรับคนเยอะไม่มีมัดจำไม่มีโอนก่อนปลอดภัยแน่นอนคะรัฐประหารsavegแพทริคmixxiwกู้เงินรายวันกู้เงินรายเดือนสินเชื่อหาเงินเข้าบัญชีเงินกู้นักศึกษาเงินกู้รายวัน</t>
+  </si>
+  <si>
+    <t>incognitomeประยุทธ์ก่อการรัฐประหารมีอำนาจร่วมปีไม่ทำให้ประเทศเจริญรุ่งเรืองไม่ทำให้ประชาชนส่วนใหญ่มีชีวิตที่ดีขึ้นคนไทยเฉยๆทักษิณเป็นนายกฯที่มาจากการเลือกตั้งตามประชาธิปไตยปีทำให้ประเทศเจริญรุ่งเรืองทำให้ประชาชนส่วนใหญ่มีชีวิตที่ดีขึ้นคนไทยจะเป็นจะตายกันยารัฐประหาร</t>
+  </si>
+  <si>
+    <t>ดูให้รู้อ่านให้เข้าใจนะรัฐประหารไม่ใช่ปฏิวัติ</t>
+  </si>
+  <si>
+    <t>ท่องจำแต่รัฐประหารแต่ไม่บอกที่ไปที่มาของรปหให้กีบและควายแดงเข้าใจกันเลยเหอะ</t>
+  </si>
+  <si>
+    <t>kungcnxประยุทธ์ก่อการรัฐประหารมีอำนาจร่วมปีไม่ทำให้ประเทศเจริญรุ่งเรืองไม่ทำให้ประชาชนส่วนใหญ่มีชีวิตที่ดีขึ้นคนไทยเฉยๆทักษิณเป็นนายกฯที่มาจากการเลือกตั้งตามประชาธิปไตยปีทำให้ประเทศเจริญรุ่งเรืองทำให้ประชาชนส่วนใหญ่มีชีวิตที่ดีขึ้นคนไทยจะเป็นจะตายกันยารัฐประหาร</t>
+  </si>
+  <si>
+    <t>thairathplusประยุทธ์ก่อการรัฐประหารมีอำนาจร่วมปีไม่ทำให้ประเทศเจริญรุ่งเรืองไม่ทำให้ประชาชนส่วนใหญ่มีชีวิตที่ดีขึ้นคนไทยเฉยๆทักษิณเป็นนายกฯที่มาจากการเลือกตั้งตามประชาธิปไตยปีทำให้ประเทศเจริญรุ่งเรืองทำให้ประชาชนส่วนใหญ่มีชีวิตที่ดีขึ้นคนไทยจะเป็นจะตายกันยารัฐประหาร</t>
+  </si>
+  <si>
+    <t>tanawatofficialประยุทธ์ก่อการรัฐประหารมีอำนาจร่วมปีไม่ทำให้ประเทศเจริญรุ่งเรืองไม่ทำให้ประชาชนส่วนใหญ่มีชีวิตที่ดีขึ้นคนไทยเฉยๆทักษิณเป็นนายกฯที่มาจากการเลือกตั้งตามประชาธิปไตยปีทำให้ประเทศเจริญรุ่งเรืองทำให้ประชาชนส่วนใหญ่มีชีวิตที่ดีขึ้นคนไทยจะเป็นจะตายกันยารัฐประหาร</t>
+  </si>
+  <si>
+    <t>นี้ใช่ใหมที่ชัชชาติไปขอคำปรึกษาน้ำท่วมฉันบอกตรงๆชัชชาติเจ็บแล้วไม่จำวันใดที่ล้มมาจากไอ้พวกห่านี้ฉันนี้แหละจะช้วยเหยือบให้จมดินไปเลยถือว่าโง่ดีนักนัำท่วมผู้ว่ากทมรัฐประหาร</t>
+  </si>
+  <si>
+    <t>thaienquirerประยุทธ์ก่อการรัฐประหารมีอำนาจร่วมปีไม่ทำให้ประเทศเจริญรุ่งเรืองไม่ทำให้ประชาชนส่วนใหญ่มีชีวิตที่ดีขึ้นคนไทยเฉยๆทักษิณเป็นนายกฯที่มาจากการเลือกตั้งตามประชาธิปไตยปีทำให้ประเทศเจริญรุ่งเรืองทำให้ประชาชนส่วนใหญ่มีชีวิตที่ดีขึ้นคนไทยจะเป็นจะตายกันยารัฐประหาร</t>
+  </si>
+  <si>
+    <t>ตะหานมีไว้ทำไมรัฐประหาร</t>
+  </si>
+  <si>
+    <t>prachataiประยุทธ์ก่อการรัฐประหารมีอำนาจร่วมปีไม่ทำให้ประเทศเจริญรุ่งเรืองไม่ทำให้ประชาชนส่วนใหญ่มีชีวิตที่ดีขึ้นคนไทยเฉยๆทักษิณเป็นนายกฯที่มาจากการเลือกตั้งตามประชาธิปไตยปีทำให้ประเทศเจริญรุ่งเรืองทำให้ประชาชนส่วนใหญ่มีชีวิตที่ดีขึ้นคนไทยจะเป็นจะตายกันยารัฐประหาร</t>
+  </si>
+  <si>
+    <t>พูดไม่ได้แต่เขารู้กันทั้งประเทศแล้วรัฐประหาร</t>
+  </si>
+  <si>
+    <t>รัฐประหารผ่านมาปีคนยี้รัฐประหารย้อนไปสมัยนั้นคนไทยส่วนใหญ่ความคิดไม่แข็งแรงเอียงไปตามสื่อและสื่อหลักของไทยเป็นioสะเองเป้าหมายล้างสมองคนกทมสำเร็จจนคนแอนตี้ทักษิณเยอะมาก</t>
+  </si>
+  <si>
+    <t>morningnewstvphumthamประยุทธ์ก่อการรัฐประหารมีอำนาจร่วมปีไม่ทำให้ประเทศเจริญรุ่งเรืองไม่ทำให้ประชาชนส่วนใหญ่มีชีวิตที่ดีขึ้นคนไทยเฉยๆทักษิณเป็นนายกฯที่มาจากการเลือกตั้งตามประชาธิปไตยปีทำให้ประเทศเจริญรุ่งเรืองทำให้ประชาชนส่วนใหญ่มีชีวิตที่ดีขึ้นคนไทยจะเป็นจะตายกันยารัฐประหาร</t>
+  </si>
+  <si>
+    <t>sbwtjbpjjevdmrประยุทธ์ก่อการรัฐประหารมีอำนาจร่วมปีไม่ทำให้ประเทศเจริญรุ่งเรืองไม่ทำให้ประชาชนส่วนใหญ่มีชีวิตที่ดีขึ้นคนไทยเฉยๆทักษิณเป็นนายกฯที่มาจากการเลือกตั้งตามประชาธิปไตยปีทำให้ประเทศเจริญรุ่งเรืองทำให้ประชาชนส่วนใหญ่มีชีวิตที่ดีขึ้นคนไทยจะเป็นจะตายกันยารัฐประหาร</t>
+  </si>
+  <si>
+    <t>นักเรียนนักศึกษาว่างงานรับสมัครตัวเเทนไม่ใช่การพนันไม่ใช่งานลูกโซ่ไม่มีค่าสมัครเงินเข้าบัญชีโดยตรงใครสนใจรีทวิตเฟบหรือเดมมาได้เลยค่างานพาร์ทไทม์งานพิเศษหาเงินเข้าบัญชีอิงล็อตรัฐประหารให้ท้องฟ้าช่วยดูแลฟ้าให้ดีmarkbammarkbamsaveg</t>
+  </si>
+  <si>
+    <t>อยากมีเงินเก็บอยากมีเงินเข้าบัญชีทุกวันไม่ยากมีสอนงานขอแบบไม่ขี้เกียจใส่ใจงานสนใจเดมมาถามได้เลยน๊าหางานออนไลน์หางานทำหางานออนไลน์ฟรีงานออนไลน์ไม่เสียค่าสมัครหารายได้เสริมรัฐประหารอิงฟ้ามหาชน</t>
+  </si>
+  <si>
+    <t>ทำงานที่บ้านผ่านมือถือรับรายได้วันต่อวันต่อวันช่องทางทำรายได้ผ่านมือถือที่บ้านอยู่บ้านก็ทำได้ใช้เวลาชมต่อวันการันตีรายได้ต่อวันงานพาร์ทไทม์หาเงินออนไลน์หาเงินอิงล็อตรัฐประหารเจลเลอร์แพทริคโบว์เมลดาแฟนผมน่ารัก</t>
+  </si>
+  <si>
+    <t>ทวงประชาธิปไตยคืนมารัฐประหารปีรัฐประหาร</t>
+  </si>
+  <si>
+    <t>เดือดร้อนเงินใช้จ่ายแบบเร่งด่วนฉุกเฉินค่าห้องค่าเทอมทางบริษัทเราปล่อยกู้แบบรายเดือนนะคะรับคนเยอะไม่มีมัดจำไม่มีโอนก่อนปลอดภัยแน่นอนคะไบร์ทวินโบว์เมลดาแฟนผมน่ารักlisaxcelineเจลเลอร์เงินด่วนโอนเข้าบัญชีเงินด่วนนาทีกู้เงินออนไลน์รัฐประหาร</t>
+  </si>
+  <si>
+    <t>แท็กอื่นไม่เกี่ยวกับประเทศเราอย่าดันเยอะดันแท็กรัฐประหารดีกว่าไหมเพราะมันเกี่ยวกับปากท้องของเรารัฐประหาร</t>
+  </si>
+  <si>
+    <t>ประเทศจะไม่มีวันหลุดจากวงโคจนรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ปีนี้แทบจะไม่มีใครรำลึกรัฐประหารกันยาเลยเพราะเผด็จการกำลังจะกลายเป็นอดีตสังคมจึงจินตนาการถึงอนาคตข้างหน้ามากกว่าที่จะรื้อฟื้นอดีต</t>
+  </si>
+  <si>
+    <t>ไม่มีประเทศไหนที่รัฐประหารมีผู้นำทหารแล้วเจริญรัฐประหาร</t>
+  </si>
+  <si>
+    <t>สมัยนั้นสื่อพิมพ์โดนอำนาจเผด็จการสั่งปิดพยายามกำจัดเสรีภาพขั้นพื้นฐานของประชาชนด้วยการปิดหูปิดตาไม่ให้ประชาชนรู้ข่าวสารที่ถูกต้องว่าเป็นเช่นไรรัฐประหารรัฐประหารกันยา</t>
+  </si>
+  <si>
+    <t>โดนใจรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ปีรัฐประหารรัฐประหารกันยาทวงอำนาจคืนราษฎร</t>
+  </si>
+  <si>
+    <t>จริงรัฐประหาร</t>
+  </si>
+  <si>
+    <t>เห็นด้วยรัฐประหาร</t>
+  </si>
+  <si>
+    <t>รายได้เสริมรายได้ออนไลน์นักเรียนนักศึกษาหาค่าขนมรายได้ต่อวันงานไม่ยากทำง่ายสนใจคลิ๊กลิ้งโปรไฟล์น้างานออนไลน์ฟรีหารายได้เสริมระหว่างเรียนหาเงินค่าขนมตลาดนัดบังทันเครดิตฟรีล่าสุดsavegหารnetflixเสื้อฮู้ดรัฐประหารเสื้อผ้ามือสอง</t>
+  </si>
+  <si>
+    <t>ไม่เอารัฐประหารแน่นอนแต่ไม่เห็นด้วยกับโทษประหารชีวิตนะคุณหญิงหน่อยกับพรรคไทยสร้างไทยต้องเรียนรู้เรื่องสิทธิมนุษยชนให้รอบด้านขึ้นอีกนิดนะคะยกเลิกโทษประหารชีวิตโทษประหารชีวิตคือการปฏิเสธสิทธิมนุษยชนละเมิดสิทธิในการมีชีวิตในปฏิญญาสากลว่าด้วยสิทธิมนุษยชนรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ด้วยความเคารพรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ประเทศไม่พัฒนาเพราะไอ้พวกนี้แหละรัฐประหาร</t>
+  </si>
+  <si>
+    <t>อยากให้ครั้งนี้เป็นครั้งสุดท้ายไม้มั๊ยรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ใครที่กำลังหาค่าหอค่าเทอมมองมาทางนี้ค้าบงานถูกกฎหมายไม่มีค่าสมัครสอนงานฟรีนกเรียนนักศึกษาคนว่างงานเดมสอบถามได้งับหารnetflixงั่มงั่มหาเงินค่าขนมหาเงินติ่งอิงฟ้ามหาชนเครดิตฟรีล่าสุดรอรล่มiosเสื้อผ้ามือรัฐประหารไบร์ทวิน</t>
+  </si>
+  <si>
+    <t>เหี้ยรัฐประหาร</t>
+  </si>
+  <si>
+    <t>นั้นแหละรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ประเทศจะชิบหายขนาดไหนถ้าตอนนั้นไม่มีรัฐประหาร</t>
+  </si>
+  <si>
+    <t>จากวันนั้นถึงวันนี้รัฐประหาร</t>
+  </si>
+  <si>
+    <t>เล่นเว็บไหนไม่เคยแตกมาทางนี้จ้ายูสใหม่รับฟรีสปินหมุนฝากรับเพิ่มรองรับtruewalletลิงค์เว็บติดต่อแอดมินให้ท้องฟ้าช่วยดูแลฟ้าให้ดีอิงฟ้ามหาชนโบว์เมลดาแฟนผมน่ารักรัฐประหาร</t>
+  </si>
+  <si>
+    <t>หารายได้เสริมหางานออนไลน์นักเรียนนักศึกษาว่างงานไม่กระทบเวลางานเวลาเรียนแน่นอนไม่มีค่าสมัครไม่ใช่การพนันเดมสอบถามได้งับนักเรียนรับงานเสริมงานออนไลน์เสื้อผ้ามือหางานทำiosไบร์ทวินกู้เงินเครดิตฟรีรัฐประหารเงินด่วนอิงฟ้ามหาชนsaveg</t>
+  </si>
+  <si>
+    <t>ยกเลิกยกเลิกมรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ประชาธิปัตย์พรรคนี้ยอมเสียเกียรติเสียอุดมการณ์หลักประชาธิปไตยเพื่ออำนาจผลประโยชน์เงินทองบารมีชื่อเสียงที่ตามมาหลังจากเป็นรัฐบาลประชนชนอยู่ตรงไหนอยู่ข้อสุดท้ายหรือเปล่ารู้งี้กาลงไหมรัฐประหาร</t>
+  </si>
+  <si>
+    <t>พอสักทีเถอะรัฐประหาร</t>
+  </si>
+  <si>
+    <t>twitterของคุณบอลธนวัฒน์วงค์ไชยมีแต่คอมเม้นhatespeechเต็มไปหมดถามจริงเขาไม่คิดจะทำอะไรเลยเหรอถ้าเป็นผมนะพวกมันไม่มีทางได้มาคอมเม้นแบบนี้หรอกรัฐประหาร</t>
+  </si>
+  <si>
+    <t>รัฐประหารปฏิรูปไม่เท่ากับล้มล้าง</t>
+  </si>
+  <si>
+    <t>อย่าบอกนะไอ้สัสที่เงียบไปคือจะปฏิวัติอีกใช่ไหมถ้าทำอีกนะมรึงหนีออกนอกประเทศให้ทันแล้วกันเพราะกุเชื่อว่าปืนทุกกระบอกในประเทศที่ไม่ใช่ของพวกมรึงจะหันไปไล่ล่าพวกมรึงแทนใครจะปล้นจะชิงอะไรทุกคงหยุดหมดหันมายิงมรึงแทนรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ตัวเหี้ยรัฐประหาร</t>
+  </si>
+  <si>
+    <t>thestandardthหากประเทศใดปกครองด้วยระบอบประชาธิปไตยการรัฐประหารยึดอำนาจรัฐบาลที่มาจากการเลือกตั้งตามประชาธิปไตยด้วยการฉีกรัฐธรรมนูญถือว่าเป็นกบฎจะทำให้ประเทศถอยหลังไปกว่าปีและต้องถูกunประชาคมโลกคว่ำบาตรไม่คบค้าสมาคมด้วยไม่มีประเทศใดในโลกนี้เจริญรุ่งเรืองได้เพราะการรัฐประหารกันยา</t>
+  </si>
+  <si>
+    <t>ชัดนะรัฐประหาร</t>
+  </si>
+  <si>
+    <t>สิ่งหนึ่งที่หลายคนไม่เคยรู้ฟังกันเอาเองจุฬาเมื่อคืนรัฐประหาร</t>
+  </si>
+  <si>
+    <t>เิดไลฟ์ทั้งวันเงียบมากค่ะเมตตาช้าวตกงานด้วยน่ค่ะผลไม้ตะกร้าล่ะบาทค่ะขออนุญาติแท๊กน่ะค่ะโบว์เมลดาแฟนผมน่ารักอิงฟ้ามหาชนวอลเลย์บอลหญิงรัฐประหารsaveg</t>
+  </si>
+  <si>
+    <t>มีแต่ถดถอยรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ดันๆต้นเหตุของความชิปหายรัฐประหาร</t>
+  </si>
+  <si>
+    <t>หยุดอำนาจเผด็จการคืนอำนาจให้ประชาชนสักทีรัฐประหารรัฐประหาร</t>
+  </si>
+  <si>
+    <t>เอาให้หัวหดกันไปเลยย้อนหลังด้วยเป็นไงหรือยัดทรัพย์ให้หมดพวกนี้รัฐประหาร</t>
+  </si>
+  <si>
+    <t>รัฐประหารรัฐประหารรัฐประหาร</t>
+  </si>
+  <si>
+    <t>kovitwjohnwinyuหากประเทศใดปกครองด้วยระบอบประชาธิปไตยการรัฐประหารยึดอำนาจรัฐบาลที่มาจากการเลือกตั้งตามประชาธิปไตยด้วยการฉีกรัฐธรรมนูญถือว่าเป็นกบฎจะทำให้ประเทศถอยหลังไปกว่าปีและต้องถูกunประชาคมโลกคว่ำบาตรไม่คบค้าสมาคมด้วยไม่มีประเทศใดในโลกนี้เจริญรุ่งเรืองได้เพราะการรัฐประหารกันยา</t>
+  </si>
+  <si>
+    <t>ปั่นแท็กให้ทหารชั่วที่ยึดอำนาจเห็นว่ามันยึดมาปีประเทศฉิปหายขนาดไหนรัฐประหาร</t>
+  </si>
+  <si>
+    <t>รัฐประหารเมื่อเห็นว่าประชาธิปไตยเริ่มเข้มแข็งรัฐประหารเมื่อไม่ชอบขี้หน้านายกรัฐมนตรีรัฐประหารเมื่อต้องการเมื่อไม่พอใจการทำงานของนายกฯรัฐประหารเมื่อต้องการเปลี่ยนนายกฯทั้งหมดไม่เคยมีประชาชนอยู่ในนั้นม๊อบเพื่อรัฐประหารกปปสพธมเข้าใจยังว่าถูกหลอกใช้รัฐประหาร</t>
+  </si>
+  <si>
+    <t>จุดเริ่มต้นของความล้มเหลวล้าหลังในการพัฒนาชาติรัฐประหารกันยาครบรอบรัฐประหาร</t>
+  </si>
+  <si>
+    <t>สลิ่มบอกว่ารัฐประหารมีความชอบธรรมถ้าประชาชนเห็นชอบแล้วจะพิสูจน์ทางวิทยาศาสตร์ยังไงว่าประชาชนเห็นชอบวะถ้าไม่ทำประชามติมโนเอาบ่หรือให้ทองแดงเลียหน้า</t>
+  </si>
+  <si>
+    <t>บุหรี่นอกcanyonสายร้อนแรงนุ่มใบยาดีส่งทั่วไทยมีเก็บปลายทางlineidบุหรี่บุหรี่นอกบุหรี่ราคาถูกโรงงานสถานบันเทิงพระป่ารถแข่งนครนายกอุทัยธานีอมตะนครชลบุรีนครปฐมรัฐประหารbigmouthepคอนเสิร์ตแยกปากหวานอิงฟ้ามหาชน</t>
+  </si>
+  <si>
+    <t>tanawatofficialรัฐประหาร</t>
+  </si>
+  <si>
+    <t>สล็อตออนไลน์pgbetสมัครสมาชิกรับทุนฟรีรับที่สมัครสมาชิกเครดิตฟรีเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์เครดิตฟรีล่าสุดเครดิตฟรีเครดิตฟรีกดรับเองเครดิตฟรีอิงฟ้ามหาชนรัฐประหาร</t>
+  </si>
+  <si>
+    <t>thaitvnewsหากประเทศใดปกครองด้วยระบอบประชาธิปไตยการรัฐประหารยึดอำนาจรัฐบาลที่มาจากการเลือกตั้งตามประชาธิปไตยด้วยการฉีกรัฐธรรมนูญถือว่าเป็นกบฎจะทำให้ประเทศถอยหลังไปกว่าปีและต้องถูกunประชาคมโลกคว่ำบาตรไม่คบค้าสมาคมด้วยไม่มีประเทศใดในโลกนี้เจริญรุ่งเรืองได้เพราะการรัฐประหารกันยา</t>
+  </si>
+  <si>
+    <t>รัฐประหารควีนเอลิซาเบธที่อิงฟ้ามหาชนmarkbamqueenelizabethiimemorialให้ท้องฟ้าช่วยดูแลฟ้าให้ดีเจลเลอร์mtbbโบว์เมลดาแฟนผมน่ารัก</t>
+  </si>
+  <si>
+    <t>สวัสดีค่ะมีใครว่างหาค่าขนมอยู่ไหมคะแค่นาทีเค้ามีงานมาแนะนำทำง่ายๆค่ะได้เงินจริงทุกแพตฟอมงานไม่มีค่าสมัครไม่ต้องหาลูกทีมเงินเข้าบัญชีโดยตรงไม่ผิดกฏหมายไม่ใช่การพนันอิงฟ้ามหาชนรัฐประหารให้ท้องฟ้าช่วยดูแลฟ้าให้ดีแอนจะถูกมันล่าmarkbamงานออนไลน์</t>
+  </si>
+  <si>
+    <t>tlhrmarkknanglennปีกันยาดรทักษิณชินวัตรเป็นนายกรัฐมนตรีที่มาจากการเลือกตั้งตามประชาธิปไตยทำให้ประเทศชาติเจริญรุดหน้าเป็นเสือตัวที่ของเอเชียเป็นผู้นำอาเซียนต้องถูกรัฐประหารยึดอำนาจทำให้ประเทศชาติตกต่ำหากชื่นชอบดรทักษิณฯโปรดช่วยกันรีทวีตให้รัฐประหารติดtrendinginthailand</t>
+  </si>
+  <si>
+    <t>ปีกันยาดรทักษิณชินวัตรเป็นนายกรัฐมนตรีที่มาจากการเลือกตั้งตามประชาธิปไตยทำให้ประเทศชาติเจริญรุดหน้าเป็นเสือตัวที่ของเอเชียเป็นผู้นำอาเซียนต้องถูกรัฐประหารยึดอำนาจทำให้ประเทศชาติตกต่ำหากชื่นชอบดรทักษิณฯโปรดช่วยกันรีทวีตให้รัฐประหารติดtrendinginthailand</t>
+  </si>
+  <si>
+    <t>ขอให้มาช่วยกันลงชื้อหน่อยครับเพื่อได้มีการร่างรัฐธรรมนูญอํานาจเป็นของประชาชนอย่างเเท่จริงขอได้รายชื่อจากทุกๆคนครับรัฐประหารก้าวไกล</t>
+  </si>
+  <si>
+    <t>khaosodonlineปีกันยาดรทักษิณชินวัตรเป็นนายกรัฐมนตรีที่มาจากการเลือกตั้งตามประชาธิปไตยทำให้ประเทศชาติเจริญรุดหน้าเป็นเสือตัวที่ของเอเชียเป็นผู้นำอาเซียนต้องถูกรัฐประหารยึดอำนาจทำให้ประเทศชาติตกต่ำหากชื่นชอบดรทักษิณฯโปรดช่วยกันรีทวีตให้รัฐประหารติดtrendinginthailand</t>
+  </si>
+  <si>
+    <t>สวัสดีค่ะมีใครว่างหาค่าขนมอยู่ไหมคะแค่นาทีเค้ามีงานมาแนะนำทำง่ายๆค่ะได้เงินจริงทุกแพตฟอมงานไม่มีค่าสมัครไม่ต้องหาลูกทีมเงินเข้าบัญชีโดยตรงไม่ผิดกฏหมายไม่ใช่การพนันอิงฟ้ามหาชนให้ท้องฟ้าช่วยดูแลฟ้าให้ดีรัฐประหารแอนจะถูกมันล่างานออนไลน์</t>
+  </si>
+  <si>
+    <t>แมวดำโพลล์ไม่ว่าคุณจะเคยสนับสนุนรัฐประหารมาก่อนหรือไม่ทั้งเหตุการณ์กยหรือพคคำถามคือในวันนี้คุณเห็นว่าผลของรัฐประหารทำให้ประเทศเป็นเช่นไรรัฐประหารรัฐประหารรัฐประหารกันยาพฤษภาpollโพลโพลล์</t>
+  </si>
+  <si>
+    <t>รัฐประหารทำให้คนไทยผิดหวังเทียบกับบทบาทของสถาบันกษัตริย์ในตอนปีผลของการไล่ทักษิณทำให้คนไทยแตกแยกเป็นสองฝ่ายบทบาทของพระพันปีต่อม็อบพันธมิตรและฟ้าหญิงจุฬาภรณ์ต่อม็อบกปปสมีผลทำให้ความนิยมของสถาบันกษัตริย์ลดลง</t>
+  </si>
+  <si>
+    <t>benarnewsthaijipatabookปีกันยาดรทักษิณชินวัตรเป็นนายกรัฐมนตรีที่มาจากการเลือกตั้งตามประชาธิปไตยทำให้ประเทศชาติเจริญรุดหน้าเป็นเสือตัวที่ของเอเชียเป็นผู้นำอาเซียนต้องถูกรัฐประหารยึดอำนาจทำให้ประเทศชาติตกต่ำหากชื่นชอบดรทักษิณฯโปรดช่วยกันรีทวีตให้รัฐประหารติดtrendinginthailand</t>
+  </si>
+  <si>
+    <t>รัฐประหารทำให้ประเทศล่มจม</t>
+  </si>
+  <si>
+    <t>tsererakmarkknanglennปีกันยาดรทักษิณชินวัตรเป็นนายกรัฐมนตรีที่มาจากการเลือกตั้งตามประชาธิปไตยทำให้ประเทศชาติเจริญรุดหน้าเป็นเสือตัวที่ของเอเชียเป็นผู้นำอาเซียนต้องถูกรัฐประหารยึดอำนาจทำให้ประเทศชาติตกต่ำหากชื่นชอบดรทักษิณฯโปรดช่วยกันรีทวีตให้รัฐประหารติดtrendinginthailand</t>
+  </si>
+  <si>
+    <t>thestandardthปีกันยาดรทักษิณชินวัตรเป็นนายกรัฐมนตรีที่มาจากการเลือกตั้งตามประชาธิปไตยทำให้ประเทศชาติเจริญรุดหน้าเป็นเสือตัวที่ของเอเชียเป็นผู้นำอาเซียนต้องถูกรัฐประหารยึดอำนาจทำให้ประเทศชาติตกต่ำหากชื่นชอบดรทักษิณฯโปรดช่วยกันรีทวีตให้รัฐประหารติดtrendinginthailand</t>
+  </si>
+  <si>
+    <t>ปีครบรอบวันตกหลุมมฤตยูทางการเมืองที่ยังพยายาปีนขึ้นมาจากหลุมปีที่ยังต้องทวงคืนประชาธิปไตยกลับคืนจากมือเผด็จการรัฐประหาร</t>
+  </si>
+  <si>
+    <t>รัฐประหารไม่เคยทำให้ประเทศไทยเจริญคือตกต่ำและเสียโอกาสในการพัฒนาป้องกันรัฐประหารได้ด้วยการผลักดันรัฐธรรมนูญฉบับประชาชนบทบัญญัติป้องกันรัฐประหารที่สำคัญต้องเพิ่มขีดเส้นใต้ไว้ใครทำรัฐประหารต้องระวางโทษประหารชีวิตห้ามนิรโทษกรรมรัฐประหารรัฐประหาร</t>
+  </si>
+  <si>
+    <t>quotewiwataปีกันยาดรทักษิณชินวัตรเป็นนายกรัฐมนตรีที่มาจากการเลือกตั้งตามประชาธิปไตยทำให้ประเทศชาติเจริญรุดหน้าเป็นเสือตัวที่ของเอเชียเป็นผู้นำอาเซียนต้องถูกรัฐประหารยึดอำนาจทำให้ประเทศชาติตกต่ำหากชื่นชอบดรทักษิณฯโปรดช่วยกันรีทวีตให้รัฐประหารติดtrendinginthailand</t>
+  </si>
+  <si>
+    <t>acatsssssปีกันยาดรทักษิณชินวัตรเป็นนายกรัฐมนตรีที่มาจากการเลือกตั้งตามประชาธิปไตยทำให้ประเทศชาติเจริญรุดหน้าเป็นเสือตัวที่ของเอเชียเป็นผู้นำอาเซียนต้องถูกรัฐประหารยึดอำนาจทำให้ประเทศชาติตกต่ำหากชื่นชอบดรทักษิณฯโปรดช่วยกันรีทวีตให้รัฐประหารติดtrendinginthailand</t>
+  </si>
+  <si>
+    <t>weerananthaksinliveปีกันยาดรทักษิณชินวัตรเป็นนายกรัฐมนตรีที่มาจากการเลือกตั้งตามประชาธิปไตยทำให้ประเทศชาติเจริญรุดหน้าเป็นเสือตัวที่ของเอเชียเป็นผู้นำอาเซียนต้องถูกรัฐประหารยึดอำนาจทำให้ประเทศชาติตกต่ำหากชื่นชอบดรทักษิณฯโปรดช่วยกันรีทวีตให้รัฐประหารติดtrendinginthailand</t>
+  </si>
+  <si>
+    <t>แค่เข้าระบบเงินเข้าบัญชีแล้วหรอเนี่ยยยยรับทรัพย์กันทุกวันแบบไม่ต้องทำงานให้เงินทำงานแทนใครอยากมีรายได้แบบนี้ต้องมาแล้วแหละและที่สำคัญเขาเปิดโอกาสให้คนทุกเพศทุกวัยแบบไม่จำกัดหาค่าเทอมงานออนไลน์ถูกกฎหมายงานออนไลน์ได้เงินจริงอิงฟ้ารัฐประหาร</t>
+  </si>
+  <si>
+    <t>weerananปีกันยาดรทักษิณชินวัตรเป็นนายกรัฐมนตรีที่มาจากการเลือกตั้งตามประชาธิปไตยทำให้ประเทศชาติเจริญรุดหน้าเป็นเสือตัวที่ของเอเชียเป็นผู้นำอาเซียนต้องถูกรัฐประหารยึดอำนาจทำให้ประเทศชาติตกต่ำหากชื่นชอบดรทักษิณฯโปรดช่วยกันรีทวีตให้รัฐประหารติดtrendinginthailand</t>
+  </si>
+  <si>
+    <t>เอาซะเห็นภาพเลยรัฐประหารม็อบกันยา</t>
+  </si>
+  <si>
+    <t>ufakโปรโมชั่นมากมายโปรฝากรับสุดคุ้มเล่นเสียให้คืนทุกสัปดาห์สนใจสมัครสอบถามiosหลักฐานว่าเคยเกิดขึ้นจริงยกเลิกสล็อตเครดิตฟรีอิงฟ้ามหาชนรัฐประหาร</t>
+  </si>
+  <si>
+    <t>kovitwdaengpimปีกันยาดรทักษิณชินวัตรเป็นนายกรัฐมนตรีที่มาจากการเลือกตั้งตามประชาธิปไตยทำให้ประเทศชาติเจริญรุดหน้าเป็นเสือตัวที่ของเอเชียเป็นผู้นำอาเซียนต้องถูกรัฐประหารยึดอำนาจทำให้ประเทศชาติตกต่ำหากชื่นชอบดรทักษิณฯโปรดช่วยกันรีทวีตให้รัฐประหารติดtrendinginthailand</t>
+  </si>
+  <si>
+    <t>รัฐประหารประหารชีวิตรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ถ้ามันจริงตามที่อ้างกันทุกทีป่านนี้ไทยเป็นมหาอำนาจไปแล้วรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ขบวนการล้มทักษิณอ้างเรื่องโกงด้วยข้อมูลจากฝ่ายค้านคือปชปและอดีตคนใกล้ชิดทักษิณที่เคยเป็นเทคโนแครตด้วยกันตั้งแต่ยุคชาติชายไม่พอใจที่ตัวเองไม่ถูกเลือกไปทำงานด้วยเลยมาแฉคนในข้อหลายๆคนหลังรัฐประหารมาเป็นคตสบ้างเป็นปปชบ้างจำลองแค้นที่ทิ้งพลังธรรม</t>
+  </si>
+  <si>
+    <t>betplayเว็บไหนไม่แตกไม่แจกเว็บนี้สิปังรับเครดิตฟรีเท่าฝากเยอะได้เยอะเข้าเลยbetplayโบนัสฟรีสล็อตเครดิตฟรีบาคาร่ารัฐประหาร</t>
+  </si>
+  <si>
+    <t>matichononlineปีกันยาดรทักษิณชินวัตรเป็นนายกรัฐมนตรีที่มาจากการเลือกตั้งตามประชาธิปไตยทำให้ประเทศชาติเจริญรุดหน้าเป็นเสือตัวที่ของเอเชียเป็นผู้นำอาเซียนต้องถูกรัฐประหารยึดอำนาจทำให้ประเทศชาติตกต่ำหากชื่นชอบดรทักษิณฯโปรดช่วยกันรีทวีตให้รัฐประหารติดtrendinginthailand</t>
+  </si>
+  <si>
+    <t>รัฐประหารแม้มีหัวหลักคือสนธิบังแต่ลับหลังคนที่ประสานงานกับชนชัันสูงและนายทุนคือนราพรจันทร์โอชาตอนยังเป็นนางสนองพระโอษฐ์พพปและสามีคือประยุทธ์จันทร์โอชายังเป็นราชองครักษ์ใกล้ชิดสองคนในข้อเชื่อastvเต็มที่ว่าทักษิณเลวร้ายนางกำนัลพพปแทบทุกคนเชื่อตาม</t>
+  </si>
+  <si>
+    <t>อย่าลอยนวลรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ขออนุญาตใช้พื้นที่หาความเป็นธรรมให้แก่คุณครูและนักเรียนที่โดนกระทำค่ะรัฐประหารโรงเรียนดังยานริมกกโรงเรียนชื่อดังย่านริมกกถูกคุกคามทางเพศ</t>
+  </si>
+  <si>
+    <t>เงินกู้ด่วนสำหรับประชาชนนี่อาจเป็นทางเลือกของคุณเราปล่อยยอดตั้งแต่พ่อค้าแม่ค้านักเรียนหรือบุคคลที่ว่างงานอยากได้เงินก้อนไปลงทุนรัฐประหารเงินกู้เงินกู้รายเดือนเงินกู้นอกระบบเงินกู้นักศึกษา</t>
+  </si>
+  <si>
+    <t>หลายครั้งที่พรรคแมลงสาปเรียกร้องรัฐประหารเพราะกลัวไม่ได้เป็นนายกมานานรัฐประหาร</t>
+  </si>
+  <si>
+    <t>คนนี้เนื้อหอมสำหรับเรามากนะเก่งให้ไปอยู่ตรงไหนก็เห็นผลงานบุคคลิกก็ดีนิ่งสงบรู้จังหวะโต้กลับแต่บทจะบู๊ก็ใส่ไม่ไว้หน้าทำตกใจกันไปเลยรอเลือกตั้งสมัยหน้านะรัฐประหาร</t>
+  </si>
+  <si>
+    <t>cosatเว็บตรงการเงินมั่นคงคลิ๊กเลยเว็บตรงไม่ผ่านเอเย่นทุนน้อยก็เล่นได้สมัครฟรีลุ้นรับเครดิตลุ้นหมุนกงล้อมีลิ้งค์รับทรัพย์เครดิตฟรีสล็อตเว็บตรงfatethewinxsagaต่ายอรทัยรัฐประหารyinyinanwohmpawatnananu</t>
+  </si>
+  <si>
+    <t>อยากมีรายได้เสริมหางานออนไลน์ทางนี้ค่ะไม่รบกวนเวลางานเรียนแน่นอนค่ะไม่จำกัดอายุฟรีค่าสมัคงานง่ายๆสอบถามได้นะคะงานพาร์ทไทม์งานออนไลน์หางานงานออนไลน์ฟรีโปรโมทเว็บกู้เงินนักศึกษางานดีอิงฟ้ามหาชนmtbbรัฐประหารsavegyoonjaehyuklisablackpink</t>
+  </si>
+  <si>
+    <t>ปีอ้างอำนาจอันมีฯทำรัฐประหารผลลัพธ์คือสร้างความแตกแยกเกลียดชังคนที่ถูกเกลียดคือสถาบันที่มันอ้างว่าจงรักภักดีปกป้องด้วยชีวิตแต่มันทำลายซะเองปีอ้างศักดิ์ศรีทหารทำรัฐประหารอย่างไร้ศักดิ์ศรีผลลัพธ์คือเกิดสลิ่มตาสว่างเลยสถาบันสั่นคลอนพินาศกว่าเดิม</t>
+  </si>
+  <si>
+    <t>พูดถึงรัฐประหารกันยามีfactที่ต้องทราบคือรอาจทรงเคืองทักษิณเรื่องเทมาเส็กจริงคงเพราะทรงห่วงเรื่องการขายกิจการโทรคมนาคมให้ต่างชาติแต่ก็แค่นั้นพระบรมไม่เคยบอกว่าทรงเคืองทักษิณที่ไปยืนต้อนรับประมุขตอนงานเอเปคทักษิณเม้าเจ้าแต่เปรมสิทธิอานันท์นี่แสบกว่า</t>
+  </si>
+  <si>
+    <t>ubolkanปีกันยาดรทักษิณชินวัตรเป็นนายกรัฐมนตรีที่มาจากการเลือกตั้งตามประชาธิปไตยทำให้ประเทศชาติเจริญรุดหน้าเป็นเสือตัวที่ของเอเชียเป็นผู้นำอาเซียนต้องถูกรัฐประหารยึดอำนาจทำให้ประเทศชาติตกต่ำหากชื่นชอบดรทักษิณฯโปรดช่วยกันรีทวีตให้รัฐประหารติดtrendinginthailand</t>
+  </si>
+  <si>
+    <t>ด่วนๆๆหาคนทำงานจ้าาไม่มีค่าสอนไม่มีค่าสมัครไม่มีค่าจ่ายสนใจทักเข้ามาสอบถามกันได้นะคะควีนเอลิซาเบธที่รัฐประหารแอนจะถูกมันล่าsavegแพทริคอิงฟ้ามหาชนqueenelizabethiimemorialบ้านมังกรwandayxapoเจมส์จิจ๋าปีหน้าแล้วนะโบว์เมลดาแฟนผมน่ารักแพทริค</t>
+  </si>
+  <si>
+    <t>ไม่มีใครมารับน้องเลยหรอrhaenyratargaryenjuventusรัฐประหารรับทําการบ้านขายแอคควีนอลิซาเบธที่อิงล็อตอิงฟ้ามหาชนthevoiceallstarsthsavegของรักของข้าขายแอคทวิตขายแอคปาทูขายแอคเปล่าหารdisneyplusหารnetflixราคาถูกหารviuหารเน็ตฟลิกซ์</t>
+  </si>
+  <si>
+    <t>ประกาศรับสมัครงานพาร์ทไทม์รับออเดอร์สินค้าคุณสมบัติสามารถทำงานผ่านโทรศัพท์มือถือได้ไม่จำกัดวุฒิการศึกษาไม่มีสบการณ์มีทีมสอนงานให้ฟรีติดต่องานคลิกลิงค์lineด้านหน้าโปรไฟล์engfawarahaอิงฟ้าวราหะให้ท้องฟ้าช่วยดูแลฟ้าให้ดีรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ripรัฐธรรมนูญฉบับประชาธิปไตยกันยายนกยปีรัฐประหารรัฐประหารรัฐประหารกันยากันยาครบรอบรัฐประหาร</t>
+  </si>
+  <si>
+    <t>รัฐประหารกันยาครบรอบรัฐประหารรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ชายชาติทหารรัฐประหาร</t>
+  </si>
+  <si>
+    <t>รัฐประหารแผ่ววววๆๆๆhouseofthedragonhboปังปุ</t>
+  </si>
+  <si>
+    <t>thaipbsปีกันยาดรทักษิณชินวัตรเป็นนายกรัฐมนตรีที่มาจากการเลือกตั้งตามประชาธิปไตยทำให้ประเทศชาติเจริญรุดหน้าเป็นเสือตัวที่ของเอเชียเป็นผู้นำอาเซียนต้องถูกรัฐประหารยึดอำนาจทำให้ประเทศชาติตกต่ำหากชื่นชอบดรทักษิณฯโปรดช่วยกันรีทวีตให้รัฐประหารติดtrendinginthailand</t>
+  </si>
+  <si>
+    <t>ถ้าปัญหาของประเทศแก้ได้ด้วยการรัฐประหารก็คงไม่มีการรัฐประหารครั้งที่จนถึงเกือบครั้งความจริงคือรัฐประหารคราวใดก็ฉุดรั้งประเทศทำลายโอกาสประชาชนทุกรอบที่รัฐประหารกันยา</t>
+  </si>
+  <si>
+    <t>ในวันจันทร์กยนี้กลุ่มคนเสื้อแดงได้ชุมนุมรำลึกในวาระครบรอบปีของการทำรัฐประหารนายทักษิณชินวัตรอดีตนายกรัฐมนตรีที่ได้เขียนข้อความผ่านเฟซบุ๊กส่วนตัวในวันเดียวกันนี้ว่ายังหวังว่าจะได้กลับประเทศไทยคมชสนธิรัฐประหาร</t>
+  </si>
+  <si>
+    <t>คนดีของสลิ่มเขาล่ะเป็นที่ภูมิใจของสลิ่มรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ถ้าไม่อยากให้เกิดให้เกิดรปหก็อย่าเลือกคนที่เขาไม่ชอบขี้หน้าเท่านั้นเองรัฐประหาร</t>
+  </si>
+  <si>
+    <t>อายุน้อยก็กู้ได้อยากมีธุรกิจแต่ไม่มีเงินทุนdmมาขอรายละเอียดเลยงับอนุมัติไวไม่มีโอนก่อนไม่มีค่าเอกสารถูกกฎหมายปลอดภัยรายเดือนยอดkkกู้เงินนักศึกษากู้เงินรายเดือนสินเชื่อกสิกรอิงฟ้ามหาชนรัฐประหาร</t>
+  </si>
+  <si>
+    <t>aimtheeraratปีกันยาดรทักษิณชินวัตรเป็นนายกรัฐมนตรีที่มาจากการเลือกตั้งตามประชาธิปไตยทำให้ประเทศชาติเจริญรุดหน้าเป็นเสือตัวที่ของเอเชียเป็นผู้นำอาเซียนต้องถูกรัฐประหารยึดอำนาจทำให้ประเทศชาติตกต่ำหากชื่นชอบดรทักษิณฯโปรดช่วยกันรีทวีตให้รัฐประหารติดtrendinginthailand</t>
+  </si>
+  <si>
+    <t>thaichnewsปีกันยาดรทักษิณชินวัตรเป็นนายกรัฐมนตรีที่มาจากการเลือกตั้งตามประชาธิปไตยทำให้ประเทศชาติเจริญรุดหน้าเป็นเสือตัวที่ของเอเชียเป็นผู้นำอาเซียนต้องถูกรัฐประหารยึดอำนาจทำให้ประเทศชาติตกต่ำหากชื่นชอบดรทักษิณฯโปรดช่วยกันรีทวีตให้รัฐประหารติดtrendinginthailand</t>
+  </si>
+  <si>
+    <t>ถ้ามันดีจริงป่านนี้ประเทศไทยเจริญไปไหนต่อไหนแล้วรัฐประหาร</t>
+  </si>
+  <si>
+    <t>wongthanongศาลรัฐธรรมนูญจะเข้ามาดูบ้างมั้ยว่าอะไรที่เขาเรียกว่าการล้มล้างการปกครองรัฐประหาร</t>
+  </si>
+  <si>
+    <t>poomปีกันยาดรทักษิณชินวัตรเป็นนายกรัฐมนตรีที่มาจากการเลือกตั้งตามประชาธิปไตยทำให้ประเทศชาติเจริญรุดหน้าเป็นเสือตัวที่ของเอเชียเป็นผู้นำอาเซียนต้องถูกรัฐประหารยึดอำนาจทำให้ประเทศชาติตกต่ำหากชื่นชอบดรทักษิณฯโปรดช่วยกันรีทวีตให้รัฐประหารติดtrendinginthailand</t>
+  </si>
+  <si>
+    <t>รัฐประหารประหารชีวิตเพราะคุณทำให้หลายชีวิตจากการรัฐประหารฉิบหายพังพินาศไปหมดตรรกะมันถูกต้องแล้วคุณต้องรับผิดชอบกับความเสียหายของประเทศที่เกิดขึ้นจากปลายกระบอกปืนของคุณ</t>
+  </si>
+  <si>
+    <t>สวัสดีค่ะมีใครว่างหาค่าขนมอยู่มั้ยคะแค่นาทีเค้ามีงานมาแนะนำทำง่ายค่ะได้เงินจริงทุกแพตฟอร์มงานไม่มีค่าสมัครไม่ต้องหาลูกทีมเงินเข้าบัญชีโดยตรงไม่ผิดกฏหมายหาเงินออนไลน์หางานออนไลน์รัฐประหารให้ช่วยดูแลฟ้าดีอิงฟ้าฯแพทริคไบร์ทวิน</t>
+  </si>
+  <si>
+    <t>รัฐประหารรัฐประหารกันยาม็อบกันยา</t>
+  </si>
+  <si>
+    <t>เชื่อเปล่าว่าอนาคตถ้าเกิดการรัฐประหารเเม่งต้องใส่ตะเบงมานกันเเน่เลยมึงเชื่อสิเเม่งต้องมีคนรักชาติที่ต้องการให้ตนทั้งประเทศใส่ชุดไทยกันถ้าเเม่งมีงั้นจริงกูให้เลยตะเบงมานห้อยนมเชื่อกูสิรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ผ่านมาปีจนยุคนี้มต้นก็ปราศรัยได้แล้วแทนที่จะช่วยกันชี้ว่ารัฐประหารจะไม่สำเร็จถ้าไม่มีทหารไม่รู้หน้าที่ไม่มีสถาบันประทับตราไม่มีตุลาการภิวัตน์รับรองแต่ยังวนเวียนบาดเลือดแค้นว่าใครเคยด่านายกตอนนั้นบ้างด่าเหมาชนชั้นกลางเพราะง่ายดีไม่เสี่ยงคุกกันยาครบรอบรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ทำกันแค่ปั่นทวิตละเนอะรัฐประหาร</t>
+  </si>
+  <si>
+    <t>กันยาครบรอบรัฐประหารอยากถามนักการเมืองเมื่อไหรจะเลิกโกงสักทีประชาชนสนับสนุนให้รัฐประหารจากนักการเมืองโกงชาติฝากถามพี่อุ้งอิ้งพ่อมึงเมื่อไหรจะเลิกโกง</t>
+  </si>
+  <si>
+    <t>ทะลุฟ้าเสร็จสิ้นกิจกรรมที่อนุสรณ์สถานตุลาผู้เข้าร่วมนำดอกไม้มาวางหน้ากรอบรูปรัฐธรรมนูญฉบับประชาชนและร่วมกันจุดเทียนเผด็จการครองเมืองครบรอบปีรัฐประหารม็อบกันยา</t>
+  </si>
+  <si>
+    <t>แล้วคนที่เซ็นง่ะรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ได้ค่าแรงก็เพราะทักษิณยาบ้าก็แพงคนเสพคนขายก็แทบไม่มียุคอีเหี้ยตูบยาบ้าก็ถูกคนขายก็เยอะฆ่ากันเพราะหลอนยาทุกวันโครตเบื่อรัฐประหาร</t>
+  </si>
+  <si>
+    <t>กว่าปีที่รุ่นพี่เตรียมทหารของผมพาประเทศถอยหลังลงคลองโดยพลอสนธินตทโดยพลอประยุทธ์นตทกว่าปีที่ประเทศติดหล่มกับนายกที่มั่นหน้าพอกันทียุติวงจรอุบาทนี้ร่วมกันผ่านปลายปากกาถึงเวลาปฏิรูปกองทัพหมดเวลาของพี่แล้วครับprayutofficialจากน้องเดชรัฐประหาร</t>
+  </si>
+  <si>
+    <t>yumikobaedaปีกันยาดรทักษิณชินวัตรเป็นนายกรัฐมนตรีที่มาจากการเลือกตั้งตามประชาธิปไตยทำให้ประเทศชาติเจริญรุดหน้าเป็นเสือตัวที่ของเอเชียเป็นผู้นำอาเซียนต้องถูกรัฐประหารยึดอำนาจทำให้ประเทศชาติตกต่ำหากชื่นชอบดรทักษิณฯโปรดช่วยกันรีทวีตให้รัฐประหารติดtrendinginthailand</t>
+  </si>
+  <si>
+    <t>คุณเอกชัยได้รับการปล่อยตัวแล้วนะคะยินดีด้วยค่ะม็อบกันยากันยาครบรอบรัฐประหารรัฐประหารม็อบกันยา</t>
+  </si>
+  <si>
+    <t>scrthเอ้าาเร่เข้ามารับดับเบิ้ลไปเลยแม่สมาชิกใหม่รับเครดิตเท่ากดเลยscrthสล็อตเครดิตฟรีบาคาร่ารัฐประหาร</t>
+  </si>
+  <si>
+    <t>ประกันชีวิตแบบออมทรัพย์ผลตอบแทนสูงรัฐประหาร</t>
+  </si>
+  <si>
+    <t>พิมพ์แท็กผิดกันยาครบรอบรัฐประหารรัฐประหารม็อบกันยา</t>
+  </si>
+  <si>
+    <t>บุหรี่นอกสายร้อนtexasส่งทั่วไทยมีเก็บปลายทางlineบุหรี่บุหรี่นอกบุหรี่นอกราคาถูกรีวิวบุหรี่โรงงานสารคามสถานบันเทิงขอนแก่นbigmouthepชัยภูมิเครือสหพัฒน์แหลมฉบังอมตะซิตี้ระยองนิคมลาดกระบังรัฐประหารอิงฟ้ามหาชน</t>
+  </si>
+  <si>
+    <t>ราคา฿พร้อมโอน฿ไลฟ์ได้ระบบโปรโมทไลฟ์ได้ไม่ติดเบอร์ไม่เคยละเมิดคลิปไลฟ์มีttshopเชื่อมเมลเปลี่ยนได้ขายแอคtiktokขายแอคติ๊กตอกขายแอคtiktokราคาถูกขายtiktokหอมแดงรักอิงฟ้าkinnporscheworldtourรัฐประหารหารspotifyแลกฟอล</t>
+  </si>
+  <si>
+    <t>ลำคานพวกขายของอีดอกรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ใครสนใจหาค่าขนมมาทางนี้เลยค่ะไม่ใช่การพนันงานถูกกฎหมายสนใจกดลิงค์หน้าโปรไฟล์มาสอบถามก่อนได้ค่ะอิงฟ้ามหาชนให้ท้องฟ้าช่วยดูแลฟ้าให้ดีรัฐประหารsavegแอนจะถูกมันล่าโบว์เมลดาแฟนผมน่ารักyoonjaehyukyoonjaehyukควีนเอลิซาเบธที่</t>
+  </si>
+  <si>
+    <t>จริงๆแล้วการทำรัฐประหารนั้นก็มีโทษประหารชีวิตอยู่แล้วแค่ยังไม่เห็นมีใครกล้าบังคับใช้สักที</t>
+  </si>
+  <si>
+    <t>someonesconstantlytryinghardtoprovehesphysicallyfitenoughtoleadthecurrentgovernmentandpossiblythenextifthingsdogohiswayรัฐประหาร</t>
+  </si>
+  <si>
+    <t>รัฐประหารภูมิใจไทยกัญชาเสรี</t>
+  </si>
+  <si>
+    <t>วันนี้ครบรอบปีการทำรัฐประหารปีซึ่งเป็นจุดเริ่มต้นความขัดแย้งที่ทำให้ประเทศของเราต้องติดล็อคจนถึงวันนี้ดิฉันขอย้ำพรรคไทยสร้างไทยเรามุ่งปลดล็อคความขัดแย้งการเมืองขั้วเรามาเพื่อสร้างโอกาสไม่ใช่สร้างวิกฤตปลดล็อคความขัดแย้งร่วมเดินหน้าประเทศไทยไปกับไทยสร้างไทย</t>
+  </si>
+  <si>
+    <t>สิบหกปีแห่งความหลังทั้งรักทั้งชังทั้งหวานและขมขื่นทักษิณอดีตนายกฯถูกยึดอำนาจส่งสัญญาณกลับบ้านซัดทหารแค่หัวหน้ายามเผยยังห่วงประเทศคิดถึงลูกหลานไม่นานคงได้กลับไทยจะไปแบ่งความรู้ประสบการณ์ให้สังคมไทยรัฐประหารเพื่อไทยทักษิณ</t>
+  </si>
+  <si>
+    <t>ไอ้พวกเหี้ยเดรัจฉานสั่งฆ่าไอ้พวกผีห่าซาตานชาติชั่วสั่งยิงทุกอย่างคือการปกป้องผลประโยชน์และอำนาจหัวควยๆของโคตรแม่งเองทั้งนั้นรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ใครที่มันอยู่ในวงจรอุบาทว์ๆนี้ก็คือคนเหี้ยคนอัปรีทั้งนั้นไม่ว่าจะคนทำหรืออีคนเซ็นรัฐประหาร</t>
+  </si>
+  <si>
+    <t>กุมไข่กราบเท้านายทหารรัฐประหารขอสัมปทานโทรศัพท์ไม่ได้รวยเพราะฉลาดทำกิจการใช้เส้นทหารพรรคเพื่อไทยค่าแรงอเวจีปอยเปตforexdน้ำท่วมกรุงเทพน้ำท่วมนายกลุงตู่ทีมลุงตู่ลุงตู่อยู่ต่อลุงตู่อยู่ยาวiconsiamคนละครึ่งเฟสคนละครึ่งประยุทธ์prayutofficial</t>
+  </si>
+  <si>
+    <t>ฉันเกิดในรัชกาลที่ฉันเกิดในยุครัฐบาลรัฐประหารรัฐประหาร</t>
+  </si>
+  <si>
+    <t>วอลเลย์บอลหญิงรัฐประหารหวยรัฐบาลหวย</t>
+  </si>
+  <si>
+    <t>รัฐประหารแล้วยังจัดapecได้ก็ถือว่าทำงานดีระดับหนึ่งเลยนะได้รับการยอมรับจากนานาชาติ</t>
+  </si>
+  <si>
+    <t>เทียบแบบเห็นๆนะมึงรีรันอีกรอบรัฐประหาร</t>
+  </si>
+  <si>
+    <t>เลวรัฐประหาร</t>
+  </si>
+  <si>
+    <t>วันนี้ครบปีรัฐประหารกยไทยรั้งอันดับของโลกโบลิเวียเสมอปารากวัยครั้งเฮติครั้งไทยครั้งส่วนเพื่อนบ้านไม่มากเท่าลาวครั้งเมียนมาครั้งไทยแชมป์ยึดอำนาจสำเร็จมากสุดศตวรรษnowขอบคุณข้อมูลthestandard</t>
+  </si>
+  <si>
+    <t>psthaiสมาชิกใหม่มีเฮรับเครดิตเท่าเริ่มเล่ออออออออคลิกรัฐประหารเครดิตฟรีล่าสุดเครดิตฟรีกดรับเองเครดิตฟรีไม่ต้องฝากไม่ต้องแชร์เครดิตฟรีpsthai</t>
+  </si>
+  <si>
+    <t>ไม่รู้ตัวอีกรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ถ้าทักษิณยังยู่นะประเทศไทยจะไม่เป็นแบบทุกวันนี้รัฐประหาร</t>
+  </si>
+  <si>
+    <t>อัปยศรัฐประหารตกต่ำ</t>
+  </si>
+  <si>
+    <t>ศิธาสุดารัตน์ลั่นพอแล้วกับปีความขัดแย้งพรรคไทยสร้างไทยผุดแคมเปญล่ารายชื่อประชาชนร่วมแก้รัฐธรรมนูญปิดประตูการทำรัฐประหารปลดล็อกความขัดแย้งทางการเมืองสร้างความปรองดองขออาสาเป็นพรรคตรงกลางเชื่อมประสานทุกฝ่ายเดินหน้าประเทศไทยออกจากวงจรอุบาทว์เดินหน้าสู่ประชาธิปไตย</t>
+  </si>
+  <si>
+    <t>ถึงเราเรียนรู้ได้จากประสบการณ์ในอดีตแล้วยังไงสุดท้ายพวกเขาก็เดินตามรอยเดิมพวกเขารู้อยู่แก่ใจว่ารัฐประหารทำให้หลายสิ่งหลายอย่างตกต่ำลงพวกเขามีทางเลือกเดียวหรืออะไรไม่มีใครสามารถสร้างทางเลือกอื่นได้เลยหรือดูเหมือนพระเจ้าจะทรงกลั่นแกล้งหนักหรือว่าพระลงโทษ</t>
+  </si>
+  <si>
+    <t>thailandhadsuccessfulcoupsandunsuccessfulonesoverthepastcenturywaytoomanyforacountrythatcalleditselfademocracyandmanypeoplecannolongertolerateitdownwithcoupdetatรัฐประหารรัฐประหารประยุทธ์ออกไป</t>
+  </si>
+  <si>
+    <t>นกิจกรรมโดยทะลุฟ้างานเสวนาพูดคุยที่อนุสรณ์สถานตุลาครบรอบปีรัฐประหารเผด็จการครองเมืองสามารถไปร่วมรับฟังหรือฟังได้ผ่านช่องทางไลฟ์สดตอนนี้ได้ค่ะม็อบกันยา</t>
+  </si>
+  <si>
+    <t>พวกเหี้ยแดงกับสวะกีบดิ้นกันเพียบรัฐประหาร</t>
+  </si>
+  <si>
+    <t>รัฐประหารmemeตลอดปัยรัฐประหาร</t>
+  </si>
+  <si>
+    <t>รัฐสภาเป็นสถานที่ที่ตัวแทนประชาชนไปนั่งเถียงกันเพื่อหาทางออกและแก้ไขปัญหาต่างๆให้ประชาชนไม่ใช่ทำรัฐประหารรัฐประหารมันเหี้ย</t>
+  </si>
+  <si>
+    <t>วันนี้ครบรอบปีการรัฐประหารของคสชกันยายนสิ้นสุดรัฐธรรมนูญรัฐธรรมนูญที่เป็นประชาธิปไตยมวลชนต่างมาร่วมทำกิจกรรมเพื่อรำลึกถึงเหตุการณ์ที่บริเวณอนุสาวรีย์ประชาธิปไตยถราชดำเนินกลางกันยายนรัฐประหารรัฐธรรมนูญboontuamkunjumpa</t>
+  </si>
+  <si>
+    <t>คนเซ็นก็ตายไปละทิ้งไว้แต่ผู้นำโง่ๆที่กูไม่มีสิทธิ์เลือกเองรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ที่ผ่านมากูต้องแข็งแกร่งขนาดไหนถึงอยู่รอดมาได้จนถึงตอนนี้รัฐประหารม็อบกันยา</t>
+  </si>
+  <si>
+    <t>วันนี้พึ่งเห็นข่าวจากอีกมิตินึงของประเทศไทยบอกรัฐบาลนี้ดีที่สุดทำประเทศดีขึ้นติดอันดับนี้นั้นที่อยากรู้คือไอคนเสพสื่อนี้เค้าชีวิตดีขึ้นด้วยจริงๆใช่ไหมเค้าคงไม่ได้ตกงานเพราะโควิดเค้าไม่ได้ร้านเจ๋งเพราะคนเลิกใช้จ่ายก่อนๆหน้านี้ด้วยใช่ไหมรัฐประหาร</t>
+  </si>
+  <si>
+    <t>รัฐประหารโฉมหน้าพวกชั่ว</t>
+  </si>
+  <si>
+    <t>ชื่อแท็กน่ากลัวมากรีบกดมาดูอย่างไวรัฐประหาร</t>
+  </si>
+  <si>
+    <t>รัฐประหารชื่อก็บอกความหมายอยู่แล้วว่าหารมันจะไปดีขึ้นเจริญขึ้นได้ไงรัฐประหารthailandthai</t>
+  </si>
+  <si>
+    <t>อยากเป็นเกากลีเหนือเหรอรัฐประหาร</t>
+  </si>
+  <si>
+    <t>แต่หมามันก็คือหมาค่ะมีทั้งหมาที่น่ารักและไม่น่ารักแต่ที่เห็นตอนนี้ไม่น่ารักเลยกัดเก่งขู่เก่งทำอะไรไม่เป็นสักอย่างเห็นทำเป็นแต่ใช้กำลังอ๋ออีกอย่างที่เก่งคือเลียแข้งเลียขานายรัฐประหารกันยาครบรอบรัฐประหารกันยา</t>
+  </si>
+  <si>
+    <t>เปิดรับดูดวงแม่นขนลุกแม่นสุดปังพลังมูเตลูเช็คดวงเลยดูดวงภาพรวมคนโสด฿ดูดวงภาพรวมความรัก฿ดวงความรักเคลียร์ๆ฿รับคำทำนายภายในวันดูดวงlineดูดวงดูดวงไพ่ยิปซีดูดวงความรักดูดวงแม่นๆรัฐประหาร</t>
+  </si>
+  <si>
+    <t>รัฐประหารนี้ก็ปีเหมือน</t>
+  </si>
+  <si>
+    <t>เดี๋ยวนี้เศรษฐกิจแย่ลงมากๆตจวหาเงินยากมากโดยเฉพาะคนรับจ้างทั่วไปใครรู้จักตำรวจบอกๆเขาด้วยว่าระวังคนจะมาขอทำงานแล้วหลอกเอาเงินระวังคนแปลกหน้าที่เข้าไปคุยกับคนแก่หน้าบ้านตามต่างจังหวัดอย่าปล่อยให้ใส่ทองนั่งหน้าบ้านรัฐประหาร</t>
+  </si>
+  <si>
+    <t>อเมริกายังได้สนับสนุนโครงการแจกจ่ายรูปภาพปฏิทินรายการวิทยุและโทรทัศน์ที่ส่งเสริมกษัตริย์และยังโปรโมทการไปเดินทางไปเยือนต่างประเทศในโลกเสรีของกษัตริย์ไทยอีกด้วยยกเลิกระบอบกษัตริย์รัฐประหารรัฐประหาร</t>
+  </si>
+  <si>
+    <t>เอาเส้ใช้เป็นแต่หาไม่เป็นรัฐประหารม็อบกันยา</t>
+  </si>
+  <si>
+    <t>ในช่วงสงครามเย็นไทยได้รับเงินช่วยเหลือจากอเมริกาจำนวนพันล้านดอลลาร์สหรัฐอเมริกายังส่งเสริมรัฐบาลทหารเผด็จการและโปรโมทภูมิพลให้เป็นสัญลักษณ์ของการต่อสู้คอมมิวนิสต์ในเอเชียตะวันตกเฉียงใต้ยกเลิกระบอบกษัตริย์รัฐประหาร</t>
+  </si>
+  <si>
+    <t>เต้นณัฐวุฒิโบ้ยพธมต้นเหตุเกิดรัฐประหารปีหากวันนั้นหยุดชุมนุมหลังยุบสภาบ้านเมืองคงไปอีกทางclickoncleargtgtthestatestimespoliticsnewsfeedเพื่อไทยณัฐวุฒิใสยเกื้อปีรัฐประหารทักษิณชินวัตรยิ่งลักษณ์ชินวัตร</t>
+  </si>
+  <si>
+    <t>บุหรี่นอกtexasฟ้ากล่องแข็งสายเย็นส่งทั่วไทยมีเก็บปลายทางlineidบุหรี่บุหรี่สายเย็นบุหรี่ราคาถูกบางแสนกรุงเทพสถานบันเทิงพัทยาปทุมธานีนนทบุรีชลบุรีรัชดาคอนเสิร์ตแยกปากหวานระเบิดเวลาก้อนอิงฟ้ามหาชนรัฐประหาร</t>
+  </si>
+  <si>
+    <t>โปรโมชั่นddrichฉลองครบuserสมาชิกทุกยอดฝากรับเพิ่มฝากถอนไวมีadminบริการชมเฉพาะสล็อตยิงปลาสนใจคลิ๊กแอนจะถูกมันล่ารัฐประหารออฟจุมพลโบว์เมลดาแฟนผมน่ารักให้ท้องฟ้าช่วยดูแลฟ้าให้ดีyettocomeinbusan</t>
+  </si>
+  <si>
+    <t>thegroupsaidthaipeoplehavefallenvictimtoacycleofcoupsbecausecoupmakersrefusedtogiveuptheirillegitimatepowerandtheyhavecontinuedtodosountiltodaythailandรัฐประหารรัฐประหารปีรัฐประหารกันยา</t>
+  </si>
+  <si>
+    <t>ปีรัฐประหารรัฐประหารรัฐประหารไม่เคยทำให้ประเทศเจริญรัฐประหาร</t>
+  </si>
+  <si>
+    <t>สวัสดีค่ะมีใครว่างหาค่าขนมอยู่ไหมคะรีวิวแน่นมากค่าาเค้ามีงานมาแนะนำทำง่ายค่ะแค่นาทีงานออนไลน์ได้เงินจริงรัฐประหารให้ท้องฟ้าช่วยดูแลฟ้าให้ดีlisaxcelinetokyoอิงฟ้ามหาชน</t>
+  </si>
+  <si>
+    <t>prodemocracyactivistsfromthalufahweregatheringattheoctobermemorialtoprotestagainstcoupdetatontheanniversaryofthecouponmondaythailandรัฐประหารรัฐประหารปีรัฐประหารกันยา</t>
+  </si>
+  <si>
+    <t>รัฐประหารประชาธิปไตยปฏิรูปกระบวนการยุติธรรมกันยาครบรอบรัฐประหารthailand</t>
+  </si>
+  <si>
+    <t>ถ้ารวมการรัฐประหารด้วยค้อนก็น่าจะเพิ่มอีกครั้งนะเราว่ายังมีคนโง่เชื่อว่าการทำรัฐประหารประเทศจะดีจะเจริญนั่นนี่เห็นแต่ละประเทศที่ทำรัฐประหารส่วนใหญ่ด้อยพัฒนาแทบทั้งนั้นต่อให้โม้ว่ากำลังพัฒนาก็ถือว่าด้อยพัฒนาถ้ายังมีรัฐประหารรัฐประหาร</t>
+  </si>
+  <si>
+    <t>อีตู่มึงเตรียมเลยรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ก็ไม่แปลกเวลามีงานสำคัญของโลกไทยไม่ได้ถูกเชิญเพราะผู้นำโง่ภาษาอังกฤษไม่ได้ทำรัฐประหารเก่งประชาธิปไตยที่เป็นแค่ลมปากคิงมายุ่งการเมืองรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ก็นะถอยหลังลงไปเรื่อยๆไม่เคยดีขึ้นเลยตั้งรัฐประหารมารัฐประหาร</t>
+  </si>
+  <si>
+    <t>ไม่ควรมีรัฐประหาร</t>
+  </si>
+  <si>
+    <t>การฟื้นฟูสถาบันกษัตริย์ถูกยกระดับขึ้นในปีและโดยจอมพลสฤษดิ์รัฐประหารทั้งสองครั้งยังทำลายอำนาจของคณะราษฎร์ลงอย่างสิ้นเชิงในขณะที่ภูมิพลเซ็นรับรองรัฐประหารและสนับสนุนรัฐบาลทหารสฤษดิ์ก็ตอบแทนภูมิพลด้วยการโปรโมทและเพิ่มอำนาจให้กษัตริย์ยกเลิกระบอบกษัตริย์</t>
+  </si>
+  <si>
+    <t>ทุกวันนี้ไทยเราไม่มีอะไรขายแล้วหรอนอกจากขายความเป็นเกย์ขายพวกชายรักชายให้ต่างชาติสนใจดูของขึ้นชื่อแต่ละอย่างพวกขายตัวที่เป็นladyboyเอยหนังซีรีย์เกย์เอยทุกวันนี้ต่างชาติพอนึกถึงไทยคงนึกถึงเมืองเกย์มากกว่าคำว่ายามเมืองยิ้มไปแล้วkinporscheรัฐประหารวอลเล่ย์บอล</t>
+  </si>
+  <si>
+    <t>matichontvหากประเทศใดปกครองด้วยระบอบประชาธิปไตยการรัฐประหารยึดอำนาจรัฐบาลที่มาจากการเลือกตั้งตามประชาธิปไตยด้วยการฉีกรัฐธรรมนูญถือว่าเป็นกบฎจะทำให้ประเทศถอยหลังไปกว่าปีและต้องถูกunประชาคมโลกคว่ำบาตรไม่คบค้าสมาคมด้วยไม่มีประเทศใดในโลกนี้เจริญรุ่งเรืองได้เพราะการรัฐประหารกันยา</t>
+  </si>
+  <si>
+    <t>โอ๊คพานทองแท้ถามเมื่อไหร่จะเลิกใช้รัฐประหารขัดขวางการเติบโตปชตสยามรัฐสยามรัฐออนไลน์siamrathsiamrathonlineข่าววันนี้โอ๊คพานทองแท้รัฐประหาร</t>
+  </si>
+  <si>
+    <t>รัฐประหารในวันนั่นนำพาฝูงปรสิตมาสูบเลือดเนื้อประชาชนชาวไทยและนำพาความวิบัติมาสู่ประเทศไทยยาวนานถึงปีรัฐประหารรัฐประหารกันยาครบรอบรัฐประหารกันยาทวงอำนาจคืนราษฎร</t>
+  </si>
+  <si>
+    <t>วันนี้จะมาสรุปบทที่หนังสือroyalcapitalismซึ่งเขียนเกี่ยวกับขึ้นสู่อำนาจและชัยชนะของสถาบันกษัตริย์กระฎุมพีอาจจะใช้เวลาเขียนวันยกเลิกระบอบกษัตริย์รัฐประหารรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ก้านบัวบอกลึกตื้นชลธารทหารบอกไม่ทำรัฐประหารตอแหลรัฐประหาร</t>
+  </si>
+  <si>
+    <t>รัฐประหารอนุสรณ์สถานตุลาตอนนี้ยังสามารถไปร่วมฟังได้นะคะ</t>
+  </si>
+  <si>
+    <t>งานที่ปังที่สุดในตอนนี้งานง่ายๆไม่มีค่าสมัครสอนฟรีค่ะไม่ใช่การพนันไม่ใช่แชร์ลูกโซ่ถูกกฏหมายใครสนdmหรือแอดไลน์หน้าโปรได้เลยควีนเอลิซาเบธที่แพทริคแอนจะถูกมันล่ารัฐประหารqueenelizabethiimemorialintopatrickให้ท้องฟ้าช่วยดูแลฟ้าให้ดีwandayxapo</t>
+  </si>
+  <si>
+    <t>อยากมีเงินเก็บอยากมีเงินเข้าบัญชีทุกวันไม่ยากมีสอนงานขอแบบไม่ขี้เกียจใส่ใจงานไม่เสียค่าสมัครงานสนใจเดมมาถามได้เลยน๊าหาเงินออนไลน์หางานออนไลน์หางานพาร์มไทม์หางานออนไลน์ฟรีรัฐประหารแอนจะถูกมันล่าmarkbam</t>
+  </si>
+  <si>
+    <t>คนที่คุณก้รู้ว่าใครปีประยุทธ์รัฐประหาร</t>
+  </si>
+  <si>
+    <t>มาลุ้นกันติดหรือรอดพรุ้งนี้แล้วรัฐประหาร</t>
+  </si>
+  <si>
+    <t>รัฐประหารปีประยุทธ์ปีแล้วนะไอ้สัส</t>
+  </si>
+  <si>
+    <t>รัฐประหารรัฐประหาร</t>
+  </si>
+  <si>
+    <t>รัฐประหารรัฐประหารเมื่อคราวชาติชายเป็นนายกมีการคิดระบบขนส่งทางรางรถไฟความเร็วสูงกรุงเทพสายระยองหรือรางคู่โฮปเวลล์ลาวาลินซึ่งไม่เกิดอย่างน่าเสียดายเพราะถูกสุจินดารัฐประหารและเศรษฐกิจระส่ำระส่ายรวมถึงงบประมาณไม่เพียงพอกันยากันยาครบรอบรัฐประหารกันยา</t>
+  </si>
+  <si>
+    <t>voicetvofficialหากประเทศใดปกครองด้วยระบอบประชาธิปไตยการรัฐประหารยึดอำนาจรัฐบาลที่มาจากการเลือกตั้งตามประชาธิปไตยด้วยการฉีกรัฐธรรมนูญถือว่าเป็นกบฎจะทำให้ประเทศถอยหลังไปกว่าปีและต้องถูกunประชาคมโลกคว่ำบาตรไม่คบค้าสมาคมด้วยไม่มีประเทศใดในโลกนี้เจริญรุ่งเรืองได้เพราะการรัฐประหารกันยา</t>
+  </si>
+  <si>
+    <t>เทพไทติดคุกเพราะอะไรครับทั่นรัฐประหาร</t>
+  </si>
+  <si>
+    <t>รัฐประหารเมื่อคราวชาติชายเป็นนายกมีการคิดระบบขนส่งทางรางอาทิรถไฟความเร็วสูงกรุงเทพสายระยองหรือรางคู่โฮปเวลล์ลาวาบินซึ่งไม่เกิดอย่างน่าเสียดายเพราะถูกสุจินดารัฐประหารและเศรษฐกิจระส่ำระส่ายรวมถึงงบประมาณไม่เพียงพอ</t>
+  </si>
+  <si>
+    <t>ไทยสร้างไทยผุดแคมเปญล่ารายชื่อประชาชนร่วมแก้รัฐธรรมนูญปิดประตูการทำรัฐประหารปลดล็อกความขัดแย้งทางการเมืองสร้างความปรองดองขออาสาเป็นพรรคตรงกลางเชื่อมประสานทุกฝ่ายเดินหน้าประเทศไทยรัฐประหารรัฐประหาร</t>
+  </si>
+  <si>
+    <t>benchamfpmarkknanglennหากประเทศใดปกครองด้วยระบอบประชาธิปไตยการรัฐประหารยึดอำนาจรัฐบาลที่มาจากการเลือกตั้งตามประชาธิปไตยด้วยการฉีกรัฐธรรมนูญถือว่าเป็นกบฎจะทำให้ประเทศถอยหลังไปกว่าปีและต้องถูกunประชาคมโลกคว่ำบาตรไม่คบค้าสมาคมด้วยไม่มีประเทศใดในโลกนี้เจริญรุ่งเรืองได้เพราะการรัฐประหารกันยา</t>
+  </si>
+  <si>
+    <t>แม่งชั่วรัฐประหาร</t>
+  </si>
+  <si>
+    <t>รัฐประหารที่เคยทำให้ประเทศไทยเจริญมีแต่ทำให้ตกต่ำมีแต่ทำให้ประเทศเสียโอกาสในการพัฒนาวิธีป้องกันรัฐประหารคือต้องผลักดันรัฐธรรมนูญฉบับประชาชนให้ประชาชนเขียนรัฐธรรมนูญด้วยตัวเองต้องมีบทบัญญัติป้องกันรัฐประหารใครทำรัฐประหารต้องระวางโทษประหารชีวิตรัฐประหารรัฐประหาร</t>
+  </si>
+  <si>
+    <t>นี้เดี๋ยวก็รู้ว่าอยู่ต่อเพื่อapecอะค่ะะะไม่ต้องเดาเนาะรัฐประหาร</t>
+  </si>
+  <si>
+    <t>เสียดายแล้วหนีไปทำไมทักษิณฉวยโอกาสด่าทหารครบปีรัฐประหารเพ้อไม่นานจะกลับไทยไปเลี้ยงหลานข่าวด่วนtopnews</t>
+  </si>
+  <si>
+    <t>แหมมก็ถ้าเขาไม่เซ็นอะไม่เกิดหรอกค่าาาาแต่เขาเซ็นไงก็คือผบกนั่นแหละนี่เป็นเรื่องที่พูดไม่ได้เดี๋ยวกระทบเลยทำได้แค่ด่าทหารทั้งๆที่ทหารแค่ทำตามสั่งค่าาารัฐประหาร</t>
+  </si>
+  <si>
+    <t>ความเป็นไทยต้องมาจากผู้คนไม่ใช่มาจากการยึดอำนาจรัฐประหารรัฐประหาร</t>
+  </si>
+  <si>
+    <t>kungcnxวันนี้ปีที่ผ่านมาเป็นวันที่รัฐบาลที่มีพรรคไทยรักไทยเป็นแกนนำรัฐบาลถูกรัฐประหารยึดอำนาจรัฐบาลที่มาจากการเลือกตั้งตามประชาธิปไตยเสียดายที่ประเทศชาติกำลังเดินหน้าเป็นเสือตัวที่ของเอเชียเสียดายเป็นผู้นำอาเซียนกลับต้องถอยหลังไปแทบอยู่รั้งท้ายของอาเซียนกันยารัฐประหาร</t>
+  </si>
+  <si>
+    <t>โปรดฟังอีกครั้งพลอสนธิบอกตอบไม่ได้ใครอยู่เบื้องหลังรัฐประหารกยย้ำคำถามบางประการตายแล้วก็ตอบไม่ได้รัฐประหารรัฐประหารกันยารัฐประหารสนธิบุญยรัตกลินสนั่นขจรประศาสน์</t>
+  </si>
+  <si>
+    <t>erichparpartวันนี้ปีที่ผ่านมาเป็นวันที่รัฐบาลที่มีพรรคไทยรักไทยเป็นแกนนำรัฐบาลถูกรัฐประหารยึดอำนาจรัฐบาลที่มาจากการเลือกตั้งตามประชาธิปไตยเสียดายที่ประเทศชาติกำลังเดินหน้าเป็นเสือตัวที่ของเอเชียเสียดายเป็นผู้นำอาเซียนกลับต้องถอยหลังไปแทบอยู่รั้งท้ายของอาเซียนกันยารัฐประหาร</t>
+  </si>
+  <si>
+    <t>วันนี้ปีที่ผ่านมาเป็นวันที่รัฐบาลที่มีพรรคไทยรักไทยเป็นแกนนำรัฐบาลถูกรัฐประหารยึดอำนาจรัฐบาลที่มาจากการเลือกตั้งตามประชาธิปไตยเสียดายที่ประเทศชาติกำลังเดินหน้าเป็นเสือตัวที่ของเอเชียเสียดายเป็นผู้นำอาเซียนกลับต้องถอยหลังไปแทบอยู่รั้งท้ายของอาเซียนกันยารัฐประหาร</t>
+  </si>
+  <si>
+    <t>รัฐประหารไม่เคยทำให้ประเทศไหนเจริญมีแต่ทำให้ตกต่ำรัฐประหารทำให้ประเทศไทยเสียโอกาสมามากมายรัฐประหารทำให้ประเทศไทยสูญเสียรัฐธรรมนูญฉบับประชาชนจะป้องกันรัฐประหารเริ่มได้จากการตั้งสสรมายกร่างรัฐธรรมนูญฉบับใหม่ค่ะรัฐประหารรัฐประหาร</t>
+  </si>
+  <si>
+    <t>การรัฐประหารในปีเป็นการรัฐประหารเพื่อปกป้องประโยชน์ของคนกลุ่มหนึ่งเท่านั้นเพียงแค่กลัวว่าคนที่ชื่อทักษิณจะได้หน้าเกินไปจึงกำจัดให้พ้นทางการกำจัดทักษิณครั้งนี้ผู้บงการมองเห็นแต่ได้โดยคิดแค่เอาชนะไม่สนว่านี่คือการเอาปากท้องประชาชนและอนาคตประเทศเป็นเดิมพัน</t>
+  </si>
+  <si>
+    <t>บิ๊กบังในวันวงรอบรัฐประหารเวียนมาครบปีกันยายึดอำนาจทักษิณปีรัฐประหารรัฐประหารทักษิณข่าววันนี้nationonline</t>
+  </si>
+  <si>
+    <t>ที่นี่มีอนุสาวรีย์แต่ไม่มีประชาธิปำตยคำพูดง่ายๆที่ออกจากปากแต่ตอกย้ำว่าเรามีแต่ซากประชาธิปไตยการรัฐประหารคือต้นตอของความฉิบหายของประเทศ</t>
+  </si>
+  <si>
+    <t>รัฐประหารไม่เคยทำให้ประเทศเจริญรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ระยะเวลาไม่ถึงทศวรรษบนหน้าประวัติศาสตร์การเมืองไทยความสำเร็จได้บังเกิดแก่การรัฐประหารโดยกองทัพถึงครั้งซึ่งสะท้อนจินตกรรมทางการเมืองของผู้ถืออำนาจรัฐรวมถึงพลเมืองบางส่วนที่มองข้ามความสำคัญของระบอบประชาธิปไตยรัฐประหารรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ครบรอบปีรัฐประหารกยชวนขอฝ่ายนิติบัญญัติเป็นหลักให้บ้านเมืองตามระบอบประชาธิปไตยหญิงหน่อยศิธาชูธงล่ารายชื่อปชชแก้รธนปิดประตูรัฐประหารณัฐวุฒิซัดจุดเริ่มต้นมหากาพย์ความขัดแย้งรัฐประหารรัฐประหารเดลินิวส์</t>
+  </si>
+  <si>
+    <t>vnomenonพ่อมึงตระกูลเปรตวิสัยที่มีความโลภะอย่างครอบครัวมึงเรียกรัฐประหารได้อย่างดีเพราะมีนักการเมืองชั่วรวมกันอยู่</t>
+  </si>
+  <si>
+    <t>ฟาดมากรัฐประหารม็อบกันยา</t>
+  </si>
+  <si>
+    <t>ตาสว่างแบบแสงแยงตาครั้งแรกสมัยเรียนมัธยมประมาณนี้ได้อ่านหนังสือใต้ดินเกี่ยวกับตุลากับกรณีสวรรคตรว้าวมากแต่ก็ไม่มีข้อมูลลิงก์กับการเมืองส่วนอื่นมากพอจนเรียนโทได้อ่านหนังสือต้องห้ามอีกหลายเล่มเลยไม่เอารัฐประหารไม่เป็นสลิ่มที่รับไม่ได้สุดๆคือปี</t>
+  </si>
+  <si>
+    <t>สุดารัตน์ตีฆ้องพรรคไทยสร้างไทยแก้รัฐธรรมนูญฉบับประชาชนเพิ่มบทบัญญัติใครทำรัฐประหารถือเป็นกบฏรับโทษสูงสุดชี้เป็นการปลดล็อกขั้นแรกเพื่อเดินหน้าประเทศอ่านเพิ่มเติมgtgtspacebar</t>
+  </si>
+  <si>
+    <t>ทักษิณโพสต์ปีรัฐประหารเผยเสียดายสิ่งดีๆที่ควรเกิดขึ้นแต่กลับกลายเป็นความเลวร้ายบอกอยากกลับไปเลี้ยงหลานและแบ่งปันความรู้และประสบการณ์ให้กับสังคมไทยอ่านข่าวเพิ่มทักษิณปีรัฐประหารรัฐประหารรัฐประหารกันยาthaipbsnews</t>
+  </si>
+  <si>
+    <t>พรรคเพื่อไทยสสเพื่อไทยกรุงเทพเขตลาดกระบังสู้วิกฤตรัฐประหารน้ำท่วมน้ำท่วมกรุงเทพโควิดแก้รัฐธรรมนูญรุกป่าทุจริตหนี้สินปุ๋ยแพงปิดตลาดรุนแรงยาเสพติดกัญชาเงินเฟ้อเงินฝืดอิทธิพลเถื่อนบ่อนยาเสพติดล้งกดราคาไฟป่ากฎเถื่อน</t>
+  </si>
+  <si>
+    <t>จรัมไว้นะplotแนวๆนี้ออกมาเมื่อไหร่เกียมตัวได้เลยมาแน่นอนรัฐประหารประชาธิปไตยปฏิรูปกระบวนการยุติธรรม</t>
+  </si>
+  <si>
+    <t>ทักษิณปีรัฐประหารกยเผยสิ่งที่สูญเสียเย้ยทหารเป็นได้แค่ยามย้ำไม่นานได้กลับบ้านรัฐประหารรัฐประหารกันยารัฐประหารทักษิณ</t>
+  </si>
+  <si>
+    <t>ซัดพธมต้นเหตุรัฐประหารเต้นณัฐวุฒิโพสต์คือจุดเริ่มความขัดแย้งอ่านต่อที่gtgtsiamrathสยามรัฐsiamrathonlineสยามรัฐออนไลน์ข่าววันนี้ข่าวการเมืองการเมืองพธมเต้นณัฐวุฒิรัฐประหารปีรัฐประหาร</t>
+  </si>
+  <si>
+    <t>คนทำรัฐประหารคือกบฏห้ามนิรโทษกรรมดูข่าวข่าวช่องข่าวออนไลน์ช่องสุดารัตน์หญิงหน่อยไทยสร้างไทยรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ภูมิธรรมชี้ปีรัฐประหารพิษร้ายระบบสังคมไทยใช้กลไกเอาผิดคนเห็นต่างเอื้อพวกพ้องเชื่อการเลือกตั้งจะเป็นการแสดงอำนาจประชาชนกำหนดอนาคตสร้างความหวัง</t>
+  </si>
+  <si>
+    <t>กันยายนถึงตายก็พูดไม่ได้รัฐประหารรัฐประหารกันยารัฐประหารถึงตายก็พูดไม่ได้</t>
+  </si>
+  <si>
+    <t>เรื่องไม่ลับรัฐประหารกันยาfbphotoseta</t>
+  </si>
+  <si>
+    <t>เพื่อไทยชี้ครบรอบรัฐประหารคือปีแห่งความหลังที่ขมขื่นเสื่อมถอยลั่นรัฐประหารต้องสูญพันธุ์เหตุไม่ใช่คำตอบของประเทศอ่านต่อข่าวช่องข่าวออนไลน์ช่องเพื่อไทยรัฐประหารทักษิณประเทศไทยข่าวการเมือง</t>
+  </si>
+  <si>
+    <t>thairathplusพวกนักวิชาการโลกสวยบนหอคอยงาช้างด้วยต้องโดนด่าซะบ้างลอยตัวตลอดอวดอ้างภูมิความรู้และอีโก้อันสูงส่งของตนเองจนเข้าทางฝ่ายเผด็จการพอรู้ตัวว่าโง่โดนหลอกใข้ก็ไม่เคยขอโทษแค่หลบมุมไปสักพักแล้วก็จะออกมาโชว์ภูมิอีกรัฐประหารกันยาทวงอำนาจคืนราษฎร</t>
+  </si>
+  <si>
+    <t>ถ้าทำโพลรัฐประหารได้โพลสถาบันกษัตริย์ก็ควรทำได้</t>
+  </si>
+  <si>
+    <t>สลิ่มบวรเดชสนับสนุนการทำรัฐประหารเหรอครับ</t>
+  </si>
+  <si>
+    <t>ปีรัฐประหารกันยาชวนชี้อย่าทำอะไรเกินหรือขาดไปจากหลักปฏิบัติตามระบอบประชาธิปไตยโวสภาฯชุดนี้อยู่ยาวเกือบครบเทอมทำหน้าที่ตรวจสอบเข้มข้นชวนหลีกภัยนิติบัญญัติประชาธิปไตยรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ทักษิณย้ำเตือนครบรอบปีรัฐประหารยกข้อความเสียดายของประเทศไทยลั่นไม่นานคงจะได้กลับไปเลี้ยงหลานและขอแบ่งปันใช้ประสบการณ์ให้กับสังคมไทยเท่าที่กำลังกายและกำลังสมองยังดีอยู่อ่านต่อที่ทักษิณปีรัฐประหารรัฐประหารกยtheroom</t>
+  </si>
+  <si>
+    <t>พวกนักวิชาการโลกสวยบนหอคอยงาช้างด้วยต้องโดนด่าซะบ้างลอยตัวตลอดอวดอ้างภูมิความรู้และอีโก้อันสูงส่งของตนเองจะเข้าทางฝ่ายเผด็จการพอรู้ตัวว่าโง่โดนหลอกใข้ก็ไม่เคยขอโทษแค่หลบมุมไปสักพักแล้วก็จะออกมาโชว์ภูมิอีกรัฐประหารกันยาทวงอำนาจคืนราษฎร</t>
+  </si>
+  <si>
+    <t>คลิกอ่านที่นี่รัฐประหารกันยาทักษิณปีรัฐประหารทักษิณไล่ฉะทหารโวยถูกลอบกัดบ่นเสียดายข้อฝันได้กลับบ้าน</t>
+  </si>
+  <si>
+    <t>กันยายนปีรัฐประหารรัฐบาลทักษิณอวสานรัฐธรรมนูญฉบับประชาชนรัฐประหารพรรคไทยรักไทยเพื่อไทยfc</t>
+  </si>
+  <si>
+    <t>หลังรัฐประหาร๑๙กันยายน๒๕๔๙สิทธิของผมถูกละเมิดสิทธิของคนในประเทศนี้ถูกละเมิดมากเกินไปผศดรสุธาชัยยิ้มประเสริฐหมายเหตุผศดรสุธาชัยเสียชีวิตเมื่อวันที่กันยายนกันยายนรัฐประหารsarakadeemagazine</t>
+  </si>
+  <si>
+    <t>จาตุรนต์สะท้อนความเลวร้ายปีรัฐประหารกันยาชี้บ้านเมืองยับเยินประเทศล้าหลังเสื่อมโทรมจาตุรนต์รัฐประหารกันยา</t>
+  </si>
+  <si>
+    <t>ทักษิณเสียดายโอกาสประการผลจากการรัฐประหารกันยาpoliticsรัฐประหารทักษิณการเมืองประเทศไทยคนไทยข่าววันนี้คมชัดลึกออนไลน์</t>
+  </si>
+  <si>
+    <t>สุดารัตน์ซัดรัฐประหารกันยาจุดเริ่มต้นทำประเทศติดล็อคอ่านต่อที่gtgtsiamrathสยามรัฐsiamrathonlineสยามรัฐออนไลน์ข่าววันนี้ข่าวการเมืองการเมืองหญิงหน่อยรัฐประหารกันยา</t>
+  </si>
+  <si>
+    <t>ภูมิธรรมแกนนำเพื่อไทยชี้ปีรัฐประหารกันยาดึงไทยล้าหลังไร้อนาคตข่าวออนไลน์hdchhdnewsข่าวช่องhd</t>
+  </si>
+  <si>
+    <t>คลิกอ่านที่นี่รัฐประหารกันยาจาตุรนต์จาตุรนต์โยงกยวางรากฐานรัฐประหารปีก่อนทำไทยล้าหลังไร้อารยะ</t>
+  </si>
+  <si>
+    <t>กยรัฐประหารไทยรักไทย</t>
+  </si>
+  <si>
+    <t>คลิกอ่านข่าวปีรัฐประหารกันยาชวนวอนผู้แทนฯเป็นหลักให้บ้านเมืองอย่าทำอะไรเกินขาดไปจากหลักประชาธิปไตยโวสภาฯชุดนี้อยู่ยาวเกือบครบเทอมทำหน้าที่ตรวจสอบเข้มชวนหลีกภัยประธานรัฐสภาการเมืองรัฐประหารประชาธิปไตย</t>
+  </si>
+  <si>
+    <t>whatareyourmemoriesoftheseptembercoupmoreimportantlyweshouldbeaskinghowthailandcanescapethecouptrapรัฐประหารกันยาประยุทธ์รัฐประหาร</t>
+  </si>
+  <si>
+    <t>จาตุรนต์ฉะปีรัฐประหารรากฐานการปกครองไม่เป็นปชตฉุดไทยล้าหลังจนถึงวันนี้</t>
+  </si>
+  <si>
+    <t>ปีรัฐประหารกันยา</t>
+  </si>
+  <si>
+    <t>ปีรัฐประหารกยกับความหวังปฏิรูปการเมืองรัฐประหารรัฐประหารผลาญชาติประยุทธ์อำนาจนอกระบบข่าววันนี้</t>
+  </si>
+  <si>
+    <t>ลืมอดีตเพื่อสร้างอนาคตสำหรับผมเราควรเรียนรู้อดีตเพื่อป้องกันอนาคตไม่ให้กลับไปซ้ำรอยเรื่องเดิมๆสนั่นทักษิณรัฐประหาร</t>
+  </si>
+  <si>
+    <t>ภูมิธรรมถอดบทเรียนรัฐประหารกันยาอย่าให้อำนาจนอกระบบกดขี่ประชาชนการเมืองรัฐประหารคมชทักษิณสนธิกันยายนบิ๊กบังคมชัดลึกข่าววันนี้คมชัดลึกออนไลน์</t>
+  </si>
+  <si>
+    <t>onaveragethailandexperiencesonesuccessfulmilitarycoupeveryyearsthemostrecentoneledbygenprayutchanochaoccurredinmayoryearsagothailandwhatshappeninginthailandkecoupประยุทธ์รัฐประหารกย</t>
+  </si>
+  <si>
+    <t>ภูมิธรรมชี้ปีรัฐประหารกยใช้อำนาจนอกระบบไม่เห็นหัวประชาชนใช้กลไกกฎหมายผิดเพี้ยนเล่นงานฝ่ายตรงข้ามแต่กรรมย้อนกลับทำลายตัวเองปีประยุทธ์คือหลักฐานภูมิธรรมกฎหมายประยุทธ์อำนาจนอกระบบinnnewsไม่พลาดทุกเรื่องอินเทรนด์</t>
+  </si>
+  <si>
+    <t>รัฐประหารทำลายประเทศไทยทำลายระบอบประชาธิปไตยทำลายคุณภาพชีวิตคนไทยมาปีแล้วประเทศเราถอยหลังเข้าคลองเศรษฐกิจดิ่งเหวเพราะรัฐประหารตราหน้าไว้เลยว่ารัฐประหารผลาญชาติรัฐประหารไม่เคยแก้ปัญหาอะไรทางการเมืองได้เลยคนก่อรัฐประหารคือคนที่ทรยศต่อประชาชนและเป็นคนทำลายชาติ</t>
+  </si>
+  <si>
+    <t>ครบรอบปีรัฐประหารกันยายนนักวิชาการเห็นว่าโอกาสจะเกิดการรัฐประหารในบ้านเรายังคงมีอยู่แต่การป้องกันเริ่มต้นที่ประชาชนปีรัฐประหารรัฐประหารรัฐประหารกันยาthaipbsnews</t>
+  </si>
+  <si>
+    <t>ภูมิธรรมซัดเดือดปีรัฐประหารกยเความเลวร้ายของการใช้อำนาจนอกระบบกฎหมายที่ผิดเพี้ยนที่ไม่เห็นหัวประชาชนชี้ชัดยิ่งตอกย้ำชัดเจนในวันนี้ว่าหมดเวลาของประยุทธ์อ่านต่อที่ภูมิธรรมรัฐประหารกยนายกปีtheroom</t>
+  </si>
+  <si>
+    <t>ครบรอบปีรัฐประหารกันยายนนักวิชาการเห็นว่าโอกาสจะเกิดการรัฐประหารในบ้านเรายังคงมีอยู่แต่การป้องกันเริ่มต้นที่ประชาชนปีรัฐประหารรัฐประหารกันยาthaipbsnews</t>
+  </si>
+  <si>
+    <t>ปีรัฐประหารกันยายนการใช้กำลังยึดอำนาจรัฐครั้งแรกในรอบปีของการเมืองไทยรัฐประหารการเมืองทักษิณชินวัตรประวัติศาสตร์ศิลปวัฒนธรรมsilpamagsilpamag</t>
+  </si>
+  <si>
+    <t>ต้นตอของการทำลายประชาธิปไตยไทยจนสูญเสียพังทลายและกลายเป็นเศษซากมาจนทุกวันนี้ครบรอบปีกันยายนรัฐประหารรัฐบาลทักษิณรัฐประหารกันยา</t>
+  </si>
+  <si>
+    <t>วันนี้ครบปีรัฐประหารโดยคมชหน้าตาคุ้นๆกันทั้งนั้นรัฐประหาร</t>
+  </si>
+  <si>
+    <t>รัฐประหารกันยายนถือเป็นจุดเริ่มต้นที่ประชาธิปไตยไทยได้หายไปเป็นต้นตอของการทำลายประชาธิปไตยไทยจนสูญเสียพังทลายและกลายเป็นเศษซากมาจนทุกวันนี้รัฐประหารกันยา</t>
+  </si>
+  <si>
+    <t>กยปีก่อนรัฐประหารรัฐบาลดรทักษิณชินวัตรฉีกรัฐธรรมนูญฉบับประชาชนปีล้มรัฐบาลตามระบอบประชาธิปไตยถือเป็นรัฐประหารครั้งแรกในรอบปีข่าววันนี้ข่าวไทยข่าวรัฐประหารทหารกองทัพวันนี้ในอดีต</t>
+  </si>
+  <si>
+    <t>คลิกอ่านที่นี่ภูมิธรรมรัฐประหารคมชคสชกันยาปีรัฐประหารเดือดปีรัฐประหารกยภูมิธรรมซัดความเลวร้ายการใช้กมผิดเพี้ยนไม่เห็นหัวปชช</t>
+  </si>
+  <si>
+    <t>ชั่วโมงนาทีฉากชิงอำนาจหน้าจอทีวีรัฐประหารกันยายน</t>
+  </si>
+  <si>
+    <t>ย้อนรอยรัฐประหารกันยาบิ๊กบังโค่นทักษิณขณะบินประชุมที่นิวยอร์คการเมืองรัฐประหารคมชทักษิณสนธิกันยาบิ๊กบังคมชัดลึกข่าววันนี้คมชัดลึกออนไลน์</t>
+  </si>
+  <si>
+    <t>วงจรสังคมไทยรัฐประหาร</t>
+  </si>
+  <si>
+    <t>วันนี้ครบรอบปีรัฐประหารกยทำให้เกิดคำถามถึงความหวังในการปฏิรูปการเมืองไทยโดยนักวิชาการเห็นว่าโอกาสเกิดรัฐประหารในบ้านเรายังมีอยู่แต่การป้องกันไม่ให้เกิดซ้ำเริ่มต้นที่ประชาชนตามข่าวสำคัญthaipbsที่วันใหม่ไทยพีบีเอส</t>
+  </si>
+  <si>
+    <t>กันยารัฐประหารลุงตู่อยู่ต่อม็อบกันยา</t>
+  </si>
+  <si>
+    <t>สลิ่มบวรเดชสนับสนุนการทำรัฐประหารอย่างนั้นหรือไม่เคยเห็นต่อต้านเผด็จการประยุทธ์เลยเห็นแต่อวยเผด็จการทหาร</t>
+  </si>
+  <si>
+    <t>หลังเหตุการณ์พฤษภาทมิฬเมื่อปีมีการเรียกร้องให้ทหารต้องออกจากการเมืองจึงไม่มีใครคาดคิดว่าหลังประกาศใช้รัฐธรรมนูญปีรัฐธรรมนูญที่มาจากการเรียกร้องของประชาชนจะมีการรัฐประหารเกิดขึ้นอีกรัฐประหารไม่เอาคนเซ็นรัฐประหารยกเลิกเกณฑ์ทหาร</t>
+  </si>
+  <si>
+    <t>เปิดใจพลอสนธิบุญยรัตกลินปรองดองรัฐประหารยาสามัญการเมืองไทยพลอสนธิรัฐประหาร</t>
+  </si>
+  <si>
+    <t>คำว่านักสันติวิธีดูมันสูงส่งขลังดูดีน่าเคารพนับถือแต่ถ้าคนพวกนี้ไม่ต่อต้านเผด็จการและไม่ต่อต้านรัฐประหารก็อย่ามาตั้งตนเป็นนักสันติวิธีเลยมันน่าละอายเพราะรัฐประหารคืออาชญากรรมทางการเมืองและการใช้ความรุนแรงต่อสังคมสร้างความเดือดร้อนให้ผู้คน</t>
+  </si>
+  <si>
+    <t>นักสันติวิธีของไทยนี่เขาเลือกข้างไหมหลายคนเวลามีรัฐประหารไม่เห็นออกมาต่อต้านเลยวันดีคืนดีพวกนี้ก็ออกมาพูดเรื่องสมานฉันท์แต่บอกว่าอะไรที่ศาลตัดสินไปแล้วถอยหลังไม่ได้โดยไม่มองว่ากระบวนการนำคดีเข้าสู่ศาลมันผิดเพราะมันเป็นผลพวงของรัฐประหารพวกนี้เขาเป็นขี้ข้าผดกรึไง</t>
+  </si>
+  <si>
+    <t>ศาลสั่งให้หยุดปฎิบัติหน้าที่แม้แต่กฎหมายมึงงงยังไม่เคารพเลยกฎหมายมีไว้เอาตีนเหยียบก็แค่คำที่เขียนขึ้นมาให้สวยงามประยุทธ์ออกไปรัฐประหาร</t>
+  </si>
+  <si>
+    <t>tennattawutหรือเพราะเรามีนักการเมืองอุบาทว์จึงทำให้เข้าสู่วงจรรัฐประหารรัฐประหารนักการเมืองนักการเมืองอุบาทว์</t>
+  </si>
+  <si>
+    <t>tennattawutคอรัปชั่นโกงนักการเมืองชั่วคือตัวเรียกรัฐประหาร</t>
+  </si>
+  <si>
+    <t>พวกที่ชอบเซ็นรัฐประหารฉีกรัฐธรรมนูญควรนำตัวมันมาลงที่นี้ปีแล้วนะไอ้สัสรัฐประหารยกเลิกระบอบกษัตริย์</t>
+  </si>
+  <si>
+    <t>กันยายนพศจอมพลสฤษดิ์ก่อรัฐประหารยึดอำนาจจอมพลปพิบูลสงครามclickoncleargtgtthestatestimeslitecoollifetodayspecialจอมพลสฤษดิ์รัฐประหารจอมพลปพิบูลสงคราม</t>
+  </si>
+  <si>
+    <t>รายงานโดยilawชี้ว่าปีคณะกรรมการปฏิรูปประเทศที่สืบทอดมาจากคสชไม่สร้างประโยชน์อะไรเลยมีแต่สูบภาษีประชาชนให้พวกพ้องกันเองภายใต้วาทกรรมปฏิรูปมันคือผลอันเลวร้ายของการรัฐประหารที่ประชาชนต้องไม่ยอมให้เกิดขึ้นอีกถ้าได้ประชาธิปไตยกลับคืนมาอีกครั้ง</t>
+  </si>
+  <si>
+    <t>รัฐธรรมนูญเป็นมรดกบาปจากรัฐประหารโดยคสชเป็นรัฐธรรมนูญที่เป็นผลจากการปล้นอำนาจประชาชนเป็นรัฐธรรมนูญเผด็จการซ่อนรูปเอื้อให้มีการสืบทอดอำนาจของคสชผ่านสวที่มาจากการแต่งตั้งของคสชให้มีอำนาจเลือกนายกฯได้ยอมให้คนที่ไม่ผ่านการเลือกตั้งมาเป็นนายกฯได้</t>
   </si>
 </sst>
 </file>
@@ -10127,10 +12335,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B2F671-711C-4E7E-8DEC-862275EA5F43}">
-  <dimension ref="A1:B3497"/>
+  <dimension ref="A1:B4349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1704" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1726" sqref="G1726"/>
+    <sheetView tabSelected="1" topLeftCell="A2971" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2982" sqref="F2982"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -32655,7 +34863,7 @@
         <v>2559</v>
       </c>
       <c r="B2815">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2816" spans="1:2" x14ac:dyDescent="0.2">
@@ -33615,7 +35823,7 @@
         <v>2679</v>
       </c>
       <c r="B2935">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2936" spans="1:2" x14ac:dyDescent="0.2">
@@ -33991,7 +36199,7 @@
         <v>2726</v>
       </c>
       <c r="B2982">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2983" spans="1:2" x14ac:dyDescent="0.2">
@@ -38111,6 +40319,6822 @@
         <v>3241</v>
       </c>
       <c r="B3497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3498" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3498" t="s">
+        <v>3242</v>
+      </c>
+      <c r="B3498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3499" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3499" t="s">
+        <v>3243</v>
+      </c>
+      <c r="B3499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3500" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3500" t="s">
+        <v>3244</v>
+      </c>
+      <c r="B3500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3501" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3501" t="s">
+        <v>3245</v>
+      </c>
+      <c r="B3501">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3502" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3502" t="s">
+        <v>3246</v>
+      </c>
+      <c r="B3502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3503" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3503" t="s">
+        <v>3247</v>
+      </c>
+      <c r="B3503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3504" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3504" t="s">
+        <v>3248</v>
+      </c>
+      <c r="B3504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3505" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3505" t="s">
+        <v>3249</v>
+      </c>
+      <c r="B3505">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3506" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3506" t="s">
+        <v>3250</v>
+      </c>
+      <c r="B3506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3507" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3507" t="s">
+        <v>3251</v>
+      </c>
+      <c r="B3507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3508" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3508" t="s">
+        <v>3252</v>
+      </c>
+      <c r="B3508">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3509" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3509" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B3509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3510" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3510" t="s">
+        <v>3254</v>
+      </c>
+      <c r="B3510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3511" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3511" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B3511">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3512" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3512" t="s">
+        <v>3256</v>
+      </c>
+      <c r="B3512">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3513" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3513" t="s">
+        <v>3257</v>
+      </c>
+      <c r="B3513">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3514" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3514" t="s">
+        <v>3258</v>
+      </c>
+      <c r="B3514">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3515" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3515" t="s">
+        <v>3259</v>
+      </c>
+      <c r="B3515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3516" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3516" t="s">
+        <v>3260</v>
+      </c>
+      <c r="B3516">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3517" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3517" t="s">
+        <v>3261</v>
+      </c>
+      <c r="B3517">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3518" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3518" t="s">
+        <v>3262</v>
+      </c>
+      <c r="B3518">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3519" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3519" t="s">
+        <v>3263</v>
+      </c>
+      <c r="B3519">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3520" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3520" t="s">
+        <v>3264</v>
+      </c>
+      <c r="B3520">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3521" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3521" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B3521">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3522" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3522" t="s">
+        <v>3266</v>
+      </c>
+      <c r="B3522">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3523" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3523" t="s">
+        <v>3267</v>
+      </c>
+      <c r="B3523">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3524" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3524" t="s">
+        <v>3268</v>
+      </c>
+      <c r="B3524">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3525" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3525" t="s">
+        <v>3269</v>
+      </c>
+      <c r="B3525">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3526" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3526" t="s">
+        <v>3270</v>
+      </c>
+      <c r="B3526">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3527" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3527" t="s">
+        <v>3271</v>
+      </c>
+      <c r="B3527">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3528" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3528" t="s">
+        <v>3272</v>
+      </c>
+      <c r="B3528">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3529" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3529" t="s">
+        <v>3273</v>
+      </c>
+      <c r="B3529">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3530" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3530" t="s">
+        <v>3274</v>
+      </c>
+      <c r="B3530">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3531" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3531" t="s">
+        <v>3275</v>
+      </c>
+      <c r="B3531">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3532" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3532" t="s">
+        <v>3276</v>
+      </c>
+      <c r="B3532">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3533" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3533" t="s">
+        <v>3277</v>
+      </c>
+      <c r="B3533">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3534" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3534" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B3534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3535" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3535" t="s">
+        <v>3279</v>
+      </c>
+      <c r="B3535">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3536" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3536" t="s">
+        <v>3280</v>
+      </c>
+      <c r="B3536">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3537" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3537" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B3537">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3538" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3538" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B3538">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3539" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3539" t="s">
+        <v>3283</v>
+      </c>
+      <c r="B3539">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3540" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3540" t="s">
+        <v>3284</v>
+      </c>
+      <c r="B3540">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3541" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3541" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B3541">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3542" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3542" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B3542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3543" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3543" t="s">
+        <v>3287</v>
+      </c>
+      <c r="B3543">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3544" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3544" t="s">
+        <v>3288</v>
+      </c>
+      <c r="B3544">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3545" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3545" t="s">
+        <v>3289</v>
+      </c>
+      <c r="B3545">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3546" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3546" t="s">
+        <v>3290</v>
+      </c>
+      <c r="B3546">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3547" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3547" t="s">
+        <v>3291</v>
+      </c>
+      <c r="B3547">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3548" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3548" t="s">
+        <v>3292</v>
+      </c>
+      <c r="B3548">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3549" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3549" t="s">
+        <v>3293</v>
+      </c>
+      <c r="B3549">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3550" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3550" t="s">
+        <v>3294</v>
+      </c>
+      <c r="B3550">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3551" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3551" t="s">
+        <v>3295</v>
+      </c>
+      <c r="B3551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3552" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3552" t="s">
+        <v>3296</v>
+      </c>
+      <c r="B3552">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3553" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3553" t="s">
+        <v>3297</v>
+      </c>
+      <c r="B3553">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3554" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3554" t="s">
+        <v>3298</v>
+      </c>
+      <c r="B3554">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3555" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3555" t="s">
+        <v>3299</v>
+      </c>
+      <c r="B3555">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3556" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3556" t="s">
+        <v>3300</v>
+      </c>
+      <c r="B3556">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3557" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3557" t="s">
+        <v>3301</v>
+      </c>
+      <c r="B3557">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3558" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3558" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B3558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3559" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3559" t="s">
+        <v>3303</v>
+      </c>
+      <c r="B3559">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3560" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3560" t="s">
+        <v>3304</v>
+      </c>
+      <c r="B3560">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3561" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3561" t="s">
+        <v>3305</v>
+      </c>
+      <c r="B3561">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3562" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3562" t="s">
+        <v>3306</v>
+      </c>
+      <c r="B3562">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3563" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3563" t="s">
+        <v>3307</v>
+      </c>
+      <c r="B3563">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3564" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3564" t="s">
+        <v>3308</v>
+      </c>
+      <c r="B3564">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3565" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3565" t="s">
+        <v>3309</v>
+      </c>
+      <c r="B3565">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3566" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3566" t="s">
+        <v>3310</v>
+      </c>
+      <c r="B3566">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3567" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3567" t="s">
+        <v>3311</v>
+      </c>
+      <c r="B3567">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3568" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3568" t="s">
+        <v>3312</v>
+      </c>
+      <c r="B3568">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3569" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3569" t="s">
+        <v>3313</v>
+      </c>
+      <c r="B3569">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3570" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3570" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B3570">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3571" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3571" t="s">
+        <v>3315</v>
+      </c>
+      <c r="B3571">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3572" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3572" t="s">
+        <v>3316</v>
+      </c>
+      <c r="B3572">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3573" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3573" t="s">
+        <v>3317</v>
+      </c>
+      <c r="B3573">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3574" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3574" t="s">
+        <v>3318</v>
+      </c>
+      <c r="B3574">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3575" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3575" t="s">
+        <v>3319</v>
+      </c>
+      <c r="B3575">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3576" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3576" t="s">
+        <v>3320</v>
+      </c>
+      <c r="B3576">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3577" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3577" t="s">
+        <v>3321</v>
+      </c>
+      <c r="B3577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3578" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3578" t="s">
+        <v>3322</v>
+      </c>
+      <c r="B3578">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3579" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3579" t="s">
+        <v>3323</v>
+      </c>
+      <c r="B3579">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3580" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3580" t="s">
+        <v>3324</v>
+      </c>
+      <c r="B3580">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3581" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3581" t="s">
+        <v>3325</v>
+      </c>
+      <c r="B3581">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3582" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3582" t="s">
+        <v>3326</v>
+      </c>
+      <c r="B3582">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3583" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3583" t="s">
+        <v>3327</v>
+      </c>
+      <c r="B3583">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3584" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3584" t="s">
+        <v>3328</v>
+      </c>
+      <c r="B3584">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3585" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3585" t="s">
+        <v>3329</v>
+      </c>
+      <c r="B3585">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3586" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3586" t="s">
+        <v>3330</v>
+      </c>
+      <c r="B3586">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3587" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3587" t="s">
+        <v>3331</v>
+      </c>
+      <c r="B3587">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3588" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3588" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B3588">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3589" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3589" t="s">
+        <v>3332</v>
+      </c>
+      <c r="B3589">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3590" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3590" t="s">
+        <v>3333</v>
+      </c>
+      <c r="B3590">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3591" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3591" t="s">
+        <v>3334</v>
+      </c>
+      <c r="B3591">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3592" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3592" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B3592">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3593" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3593" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B3593">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3594" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3594" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B3594">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3595" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3595" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B3595">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3596" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3596" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B3596">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3597" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3597" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B3597">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3598" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3598" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B3598">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3599" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3599" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B3599">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3600" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3600" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B3600">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3601" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3601" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B3601">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3602" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3602" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B3602">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3603" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3603" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B3603">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3604" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3604" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B3604">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3605" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3605" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B3605">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3606" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3606" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B3606">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3607" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3607" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B3607">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3608" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3608" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B3608">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3609" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3609" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B3609">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3610" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3610" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B3610">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3611" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3611" t="s">
+        <v>3335</v>
+      </c>
+      <c r="B3611">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3612" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3612" t="s">
+        <v>3336</v>
+      </c>
+      <c r="B3612">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3613" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3613" t="s">
+        <v>3337</v>
+      </c>
+      <c r="B3613">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3614" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3614" t="s">
+        <v>3338</v>
+      </c>
+      <c r="B3614">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3615" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3615" t="s">
+        <v>3339</v>
+      </c>
+      <c r="B3615">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3616" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3616" t="s">
+        <v>3340</v>
+      </c>
+      <c r="B3616">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3617" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3617" t="s">
+        <v>3341</v>
+      </c>
+      <c r="B3617">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3618" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3618" t="s">
+        <v>3342</v>
+      </c>
+      <c r="B3618">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3619" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3619" t="s">
+        <v>3343</v>
+      </c>
+      <c r="B3619">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3620" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3620" t="s">
+        <v>3344</v>
+      </c>
+      <c r="B3620">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3621" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3621" t="s">
+        <v>3345</v>
+      </c>
+      <c r="B3621">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3622" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3622" t="s">
+        <v>3346</v>
+      </c>
+      <c r="B3622">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3623" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3623" t="s">
+        <v>3347</v>
+      </c>
+      <c r="B3623">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3624" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3624" t="s">
+        <v>3348</v>
+      </c>
+      <c r="B3624">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3625" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3625" t="s">
+        <v>3349</v>
+      </c>
+      <c r="B3625">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3626" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3626" t="s">
+        <v>3350</v>
+      </c>
+      <c r="B3626">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3627" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3627" t="s">
+        <v>3351</v>
+      </c>
+      <c r="B3627">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3628" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3628" t="s">
+        <v>3352</v>
+      </c>
+      <c r="B3628">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3629" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3629" t="s">
+        <v>3353</v>
+      </c>
+      <c r="B3629">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3630" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3630" t="s">
+        <v>3354</v>
+      </c>
+      <c r="B3630">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3631" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3631" t="s">
+        <v>3355</v>
+      </c>
+      <c r="B3631">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3632" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3632" t="s">
+        <v>3356</v>
+      </c>
+      <c r="B3632">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3633" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3633" t="s">
+        <v>3357</v>
+      </c>
+      <c r="B3633">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3634" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3634" t="s">
+        <v>3358</v>
+      </c>
+      <c r="B3634">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3635" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3635" t="s">
+        <v>3359</v>
+      </c>
+      <c r="B3635">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3636" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3636" t="s">
+        <v>3360</v>
+      </c>
+      <c r="B3636">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3637" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3637" t="s">
+        <v>3361</v>
+      </c>
+      <c r="B3637">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3638" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3638" t="s">
+        <v>3362</v>
+      </c>
+      <c r="B3638">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3639" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3639" t="s">
+        <v>3363</v>
+      </c>
+      <c r="B3639">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3640" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3640" t="s">
+        <v>3364</v>
+      </c>
+      <c r="B3640">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3641" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3641" t="s">
+        <v>3365</v>
+      </c>
+      <c r="B3641">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3642" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3642" t="s">
+        <v>3366</v>
+      </c>
+      <c r="B3642">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3643" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3643" t="s">
+        <v>3367</v>
+      </c>
+      <c r="B3643">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3644" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3644" t="s">
+        <v>3368</v>
+      </c>
+      <c r="B3644">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3645" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3645" t="s">
+        <v>3369</v>
+      </c>
+      <c r="B3645">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3646" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3646" t="s">
+        <v>3370</v>
+      </c>
+      <c r="B3646">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3647" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3647" t="s">
+        <v>3371</v>
+      </c>
+      <c r="B3647">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3648" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3648" t="s">
+        <v>3372</v>
+      </c>
+      <c r="B3648">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3649" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3649" t="s">
+        <v>3373</v>
+      </c>
+      <c r="B3649">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3650" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3650" t="s">
+        <v>3374</v>
+      </c>
+      <c r="B3650">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3651" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3651" t="s">
+        <v>3375</v>
+      </c>
+      <c r="B3651">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3652" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3652" t="s">
+        <v>3376</v>
+      </c>
+      <c r="B3652">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3653" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3653" t="s">
+        <v>3377</v>
+      </c>
+      <c r="B3653">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3654" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3654" t="s">
+        <v>3378</v>
+      </c>
+      <c r="B3654">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3655" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3655" t="s">
+        <v>3379</v>
+      </c>
+      <c r="B3655">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3656" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3656" t="s">
+        <v>3380</v>
+      </c>
+      <c r="B3656">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3657" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3657" t="s">
+        <v>3381</v>
+      </c>
+      <c r="B3657">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3658" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3658" t="s">
+        <v>3382</v>
+      </c>
+      <c r="B3658">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3659" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3659" t="s">
+        <v>3383</v>
+      </c>
+      <c r="B3659">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3660" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3660" t="s">
+        <v>3384</v>
+      </c>
+      <c r="B3660">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3661" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3661" t="s">
+        <v>3385</v>
+      </c>
+      <c r="B3661">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3662" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3662" t="s">
+        <v>3386</v>
+      </c>
+      <c r="B3662">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3663" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3663" t="s">
+        <v>3387</v>
+      </c>
+      <c r="B3663">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3664" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3664" t="s">
+        <v>3388</v>
+      </c>
+      <c r="B3664">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3665" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3665" t="s">
+        <v>3389</v>
+      </c>
+      <c r="B3665">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3666" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3666" t="s">
+        <v>3390</v>
+      </c>
+      <c r="B3666">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3667" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3667" t="s">
+        <v>3391</v>
+      </c>
+      <c r="B3667">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3668" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3668" t="s">
+        <v>3392</v>
+      </c>
+      <c r="B3668">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3669" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3669" t="s">
+        <v>3393</v>
+      </c>
+      <c r="B3669">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3670" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3670" t="s">
+        <v>3394</v>
+      </c>
+      <c r="B3670">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3671" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3671" t="s">
+        <v>3395</v>
+      </c>
+      <c r="B3671">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3672" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3672" t="s">
+        <v>3396</v>
+      </c>
+      <c r="B3672">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3673" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3673" t="s">
+        <v>3397</v>
+      </c>
+      <c r="B3673">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3674" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3674" t="s">
+        <v>3398</v>
+      </c>
+      <c r="B3674">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3675" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3675" t="s">
+        <v>3399</v>
+      </c>
+      <c r="B3675">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3676" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3676" t="s">
+        <v>3400</v>
+      </c>
+      <c r="B3676">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3677" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3677" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B3677">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3678" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3678" t="s">
+        <v>3402</v>
+      </c>
+      <c r="B3678">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3679" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3679" t="s">
+        <v>2382</v>
+      </c>
+      <c r="B3679">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3680" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3680" t="s">
+        <v>3403</v>
+      </c>
+      <c r="B3680">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3681" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3681" t="s">
+        <v>3404</v>
+      </c>
+      <c r="B3681">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3682" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3682" t="s">
+        <v>3405</v>
+      </c>
+      <c r="B3682">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3683" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3683" t="s">
+        <v>3406</v>
+      </c>
+      <c r="B3683">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3684" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3684" t="s">
+        <v>3407</v>
+      </c>
+      <c r="B3684">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3685" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3685" t="s">
+        <v>3408</v>
+      </c>
+      <c r="B3685">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3686" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3686" t="s">
+        <v>3409</v>
+      </c>
+      <c r="B3686">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3687" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3687" t="s">
+        <v>3410</v>
+      </c>
+      <c r="B3687">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3688" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3688" t="s">
+        <v>3411</v>
+      </c>
+      <c r="B3688">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3689" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3689" t="s">
+        <v>3412</v>
+      </c>
+      <c r="B3689">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3690" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3690" t="s">
+        <v>3413</v>
+      </c>
+      <c r="B3690">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3691" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3691" t="s">
+        <v>3414</v>
+      </c>
+      <c r="B3691">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3692" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3692" t="s">
+        <v>3415</v>
+      </c>
+      <c r="B3692">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3693" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3693" t="s">
+        <v>3416</v>
+      </c>
+      <c r="B3693">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3694" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3694" t="s">
+        <v>3417</v>
+      </c>
+      <c r="B3694">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3695" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3695" t="s">
+        <v>3418</v>
+      </c>
+      <c r="B3695">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3696" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3696" t="s">
+        <v>3419</v>
+      </c>
+      <c r="B3696">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3697" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3697" t="s">
+        <v>3420</v>
+      </c>
+      <c r="B3697">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3698" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3698" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B3698">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3699" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3699" t="s">
+        <v>3422</v>
+      </c>
+      <c r="B3699">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3700" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3700" t="s">
+        <v>3423</v>
+      </c>
+      <c r="B3700">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3701" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3701" t="s">
+        <v>3424</v>
+      </c>
+      <c r="B3701">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3702" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3702" t="s">
+        <v>3425</v>
+      </c>
+      <c r="B3702">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3703" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3703" t="s">
+        <v>3426</v>
+      </c>
+      <c r="B3703">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3704" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3704" t="s">
+        <v>3427</v>
+      </c>
+      <c r="B3704">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3705" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3705" t="s">
+        <v>3428</v>
+      </c>
+      <c r="B3705">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3706" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3706" t="s">
+        <v>3429</v>
+      </c>
+      <c r="B3706">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3707" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3707" t="s">
+        <v>3430</v>
+      </c>
+      <c r="B3707">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3708" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3708" t="s">
+        <v>3431</v>
+      </c>
+      <c r="B3708">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3709" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3709" t="s">
+        <v>3432</v>
+      </c>
+      <c r="B3709">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3710" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3710" t="s">
+        <v>2374</v>
+      </c>
+      <c r="B3710">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3711" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3711" t="s">
+        <v>3433</v>
+      </c>
+      <c r="B3711">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3712" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3712" t="s">
+        <v>3434</v>
+      </c>
+      <c r="B3712">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3713" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3713" t="s">
+        <v>2381</v>
+      </c>
+      <c r="B3713">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3714" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3714" t="s">
+        <v>3435</v>
+      </c>
+      <c r="B3714">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3715" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3715" t="s">
+        <v>2383</v>
+      </c>
+      <c r="B3715">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3716" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3716" t="s">
+        <v>3436</v>
+      </c>
+      <c r="B3716">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3717" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3717" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B3717">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3718" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3718" t="s">
+        <v>3437</v>
+      </c>
+      <c r="B3718">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3719" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3719" t="s">
+        <v>3438</v>
+      </c>
+      <c r="B3719">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3720" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3720" t="s">
+        <v>3439</v>
+      </c>
+      <c r="B3720">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3721" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3721" t="s">
+        <v>3440</v>
+      </c>
+      <c r="B3721">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3722" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3722" t="s">
+        <v>3441</v>
+      </c>
+      <c r="B3722">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3723" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3723" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B3723">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3724" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3724" t="s">
+        <v>2394</v>
+      </c>
+      <c r="B3724">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3725" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3725" t="s">
+        <v>2395</v>
+      </c>
+      <c r="B3725">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3726" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3726" t="s">
+        <v>3442</v>
+      </c>
+      <c r="B3726">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3727" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3727" t="s">
+        <v>2396</v>
+      </c>
+      <c r="B3727">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3728" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3728" t="s">
+        <v>3443</v>
+      </c>
+      <c r="B3728">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3729" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3729" t="s">
+        <v>3444</v>
+      </c>
+      <c r="B3729">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3730" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3730" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B3730">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3731" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3731" t="s">
+        <v>3445</v>
+      </c>
+      <c r="B3731">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3732" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3732" t="s">
+        <v>3446</v>
+      </c>
+      <c r="B3732">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3733" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3733" t="s">
+        <v>3447</v>
+      </c>
+      <c r="B3733">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3734" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3734" t="s">
+        <v>3448</v>
+      </c>
+      <c r="B3734">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3735" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3735" t="s">
+        <v>2412</v>
+      </c>
+      <c r="B3735">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3736" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3736" t="s">
+        <v>3449</v>
+      </c>
+      <c r="B3736">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3737" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3737" t="s">
+        <v>3450</v>
+      </c>
+      <c r="B3737">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3738" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3738" t="s">
+        <v>3451</v>
+      </c>
+      <c r="B3738">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3739" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3739" t="s">
+        <v>2422</v>
+      </c>
+      <c r="B3739">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3740" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3740" t="s">
+        <v>3452</v>
+      </c>
+      <c r="B3740">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3741" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3741" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B3741">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3742" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3742" t="s">
+        <v>3453</v>
+      </c>
+      <c r="B3742">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3743" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3743" t="s">
+        <v>3454</v>
+      </c>
+      <c r="B3743">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3744" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3744" t="s">
+        <v>3455</v>
+      </c>
+      <c r="B3744">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3745" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3745" t="s">
+        <v>3456</v>
+      </c>
+      <c r="B3745">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3746" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3746" t="s">
+        <v>3457</v>
+      </c>
+      <c r="B3746">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3747" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3747" t="s">
+        <v>3458</v>
+      </c>
+      <c r="B3747">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3748" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3748" t="s">
+        <v>3459</v>
+      </c>
+      <c r="B3748">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3749" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3749" t="s">
+        <v>3460</v>
+      </c>
+      <c r="B3749">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3750" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3750" t="s">
+        <v>3461</v>
+      </c>
+      <c r="B3750">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3751" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3751" t="s">
+        <v>3462</v>
+      </c>
+      <c r="B3751">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3752" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3752" t="s">
+        <v>3463</v>
+      </c>
+      <c r="B3752">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3753" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3753" t="s">
+        <v>3464</v>
+      </c>
+      <c r="B3753">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3754" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3754" t="s">
+        <v>2459</v>
+      </c>
+      <c r="B3754">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3755" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3755" t="s">
+        <v>3465</v>
+      </c>
+      <c r="B3755">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3756" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3756" t="s">
+        <v>3466</v>
+      </c>
+      <c r="B3756">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3757" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3757" t="s">
+        <v>3467</v>
+      </c>
+      <c r="B3757">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3758" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3758" t="s">
+        <v>3468</v>
+      </c>
+      <c r="B3758">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3759" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3759" t="s">
+        <v>3469</v>
+      </c>
+      <c r="B3759">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3760" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3760" t="s">
+        <v>3470</v>
+      </c>
+      <c r="B3760">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3761" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3761" t="s">
+        <v>3471</v>
+      </c>
+      <c r="B3761">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3762" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3762" t="s">
+        <v>3472</v>
+      </c>
+      <c r="B3762">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3763" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3763" t="s">
+        <v>3473</v>
+      </c>
+      <c r="B3763">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3764" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3764" t="s">
+        <v>3474</v>
+      </c>
+      <c r="B3764">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3765" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3765" t="s">
+        <v>3475</v>
+      </c>
+      <c r="B3765">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3766" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3766" t="s">
+        <v>3476</v>
+      </c>
+      <c r="B3766">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3767" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3767" t="s">
+        <v>3477</v>
+      </c>
+      <c r="B3767">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3768" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3768" t="s">
+        <v>3478</v>
+      </c>
+      <c r="B3768">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3769" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3769" t="s">
+        <v>3479</v>
+      </c>
+      <c r="B3769">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3770" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3770" t="s">
+        <v>3480</v>
+      </c>
+      <c r="B3770">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3771" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3771" t="s">
+        <v>3481</v>
+      </c>
+      <c r="B3771">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3772" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3772" t="s">
+        <v>3482</v>
+      </c>
+      <c r="B3772">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3773" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3773" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B3773">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3774" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3774" t="s">
+        <v>2482</v>
+      </c>
+      <c r="B3774">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3775" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3775" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B3775">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3776" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3776" t="s">
+        <v>3485</v>
+      </c>
+      <c r="B3776">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3777" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3777" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B3777">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3778" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3778" t="s">
+        <v>3487</v>
+      </c>
+      <c r="B3778">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3779" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3779" t="s">
+        <v>3488</v>
+      </c>
+      <c r="B3779">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3780" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3780" t="s">
+        <v>3489</v>
+      </c>
+      <c r="B3780">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3781" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3781" t="s">
+        <v>3490</v>
+      </c>
+      <c r="B3781">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3782" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3782" t="s">
+        <v>3491</v>
+      </c>
+      <c r="B3782">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3783" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3783" t="s">
+        <v>3492</v>
+      </c>
+      <c r="B3783">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3784" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3784" t="s">
+        <v>2491</v>
+      </c>
+      <c r="B3784">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3785" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3785" t="s">
+        <v>3493</v>
+      </c>
+      <c r="B3785">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3786" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3786" t="s">
+        <v>3494</v>
+      </c>
+      <c r="B3786">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3787" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3787" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B3787">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3788" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3788" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B3788">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3789" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3789" t="s">
+        <v>3497</v>
+      </c>
+      <c r="B3789">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3790" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3790" t="s">
+        <v>2495</v>
+      </c>
+      <c r="B3790">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3791" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3791" t="s">
+        <v>3498</v>
+      </c>
+      <c r="B3791">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3792" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3792" t="s">
+        <v>3499</v>
+      </c>
+      <c r="B3792">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3793" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3793" t="s">
+        <v>3500</v>
+      </c>
+      <c r="B3793">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3794" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3794" t="s">
+        <v>3501</v>
+      </c>
+      <c r="B3794">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3795" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3795" t="s">
+        <v>3502</v>
+      </c>
+      <c r="B3795">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3796" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3796" t="s">
+        <v>2516</v>
+      </c>
+      <c r="B3796">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3797" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3797" t="s">
+        <v>3503</v>
+      </c>
+      <c r="B3797">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3798" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3798" t="s">
+        <v>3504</v>
+      </c>
+      <c r="B3798">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3799" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3799" t="s">
+        <v>3505</v>
+      </c>
+      <c r="B3799">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3800" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3800" t="s">
+        <v>3506</v>
+      </c>
+      <c r="B3800">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3801" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3801" t="s">
+        <v>3507</v>
+      </c>
+      <c r="B3801">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3802" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3802" t="s">
+        <v>3508</v>
+      </c>
+      <c r="B3802">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3803" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3803" t="s">
+        <v>3509</v>
+      </c>
+      <c r="B3803">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3804" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3804" t="s">
+        <v>3510</v>
+      </c>
+      <c r="B3804">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3805" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3805" t="s">
+        <v>3511</v>
+      </c>
+      <c r="B3805">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3806" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3806" t="s">
+        <v>3512</v>
+      </c>
+      <c r="B3806">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3807" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3807" t="s">
+        <v>3513</v>
+      </c>
+      <c r="B3807">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3808" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3808" t="s">
+        <v>3514</v>
+      </c>
+      <c r="B3808">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3809" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3809" t="s">
+        <v>3515</v>
+      </c>
+      <c r="B3809">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3810" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3810" t="s">
+        <v>3516</v>
+      </c>
+      <c r="B3810">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3811" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3811" t="s">
+        <v>2529</v>
+      </c>
+      <c r="B3811">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3812" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3812" t="s">
+        <v>3517</v>
+      </c>
+      <c r="B3812">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3813" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3813" t="s">
+        <v>3518</v>
+      </c>
+      <c r="B3813">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3814" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3814" t="s">
+        <v>3519</v>
+      </c>
+      <c r="B3814">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3815" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3815" t="s">
+        <v>3520</v>
+      </c>
+      <c r="B3815">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3816" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3816" t="s">
+        <v>3521</v>
+      </c>
+      <c r="B3816">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3817" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3817" t="s">
+        <v>3522</v>
+      </c>
+      <c r="B3817">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3818" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3818" t="s">
+        <v>3523</v>
+      </c>
+      <c r="B3818">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3819" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3819" t="s">
+        <v>3524</v>
+      </c>
+      <c r="B3819">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3820" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3820" t="s">
+        <v>3525</v>
+      </c>
+      <c r="B3820">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3821" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3821" t="s">
+        <v>2555</v>
+      </c>
+      <c r="B3821">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3822" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3822" t="s">
+        <v>3526</v>
+      </c>
+      <c r="B3822">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3823" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3823" t="s">
+        <v>2556</v>
+      </c>
+      <c r="B3823">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3824" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3824" t="s">
+        <v>3527</v>
+      </c>
+      <c r="B3824">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3825" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3825" t="s">
+        <v>3528</v>
+      </c>
+      <c r="B3825">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3826" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3826" t="s">
+        <v>3529</v>
+      </c>
+      <c r="B3826">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3827" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3827" t="s">
+        <v>3530</v>
+      </c>
+      <c r="B3827">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3828" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3828" t="s">
+        <v>3531</v>
+      </c>
+      <c r="B3828">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3829" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3829" t="s">
+        <v>3532</v>
+      </c>
+      <c r="B3829">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3830" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3830" t="s">
+        <v>660</v>
+      </c>
+      <c r="B3830">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3831" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3831" t="s">
+        <v>3533</v>
+      </c>
+      <c r="B3831">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3832" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3832" t="s">
+        <v>3534</v>
+      </c>
+      <c r="B3832">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3833" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3833" t="s">
+        <v>3535</v>
+      </c>
+      <c r="B3833">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3834" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3834" t="s">
+        <v>3536</v>
+      </c>
+      <c r="B3834">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3835" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3835" t="s">
+        <v>3537</v>
+      </c>
+      <c r="B3835">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3836" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3836" t="s">
+        <v>3538</v>
+      </c>
+      <c r="B3836">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3837" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3837" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B3837">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3838" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3838" t="s">
+        <v>3540</v>
+      </c>
+      <c r="B3838">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3839" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3839" t="s">
+        <v>3541</v>
+      </c>
+      <c r="B3839">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3840" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3840" t="s">
+        <v>3542</v>
+      </c>
+      <c r="B3840">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3841" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3841" t="s">
+        <v>3543</v>
+      </c>
+      <c r="B3841">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3842" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3842" t="s">
+        <v>3544</v>
+      </c>
+      <c r="B3842">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3843" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3843" t="s">
+        <v>3545</v>
+      </c>
+      <c r="B3843">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3844" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3844" t="s">
+        <v>3546</v>
+      </c>
+      <c r="B3844">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3845" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3845" t="s">
+        <v>3547</v>
+      </c>
+      <c r="B3845">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3846" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3846" t="s">
+        <v>3548</v>
+      </c>
+      <c r="B3846">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3847" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3847" t="s">
+        <v>3549</v>
+      </c>
+      <c r="B3847">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3848" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3848" t="s">
+        <v>3550</v>
+      </c>
+      <c r="B3848">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3849" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3849" t="s">
+        <v>3551</v>
+      </c>
+      <c r="B3849">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3850" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3850" t="s">
+        <v>3552</v>
+      </c>
+      <c r="B3850">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3851" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3851" t="s">
+        <v>3553</v>
+      </c>
+      <c r="B3851">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3852" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3852" t="s">
+        <v>3554</v>
+      </c>
+      <c r="B3852">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3853" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3853" t="s">
+        <v>3555</v>
+      </c>
+      <c r="B3853">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3854" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3854" t="s">
+        <v>3556</v>
+      </c>
+      <c r="B3854">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3855" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3855" t="s">
+        <v>3557</v>
+      </c>
+      <c r="B3855">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3856" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3856" t="s">
+        <v>3558</v>
+      </c>
+      <c r="B3856">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3857" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3857" t="s">
+        <v>3559</v>
+      </c>
+      <c r="B3857">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3858" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3858" t="s">
+        <v>3560</v>
+      </c>
+      <c r="B3858">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3859" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3859" t="s">
+        <v>3561</v>
+      </c>
+      <c r="B3859">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3860" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3860" t="s">
+        <v>3562</v>
+      </c>
+      <c r="B3860">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3861" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3861" t="s">
+        <v>3563</v>
+      </c>
+      <c r="B3861">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3862" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3862" t="s">
+        <v>3564</v>
+      </c>
+      <c r="B3862">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3863" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3863" t="s">
+        <v>3565</v>
+      </c>
+      <c r="B3863">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3864" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3864" t="s">
+        <v>3566</v>
+      </c>
+      <c r="B3864">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3865" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3865" t="s">
+        <v>3567</v>
+      </c>
+      <c r="B3865">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3866" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3866" t="s">
+        <v>3568</v>
+      </c>
+      <c r="B3866">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3867" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3867" t="s">
+        <v>3569</v>
+      </c>
+      <c r="B3867">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3868" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3868" t="s">
+        <v>3570</v>
+      </c>
+      <c r="B3868">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3869" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3869" t="s">
+        <v>3571</v>
+      </c>
+      <c r="B3869">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3870" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3870" t="s">
+        <v>3572</v>
+      </c>
+      <c r="B3870">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3871" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3871" t="s">
+        <v>3573</v>
+      </c>
+      <c r="B3871">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3872" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3872" t="s">
+        <v>3574</v>
+      </c>
+      <c r="B3872">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3873" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3873" t="s">
+        <v>3575</v>
+      </c>
+      <c r="B3873">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3874" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3874" t="s">
+        <v>3576</v>
+      </c>
+      <c r="B3874">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3875" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3875" t="s">
+        <v>3577</v>
+      </c>
+      <c r="B3875">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3876" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3876" t="s">
+        <v>3578</v>
+      </c>
+      <c r="B3876">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3877" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3877" t="s">
+        <v>3579</v>
+      </c>
+      <c r="B3877">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3878" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3878" t="s">
+        <v>3580</v>
+      </c>
+      <c r="B3878">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3879" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3879" t="s">
+        <v>3581</v>
+      </c>
+      <c r="B3879">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3880" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3880" t="s">
+        <v>3582</v>
+      </c>
+      <c r="B3880">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3881" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3881" t="s">
+        <v>3583</v>
+      </c>
+      <c r="B3881">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3882" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3882" t="s">
+        <v>3584</v>
+      </c>
+      <c r="B3882">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3883" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3883" t="s">
+        <v>3585</v>
+      </c>
+      <c r="B3883">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3884" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3884" t="s">
+        <v>3586</v>
+      </c>
+      <c r="B3884">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3885" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3885" t="s">
+        <v>3587</v>
+      </c>
+      <c r="B3885">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3886" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3886" t="s">
+        <v>3588</v>
+      </c>
+      <c r="B3886">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3887" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3887" t="s">
+        <v>3589</v>
+      </c>
+      <c r="B3887">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3888" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3888" t="s">
+        <v>3590</v>
+      </c>
+      <c r="B3888">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3889" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3889" t="s">
+        <v>3591</v>
+      </c>
+      <c r="B3889">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3890" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3890" t="s">
+        <v>3592</v>
+      </c>
+      <c r="B3890">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3891" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3891" t="s">
+        <v>3593</v>
+      </c>
+      <c r="B3891">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3892" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3892" t="s">
+        <v>3594</v>
+      </c>
+      <c r="B3892">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3893" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3893" t="s">
+        <v>3595</v>
+      </c>
+      <c r="B3893">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3894" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3894" t="s">
+        <v>2686</v>
+      </c>
+      <c r="B3894">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3895" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3895" t="s">
+        <v>3596</v>
+      </c>
+      <c r="B3895">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3896" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3896" t="s">
+        <v>3597</v>
+      </c>
+      <c r="B3896">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3897" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3897" t="s">
+        <v>3598</v>
+      </c>
+      <c r="B3897">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3898" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3898" t="s">
+        <v>3599</v>
+      </c>
+      <c r="B3898">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3899" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3899" t="s">
+        <v>3600</v>
+      </c>
+      <c r="B3899">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3900" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3900" t="s">
+        <v>2693</v>
+      </c>
+      <c r="B3900">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3901" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3901" t="s">
+        <v>3601</v>
+      </c>
+      <c r="B3901">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3902" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3902" t="s">
+        <v>3602</v>
+      </c>
+      <c r="B3902">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3903" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3903" t="s">
+        <v>3603</v>
+      </c>
+      <c r="B3903">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3904" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3904" t="s">
+        <v>3604</v>
+      </c>
+      <c r="B3904">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3905" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3905" t="s">
+        <v>2703</v>
+      </c>
+      <c r="B3905">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3906" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3906" t="s">
+        <v>3605</v>
+      </c>
+      <c r="B3906">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3907" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3907" t="s">
+        <v>3606</v>
+      </c>
+      <c r="B3907">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3908" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3908" t="s">
+        <v>3607</v>
+      </c>
+      <c r="B3908">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3909" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3909" t="s">
+        <v>3608</v>
+      </c>
+      <c r="B3909">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3910" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3910" t="s">
+        <v>3609</v>
+      </c>
+      <c r="B3910">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3911" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3911" t="s">
+        <v>3610</v>
+      </c>
+      <c r="B3911">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3912" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3912" t="s">
+        <v>3611</v>
+      </c>
+      <c r="B3912">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3913" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3913" t="s">
+        <v>3612</v>
+      </c>
+      <c r="B3913">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3914" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3914" t="s">
+        <v>3613</v>
+      </c>
+      <c r="B3914">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3915" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3915" t="s">
+        <v>3614</v>
+      </c>
+      <c r="B3915">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3916" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3916" t="s">
+        <v>3615</v>
+      </c>
+      <c r="B3916">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3917" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3917" t="s">
+        <v>3616</v>
+      </c>
+      <c r="B3917">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3918" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3918" t="s">
+        <v>3617</v>
+      </c>
+      <c r="B3918">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3919" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3919" t="s">
+        <v>2726</v>
+      </c>
+      <c r="B3919">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3920" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3920" t="s">
+        <v>3618</v>
+      </c>
+      <c r="B3920">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3921" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3921" t="s">
+        <v>3619</v>
+      </c>
+      <c r="B3921">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3922" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3922" t="s">
+        <v>3620</v>
+      </c>
+      <c r="B3922">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3923" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3923" t="s">
+        <v>3621</v>
+      </c>
+      <c r="B3923">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3924" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3924" t="s">
+        <v>3622</v>
+      </c>
+      <c r="B3924">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3925" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3925" t="s">
+        <v>3623</v>
+      </c>
+      <c r="B3925">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3926" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3926" t="s">
+        <v>3624</v>
+      </c>
+      <c r="B3926">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3927" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3927" t="s">
+        <v>3625</v>
+      </c>
+      <c r="B3927">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3928" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3928" t="s">
+        <v>3626</v>
+      </c>
+      <c r="B3928">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3929" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3929" t="s">
+        <v>3627</v>
+      </c>
+      <c r="B3929">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3930" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3930" t="s">
+        <v>2738</v>
+      </c>
+      <c r="B3930">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3931" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3931" t="s">
+        <v>3628</v>
+      </c>
+      <c r="B3931">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3932" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3932" t="s">
+        <v>3629</v>
+      </c>
+      <c r="B3932">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3933" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3933" t="s">
+        <v>3630</v>
+      </c>
+      <c r="B3933">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3934" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3934" t="s">
+        <v>3631</v>
+      </c>
+      <c r="B3934">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3935" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3935" t="s">
+        <v>2752</v>
+      </c>
+      <c r="B3935">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3936" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3936" t="s">
+        <v>3632</v>
+      </c>
+      <c r="B3936">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3937" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3937" t="s">
+        <v>3633</v>
+      </c>
+      <c r="B3937">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3938" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3938" t="s">
+        <v>3634</v>
+      </c>
+      <c r="B3938">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3939" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3939" t="s">
+        <v>2758</v>
+      </c>
+      <c r="B3939">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3940" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3940" t="s">
+        <v>3635</v>
+      </c>
+      <c r="B3940">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3941" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3941" t="s">
+        <v>3636</v>
+      </c>
+      <c r="B3941">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3942" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3942" t="s">
+        <v>3637</v>
+      </c>
+      <c r="B3942">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3943" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3943" t="s">
+        <v>3638</v>
+      </c>
+      <c r="B3943">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3944" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3944" t="s">
+        <v>3639</v>
+      </c>
+      <c r="B3944">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3945" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3945" t="s">
+        <v>3640</v>
+      </c>
+      <c r="B3945">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3946" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3946" t="s">
+        <v>3641</v>
+      </c>
+      <c r="B3946">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3947" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3947" t="s">
+        <v>3642</v>
+      </c>
+      <c r="B3947">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3948" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3948" t="s">
+        <v>3643</v>
+      </c>
+      <c r="B3948">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3949" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3949" t="s">
+        <v>3644</v>
+      </c>
+      <c r="B3949">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3950" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3950" t="s">
+        <v>3645</v>
+      </c>
+      <c r="B3950">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3951" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3951" t="s">
+        <v>2765</v>
+      </c>
+      <c r="B3951">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3952" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3952" t="s">
+        <v>2768</v>
+      </c>
+      <c r="B3952">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3953" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3953" t="s">
+        <v>3646</v>
+      </c>
+      <c r="B3953">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3954" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3954" t="s">
+        <v>2770</v>
+      </c>
+      <c r="B3954">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3955" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3955" t="s">
+        <v>3647</v>
+      </c>
+      <c r="B3955">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3956" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3956" t="s">
+        <v>3648</v>
+      </c>
+      <c r="B3956">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3957" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3957" t="s">
+        <v>3649</v>
+      </c>
+      <c r="B3957">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3958" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3958" t="s">
+        <v>3650</v>
+      </c>
+      <c r="B3958">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3959" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3959" t="s">
+        <v>3651</v>
+      </c>
+      <c r="B3959">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3960" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3960" t="s">
+        <v>3652</v>
+      </c>
+      <c r="B3960">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3961" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3961" t="s">
+        <v>3653</v>
+      </c>
+      <c r="B3961">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3962" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3962" t="s">
+        <v>3654</v>
+      </c>
+      <c r="B3962">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3963" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3963" t="s">
+        <v>3655</v>
+      </c>
+      <c r="B3963">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3964" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3964" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B3964">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3965" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3965" t="s">
+        <v>3656</v>
+      </c>
+      <c r="B3965">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3966" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3966" t="s">
+        <v>3657</v>
+      </c>
+      <c r="B3966">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3967" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3967" t="s">
+        <v>3658</v>
+      </c>
+      <c r="B3967">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3968" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3968" t="s">
+        <v>2782</v>
+      </c>
+      <c r="B3968">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3969" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3969" t="s">
+        <v>3659</v>
+      </c>
+      <c r="B3969">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3970" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3970" t="s">
+        <v>3660</v>
+      </c>
+      <c r="B3970">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3971" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3971" t="s">
+        <v>2784</v>
+      </c>
+      <c r="B3971">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3972" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3972" t="s">
+        <v>3661</v>
+      </c>
+      <c r="B3972">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3973" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3973" t="s">
+        <v>3662</v>
+      </c>
+      <c r="B3973">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3974" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3974" t="s">
+        <v>2787</v>
+      </c>
+      <c r="B3974">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3975" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3975" t="s">
+        <v>2788</v>
+      </c>
+      <c r="B3975">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3976" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3976" t="s">
+        <v>2789</v>
+      </c>
+      <c r="B3976">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3977" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3977" t="s">
+        <v>3663</v>
+      </c>
+      <c r="B3977">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3978" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3978" t="s">
+        <v>3664</v>
+      </c>
+      <c r="B3978">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3979" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3979" t="s">
+        <v>3665</v>
+      </c>
+      <c r="B3979">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3980" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3980" t="s">
+        <v>3666</v>
+      </c>
+      <c r="B3980">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3981" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3981" t="s">
+        <v>3667</v>
+      </c>
+      <c r="B3981">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3982" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3982" t="s">
+        <v>3668</v>
+      </c>
+      <c r="B3982">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3983" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3983" t="s">
+        <v>3669</v>
+      </c>
+      <c r="B3983">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3984" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3984" t="s">
+        <v>3670</v>
+      </c>
+      <c r="B3984">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3985" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3985" t="s">
+        <v>3671</v>
+      </c>
+      <c r="B3985">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3986" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3986" t="s">
+        <v>3672</v>
+      </c>
+      <c r="B3986">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3987" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3987" t="s">
+        <v>3673</v>
+      </c>
+      <c r="B3987">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3988" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3988" t="s">
+        <v>3674</v>
+      </c>
+      <c r="B3988">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3989" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3989" t="s">
+        <v>3675</v>
+      </c>
+      <c r="B3989">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3990" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3990" t="s">
+        <v>3676</v>
+      </c>
+      <c r="B3990">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3991" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3991" t="s">
+        <v>3677</v>
+      </c>
+      <c r="B3991">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3992" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3992" t="s">
+        <v>3678</v>
+      </c>
+      <c r="B3992">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3993" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3993" t="s">
+        <v>3679</v>
+      </c>
+      <c r="B3993">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3994" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3994" t="s">
+        <v>3680</v>
+      </c>
+      <c r="B3994">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3995" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3995" t="s">
+        <v>2795</v>
+      </c>
+      <c r="B3995">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3996" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3996" t="s">
+        <v>3681</v>
+      </c>
+      <c r="B3996">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3997" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3997" t="s">
+        <v>3682</v>
+      </c>
+      <c r="B3997">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3998" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3998" t="s">
+        <v>3683</v>
+      </c>
+      <c r="B3998">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3999" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3999" t="s">
+        <v>3684</v>
+      </c>
+      <c r="B3999">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4000" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4000" t="s">
+        <v>3685</v>
+      </c>
+      <c r="B4000">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4001" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4001" t="s">
+        <v>3686</v>
+      </c>
+      <c r="B4001">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4002" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4002" t="s">
+        <v>3687</v>
+      </c>
+      <c r="B4002">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4003" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4003" t="s">
+        <v>3688</v>
+      </c>
+      <c r="B4003">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4004" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4004" t="s">
+        <v>3689</v>
+      </c>
+      <c r="B4004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4005" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4005" t="s">
+        <v>3690</v>
+      </c>
+      <c r="B4005">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4006" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4006" t="s">
+        <v>3691</v>
+      </c>
+      <c r="B4006">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4007" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4007" t="s">
+        <v>2806</v>
+      </c>
+      <c r="B4007">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4008" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4008" t="s">
+        <v>3692</v>
+      </c>
+      <c r="B4008">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4009" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4009" t="s">
+        <v>3693</v>
+      </c>
+      <c r="B4009">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4010" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4010" t="s">
+        <v>3694</v>
+      </c>
+      <c r="B4010">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4011" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4011" t="s">
+        <v>3695</v>
+      </c>
+      <c r="B4011">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4012" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4012" t="s">
+        <v>3696</v>
+      </c>
+      <c r="B4012">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4013" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4013" t="s">
+        <v>3697</v>
+      </c>
+      <c r="B4013">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4014" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4014" t="s">
+        <v>3698</v>
+      </c>
+      <c r="B4014">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4015" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4015" t="s">
+        <v>3699</v>
+      </c>
+      <c r="B4015">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4016" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4016" t="s">
+        <v>3700</v>
+      </c>
+      <c r="B4016">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4017" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4017" t="s">
+        <v>3701</v>
+      </c>
+      <c r="B4017">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4018" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4018" t="s">
+        <v>3702</v>
+      </c>
+      <c r="B4018">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4019" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4019" t="s">
+        <v>2814</v>
+      </c>
+      <c r="B4019">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4020" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4020" t="s">
+        <v>3703</v>
+      </c>
+      <c r="B4020">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4021" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4021" t="s">
+        <v>3704</v>
+      </c>
+      <c r="B4021">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4022" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4022" t="s">
+        <v>2819</v>
+      </c>
+      <c r="B4022">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4023" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4023" t="s">
+        <v>3705</v>
+      </c>
+      <c r="B4023">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4024" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4024" t="s">
+        <v>3706</v>
+      </c>
+      <c r="B4024">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4025" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4025" t="s">
+        <v>3707</v>
+      </c>
+      <c r="B4025">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4026" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4026" t="s">
+        <v>3708</v>
+      </c>
+      <c r="B4026">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4027" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4027" t="s">
+        <v>3709</v>
+      </c>
+      <c r="B4027">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4028" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4028" t="s">
+        <v>3710</v>
+      </c>
+      <c r="B4028">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4029" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4029" t="s">
+        <v>3711</v>
+      </c>
+      <c r="B4029">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4030" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4030" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B4030">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4031" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4031" t="s">
+        <v>2823</v>
+      </c>
+      <c r="B4031">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4032" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4032" t="s">
+        <v>3713</v>
+      </c>
+      <c r="B4032">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4033" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4033" t="s">
+        <v>3714</v>
+      </c>
+      <c r="B4033">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4034" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4034" t="s">
+        <v>3715</v>
+      </c>
+      <c r="B4034">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4035" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4035" t="s">
+        <v>3716</v>
+      </c>
+      <c r="B4035">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4036" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4036" t="s">
+        <v>2826</v>
+      </c>
+      <c r="B4036">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4037" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4037" t="s">
+        <v>3717</v>
+      </c>
+      <c r="B4037">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4038" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4038" t="s">
+        <v>3718</v>
+      </c>
+      <c r="B4038">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4039" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4039" t="s">
+        <v>3719</v>
+      </c>
+      <c r="B4039">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4040" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4040" t="s">
+        <v>2828</v>
+      </c>
+      <c r="B4040">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4041" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4041" t="s">
+        <v>3720</v>
+      </c>
+      <c r="B4041">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4042" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4042" t="s">
+        <v>3721</v>
+      </c>
+      <c r="B4042">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4043" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4043" t="s">
+        <v>3722</v>
+      </c>
+      <c r="B4043">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4044" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4044" t="s">
+        <v>3723</v>
+      </c>
+      <c r="B4044">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4045" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4045" t="s">
+        <v>3724</v>
+      </c>
+      <c r="B4045">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4046" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4046" t="s">
+        <v>2837</v>
+      </c>
+      <c r="B4046">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4047" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4047" t="s">
+        <v>3725</v>
+      </c>
+      <c r="B4047">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4048" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4048" t="s">
+        <v>3726</v>
+      </c>
+      <c r="B4048">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4049" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4049" t="s">
+        <v>2840</v>
+      </c>
+      <c r="B4049">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4050" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4050" t="s">
+        <v>3727</v>
+      </c>
+      <c r="B4050">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4051" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4051" t="s">
+        <v>3728</v>
+      </c>
+      <c r="B4051">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4052" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4052" t="s">
+        <v>3729</v>
+      </c>
+      <c r="B4052">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4053" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4053" t="s">
+        <v>3730</v>
+      </c>
+      <c r="B4053">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4054" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4054" t="s">
+        <v>3731</v>
+      </c>
+      <c r="B4054">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4055" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4055" t="s">
+        <v>3732</v>
+      </c>
+      <c r="B4055">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4056" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4056" t="s">
+        <v>2844</v>
+      </c>
+      <c r="B4056">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4057" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4057" t="s">
+        <v>3733</v>
+      </c>
+      <c r="B4057">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4058" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4058" t="s">
+        <v>2846</v>
+      </c>
+      <c r="B4058">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4059" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4059" t="s">
+        <v>3734</v>
+      </c>
+      <c r="B4059">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4060" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4060" t="s">
+        <v>3735</v>
+      </c>
+      <c r="B4060">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4061" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4061" t="s">
+        <v>3736</v>
+      </c>
+      <c r="B4061">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4062" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4062" t="s">
+        <v>3737</v>
+      </c>
+      <c r="B4062">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4063" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4063" t="s">
+        <v>3738</v>
+      </c>
+      <c r="B4063">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4064" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4064" t="s">
+        <v>3739</v>
+      </c>
+      <c r="B4064">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4065" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4065" t="s">
+        <v>3740</v>
+      </c>
+      <c r="B4065">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4066" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4066" t="s">
+        <v>2853</v>
+      </c>
+      <c r="B4066">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4067" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4067" t="s">
+        <v>3741</v>
+      </c>
+      <c r="B4067">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4068" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4068" t="s">
+        <v>2858</v>
+      </c>
+      <c r="B4068">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4069" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4069" t="s">
+        <v>3742</v>
+      </c>
+      <c r="B4069">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4070" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4070" t="s">
+        <v>3743</v>
+      </c>
+      <c r="B4070">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4071" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4071" t="s">
+        <v>2859</v>
+      </c>
+      <c r="B4071">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4072" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4072" t="s">
+        <v>2861</v>
+      </c>
+      <c r="B4072">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4073" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4073" t="s">
+        <v>3744</v>
+      </c>
+      <c r="B4073">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4074" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4074" t="s">
+        <v>3745</v>
+      </c>
+      <c r="B4074">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4075" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4075" t="s">
+        <v>3746</v>
+      </c>
+      <c r="B4075">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4076" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4076" t="s">
+        <v>2865</v>
+      </c>
+      <c r="B4076">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4077" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4077" t="s">
+        <v>3747</v>
+      </c>
+      <c r="B4077">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4078" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4078" t="s">
+        <v>3748</v>
+      </c>
+      <c r="B4078">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4079" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4079" t="s">
+        <v>3749</v>
+      </c>
+      <c r="B4079">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4080" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4080" t="s">
+        <v>3750</v>
+      </c>
+      <c r="B4080">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4081" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4081" t="s">
+        <v>3751</v>
+      </c>
+      <c r="B4081">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4082" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4082" t="s">
+        <v>3752</v>
+      </c>
+      <c r="B4082">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4083" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4083" t="s">
+        <v>3753</v>
+      </c>
+      <c r="B4083">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4084" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4084" t="s">
+        <v>3754</v>
+      </c>
+      <c r="B4084">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4085" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4085" t="s">
+        <v>3755</v>
+      </c>
+      <c r="B4085">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4086" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4086" t="s">
+        <v>3756</v>
+      </c>
+      <c r="B4086">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4087" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4087" t="s">
+        <v>3757</v>
+      </c>
+      <c r="B4087">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4088" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4088" t="s">
+        <v>3758</v>
+      </c>
+      <c r="B4088">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4089" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4089" t="s">
+        <v>3759</v>
+      </c>
+      <c r="B4089">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4090" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4090" t="s">
+        <v>3760</v>
+      </c>
+      <c r="B4090">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4091" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4091" t="s">
+        <v>3761</v>
+      </c>
+      <c r="B4091">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4092" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4092" t="s">
+        <v>3762</v>
+      </c>
+      <c r="B4092">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4093" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4093" t="s">
+        <v>3763</v>
+      </c>
+      <c r="B4093">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4094" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4094" t="s">
+        <v>3764</v>
+      </c>
+      <c r="B4094">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4095" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4095" t="s">
+        <v>3765</v>
+      </c>
+      <c r="B4095">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4096" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4096" t="s">
+        <v>2890</v>
+      </c>
+      <c r="B4096">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4097" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4097" t="s">
+        <v>2891</v>
+      </c>
+      <c r="B4097">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4098" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4098" t="s">
+        <v>3766</v>
+      </c>
+      <c r="B4098">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4099" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4099" t="s">
+        <v>3767</v>
+      </c>
+      <c r="B4099">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4100" t="s">
+        <v>3768</v>
+      </c>
+      <c r="B4100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4101" t="s">
+        <v>3769</v>
+      </c>
+      <c r="B4101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4102" t="s">
+        <v>3770</v>
+      </c>
+      <c r="B4102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4103" t="s">
+        <v>3771</v>
+      </c>
+      <c r="B4103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4104" t="s">
+        <v>3772</v>
+      </c>
+      <c r="B4104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4105" t="s">
+        <v>3773</v>
+      </c>
+      <c r="B4105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4106" t="s">
+        <v>3774</v>
+      </c>
+      <c r="B4106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4107" t="s">
+        <v>3775</v>
+      </c>
+      <c r="B4107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4108" t="s">
+        <v>3776</v>
+      </c>
+      <c r="B4108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4109" t="s">
+        <v>3777</v>
+      </c>
+      <c r="B4109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4110" t="s">
+        <v>2898</v>
+      </c>
+      <c r="B4110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4111" t="s">
+        <v>3778</v>
+      </c>
+      <c r="B4111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4112" t="s">
+        <v>3779</v>
+      </c>
+      <c r="B4112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4113" t="s">
+        <v>3780</v>
+      </c>
+      <c r="B4113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4114" t="s">
+        <v>3781</v>
+      </c>
+      <c r="B4114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4115" t="s">
+        <v>2903</v>
+      </c>
+      <c r="B4115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4116" t="s">
+        <v>3782</v>
+      </c>
+      <c r="B4116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4117" t="s">
+        <v>3783</v>
+      </c>
+      <c r="B4117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4118" t="s">
+        <v>3784</v>
+      </c>
+      <c r="B4118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4119" t="s">
+        <v>2912</v>
+      </c>
+      <c r="B4119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4120" t="s">
+        <v>3785</v>
+      </c>
+      <c r="B4120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4121" t="s">
+        <v>3786</v>
+      </c>
+      <c r="B4121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4122" t="s">
+        <v>3787</v>
+      </c>
+      <c r="B4122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4123" t="s">
+        <v>3788</v>
+      </c>
+      <c r="B4123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4124" t="s">
+        <v>3789</v>
+      </c>
+      <c r="B4124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4125" t="s">
+        <v>3790</v>
+      </c>
+      <c r="B4125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4126" t="s">
+        <v>3791</v>
+      </c>
+      <c r="B4126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4127" t="s">
+        <v>3792</v>
+      </c>
+      <c r="B4127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4128" t="s">
+        <v>3793</v>
+      </c>
+      <c r="B4128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4129" t="s">
+        <v>3794</v>
+      </c>
+      <c r="B4129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4130" t="s">
+        <v>3795</v>
+      </c>
+      <c r="B4130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4131" t="s">
+        <v>2920</v>
+      </c>
+      <c r="B4131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4132" t="s">
+        <v>2921</v>
+      </c>
+      <c r="B4132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4133" t="s">
+        <v>3796</v>
+      </c>
+      <c r="B4133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4134" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B4134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4135" t="s">
+        <v>3798</v>
+      </c>
+      <c r="B4135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4136" t="s">
+        <v>3799</v>
+      </c>
+      <c r="B4136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4137" t="s">
+        <v>3800</v>
+      </c>
+      <c r="B4137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4138" t="s">
+        <v>3801</v>
+      </c>
+      <c r="B4138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4139" t="s">
+        <v>3802</v>
+      </c>
+      <c r="B4139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4140" t="s">
+        <v>3803</v>
+      </c>
+      <c r="B4140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4141" t="s">
+        <v>3804</v>
+      </c>
+      <c r="B4141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4142" t="s">
+        <v>2937</v>
+      </c>
+      <c r="B4142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4143" t="s">
+        <v>2938</v>
+      </c>
+      <c r="B4143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4144" t="s">
+        <v>3805</v>
+      </c>
+      <c r="B4144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4145" t="s">
+        <v>3806</v>
+      </c>
+      <c r="B4145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4146" t="s">
+        <v>3807</v>
+      </c>
+      <c r="B4146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4147" t="s">
+        <v>3808</v>
+      </c>
+      <c r="B4147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4148" t="s">
+        <v>3809</v>
+      </c>
+      <c r="B4148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4149" t="s">
+        <v>3810</v>
+      </c>
+      <c r="B4149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4150" t="s">
+        <v>3811</v>
+      </c>
+      <c r="B4150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4151" t="s">
+        <v>3812</v>
+      </c>
+      <c r="B4151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4152" t="s">
+        <v>3813</v>
+      </c>
+      <c r="B4152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4153" t="s">
+        <v>2958</v>
+      </c>
+      <c r="B4153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4154" t="s">
+        <v>3814</v>
+      </c>
+      <c r="B4154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4155" t="s">
+        <v>3815</v>
+      </c>
+      <c r="B4155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4156" t="s">
+        <v>3816</v>
+      </c>
+      <c r="B4156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4157" t="s">
+        <v>2961</v>
+      </c>
+      <c r="B4157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4158" t="s">
+        <v>3817</v>
+      </c>
+      <c r="B4158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4159" t="s">
+        <v>2962</v>
+      </c>
+      <c r="B4159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4160" t="s">
+        <v>3818</v>
+      </c>
+      <c r="B4160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4161" t="s">
+        <v>3819</v>
+      </c>
+      <c r="B4161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4162" t="s">
+        <v>3820</v>
+      </c>
+      <c r="B4162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4163" t="s">
+        <v>3821</v>
+      </c>
+      <c r="B4163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4164" t="s">
+        <v>2966</v>
+      </c>
+      <c r="B4164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4165" t="s">
+        <v>2968</v>
+      </c>
+      <c r="B4165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4166" t="s">
+        <v>2969</v>
+      </c>
+      <c r="B4166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4167" t="s">
+        <v>3822</v>
+      </c>
+      <c r="B4167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4168" t="s">
+        <v>3823</v>
+      </c>
+      <c r="B4168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4169" t="s">
+        <v>2972</v>
+      </c>
+      <c r="B4169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4170" t="s">
+        <v>3824</v>
+      </c>
+      <c r="B4170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4171" t="s">
+        <v>2974</v>
+      </c>
+      <c r="B4171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4172" t="s">
+        <v>3825</v>
+      </c>
+      <c r="B4172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4173" t="s">
+        <v>3826</v>
+      </c>
+      <c r="B4173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4174" t="s">
+        <v>3827</v>
+      </c>
+      <c r="B4174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4175" t="s">
+        <v>3828</v>
+      </c>
+      <c r="B4175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4176" t="s">
+        <v>2986</v>
+      </c>
+      <c r="B4176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4177" t="s">
+        <v>3829</v>
+      </c>
+      <c r="B4177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4178" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B4178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4179" t="s">
+        <v>3831</v>
+      </c>
+      <c r="B4179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4180" t="s">
+        <v>3832</v>
+      </c>
+      <c r="B4180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4181" t="s">
+        <v>2994</v>
+      </c>
+      <c r="B4181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4182" t="s">
+        <v>3833</v>
+      </c>
+      <c r="B4182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4183" t="s">
+        <v>3834</v>
+      </c>
+      <c r="B4183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4184" t="s">
+        <v>3835</v>
+      </c>
+      <c r="B4184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4185" t="s">
+        <v>3836</v>
+      </c>
+      <c r="B4185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4186" t="s">
+        <v>2999</v>
+      </c>
+      <c r="B4186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4187" t="s">
+        <v>3837</v>
+      </c>
+      <c r="B4187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4188" t="s">
+        <v>3000</v>
+      </c>
+      <c r="B4188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4189" t="s">
+        <v>3838</v>
+      </c>
+      <c r="B4189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4190" t="s">
+        <v>3839</v>
+      </c>
+      <c r="B4190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4191" t="s">
+        <v>3840</v>
+      </c>
+      <c r="B4191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4192" t="s">
+        <v>3841</v>
+      </c>
+      <c r="B4192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4193" t="s">
+        <v>3842</v>
+      </c>
+      <c r="B4193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4194" t="s">
+        <v>3843</v>
+      </c>
+      <c r="B4194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4195" t="s">
+        <v>3844</v>
+      </c>
+      <c r="B4195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4196" t="s">
+        <v>3845</v>
+      </c>
+      <c r="B4196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4197" t="s">
+        <v>3846</v>
+      </c>
+      <c r="B4197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4198" t="s">
+        <v>3847</v>
+      </c>
+      <c r="B4198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4199" t="s">
+        <v>3024</v>
+      </c>
+      <c r="B4199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4200" t="s">
+        <v>3848</v>
+      </c>
+      <c r="B4200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4201" t="s">
+        <v>3849</v>
+      </c>
+      <c r="B4201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4202" t="s">
+        <v>3850</v>
+      </c>
+      <c r="B4202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4203" t="s">
+        <v>3851</v>
+      </c>
+      <c r="B4203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4204" t="s">
+        <v>3852</v>
+      </c>
+      <c r="B4204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4205" t="s">
+        <v>3853</v>
+      </c>
+      <c r="B4205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4206" t="s">
+        <v>3854</v>
+      </c>
+      <c r="B4206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4207" t="s">
+        <v>3036</v>
+      </c>
+      <c r="B4207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4208" t="s">
+        <v>3038</v>
+      </c>
+      <c r="B4208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4209" t="s">
+        <v>3855</v>
+      </c>
+      <c r="B4209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4210" t="s">
+        <v>3856</v>
+      </c>
+      <c r="B4210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4211" t="s">
+        <v>3857</v>
+      </c>
+      <c r="B4211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4212" t="s">
+        <v>3041</v>
+      </c>
+      <c r="B4212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4213" t="s">
+        <v>3858</v>
+      </c>
+      <c r="B4213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4214" t="s">
+        <v>3859</v>
+      </c>
+      <c r="B4214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4215" t="s">
+        <v>3860</v>
+      </c>
+      <c r="B4215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4216" t="s">
+        <v>3861</v>
+      </c>
+      <c r="B4216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4217" t="s">
+        <v>3862</v>
+      </c>
+      <c r="B4217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4218" t="s">
+        <v>3863</v>
+      </c>
+      <c r="B4218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4219" t="s">
+        <v>3864</v>
+      </c>
+      <c r="B4219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4220" t="s">
+        <v>3865</v>
+      </c>
+      <c r="B4220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4221" t="s">
+        <v>3866</v>
+      </c>
+      <c r="B4221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4222" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B4222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4223" t="s">
+        <v>3051</v>
+      </c>
+      <c r="B4223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4224" t="s">
+        <v>3054</v>
+      </c>
+      <c r="B4224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4225" t="s">
+        <v>3058</v>
+      </c>
+      <c r="B4225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4226" t="s">
+        <v>3867</v>
+      </c>
+      <c r="B4226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4227" t="s">
+        <v>3868</v>
+      </c>
+      <c r="B4227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4228" t="s">
+        <v>3869</v>
+      </c>
+      <c r="B4228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4229" t="s">
+        <v>3870</v>
+      </c>
+      <c r="B4229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4230" t="s">
+        <v>3871</v>
+      </c>
+      <c r="B4230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4231" t="s">
+        <v>3872</v>
+      </c>
+      <c r="B4231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4232" t="s">
+        <v>3873</v>
+      </c>
+      <c r="B4232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4233" t="s">
+        <v>3874</v>
+      </c>
+      <c r="B4233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4234" t="s">
+        <v>3069</v>
+      </c>
+      <c r="B4234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4235" t="s">
+        <v>3875</v>
+      </c>
+      <c r="B4235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4236" t="s">
+        <v>3876</v>
+      </c>
+      <c r="B4236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4237" t="s">
+        <v>3073</v>
+      </c>
+      <c r="B4237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4238" t="s">
+        <v>3877</v>
+      </c>
+      <c r="B4238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4239" t="s">
+        <v>3076</v>
+      </c>
+      <c r="B4239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4240" t="s">
+        <v>3878</v>
+      </c>
+      <c r="B4240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4241" t="s">
+        <v>3879</v>
+      </c>
+      <c r="B4241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4242" t="s">
+        <v>3080</v>
+      </c>
+      <c r="B4242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4243" t="s">
+        <v>3880</v>
+      </c>
+      <c r="B4243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4244" t="s">
+        <v>3881</v>
+      </c>
+      <c r="B4244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4245" t="s">
+        <v>3882</v>
+      </c>
+      <c r="B4245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4246" t="s">
+        <v>3883</v>
+      </c>
+      <c r="B4246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4247" t="s">
+        <v>3086</v>
+      </c>
+      <c r="B4247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4248" t="s">
+        <v>3884</v>
+      </c>
+      <c r="B4248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4249" t="s">
+        <v>3885</v>
+      </c>
+      <c r="B4249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4250" t="s">
+        <v>3886</v>
+      </c>
+      <c r="B4250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4251" t="s">
+        <v>3887</v>
+      </c>
+      <c r="B4251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4252" t="s">
+        <v>3888</v>
+      </c>
+      <c r="B4252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4253" t="s">
+        <v>3889</v>
+      </c>
+      <c r="B4253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4254" t="s">
+        <v>3890</v>
+      </c>
+      <c r="B4254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4255" t="s">
+        <v>3891</v>
+      </c>
+      <c r="B4255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4256" t="s">
+        <v>3892</v>
+      </c>
+      <c r="B4256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4257" t="s">
+        <v>3101</v>
+      </c>
+      <c r="B4257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4258" t="s">
+        <v>3893</v>
+      </c>
+      <c r="B4258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4259" t="s">
+        <v>3894</v>
+      </c>
+      <c r="B4259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4260" t="s">
+        <v>3895</v>
+      </c>
+      <c r="B4260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4261" t="s">
+        <v>3896</v>
+      </c>
+      <c r="B4261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4262" t="s">
+        <v>3115</v>
+      </c>
+      <c r="B4262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4263" t="s">
+        <v>3897</v>
+      </c>
+      <c r="B4263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4264" t="s">
+        <v>3898</v>
+      </c>
+      <c r="B4264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4265" t="s">
+        <v>3899</v>
+      </c>
+      <c r="B4265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4266" t="s">
+        <v>3900</v>
+      </c>
+      <c r="B4266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4267" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B4267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4268" t="s">
+        <v>3901</v>
+      </c>
+      <c r="B4268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4269" t="s">
+        <v>3902</v>
+      </c>
+      <c r="B4269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4270" t="s">
+        <v>3150</v>
+      </c>
+      <c r="B4270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4271" t="s">
+        <v>3903</v>
+      </c>
+      <c r="B4271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4272" t="s">
+        <v>3904</v>
+      </c>
+      <c r="B4272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4273" t="s">
+        <v>3905</v>
+      </c>
+      <c r="B4273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4274" t="s">
+        <v>3906</v>
+      </c>
+      <c r="B4274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4275" t="s">
+        <v>3907</v>
+      </c>
+      <c r="B4275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4276" t="s">
+        <v>3908</v>
+      </c>
+      <c r="B4276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4277" t="s">
+        <v>3909</v>
+      </c>
+      <c r="B4277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4278" t="s">
+        <v>3910</v>
+      </c>
+      <c r="B4278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4279" t="s">
+        <v>3911</v>
+      </c>
+      <c r="B4279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4280" t="s">
+        <v>3912</v>
+      </c>
+      <c r="B4280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4281" t="s">
+        <v>3913</v>
+      </c>
+      <c r="B4281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4282" t="s">
+        <v>3914</v>
+      </c>
+      <c r="B4282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4283" t="s">
+        <v>3915</v>
+      </c>
+      <c r="B4283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4284" t="s">
+        <v>3916</v>
+      </c>
+      <c r="B4284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4285" t="s">
+        <v>3917</v>
+      </c>
+      <c r="B4285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4286" t="s">
+        <v>3918</v>
+      </c>
+      <c r="B4286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4287" t="s">
+        <v>3919</v>
+      </c>
+      <c r="B4287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4288" t="s">
+        <v>3920</v>
+      </c>
+      <c r="B4288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4289" t="s">
+        <v>3921</v>
+      </c>
+      <c r="B4289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4290" t="s">
+        <v>3922</v>
+      </c>
+      <c r="B4290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4291" t="s">
+        <v>3923</v>
+      </c>
+      <c r="B4291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4292" t="s">
+        <v>3924</v>
+      </c>
+      <c r="B4292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4293" t="s">
+        <v>3925</v>
+      </c>
+      <c r="B4293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4294" t="s">
+        <v>3926</v>
+      </c>
+      <c r="B4294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4295" t="s">
+        <v>3927</v>
+      </c>
+      <c r="B4295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4296" t="s">
+        <v>3928</v>
+      </c>
+      <c r="B4296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4297" t="s">
+        <v>3929</v>
+      </c>
+      <c r="B4297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4298" t="s">
+        <v>3930</v>
+      </c>
+      <c r="B4298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4299" t="s">
+        <v>3931</v>
+      </c>
+      <c r="B4299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4300" t="s">
+        <v>3932</v>
+      </c>
+      <c r="B4300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4301" t="s">
+        <v>3933</v>
+      </c>
+      <c r="B4301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4302" t="s">
+        <v>3934</v>
+      </c>
+      <c r="B4302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4303" t="s">
+        <v>3935</v>
+      </c>
+      <c r="B4303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4304" t="s">
+        <v>3936</v>
+      </c>
+      <c r="B4304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4305" t="s">
+        <v>3937</v>
+      </c>
+      <c r="B4305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4306" t="s">
+        <v>3938</v>
+      </c>
+      <c r="B4306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4307" t="s">
+        <v>3939</v>
+      </c>
+      <c r="B4307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4308" t="s">
+        <v>3940</v>
+      </c>
+      <c r="B4308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4309" t="s">
+        <v>3941</v>
+      </c>
+      <c r="B4309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4310" t="s">
+        <v>3942</v>
+      </c>
+      <c r="B4310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4311" t="s">
+        <v>3943</v>
+      </c>
+      <c r="B4311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4312" t="s">
+        <v>3944</v>
+      </c>
+      <c r="B4312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4313" t="s">
+        <v>3945</v>
+      </c>
+      <c r="B4313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4314" t="s">
+        <v>3946</v>
+      </c>
+      <c r="B4314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4315" t="s">
+        <v>3947</v>
+      </c>
+      <c r="B4315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4316" t="s">
+        <v>3948</v>
+      </c>
+      <c r="B4316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4317" t="s">
+        <v>3949</v>
+      </c>
+      <c r="B4317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4318" t="s">
+        <v>3950</v>
+      </c>
+      <c r="B4318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4319" t="s">
+        <v>3951</v>
+      </c>
+      <c r="B4319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4320" t="s">
+        <v>3952</v>
+      </c>
+      <c r="B4320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4321" t="s">
+        <v>3953</v>
+      </c>
+      <c r="B4321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4322" t="s">
+        <v>3954</v>
+      </c>
+      <c r="B4322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4323" t="s">
+        <v>3955</v>
+      </c>
+      <c r="B4323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4324" t="s">
+        <v>3956</v>
+      </c>
+      <c r="B4324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4325" t="s">
+        <v>3957</v>
+      </c>
+      <c r="B4325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4326" t="s">
+        <v>3958</v>
+      </c>
+      <c r="B4326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4327" t="s">
+        <v>3959</v>
+      </c>
+      <c r="B4327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4328" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B4328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4329" t="s">
+        <v>3961</v>
+      </c>
+      <c r="B4329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4330" t="s">
+        <v>3962</v>
+      </c>
+      <c r="B4330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4331" t="s">
+        <v>3963</v>
+      </c>
+      <c r="B4331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4332" t="s">
+        <v>3964</v>
+      </c>
+      <c r="B4332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4333" t="s">
+        <v>3965</v>
+      </c>
+      <c r="B4333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4334" t="s">
+        <v>608</v>
+      </c>
+      <c r="B4334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4335" t="s">
+        <v>3966</v>
+      </c>
+      <c r="B4335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4336" t="s">
+        <v>3967</v>
+      </c>
+      <c r="B4336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4337" t="s">
+        <v>3968</v>
+      </c>
+      <c r="B4337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4338" t="s">
+        <v>3969</v>
+      </c>
+      <c r="B4338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4339" t="s">
+        <v>3970</v>
+      </c>
+      <c r="B4339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4340" t="s">
+        <v>3971</v>
+      </c>
+      <c r="B4340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4341" t="s">
+        <v>3972</v>
+      </c>
+      <c r="B4341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4342" t="s">
+        <v>3973</v>
+      </c>
+      <c r="B4342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4343" t="s">
+        <v>3974</v>
+      </c>
+      <c r="B4343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4344" t="s">
+        <v>3975</v>
+      </c>
+      <c r="B4344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4345" t="s">
+        <v>3976</v>
+      </c>
+      <c r="B4345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4346" t="s">
+        <v>885</v>
+      </c>
+      <c r="B4346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4347" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B4347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4348" t="s">
+        <v>3977</v>
+      </c>
+      <c r="B4348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4349" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B4349">
         <v>0</v>
       </c>
     </row>
